--- a/10_Management/Exam_PMP_TangToc_07032019 - TrungLV.xlsx
+++ b/10_Management/Exam_PMP_TangToc_07032019 - TrungLV.xlsx
@@ -8,38 +8,41 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Working\EBill\10_Management\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{242146B0-40A3-4CE9-8B8A-677B2C492CB7}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A13D8211-5CFE-420E-ACEB-C1302D885BDC}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12000" windowHeight="6405" xr2:uid="{957D22A2-4D54-4148-9DDE-7A2AF7FA87D7}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12000" windowHeight="6405" activeTab="1" xr2:uid="{957D22A2-4D54-4148-9DDE-7A2AF7FA87D7}"/>
   </bookViews>
   <sheets>
     <sheet name="study plan" sheetId="22" r:id="rId1"/>
-    <sheet name="Mock Exam 10" sheetId="27" r:id="rId2"/>
-    <sheet name="Mock Exam 1" sheetId="25" r:id="rId3"/>
-    <sheet name="Planning 4" sheetId="24" r:id="rId4"/>
-    <sheet name="monitoring 3" sheetId="23" r:id="rId5"/>
-    <sheet name="Stakeholder" sheetId="1" r:id="rId6"/>
-    <sheet name="Communication" sheetId="29" r:id="rId7"/>
-    <sheet name="Risk" sheetId="28" r:id="rId8"/>
-    <sheet name="Procurement" sheetId="2" r:id="rId9"/>
-    <sheet name="Closing 1" sheetId="20" r:id="rId10"/>
-    <sheet name="Initiating 1" sheetId="7" r:id="rId11"/>
-    <sheet name="scope" sheetId="10" r:id="rId12"/>
-    <sheet name="Planning5" sheetId="3" r:id="rId13"/>
-    <sheet name="Planning1" sheetId="11" r:id="rId14"/>
-    <sheet name="Planning3" sheetId="16" r:id="rId15"/>
-    <sheet name="Executing1" sheetId="15" r:id="rId16"/>
-    <sheet name="Executing 2" sheetId="17" r:id="rId17"/>
-    <sheet name="Domain-Initiating" sheetId="18" r:id="rId18"/>
-    <sheet name="Domain-Planning" sheetId="12" r:id="rId19"/>
-    <sheet name="Domain-Executing" sheetId="13" r:id="rId20"/>
-    <sheet name="Domain-Monitoring &amp; Controlling" sheetId="14" r:id="rId21"/>
-    <sheet name="Domain-Closing" sheetId="19" r:id="rId22"/>
-    <sheet name="Executing" sheetId="4" r:id="rId23"/>
-    <sheet name="Monitoring" sheetId="5" r:id="rId24"/>
-    <sheet name="Closing" sheetId="6" r:id="rId25"/>
-    <sheet name="Mock" sheetId="8" r:id="rId26"/>
-    <sheet name="Full Test" sheetId="9" r:id="rId27"/>
+    <sheet name="Closing 4" sheetId="32" r:id="rId2"/>
+    <sheet name="quality" sheetId="31" r:id="rId3"/>
+    <sheet name="Resource" sheetId="30" r:id="rId4"/>
+    <sheet name="Mock Exam 10" sheetId="27" r:id="rId5"/>
+    <sheet name="Mock Exam 1" sheetId="25" r:id="rId6"/>
+    <sheet name="Planning 4" sheetId="24" r:id="rId7"/>
+    <sheet name="monitoring 3" sheetId="23" r:id="rId8"/>
+    <sheet name="Stakeholder" sheetId="1" r:id="rId9"/>
+    <sheet name="Communication" sheetId="29" r:id="rId10"/>
+    <sheet name="Risk" sheetId="28" r:id="rId11"/>
+    <sheet name="Procurement" sheetId="2" r:id="rId12"/>
+    <sheet name="Closing 1" sheetId="20" r:id="rId13"/>
+    <sheet name="Initiating 1" sheetId="7" r:id="rId14"/>
+    <sheet name="scope" sheetId="10" r:id="rId15"/>
+    <sheet name="Planning5" sheetId="3" r:id="rId16"/>
+    <sheet name="Planning1" sheetId="11" r:id="rId17"/>
+    <sheet name="Planning3" sheetId="16" r:id="rId18"/>
+    <sheet name="Executing1" sheetId="15" r:id="rId19"/>
+    <sheet name="Executing 2" sheetId="17" r:id="rId20"/>
+    <sheet name="Domain-Initiating" sheetId="18" r:id="rId21"/>
+    <sheet name="Domain-Planning" sheetId="12" r:id="rId22"/>
+    <sheet name="Domain-Executing" sheetId="13" r:id="rId23"/>
+    <sheet name="Domain-Monitoring &amp; Controlling" sheetId="14" r:id="rId24"/>
+    <sheet name="Domain-Closing" sheetId="19" r:id="rId25"/>
+    <sheet name="Executing" sheetId="4" r:id="rId26"/>
+    <sheet name="Monitoring" sheetId="5" r:id="rId27"/>
+    <sheet name="Closing" sheetId="6" r:id="rId28"/>
+    <sheet name="Mock" sheetId="8" r:id="rId29"/>
+    <sheet name="Full Test" sheetId="9" r:id="rId30"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -80,7 +83,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1038" uniqueCount="559">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1084" uniqueCount="576">
   <si>
     <t>No</t>
   </si>
@@ -1882,6 +1885,57 @@
   </si>
   <si>
     <t xml:space="preserve">Đọc lại phần Project Managemment Information System page 95 </t>
+  </si>
+  <si>
+    <t>Đánh giá hiệu suất của team (performance appraisal during the manage team process). Nhớ SPI = ES/AT hoặc ES-AT</t>
+  </si>
+  <si>
+    <t>Note: việc đánh giá performance team ở process manage team</t>
+  </si>
+  <si>
+    <t>Note: Rewards and recognition là tool của phần develop team process chứ không phải plan resource manage process</t>
+  </si>
+  <si>
+    <t>Note: Lesson learn on organization structures là important input của plan resource management process nhưng nó là thuộc OPA chứ không phải EEF</t>
+  </si>
+  <si>
+    <t>Việc liên quan tới virtual team thì vấn đề communication planning trở nên quan trọng trong môi trường này</t>
+  </si>
+  <si>
+    <t>process acquire resources</t>
+  </si>
+  <si>
+    <t>plan resource management</t>
+  </si>
+  <si>
+    <t>resource management plan là 1 phần của plan project management. Cung cấp cho guidance on how categorized, allocate, manage, release. Có thể bao gồm: identification resource, acquiresoure, project organization chart, project team resouce management, training</t>
+  </si>
+  <si>
+    <t>note: resource histogram là tool cho charting human resource. Nhớ phân biệt resource leveling và resource smoothing. Resource leveling là kỹ thuật điều chỉnh schedule. Share và allocate resource hợp lý để không bị over load activity, kỹ thuật này sẽ optimize được all resources. Còn smoothing là kỹ thuật không thay đổi critical path, các activities có thể delay trong total float</t>
+  </si>
+  <si>
+    <t>conflict management là tool trong manage team process</t>
+  </si>
+  <si>
+    <t>ishikawa diagram là cause and effect diagram để tìm root -cause</t>
+  </si>
+  <si>
+    <t>Control chart mục đích để theo dõi sự ổn định của hiệu suất, cho thấy sự stability của một process</t>
+  </si>
+  <si>
+    <t>note: process acquire resource chỉ thực hiện khi cần còn monitor risk, monitor communication, monitor stakholder engagement thì cần phải định kỳ</t>
+  </si>
+  <si>
+    <t>Note: dạng câu yêu cầu input cho process quality planning nên chú ý tới các yếu tố nằm trong EEF hoặc OPA</t>
+  </si>
+  <si>
+    <t>Tìm hiểu design of experiments (thiết kế các thí nghiệm)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kickoff meetings in project planning. Quality management activities không là 1 phần của procurement closure. </t>
+  </si>
+  <si>
+    <t>process procurement management</t>
   </si>
 </sst>
 </file>
@@ -1991,7 +2045,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2031,6 +2085,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2255,7 +2315,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="108">
+  <cellXfs count="113">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2453,9 +2513,6 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -2514,6 +2571,13 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="13" fillId="6" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="13" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -2540,9 +2604,20 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="14" fontId="13" fillId="8" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="8" fillId="8" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2865,8 +2940,8 @@
   </sheetPr>
   <dimension ref="A1:Z1003"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -2892,7 +2967,7 @@
         <v>394</v>
       </c>
       <c r="F1" s="55"/>
-      <c r="G1" s="106" t="s">
+      <c r="G1" s="96" t="s">
         <v>467</v>
       </c>
       <c r="H1" s="56" t="s">
@@ -2918,7 +2993,7 @@
       <c r="Z1" s="56"/>
     </row>
     <row r="2" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A2" s="107" t="s">
+      <c r="A2" s="97" t="s">
         <v>355</v>
       </c>
       <c r="B2" s="61">
@@ -2930,7 +3005,7 @@
       </c>
       <c r="E2" s="63"/>
       <c r="F2" s="55"/>
-      <c r="G2" s="106" t="s">
+      <c r="G2" s="96" t="s">
         <v>468</v>
       </c>
       <c r="H2" s="56" t="s">
@@ -2956,7 +3031,7 @@
       <c r="Z2" s="56"/>
     </row>
     <row r="3" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A3" s="107" t="s">
+      <c r="A3" s="97" t="s">
         <v>356</v>
       </c>
       <c r="B3" s="61">
@@ -2968,7 +3043,7 @@
       </c>
       <c r="E3" s="63"/>
       <c r="F3" s="55"/>
-      <c r="G3" s="106" t="s">
+      <c r="G3" s="96" t="s">
         <v>469</v>
       </c>
       <c r="H3" s="56" t="s">
@@ -3006,7 +3081,7 @@
       </c>
       <c r="E4" s="63"/>
       <c r="F4" s="55"/>
-      <c r="G4" s="106" t="s">
+      <c r="G4" s="96" t="s">
         <v>470</v>
       </c>
       <c r="H4" s="56" t="s">
@@ -3044,10 +3119,12 @@
       </c>
       <c r="E5" s="63"/>
       <c r="F5" s="55"/>
-      <c r="G5" s="56" t="s">
+      <c r="G5" s="96" t="s">
         <v>471</v>
       </c>
-      <c r="H5" s="56"/>
+      <c r="H5" s="56" t="s">
+        <v>557</v>
+      </c>
       <c r="I5" s="56"/>
       <c r="J5" s="56"/>
       <c r="K5" s="56"/>
@@ -3081,10 +3158,12 @@
       </c>
       <c r="E6" s="63"/>
       <c r="F6" s="55"/>
-      <c r="G6" s="56" t="s">
+      <c r="G6" s="96" t="s">
         <v>472</v>
       </c>
-      <c r="H6" s="56"/>
+      <c r="H6" s="56" t="s">
+        <v>557</v>
+      </c>
       <c r="I6" s="56"/>
       <c r="J6" s="56"/>
       <c r="K6" s="56"/>
@@ -3346,20 +3425,20 @@
       <c r="Z12" s="56"/>
     </row>
     <row r="13" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A13" s="87" t="s">
+      <c r="A13" s="86" t="s">
         <v>396</v>
       </c>
-      <c r="B13" s="89">
+      <c r="B13" s="88">
         <v>43455</v>
       </c>
-      <c r="C13" s="89" t="str">
+      <c r="C13" s="88" t="str">
         <f>IF(WEEKDAY(B13,1)=1,"Monday","Thứ "&amp;WEEKDAY(B13,1))</f>
         <v>Thứ 6</v>
       </c>
-      <c r="D13" s="76">
+      <c r="D13" s="75">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="E13" s="77" t="s">
+      <c r="E13" s="76" t="s">
         <v>395</v>
       </c>
       <c r="F13" s="55"/>
@@ -3389,20 +3468,20 @@
       <c r="Z13" s="56"/>
     </row>
     <row r="14" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A14" s="90" t="s">
+      <c r="A14" s="89" t="s">
         <v>397</v>
       </c>
-      <c r="B14" s="91">
+      <c r="B14" s="90">
         <v>43455</v>
       </c>
-      <c r="C14" s="91" t="str">
+      <c r="C14" s="90" t="str">
         <f t="shared" ref="C14:C15" si="1">IF(WEEKDAY(B14,1)=1,"Chủ nhật","Thứ "&amp;WEEKDAY(B14,1))</f>
         <v>Thứ 6</v>
       </c>
-      <c r="D14" s="92">
+      <c r="D14" s="91">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="E14" s="93" t="s">
+      <c r="E14" s="92" t="s">
         <v>395</v>
       </c>
       <c r="F14" s="55"/>
@@ -3430,21 +3509,21 @@
       <c r="Z14" s="56"/>
     </row>
     <row r="15" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A15" s="87" t="s">
+      <c r="A15" s="86" t="s">
         <v>372</v>
       </c>
-      <c r="B15" s="98">
+      <c r="B15" s="100">
         <f>B14+1</f>
         <v>43456</v>
       </c>
-      <c r="C15" s="98" t="str">
+      <c r="C15" s="100" t="str">
         <f t="shared" si="1"/>
         <v>Thứ 7</v>
       </c>
-      <c r="D15" s="76">
+      <c r="D15" s="75">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="E15" s="77" t="s">
+      <c r="E15" s="76" t="s">
         <v>395</v>
       </c>
       <c r="F15" s="55"/>
@@ -3472,15 +3551,15 @@
       <c r="Z15" s="56"/>
     </row>
     <row r="16" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A16" s="87" t="s">
+      <c r="A16" s="86" t="s">
         <v>360</v>
       </c>
-      <c r="B16" s="99"/>
-      <c r="C16" s="99"/>
-      <c r="D16" s="76">
+      <c r="B16" s="101"/>
+      <c r="C16" s="101"/>
+      <c r="D16" s="75">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="E16" s="77" t="s">
+      <c r="E16" s="76" t="s">
         <v>395</v>
       </c>
       <c r="F16" s="55"/>
@@ -3510,15 +3589,15 @@
       <c r="Z16" s="56"/>
     </row>
     <row r="17" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A17" s="87" t="s">
+      <c r="A17" s="86" t="s">
         <v>361</v>
       </c>
-      <c r="B17" s="99"/>
-      <c r="C17" s="99"/>
-      <c r="D17" s="76">
+      <c r="B17" s="101"/>
+      <c r="C17" s="101"/>
+      <c r="D17" s="75">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="E17" s="77" t="s">
+      <c r="E17" s="76" t="s">
         <v>395</v>
       </c>
       <c r="F17" s="55"/>
@@ -3546,21 +3625,21 @@
       <c r="Z17" s="56"/>
     </row>
     <row r="18" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A18" s="87" t="s">
+      <c r="A18" s="86" t="s">
         <v>398</v>
       </c>
-      <c r="B18" s="75">
+      <c r="B18" s="74">
         <f>B13 + 2</f>
         <v>43457</v>
       </c>
-      <c r="C18" s="75" t="str">
+      <c r="C18" s="74" t="str">
         <f t="shared" ref="C18:C20" si="2">IF(WEEKDAY(B18,1)=1,"Chủ nhật","Thứ "&amp;WEEKDAY(B18,1))</f>
         <v>Chủ nhật</v>
       </c>
-      <c r="D18" s="76">
+      <c r="D18" s="75">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="E18" s="77" t="s">
+      <c r="E18" s="76" t="s">
         <v>395</v>
       </c>
       <c r="F18" s="55"/>
@@ -3588,21 +3667,21 @@
       <c r="Z18" s="56"/>
     </row>
     <row r="19" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A19" s="87" t="s">
+      <c r="A19" s="86" t="s">
         <v>399</v>
       </c>
-      <c r="B19" s="75">
+      <c r="B19" s="74">
         <f>B14 + 2</f>
         <v>43457</v>
       </c>
-      <c r="C19" s="75" t="str">
+      <c r="C19" s="74" t="str">
         <f t="shared" si="2"/>
         <v>Chủ nhật</v>
       </c>
-      <c r="D19" s="76">
+      <c r="D19" s="75">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="E19" s="77" t="s">
+      <c r="E19" s="76" t="s">
         <v>395</v>
       </c>
       <c r="F19" s="55"/>
@@ -3630,21 +3709,21 @@
       <c r="Z19" s="56"/>
     </row>
     <row r="20" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A20" s="72" t="s">
+      <c r="A20" s="86" t="s">
         <v>373</v>
       </c>
-      <c r="B20" s="96">
+      <c r="B20" s="100">
         <f>B19+1</f>
         <v>43458</v>
       </c>
-      <c r="C20" s="96" t="str">
+      <c r="C20" s="100" t="str">
         <f t="shared" si="2"/>
         <v>Thứ 2</v>
       </c>
-      <c r="D20" s="69">
+      <c r="D20" s="75">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="E20" s="71"/>
+      <c r="E20" s="76"/>
       <c r="F20" s="55"/>
       <c r="G20" s="56" t="s">
         <v>482</v>
@@ -3670,15 +3749,15 @@
       <c r="Z20" s="56"/>
     </row>
     <row r="21" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A21" s="73" t="s">
+      <c r="A21" s="86" t="s">
         <v>362</v>
       </c>
-      <c r="B21" s="97"/>
-      <c r="C21" s="97"/>
-      <c r="D21" s="69">
+      <c r="B21" s="101"/>
+      <c r="C21" s="101"/>
+      <c r="D21" s="75">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="E21" s="71"/>
+      <c r="E21" s="76"/>
       <c r="F21" s="55"/>
       <c r="G21" s="56" t="s">
         <v>483</v>
@@ -3704,20 +3783,22 @@
       <c r="Z21" s="56"/>
     </row>
     <row r="22" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A22" s="72" t="s">
+      <c r="A22" s="86" t="s">
         <v>363</v>
       </c>
-      <c r="B22" s="97"/>
-      <c r="C22" s="97"/>
-      <c r="D22" s="69">
+      <c r="B22" s="101"/>
+      <c r="C22" s="101"/>
+      <c r="D22" s="75">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="E22" s="71"/>
+      <c r="E22" s="76"/>
       <c r="F22" s="55"/>
       <c r="G22" s="56" t="s">
         <v>484</v>
       </c>
-      <c r="H22" s="56"/>
+      <c r="H22" s="56" t="s">
+        <v>557</v>
+      </c>
       <c r="I22" s="56"/>
       <c r="J22" s="56"/>
       <c r="K22" s="56"/>
@@ -3738,21 +3819,21 @@
       <c r="Z22" s="56"/>
     </row>
     <row r="23" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A23" s="72" t="s">
+      <c r="A23" s="86" t="s">
         <v>400</v>
       </c>
-      <c r="B23" s="68">
+      <c r="B23" s="95">
         <f>B20 + 1</f>
         <v>43459</v>
       </c>
-      <c r="C23" s="68" t="str">
+      <c r="C23" s="95" t="str">
         <f t="shared" ref="C23:C25" si="3">IF(WEEKDAY(B23,1)=1,"Chủ nhật","Thứ "&amp;WEEKDAY(B23,1))</f>
         <v>Thứ 3</v>
       </c>
-      <c r="D23" s="69">
+      <c r="D23" s="75">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="E23" s="71"/>
+      <c r="E23" s="76"/>
       <c r="F23" s="55"/>
       <c r="G23" s="56" t="s">
         <v>485</v>
@@ -3778,21 +3859,21 @@
       <c r="Z23" s="56"/>
     </row>
     <row r="24" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A24" s="73" t="s">
+      <c r="A24" s="86" t="s">
         <v>401</v>
       </c>
-      <c r="B24" s="68">
+      <c r="B24" s="95">
         <f>B20 + 1</f>
         <v>43459</v>
       </c>
-      <c r="C24" s="68" t="str">
+      <c r="C24" s="95" t="str">
         <f t="shared" si="3"/>
         <v>Thứ 3</v>
       </c>
-      <c r="D24" s="69">
+      <c r="D24" s="75">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="E24" s="71"/>
+      <c r="E24" s="76"/>
       <c r="F24" s="55"/>
       <c r="G24" s="56" t="s">
         <v>486</v>
@@ -3818,21 +3899,21 @@
       <c r="Z24" s="56"/>
     </row>
     <row r="25" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A25" s="72" t="s">
+      <c r="A25" s="86" t="s">
         <v>374</v>
       </c>
-      <c r="B25" s="96">
+      <c r="B25" s="100">
         <f>B24+1</f>
         <v>43460</v>
       </c>
-      <c r="C25" s="96" t="str">
+      <c r="C25" s="100" t="str">
         <f t="shared" si="3"/>
         <v>Thứ 4</v>
       </c>
-      <c r="D25" s="69">
+      <c r="D25" s="75">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="E25" s="71"/>
+      <c r="E25" s="76"/>
       <c r="F25" s="55"/>
       <c r="G25" s="56" t="s">
         <v>487</v>
@@ -3858,15 +3939,15 @@
       <c r="Z25" s="56"/>
     </row>
     <row r="26" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A26" s="72" t="s">
+      <c r="A26" s="86" t="s">
         <v>364</v>
       </c>
-      <c r="B26" s="97"/>
-      <c r="C26" s="97"/>
-      <c r="D26" s="69">
+      <c r="B26" s="101"/>
+      <c r="C26" s="101"/>
+      <c r="D26" s="75">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="E26" s="71"/>
+      <c r="E26" s="76"/>
       <c r="F26" s="55"/>
       <c r="G26" s="56" t="s">
         <v>488</v>
@@ -3892,15 +3973,15 @@
       <c r="Z26" s="56"/>
     </row>
     <row r="27" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A27" s="72" t="s">
+      <c r="A27" s="112" t="s">
         <v>365</v>
       </c>
-      <c r="B27" s="97"/>
-      <c r="C27" s="97"/>
-      <c r="D27" s="69">
+      <c r="B27" s="101"/>
+      <c r="C27" s="101"/>
+      <c r="D27" s="75">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="E27" s="71"/>
+      <c r="E27" s="76"/>
       <c r="F27" s="55"/>
       <c r="G27" s="56" t="s">
         <v>489</v>
@@ -4006,21 +4087,21 @@
       <c r="Z29" s="56"/>
     </row>
     <row r="30" spans="1:26" ht="14.25">
-      <c r="A30" s="72" t="s">
+      <c r="A30" s="108" t="s">
         <v>375</v>
       </c>
-      <c r="B30" s="68">
+      <c r="B30" s="109">
         <f>B28 + 1</f>
         <v>43462</v>
       </c>
-      <c r="C30" s="68" t="str">
+      <c r="C30" s="109" t="str">
         <f t="shared" ref="C30" si="5">IF(WEEKDAY(B30,1)=1,"Chủ nhật","Thứ "&amp;WEEKDAY(B30,1))</f>
         <v>Thứ 6</v>
       </c>
-      <c r="D30" s="69">
+      <c r="D30" s="110">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="E30" s="71"/>
+      <c r="E30" s="111"/>
       <c r="F30" s="55"/>
       <c r="G30" s="56" t="s">
         <v>492</v>
@@ -4046,21 +4127,21 @@
       <c r="Z30" s="56"/>
     </row>
     <row r="31" spans="1:26" ht="14.25">
-      <c r="A31" s="72" t="s">
+      <c r="A31" s="108" t="s">
         <v>366</v>
       </c>
-      <c r="B31" s="68">
+      <c r="B31" s="109">
         <f>B29 + 1</f>
         <v>43462</v>
       </c>
-      <c r="C31" s="68" t="str">
+      <c r="C31" s="109" t="str">
         <f>IF(WEEKDAY(B31,1)=1,"Chủ nhật","Thứ "&amp;WEEKDAY(B31,1))</f>
         <v>Thứ 6</v>
       </c>
-      <c r="D31" s="69">
+      <c r="D31" s="110">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="E31" s="71"/>
+      <c r="E31" s="111"/>
       <c r="F31" s="55"/>
       <c r="G31" s="56" t="s">
         <v>493</v>
@@ -4089,11 +4170,11 @@
       <c r="A32" s="72" t="s">
         <v>367</v>
       </c>
-      <c r="B32" s="96">
+      <c r="B32" s="98">
         <f>B31+1</f>
         <v>43463</v>
       </c>
-      <c r="C32" s="96" t="str">
+      <c r="C32" s="98" t="str">
         <f t="shared" si="4"/>
         <v>Thứ 7</v>
       </c>
@@ -4129,8 +4210,8 @@
       <c r="A33" s="72" t="s">
         <v>404</v>
       </c>
-      <c r="B33" s="97"/>
-      <c r="C33" s="97"/>
+      <c r="B33" s="99"/>
+      <c r="C33" s="99"/>
       <c r="D33" s="69">
         <v>4.1666666666666664E-2</v>
       </c>
@@ -4163,8 +4244,8 @@
       <c r="A34" s="72" t="s">
         <v>405</v>
       </c>
-      <c r="B34" s="97"/>
-      <c r="C34" s="97"/>
+      <c r="B34" s="99"/>
+      <c r="C34" s="99"/>
       <c r="D34" s="69">
         <v>4.1666666666666664E-2</v>
       </c>
@@ -4279,11 +4360,11 @@
       <c r="A37" s="72" t="s">
         <v>369</v>
       </c>
-      <c r="B37" s="96">
+      <c r="B37" s="98">
         <f>B36+1</f>
         <v>43465</v>
       </c>
-      <c r="C37" s="96" t="str">
+      <c r="C37" s="98" t="str">
         <f t="shared" si="6"/>
         <v>Thứ 2</v>
       </c>
@@ -4321,8 +4402,8 @@
       <c r="A38" s="72" t="s">
         <v>406</v>
       </c>
-      <c r="B38" s="97"/>
-      <c r="C38" s="97"/>
+      <c r="B38" s="99"/>
+      <c r="C38" s="99"/>
       <c r="D38" s="69">
         <v>4.1666666666666664E-2</v>
       </c>
@@ -4351,8 +4432,8 @@
       <c r="A39" s="72" t="s">
         <v>407</v>
       </c>
-      <c r="B39" s="97"/>
-      <c r="C39" s="97"/>
+      <c r="B39" s="99"/>
+      <c r="C39" s="99"/>
       <c r="D39" s="69">
         <v>4.1666666666666664E-2</v>
       </c>
@@ -4453,11 +4534,11 @@
       <c r="A42" s="72" t="s">
         <v>371</v>
       </c>
-      <c r="B42" s="96">
+      <c r="B42" s="98">
         <f>B36+3</f>
         <v>43467</v>
       </c>
-      <c r="C42" s="96" t="str">
+      <c r="C42" s="98" t="str">
         <f t="shared" si="7"/>
         <v>Thứ 4</v>
       </c>
@@ -4489,8 +4570,8 @@
       <c r="A43" s="72" t="s">
         <v>408</v>
       </c>
-      <c r="B43" s="97"/>
-      <c r="C43" s="97"/>
+      <c r="B43" s="99"/>
+      <c r="C43" s="99"/>
       <c r="D43" s="69">
         <v>4.1666666666666664E-2</v>
       </c>
@@ -4519,8 +4600,8 @@
       <c r="A44" s="72" t="s">
         <v>409</v>
       </c>
-      <c r="B44" s="97"/>
-      <c r="C44" s="97"/>
+      <c r="B44" s="99"/>
+      <c r="C44" s="99"/>
       <c r="D44" s="69">
         <v>4.1666666666666664E-2</v>
       </c>
@@ -4738,21 +4819,21 @@
       <c r="Z49" s="56"/>
     </row>
     <row r="50" spans="1:26" ht="14.25">
-      <c r="A50" s="90" t="s">
+      <c r="A50" s="89" t="s">
         <v>381</v>
       </c>
-      <c r="B50" s="91">
+      <c r="B50" s="90">
         <f>B46 +2</f>
         <v>43470</v>
       </c>
-      <c r="C50" s="91" t="str">
+      <c r="C50" s="90" t="str">
         <f t="shared" si="8"/>
         <v>Thứ 7</v>
       </c>
-      <c r="D50" s="92">
+      <c r="D50" s="91">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="E50" s="93" t="s">
+      <c r="E50" s="92" t="s">
         <v>395</v>
       </c>
       <c r="F50" s="55"/>
@@ -31623,18 +31704,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="B20:B22"/>
+    <mergeCell ref="C20:C22"/>
+    <mergeCell ref="B25:B27"/>
+    <mergeCell ref="C25:C27"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="C15:C17"/>
     <mergeCell ref="B42:B44"/>
     <mergeCell ref="C42:C44"/>
     <mergeCell ref="B32:B34"/>
     <mergeCell ref="C32:C34"/>
     <mergeCell ref="B37:B39"/>
     <mergeCell ref="C37:C39"/>
-    <mergeCell ref="B20:B22"/>
-    <mergeCell ref="C20:C22"/>
-    <mergeCell ref="B25:B27"/>
-    <mergeCell ref="C25:C27"/>
-    <mergeCell ref="B15:B17"/>
-    <mergeCell ref="C15:C17"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E66" xr:uid="{D8B43D4D-3767-4D7F-B59B-D7BBE30CC025}">
@@ -31653,6 +31734,9 @@
     <hyperlink ref="G2" location="Procurement!A1" display="Procurement " xr:uid="{52604B36-86C4-4EC0-B4A9-D56F02D4AD90}"/>
     <hyperlink ref="G3" location="Risk!A1" display="Risk" xr:uid="{91973E7C-D80F-4067-B8CF-DE92CFA9D841}"/>
     <hyperlink ref="G4" location="Communication!A1" display="Communication " xr:uid="{7E908CBC-E9B4-484D-88A1-C4A9C4E05111}"/>
+    <hyperlink ref="G5" location="Resource!A1" display="Resource" xr:uid="{7C1177CA-71E5-4A5F-A393-A901227ACEBE}"/>
+    <hyperlink ref="G6" location="quality!A1" display="Quality" xr:uid="{1FF67158-07EF-48CF-8D69-701F2701965D}"/>
+    <hyperlink ref="A27" location="'Closing 4'!A1" display="Closing 4 - 10" xr:uid="{67EA7C0F-83D6-44C7-BCCC-00B7DE7F9ED3}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -31661,6 +31745,446 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C34A5403-C026-4AEF-975E-5986F7A3547D}">
+  <dimension ref="A1:E11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="77"/>
+    <col min="2" max="2" width="21.42578125" style="77" customWidth="1"/>
+    <col min="3" max="3" width="15.85546875" style="77" customWidth="1"/>
+    <col min="4" max="4" width="14.42578125" style="77" customWidth="1"/>
+    <col min="5" max="5" width="29.5703125" style="77" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="77"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="26.25">
+      <c r="A1" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="26" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="27">
+        <v>1</v>
+      </c>
+      <c r="B2" s="27"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="27">
+        <v>2</v>
+      </c>
+      <c r="B3" s="27"/>
+      <c r="C3" s="27"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="27" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="27">
+        <v>3</v>
+      </c>
+      <c r="B4" s="27"/>
+      <c r="C4" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="27"/>
+      <c r="E4" s="27" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="27">
+        <v>4</v>
+      </c>
+      <c r="B5" s="27"/>
+      <c r="C5" s="27"/>
+      <c r="D5" s="27"/>
+      <c r="E5" s="27"/>
+    </row>
+    <row r="6" spans="1:5" ht="45">
+      <c r="A6" s="27">
+        <v>5</v>
+      </c>
+      <c r="B6" s="27"/>
+      <c r="C6" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" s="27"/>
+      <c r="E6" s="4" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="27">
+        <v>6</v>
+      </c>
+      <c r="B7" s="27"/>
+      <c r="C7" s="27"/>
+      <c r="D7" s="27"/>
+      <c r="E7" s="27"/>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="27">
+        <v>7</v>
+      </c>
+      <c r="B8" s="4"/>
+      <c r="C8" s="27"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="27">
+        <v>8</v>
+      </c>
+      <c r="B9" s="27"/>
+      <c r="C9" s="27"/>
+      <c r="D9" s="27"/>
+      <c r="E9" s="27"/>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="27">
+        <v>9</v>
+      </c>
+      <c r="B10" s="27"/>
+      <c r="C10" s="27"/>
+      <c r="D10" s="27"/>
+      <c r="E10" s="27"/>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="27">
+        <v>10</v>
+      </c>
+      <c r="B11" s="27"/>
+      <c r="C11" s="27"/>
+      <c r="D11" s="27"/>
+      <c r="E11" s="27"/>
+    </row>
+  </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C11" xr:uid="{760B9D35-255F-4AB0-B014-6EF0D737344F}">
+      <formula1>"English,Knowledge Gaps,Emotion,Techniques"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9696DCF4-14CB-44B7-90D8-B8204394C5DB}">
+  <dimension ref="A1:E11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="77"/>
+    <col min="2" max="2" width="21.42578125" style="77" customWidth="1"/>
+    <col min="3" max="3" width="15.85546875" style="77" customWidth="1"/>
+    <col min="4" max="4" width="14.42578125" style="77" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="77" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="77"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="26.25">
+      <c r="A1" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="26" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="27">
+        <v>1</v>
+      </c>
+      <c r="B2" s="27"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="27">
+        <v>2</v>
+      </c>
+      <c r="B3" s="27"/>
+      <c r="C3" s="27"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="27"/>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="27">
+        <v>3</v>
+      </c>
+      <c r="B4" s="27"/>
+      <c r="C4" s="27"/>
+      <c r="D4" s="27"/>
+      <c r="E4" s="27"/>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="27">
+        <v>4</v>
+      </c>
+      <c r="B5" s="27"/>
+      <c r="C5" s="27"/>
+      <c r="D5" s="27"/>
+      <c r="E5" s="27"/>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="27">
+        <v>5</v>
+      </c>
+      <c r="B6" s="27"/>
+      <c r="C6" s="27"/>
+      <c r="D6" s="27"/>
+      <c r="E6" s="4"/>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="27">
+        <v>6</v>
+      </c>
+      <c r="B7" s="27"/>
+      <c r="C7" s="27"/>
+      <c r="D7" s="27"/>
+      <c r="E7" s="27"/>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="27">
+        <v>7</v>
+      </c>
+      <c r="B8" s="4"/>
+      <c r="C8" s="27"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="27">
+        <v>8</v>
+      </c>
+      <c r="B9" s="27"/>
+      <c r="C9" s="27"/>
+      <c r="D9" s="27"/>
+      <c r="E9" s="27"/>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="27">
+        <v>9</v>
+      </c>
+      <c r="B10" s="27"/>
+      <c r="C10" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10" s="27" t="s">
+        <v>553</v>
+      </c>
+      <c r="E10" s="27"/>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="27">
+        <v>10</v>
+      </c>
+      <c r="B11" s="27"/>
+      <c r="C11" s="27"/>
+      <c r="D11" s="27"/>
+      <c r="E11" s="27"/>
+    </row>
+  </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C11" xr:uid="{56231C2C-0780-4AB3-9912-4A6766B69C4F}">
+      <formula1>"English,Knowledge Gaps,Emotion,Techniques"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3370A11-AD88-47EC-B564-C7B459D1B3C6}">
+  <sheetPr codeName="Sheet2"/>
+  <dimension ref="A1:E11"/>
+  <sheetViews>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="21.42578125" customWidth="1"/>
+    <col min="3" max="3" width="15.85546875" customWidth="1"/>
+    <col min="4" max="4" width="14.42578125" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="26.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="3">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="3">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+    </row>
+    <row r="6" spans="1:5" ht="135">
+      <c r="A6" s="3">
+        <v>5</v>
+      </c>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="3">
+        <v>6</v>
+      </c>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+    </row>
+    <row r="8" spans="1:5" ht="195">
+      <c r="A8" s="3">
+        <v>7</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="3">
+        <v>8</v>
+      </c>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="3">
+        <v>9</v>
+      </c>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="3">
+        <v>10</v>
+      </c>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+    </row>
+  </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C11" xr:uid="{DAABEB65-4F8D-4730-83A8-534833752215}">
+      <formula1>"English,Knowledge Gaps,Emotion,Techniques"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B3E9025-2166-405B-928B-811F653123F3}">
   <sheetPr codeName="Sheet20"/>
   <dimension ref="A1:F26"/>
@@ -32001,7 +32525,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D67830A5-61CE-4324-A223-E0E1F9224A73}">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:G26"/>
@@ -32394,7 +32918,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14F5D74C-E5D9-45C3-98E4-07977C9F0161}">
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1"/>
@@ -32415,7 +32939,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C982353-CA8A-4388-8859-7413C89A9E50}">
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:E26"/>
@@ -32758,7 +33282,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB3E4B6E-32AB-4F9F-9656-4C5398F92691}">
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:L52"/>
@@ -33737,7 +34261,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAAC2793-45B1-4029-830E-35CE2386D9D1}">
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:J51"/>
@@ -34776,7 +35300,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0762741B-203C-43CC-95E6-55D0B96E24E3}">
   <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:F51"/>
@@ -35480,7 +36004,149 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DDFCA0E-15B1-4FCC-89C5-A148D6AA017A}">
+  <dimension ref="A1:F11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="77"/>
+    <col min="2" max="2" width="21.42578125" style="77" customWidth="1"/>
+    <col min="3" max="3" width="15.85546875" style="77" customWidth="1"/>
+    <col min="4" max="4" width="40.5703125" style="77" customWidth="1"/>
+    <col min="5" max="5" width="45.85546875" style="77" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="77"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="26.25">
+      <c r="A1" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="26" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="27">
+        <v>1</v>
+      </c>
+      <c r="B2" s="27"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="27">
+        <v>2</v>
+      </c>
+      <c r="B3" s="27"/>
+      <c r="C3" s="27"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="27"/>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="27">
+        <v>3</v>
+      </c>
+      <c r="B4" s="27"/>
+      <c r="C4" s="27"/>
+      <c r="D4" s="27"/>
+      <c r="E4" s="27"/>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="27">
+        <v>4</v>
+      </c>
+      <c r="B5" s="27"/>
+      <c r="C5" s="27"/>
+      <c r="D5" s="27"/>
+      <c r="E5" s="27"/>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="27">
+        <v>5</v>
+      </c>
+      <c r="B6" s="27"/>
+      <c r="C6" s="27"/>
+      <c r="D6" s="27"/>
+      <c r="E6" s="4"/>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="27">
+        <v>6</v>
+      </c>
+      <c r="B7" s="27"/>
+      <c r="C7" s="27"/>
+      <c r="D7" s="27"/>
+      <c r="E7" s="27"/>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="27">
+        <v>7</v>
+      </c>
+      <c r="B8" s="4"/>
+      <c r="C8" s="27"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="27">
+        <v>8</v>
+      </c>
+      <c r="B9" s="27"/>
+      <c r="C9" s="27"/>
+      <c r="D9" s="27"/>
+      <c r="E9" s="27"/>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="27">
+        <v>9</v>
+      </c>
+      <c r="B10" s="27"/>
+      <c r="C10" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10" s="27"/>
+      <c r="E10" s="27"/>
+      <c r="F10" s="77" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="27">
+        <v>10</v>
+      </c>
+      <c r="B11" s="27"/>
+      <c r="C11" s="27"/>
+      <c r="D11" s="27" t="s">
+        <v>574</v>
+      </c>
+      <c r="E11" s="27"/>
+    </row>
+  </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C11" xr:uid="{A2E9C856-6522-46C2-A0F4-53E57988B2B8}">
+      <formula1>"English,Knowledge Gaps,Emotion,Techniques"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66FFD739-AF93-4AA7-A2F1-3E80882A8922}">
   <sheetPr codeName="Sheet9"/>
   <dimension ref="A1:F51"/>
@@ -36179,7 +36845,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{475F131D-CBCC-4B8F-BDF4-B1E2E34C7098}">
   <sheetPr codeName="Sheet10"/>
   <dimension ref="A1:K9"/>
@@ -36194,152 +36860,152 @@
       <c r="A1" s="9" t="s">
         <v>126</v>
       </c>
-      <c r="B1" s="100" t="s">
+      <c r="B1" s="102" t="s">
         <v>215</v>
       </c>
-      <c r="C1" s="101"/>
-      <c r="D1" s="101"/>
-      <c r="E1" s="101"/>
-      <c r="F1" s="101"/>
-      <c r="G1" s="101"/>
-      <c r="H1" s="101"/>
-      <c r="I1" s="101"/>
-      <c r="J1" s="101"/>
-      <c r="K1" s="102"/>
+      <c r="C1" s="103"/>
+      <c r="D1" s="103"/>
+      <c r="E1" s="103"/>
+      <c r="F1" s="103"/>
+      <c r="G1" s="103"/>
+      <c r="H1" s="103"/>
+      <c r="I1" s="103"/>
+      <c r="J1" s="103"/>
+      <c r="K1" s="104"/>
     </row>
     <row r="2" spans="1:11" ht="45" customHeight="1" thickBot="1">
       <c r="A2" s="10" t="s">
         <v>128</v>
       </c>
-      <c r="B2" s="100" t="s">
+      <c r="B2" s="102" t="s">
         <v>216</v>
       </c>
-      <c r="C2" s="101"/>
-      <c r="D2" s="101"/>
-      <c r="E2" s="101"/>
-      <c r="F2" s="101"/>
-      <c r="G2" s="101"/>
-      <c r="H2" s="101"/>
-      <c r="I2" s="101"/>
-      <c r="J2" s="101"/>
-      <c r="K2" s="102"/>
+      <c r="C2" s="103"/>
+      <c r="D2" s="103"/>
+      <c r="E2" s="103"/>
+      <c r="F2" s="103"/>
+      <c r="G2" s="103"/>
+      <c r="H2" s="103"/>
+      <c r="I2" s="103"/>
+      <c r="J2" s="103"/>
+      <c r="K2" s="104"/>
     </row>
     <row r="3" spans="1:11" ht="45" customHeight="1" thickBot="1">
       <c r="A3" s="10" t="s">
         <v>130</v>
       </c>
-      <c r="B3" s="100" t="s">
+      <c r="B3" s="102" t="s">
         <v>217</v>
       </c>
-      <c r="C3" s="101"/>
-      <c r="D3" s="101"/>
-      <c r="E3" s="101"/>
-      <c r="F3" s="101"/>
-      <c r="G3" s="101"/>
-      <c r="H3" s="101"/>
-      <c r="I3" s="101"/>
-      <c r="J3" s="101"/>
-      <c r="K3" s="102"/>
+      <c r="C3" s="103"/>
+      <c r="D3" s="103"/>
+      <c r="E3" s="103"/>
+      <c r="F3" s="103"/>
+      <c r="G3" s="103"/>
+      <c r="H3" s="103"/>
+      <c r="I3" s="103"/>
+      <c r="J3" s="103"/>
+      <c r="K3" s="104"/>
     </row>
     <row r="4" spans="1:11" ht="45" customHeight="1" thickBot="1">
       <c r="A4" s="10" t="s">
         <v>132</v>
       </c>
-      <c r="B4" s="100" t="s">
+      <c r="B4" s="102" t="s">
         <v>218</v>
       </c>
-      <c r="C4" s="101"/>
-      <c r="D4" s="101"/>
-      <c r="E4" s="101"/>
-      <c r="F4" s="101"/>
-      <c r="G4" s="101"/>
-      <c r="H4" s="101"/>
-      <c r="I4" s="101"/>
-      <c r="J4" s="101"/>
-      <c r="K4" s="102"/>
+      <c r="C4" s="103"/>
+      <c r="D4" s="103"/>
+      <c r="E4" s="103"/>
+      <c r="F4" s="103"/>
+      <c r="G4" s="103"/>
+      <c r="H4" s="103"/>
+      <c r="I4" s="103"/>
+      <c r="J4" s="103"/>
+      <c r="K4" s="104"/>
     </row>
     <row r="5" spans="1:11" ht="45" customHeight="1" thickBot="1">
       <c r="A5" s="10" t="s">
         <v>134</v>
       </c>
-      <c r="B5" s="100" t="s">
+      <c r="B5" s="102" t="s">
         <v>219</v>
       </c>
-      <c r="C5" s="101"/>
-      <c r="D5" s="101"/>
-      <c r="E5" s="101"/>
-      <c r="F5" s="101"/>
-      <c r="G5" s="101"/>
-      <c r="H5" s="101"/>
-      <c r="I5" s="101"/>
-      <c r="J5" s="101"/>
-      <c r="K5" s="102"/>
+      <c r="C5" s="103"/>
+      <c r="D5" s="103"/>
+      <c r="E5" s="103"/>
+      <c r="F5" s="103"/>
+      <c r="G5" s="103"/>
+      <c r="H5" s="103"/>
+      <c r="I5" s="103"/>
+      <c r="J5" s="103"/>
+      <c r="K5" s="104"/>
     </row>
     <row r="6" spans="1:11" ht="45" customHeight="1" thickBot="1">
       <c r="A6" s="10" t="s">
         <v>136</v>
       </c>
-      <c r="B6" s="100" t="s">
+      <c r="B6" s="102" t="s">
         <v>220</v>
       </c>
-      <c r="C6" s="101"/>
-      <c r="D6" s="101"/>
-      <c r="E6" s="101"/>
-      <c r="F6" s="101"/>
-      <c r="G6" s="101"/>
-      <c r="H6" s="101"/>
-      <c r="I6" s="101"/>
-      <c r="J6" s="101"/>
-      <c r="K6" s="102"/>
+      <c r="C6" s="103"/>
+      <c r="D6" s="103"/>
+      <c r="E6" s="103"/>
+      <c r="F6" s="103"/>
+      <c r="G6" s="103"/>
+      <c r="H6" s="103"/>
+      <c r="I6" s="103"/>
+      <c r="J6" s="103"/>
+      <c r="K6" s="104"/>
     </row>
     <row r="7" spans="1:11" ht="30" customHeight="1" thickBot="1">
       <c r="A7" s="10" t="s">
         <v>138</v>
       </c>
-      <c r="B7" s="100" t="s">
+      <c r="B7" s="102" t="s">
         <v>221</v>
       </c>
-      <c r="C7" s="101"/>
-      <c r="D7" s="101"/>
-      <c r="E7" s="101"/>
-      <c r="F7" s="101"/>
-      <c r="G7" s="101"/>
-      <c r="H7" s="101"/>
-      <c r="I7" s="101"/>
-      <c r="J7" s="101"/>
-      <c r="K7" s="102"/>
+      <c r="C7" s="103"/>
+      <c r="D7" s="103"/>
+      <c r="E7" s="103"/>
+      <c r="F7" s="103"/>
+      <c r="G7" s="103"/>
+      <c r="H7" s="103"/>
+      <c r="I7" s="103"/>
+      <c r="J7" s="103"/>
+      <c r="K7" s="104"/>
     </row>
     <row r="8" spans="1:11" ht="45" customHeight="1" thickBot="1">
       <c r="A8" s="10" t="s">
         <v>140</v>
       </c>
-      <c r="B8" s="100" t="s">
+      <c r="B8" s="102" t="s">
         <v>222</v>
       </c>
-      <c r="C8" s="101"/>
-      <c r="D8" s="101"/>
-      <c r="E8" s="101"/>
-      <c r="F8" s="101"/>
-      <c r="G8" s="101"/>
-      <c r="H8" s="101"/>
-      <c r="I8" s="101"/>
-      <c r="J8" s="101"/>
-      <c r="K8" s="102"/>
+      <c r="C8" s="103"/>
+      <c r="D8" s="103"/>
+      <c r="E8" s="103"/>
+      <c r="F8" s="103"/>
+      <c r="G8" s="103"/>
+      <c r="H8" s="103"/>
+      <c r="I8" s="103"/>
+      <c r="J8" s="103"/>
+      <c r="K8" s="104"/>
     </row>
     <row r="9" spans="1:11" ht="99.75" customHeight="1" thickBot="1">
       <c r="A9" s="10"/>
-      <c r="B9" s="103" t="s">
+      <c r="B9" s="105" t="s">
         <v>223</v>
       </c>
-      <c r="C9" s="104"/>
-      <c r="D9" s="104"/>
-      <c r="E9" s="104"/>
-      <c r="F9" s="104"/>
-      <c r="G9" s="104"/>
-      <c r="H9" s="104"/>
-      <c r="I9" s="104"/>
-      <c r="J9" s="104"/>
-      <c r="K9" s="105"/>
+      <c r="C9" s="106"/>
+      <c r="D9" s="106"/>
+      <c r="E9" s="106"/>
+      <c r="F9" s="106"/>
+      <c r="G9" s="106"/>
+      <c r="H9" s="106"/>
+      <c r="I9" s="106"/>
+      <c r="J9" s="106"/>
+      <c r="K9" s="107"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -36357,7 +37023,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69E6B415-86AF-44A1-9A0F-E640C770D3EB}">
   <sheetPr codeName="Sheet11"/>
   <dimension ref="A1:K13"/>
@@ -36372,231 +37038,225 @@
       <c r="A1" s="9" t="s">
         <v>126</v>
       </c>
-      <c r="B1" s="100" t="s">
+      <c r="B1" s="102" t="s">
         <v>127</v>
       </c>
-      <c r="C1" s="101"/>
-      <c r="D1" s="101"/>
-      <c r="E1" s="101"/>
-      <c r="F1" s="101"/>
-      <c r="G1" s="101"/>
-      <c r="H1" s="101"/>
-      <c r="I1" s="101"/>
-      <c r="J1" s="101"/>
-      <c r="K1" s="102"/>
+      <c r="C1" s="103"/>
+      <c r="D1" s="103"/>
+      <c r="E1" s="103"/>
+      <c r="F1" s="103"/>
+      <c r="G1" s="103"/>
+      <c r="H1" s="103"/>
+      <c r="I1" s="103"/>
+      <c r="J1" s="103"/>
+      <c r="K1" s="104"/>
     </row>
     <row r="2" spans="1:11" ht="45" customHeight="1" thickBot="1">
       <c r="A2" s="10" t="s">
         <v>128</v>
       </c>
-      <c r="B2" s="100" t="s">
+      <c r="B2" s="102" t="s">
         <v>129</v>
       </c>
-      <c r="C2" s="101"/>
-      <c r="D2" s="101"/>
-      <c r="E2" s="101"/>
-      <c r="F2" s="101"/>
-      <c r="G2" s="101"/>
-      <c r="H2" s="101"/>
-      <c r="I2" s="101"/>
-      <c r="J2" s="101"/>
-      <c r="K2" s="102"/>
+      <c r="C2" s="103"/>
+      <c r="D2" s="103"/>
+      <c r="E2" s="103"/>
+      <c r="F2" s="103"/>
+      <c r="G2" s="103"/>
+      <c r="H2" s="103"/>
+      <c r="I2" s="103"/>
+      <c r="J2" s="103"/>
+      <c r="K2" s="104"/>
     </row>
     <row r="3" spans="1:11" ht="45" customHeight="1" thickBot="1">
       <c r="A3" s="10" t="s">
         <v>130</v>
       </c>
-      <c r="B3" s="100" t="s">
+      <c r="B3" s="102" t="s">
         <v>131</v>
       </c>
-      <c r="C3" s="101"/>
-      <c r="D3" s="101"/>
-      <c r="E3" s="101"/>
-      <c r="F3" s="101"/>
-      <c r="G3" s="101"/>
-      <c r="H3" s="101"/>
-      <c r="I3" s="101"/>
-      <c r="J3" s="101"/>
-      <c r="K3" s="102"/>
+      <c r="C3" s="103"/>
+      <c r="D3" s="103"/>
+      <c r="E3" s="103"/>
+      <c r="F3" s="103"/>
+      <c r="G3" s="103"/>
+      <c r="H3" s="103"/>
+      <c r="I3" s="103"/>
+      <c r="J3" s="103"/>
+      <c r="K3" s="104"/>
     </row>
     <row r="4" spans="1:11" ht="45" customHeight="1" thickBot="1">
       <c r="A4" s="10" t="s">
         <v>132</v>
       </c>
-      <c r="B4" s="100" t="s">
+      <c r="B4" s="102" t="s">
         <v>133</v>
       </c>
-      <c r="C4" s="101"/>
-      <c r="D4" s="101"/>
-      <c r="E4" s="101"/>
-      <c r="F4" s="101"/>
-      <c r="G4" s="101"/>
-      <c r="H4" s="101"/>
-      <c r="I4" s="101"/>
-      <c r="J4" s="101"/>
-      <c r="K4" s="102"/>
+      <c r="C4" s="103"/>
+      <c r="D4" s="103"/>
+      <c r="E4" s="103"/>
+      <c r="F4" s="103"/>
+      <c r="G4" s="103"/>
+      <c r="H4" s="103"/>
+      <c r="I4" s="103"/>
+      <c r="J4" s="103"/>
+      <c r="K4" s="104"/>
     </row>
     <row r="5" spans="1:11" ht="45" customHeight="1" thickBot="1">
       <c r="A5" s="10" t="s">
         <v>134</v>
       </c>
-      <c r="B5" s="100" t="s">
+      <c r="B5" s="102" t="s">
         <v>135</v>
       </c>
-      <c r="C5" s="101"/>
-      <c r="D5" s="101"/>
-      <c r="E5" s="101"/>
-      <c r="F5" s="101"/>
-      <c r="G5" s="101"/>
-      <c r="H5" s="101"/>
-      <c r="I5" s="101"/>
-      <c r="J5" s="101"/>
-      <c r="K5" s="102"/>
+      <c r="C5" s="103"/>
+      <c r="D5" s="103"/>
+      <c r="E5" s="103"/>
+      <c r="F5" s="103"/>
+      <c r="G5" s="103"/>
+      <c r="H5" s="103"/>
+      <c r="I5" s="103"/>
+      <c r="J5" s="103"/>
+      <c r="K5" s="104"/>
     </row>
     <row r="6" spans="1:11" ht="45" customHeight="1" thickBot="1">
       <c r="A6" s="10" t="s">
         <v>136</v>
       </c>
-      <c r="B6" s="100" t="s">
+      <c r="B6" s="102" t="s">
         <v>137</v>
       </c>
-      <c r="C6" s="101"/>
-      <c r="D6" s="101"/>
-      <c r="E6" s="101"/>
-      <c r="F6" s="101"/>
-      <c r="G6" s="101"/>
-      <c r="H6" s="101"/>
-      <c r="I6" s="101"/>
-      <c r="J6" s="101"/>
-      <c r="K6" s="102"/>
+      <c r="C6" s="103"/>
+      <c r="D6" s="103"/>
+      <c r="E6" s="103"/>
+      <c r="F6" s="103"/>
+      <c r="G6" s="103"/>
+      <c r="H6" s="103"/>
+      <c r="I6" s="103"/>
+      <c r="J6" s="103"/>
+      <c r="K6" s="104"/>
     </row>
     <row r="7" spans="1:11" ht="30" customHeight="1" thickBot="1">
       <c r="A7" s="10" t="s">
         <v>138</v>
       </c>
-      <c r="B7" s="100" t="s">
+      <c r="B7" s="102" t="s">
         <v>139</v>
       </c>
-      <c r="C7" s="101"/>
-      <c r="D7" s="101"/>
-      <c r="E7" s="101"/>
-      <c r="F7" s="101"/>
-      <c r="G7" s="101"/>
-      <c r="H7" s="101"/>
-      <c r="I7" s="101"/>
-      <c r="J7" s="101"/>
-      <c r="K7" s="102"/>
+      <c r="C7" s="103"/>
+      <c r="D7" s="103"/>
+      <c r="E7" s="103"/>
+      <c r="F7" s="103"/>
+      <c r="G7" s="103"/>
+      <c r="H7" s="103"/>
+      <c r="I7" s="103"/>
+      <c r="J7" s="103"/>
+      <c r="K7" s="104"/>
     </row>
     <row r="8" spans="1:11" ht="45" customHeight="1" thickBot="1">
       <c r="A8" s="10" t="s">
         <v>140</v>
       </c>
-      <c r="B8" s="100" t="s">
+      <c r="B8" s="102" t="s">
         <v>141</v>
       </c>
-      <c r="C8" s="101"/>
-      <c r="D8" s="101"/>
-      <c r="E8" s="101"/>
-      <c r="F8" s="101"/>
-      <c r="G8" s="101"/>
-      <c r="H8" s="101"/>
-      <c r="I8" s="101"/>
-      <c r="J8" s="101"/>
-      <c r="K8" s="102"/>
+      <c r="C8" s="103"/>
+      <c r="D8" s="103"/>
+      <c r="E8" s="103"/>
+      <c r="F8" s="103"/>
+      <c r="G8" s="103"/>
+      <c r="H8" s="103"/>
+      <c r="I8" s="103"/>
+      <c r="J8" s="103"/>
+      <c r="K8" s="104"/>
     </row>
     <row r="9" spans="1:11" ht="30" customHeight="1" thickBot="1">
       <c r="A9" s="10" t="s">
         <v>142</v>
       </c>
-      <c r="B9" s="100" t="s">
+      <c r="B9" s="102" t="s">
         <v>143</v>
       </c>
-      <c r="C9" s="101"/>
-      <c r="D9" s="101"/>
-      <c r="E9" s="101"/>
-      <c r="F9" s="101"/>
-      <c r="G9" s="101"/>
-      <c r="H9" s="101"/>
-      <c r="I9" s="101"/>
-      <c r="J9" s="101"/>
-      <c r="K9" s="102"/>
+      <c r="C9" s="103"/>
+      <c r="D9" s="103"/>
+      <c r="E9" s="103"/>
+      <c r="F9" s="103"/>
+      <c r="G9" s="103"/>
+      <c r="H9" s="103"/>
+      <c r="I9" s="103"/>
+      <c r="J9" s="103"/>
+      <c r="K9" s="104"/>
     </row>
     <row r="10" spans="1:11" ht="60" customHeight="1" thickBot="1">
       <c r="A10" s="10" t="s">
         <v>144</v>
       </c>
-      <c r="B10" s="100" t="s">
+      <c r="B10" s="102" t="s">
         <v>145</v>
       </c>
-      <c r="C10" s="101"/>
-      <c r="D10" s="101"/>
-      <c r="E10" s="101"/>
-      <c r="F10" s="101"/>
-      <c r="G10" s="101"/>
-      <c r="H10" s="101"/>
-      <c r="I10" s="101"/>
-      <c r="J10" s="101"/>
-      <c r="K10" s="102"/>
+      <c r="C10" s="103"/>
+      <c r="D10" s="103"/>
+      <c r="E10" s="103"/>
+      <c r="F10" s="103"/>
+      <c r="G10" s="103"/>
+      <c r="H10" s="103"/>
+      <c r="I10" s="103"/>
+      <c r="J10" s="103"/>
+      <c r="K10" s="104"/>
     </row>
     <row r="11" spans="1:11" ht="45" customHeight="1" thickBot="1">
       <c r="A11" s="10" t="s">
         <v>146</v>
       </c>
-      <c r="B11" s="100" t="s">
+      <c r="B11" s="102" t="s">
         <v>147</v>
       </c>
-      <c r="C11" s="101"/>
-      <c r="D11" s="101"/>
-      <c r="E11" s="101"/>
-      <c r="F11" s="101"/>
-      <c r="G11" s="101"/>
-      <c r="H11" s="101"/>
-      <c r="I11" s="101"/>
-      <c r="J11" s="101"/>
-      <c r="K11" s="102"/>
+      <c r="C11" s="103"/>
+      <c r="D11" s="103"/>
+      <c r="E11" s="103"/>
+      <c r="F11" s="103"/>
+      <c r="G11" s="103"/>
+      <c r="H11" s="103"/>
+      <c r="I11" s="103"/>
+      <c r="J11" s="103"/>
+      <c r="K11" s="104"/>
     </row>
     <row r="12" spans="1:11" ht="45" customHeight="1" thickBot="1">
       <c r="A12" s="10" t="s">
         <v>148</v>
       </c>
-      <c r="B12" s="100" t="s">
+      <c r="B12" s="102" t="s">
         <v>149</v>
       </c>
-      <c r="C12" s="101"/>
-      <c r="D12" s="101"/>
-      <c r="E12" s="101"/>
-      <c r="F12" s="101"/>
-      <c r="G12" s="101"/>
-      <c r="H12" s="101"/>
-      <c r="I12" s="101"/>
-      <c r="J12" s="101"/>
-      <c r="K12" s="102"/>
+      <c r="C12" s="103"/>
+      <c r="D12" s="103"/>
+      <c r="E12" s="103"/>
+      <c r="F12" s="103"/>
+      <c r="G12" s="103"/>
+      <c r="H12" s="103"/>
+      <c r="I12" s="103"/>
+      <c r="J12" s="103"/>
+      <c r="K12" s="104"/>
     </row>
     <row r="13" spans="1:11" ht="45" customHeight="1" thickBot="1">
       <c r="A13" s="10" t="s">
         <v>150</v>
       </c>
-      <c r="B13" s="100" t="s">
+      <c r="B13" s="102" t="s">
         <v>151</v>
       </c>
-      <c r="C13" s="101"/>
-      <c r="D13" s="101"/>
-      <c r="E13" s="101"/>
-      <c r="F13" s="101"/>
-      <c r="G13" s="101"/>
-      <c r="H13" s="101"/>
-      <c r="I13" s="101"/>
-      <c r="J13" s="101"/>
-      <c r="K13" s="102"/>
+      <c r="C13" s="103"/>
+      <c r="D13" s="103"/>
+      <c r="E13" s="103"/>
+      <c r="F13" s="103"/>
+      <c r="G13" s="103"/>
+      <c r="H13" s="103"/>
+      <c r="I13" s="103"/>
+      <c r="J13" s="103"/>
+      <c r="K13" s="104"/>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="B6:K6"/>
-    <mergeCell ref="B1:K1"/>
-    <mergeCell ref="B2:K2"/>
-    <mergeCell ref="B3:K3"/>
-    <mergeCell ref="B4:K4"/>
-    <mergeCell ref="B5:K5"/>
     <mergeCell ref="B13:K13"/>
     <mergeCell ref="B7:K7"/>
     <mergeCell ref="B8:K8"/>
@@ -36604,623 +37264,18 @@
     <mergeCell ref="B10:K10"/>
     <mergeCell ref="B11:K11"/>
     <mergeCell ref="B12:K12"/>
+    <mergeCell ref="B6:K6"/>
+    <mergeCell ref="B1:K1"/>
+    <mergeCell ref="B2:K2"/>
+    <mergeCell ref="B3:K3"/>
+    <mergeCell ref="B4:K4"/>
+    <mergeCell ref="B5:K5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A78EF31-A47F-4412-A3CA-C438D7816DE2}">
-  <dimension ref="A1:G51"/>
-  <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="9.140625" style="78"/>
-    <col min="2" max="2" width="33.140625" style="78" customWidth="1"/>
-    <col min="3" max="3" width="28.140625" style="78" customWidth="1"/>
-    <col min="4" max="4" width="46.28515625" style="78" customWidth="1"/>
-    <col min="5" max="5" width="43.85546875" style="78" customWidth="1"/>
-    <col min="6" max="6" width="79" style="78" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="78"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" ht="25.5">
-      <c r="A1" s="79" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="79" t="s">
-        <v>11</v>
-      </c>
-      <c r="C1" s="79" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="80" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="83" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="84" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="82">
-        <v>1</v>
-      </c>
-      <c r="B2" s="82"/>
-      <c r="C2" s="82" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="82"/>
-      <c r="E2" s="85"/>
-      <c r="F2" s="78" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="45">
-      <c r="A3" s="82">
-        <v>2</v>
-      </c>
-      <c r="B3" s="82"/>
-      <c r="C3" s="82" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" s="82"/>
-      <c r="E3" s="85" t="s">
-        <v>525</v>
-      </c>
-      <c r="F3" s="78" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="82">
-        <v>3</v>
-      </c>
-      <c r="B4" s="82"/>
-      <c r="C4" s="82"/>
-      <c r="D4" s="82" t="s">
-        <v>526</v>
-      </c>
-      <c r="E4" s="85"/>
-      <c r="F4" s="78" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="82">
-        <v>4</v>
-      </c>
-      <c r="B5" s="82"/>
-      <c r="C5" s="82"/>
-      <c r="D5" s="82"/>
-      <c r="E5" s="85"/>
-      <c r="F5" s="78" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="82">
-        <v>5</v>
-      </c>
-      <c r="B6" s="82"/>
-      <c r="C6" s="82"/>
-      <c r="D6" s="82"/>
-      <c r="E6" s="85" t="s">
-        <v>529</v>
-      </c>
-      <c r="F6" s="78" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="82">
-        <v>6</v>
-      </c>
-      <c r="B7" s="82"/>
-      <c r="C7" s="82"/>
-      <c r="D7" s="82"/>
-      <c r="E7" s="85"/>
-      <c r="F7" s="78" t="s">
-        <v>530</v>
-      </c>
-      <c r="G7" s="88"/>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" s="82">
-        <v>7</v>
-      </c>
-      <c r="B8" s="82"/>
-      <c r="C8" s="82"/>
-      <c r="D8" s="82"/>
-      <c r="E8" s="85"/>
-      <c r="F8" s="94" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="82">
-        <v>8</v>
-      </c>
-      <c r="B9" s="82"/>
-      <c r="C9" s="82"/>
-      <c r="D9" s="82"/>
-      <c r="E9" s="85"/>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" s="82">
-        <v>9</v>
-      </c>
-      <c r="B10" s="82"/>
-      <c r="C10" s="82" t="s">
-        <v>4</v>
-      </c>
-      <c r="D10" s="82" t="s">
-        <v>533</v>
-      </c>
-      <c r="E10" s="85"/>
-      <c r="F10" s="94" t="s">
-        <v>532</v>
-      </c>
-      <c r="G10" s="88"/>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11" s="82">
-        <v>10</v>
-      </c>
-      <c r="B11" s="82"/>
-      <c r="C11" s="82"/>
-      <c r="D11" s="82"/>
-      <c r="E11" s="85"/>
-      <c r="F11" s="94" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12" s="82">
-        <v>11</v>
-      </c>
-      <c r="B12" s="82"/>
-      <c r="C12" s="82" t="s">
-        <v>4</v>
-      </c>
-      <c r="D12" s="82" t="s">
-        <v>535</v>
-      </c>
-      <c r="E12" s="85" t="s">
-        <v>536</v>
-      </c>
-      <c r="F12" s="88" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13" s="82">
-        <v>12</v>
-      </c>
-      <c r="B13" s="82"/>
-      <c r="C13" s="82" t="s">
-        <v>4</v>
-      </c>
-      <c r="D13" s="82"/>
-      <c r="E13" s="85"/>
-      <c r="F13" s="94" t="s">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14" s="82">
-        <v>13</v>
-      </c>
-      <c r="B14" s="82"/>
-      <c r="C14" s="82" t="s">
-        <v>4</v>
-      </c>
-      <c r="D14" s="81" t="s">
-        <v>539</v>
-      </c>
-      <c r="E14" s="85"/>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15" s="82">
-        <v>14</v>
-      </c>
-      <c r="B15" s="82"/>
-      <c r="C15" s="82" t="s">
-        <v>4</v>
-      </c>
-      <c r="D15" s="82"/>
-      <c r="E15" s="85"/>
-      <c r="F15" s="94" t="s">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16" s="82">
-        <v>15</v>
-      </c>
-      <c r="B16" s="82"/>
-      <c r="C16" s="82" t="s">
-        <v>4</v>
-      </c>
-      <c r="D16" s="82"/>
-      <c r="E16" s="85"/>
-      <c r="F16" s="94" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
-      <c r="A17" s="82">
-        <v>16</v>
-      </c>
-      <c r="B17" s="82"/>
-      <c r="C17" s="82" t="s">
-        <v>4</v>
-      </c>
-      <c r="D17" s="82"/>
-      <c r="E17" s="85" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
-      <c r="A18" s="82">
-        <v>17</v>
-      </c>
-      <c r="B18" s="82"/>
-      <c r="C18" s="82" t="s">
-        <v>4</v>
-      </c>
-      <c r="D18" s="82"/>
-      <c r="E18" s="85" t="s">
-        <v>544</v>
-      </c>
-      <c r="F18" s="78" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
-      <c r="A19" s="82">
-        <v>18</v>
-      </c>
-      <c r="B19" s="82"/>
-      <c r="C19" s="82"/>
-      <c r="D19" s="82"/>
-      <c r="E19" s="85"/>
-      <c r="F19" s="95" t="s">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
-      <c r="A20" s="82">
-        <v>19</v>
-      </c>
-      <c r="B20" s="82"/>
-      <c r="C20" s="82"/>
-      <c r="D20" s="82"/>
-      <c r="E20" s="85"/>
-      <c r="F20" s="78" t="s">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
-      <c r="A21" s="82">
-        <v>20</v>
-      </c>
-      <c r="B21" s="82"/>
-      <c r="C21" s="82" t="s">
-        <v>4</v>
-      </c>
-      <c r="D21" s="82" t="s">
-        <v>547</v>
-      </c>
-      <c r="E21" s="85"/>
-      <c r="F21" s="78" t="s">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
-      <c r="A22" s="82">
-        <v>21</v>
-      </c>
-      <c r="B22" s="82"/>
-      <c r="C22" s="82" t="s">
-        <v>4</v>
-      </c>
-      <c r="D22" s="82"/>
-      <c r="E22" s="85"/>
-      <c r="F22" s="78" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="30">
-      <c r="A23" s="82">
-        <v>22</v>
-      </c>
-      <c r="B23" s="82"/>
-      <c r="C23" s="82"/>
-      <c r="D23" s="82"/>
-      <c r="E23" s="85" t="s">
-        <v>550</v>
-      </c>
-      <c r="F23" s="78" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6">
-      <c r="A24" s="82">
-        <v>23</v>
-      </c>
-      <c r="B24" s="82"/>
-      <c r="C24" s="82"/>
-      <c r="D24" s="82"/>
-      <c r="E24" s="85"/>
-      <c r="F24" s="78" t="s">
-        <v>551</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
-      <c r="A25" s="82">
-        <v>24</v>
-      </c>
-      <c r="B25" s="82"/>
-      <c r="C25" s="82"/>
-      <c r="D25" s="82"/>
-      <c r="E25" s="85"/>
-    </row>
-    <row r="26" spans="1:6">
-      <c r="A26" s="82">
-        <v>25</v>
-      </c>
-      <c r="B26" s="82"/>
-      <c r="C26" s="82"/>
-      <c r="D26" s="82"/>
-      <c r="E26" s="85"/>
-    </row>
-    <row r="27" spans="1:6">
-      <c r="A27" s="82">
-        <v>26</v>
-      </c>
-      <c r="B27" s="82"/>
-      <c r="C27" s="82"/>
-      <c r="D27" s="82"/>
-      <c r="E27" s="85"/>
-    </row>
-    <row r="28" spans="1:6">
-      <c r="A28" s="82">
-        <v>27</v>
-      </c>
-      <c r="B28" s="82"/>
-      <c r="C28" s="82"/>
-      <c r="D28" s="82"/>
-      <c r="E28" s="85"/>
-    </row>
-    <row r="29" spans="1:6">
-      <c r="A29" s="82">
-        <v>28</v>
-      </c>
-      <c r="B29" s="82"/>
-      <c r="C29" s="82"/>
-      <c r="D29" s="82"/>
-      <c r="E29" s="85"/>
-    </row>
-    <row r="30" spans="1:6">
-      <c r="A30" s="82">
-        <v>29</v>
-      </c>
-      <c r="B30" s="82"/>
-      <c r="C30" s="82"/>
-      <c r="D30" s="82"/>
-      <c r="E30" s="85"/>
-    </row>
-    <row r="31" spans="1:6">
-      <c r="A31" s="82">
-        <v>30</v>
-      </c>
-      <c r="B31" s="82"/>
-      <c r="C31" s="82"/>
-      <c r="D31" s="82"/>
-      <c r="E31" s="85"/>
-    </row>
-    <row r="32" spans="1:6">
-      <c r="A32" s="82">
-        <v>31</v>
-      </c>
-      <c r="B32" s="82"/>
-      <c r="C32" s="82"/>
-      <c r="D32" s="82"/>
-      <c r="E32" s="85"/>
-    </row>
-    <row r="33" spans="1:5">
-      <c r="A33" s="82">
-        <v>32</v>
-      </c>
-      <c r="B33" s="82"/>
-      <c r="C33" s="82"/>
-      <c r="D33" s="82"/>
-      <c r="E33" s="85"/>
-    </row>
-    <row r="34" spans="1:5">
-      <c r="A34" s="82">
-        <v>33</v>
-      </c>
-      <c r="B34" s="82"/>
-      <c r="C34" s="82"/>
-      <c r="D34" s="82"/>
-      <c r="E34" s="85"/>
-    </row>
-    <row r="35" spans="1:5">
-      <c r="A35" s="82">
-        <v>34</v>
-      </c>
-      <c r="B35" s="82"/>
-      <c r="C35" s="82"/>
-      <c r="D35" s="82"/>
-      <c r="E35" s="85"/>
-    </row>
-    <row r="36" spans="1:5">
-      <c r="A36" s="82">
-        <v>35</v>
-      </c>
-      <c r="B36" s="82"/>
-      <c r="C36" s="82"/>
-      <c r="D36" s="82"/>
-      <c r="E36" s="85"/>
-    </row>
-    <row r="37" spans="1:5">
-      <c r="A37" s="82">
-        <v>36</v>
-      </c>
-      <c r="B37" s="82"/>
-      <c r="C37" s="82"/>
-      <c r="D37" s="82"/>
-      <c r="E37" s="85"/>
-    </row>
-    <row r="38" spans="1:5">
-      <c r="A38" s="82">
-        <v>37</v>
-      </c>
-      <c r="B38" s="82"/>
-      <c r="C38" s="82"/>
-      <c r="D38" s="82"/>
-      <c r="E38" s="85"/>
-    </row>
-    <row r="39" spans="1:5">
-      <c r="A39" s="82">
-        <v>38</v>
-      </c>
-      <c r="B39" s="82"/>
-      <c r="C39" s="82"/>
-      <c r="D39" s="82"/>
-      <c r="E39" s="85"/>
-    </row>
-    <row r="40" spans="1:5">
-      <c r="A40" s="82">
-        <v>39</v>
-      </c>
-      <c r="B40" s="82"/>
-      <c r="C40" s="82"/>
-      <c r="D40" s="82"/>
-      <c r="E40" s="85"/>
-    </row>
-    <row r="41" spans="1:5">
-      <c r="A41" s="82">
-        <v>40</v>
-      </c>
-      <c r="B41" s="82"/>
-      <c r="C41" s="82"/>
-      <c r="D41" s="82"/>
-      <c r="E41" s="85"/>
-    </row>
-    <row r="42" spans="1:5">
-      <c r="A42" s="82">
-        <v>41</v>
-      </c>
-      <c r="B42" s="82"/>
-      <c r="C42" s="82"/>
-      <c r="D42" s="82"/>
-      <c r="E42" s="85"/>
-    </row>
-    <row r="43" spans="1:5">
-      <c r="A43" s="82">
-        <v>42</v>
-      </c>
-      <c r="B43" s="82"/>
-      <c r="C43" s="82"/>
-      <c r="D43" s="82"/>
-      <c r="E43" s="85"/>
-    </row>
-    <row r="44" spans="1:5">
-      <c r="A44" s="82">
-        <v>43</v>
-      </c>
-      <c r="B44" s="82"/>
-      <c r="C44" s="82"/>
-      <c r="D44" s="82"/>
-      <c r="E44" s="85"/>
-    </row>
-    <row r="45" spans="1:5">
-      <c r="A45" s="82">
-        <v>44</v>
-      </c>
-      <c r="B45" s="82"/>
-      <c r="C45" s="82"/>
-      <c r="D45" s="82"/>
-      <c r="E45" s="85"/>
-    </row>
-    <row r="46" spans="1:5">
-      <c r="A46" s="82">
-        <v>45</v>
-      </c>
-      <c r="B46" s="82"/>
-      <c r="C46" s="82"/>
-      <c r="D46" s="82"/>
-      <c r="E46" s="85"/>
-    </row>
-    <row r="47" spans="1:5">
-      <c r="A47" s="82">
-        <v>46</v>
-      </c>
-      <c r="B47" s="82"/>
-      <c r="C47" s="82"/>
-      <c r="D47" s="82"/>
-      <c r="E47" s="85"/>
-    </row>
-    <row r="48" spans="1:5">
-      <c r="A48" s="82">
-        <v>47</v>
-      </c>
-      <c r="B48" s="82"/>
-      <c r="C48" s="82"/>
-      <c r="D48" s="82"/>
-      <c r="E48" s="85"/>
-    </row>
-    <row r="49" spans="1:5">
-      <c r="A49" s="82">
-        <v>48</v>
-      </c>
-      <c r="B49" s="82"/>
-      <c r="C49" s="82"/>
-      <c r="D49" s="82"/>
-      <c r="E49" s="85"/>
-    </row>
-    <row r="50" spans="1:5">
-      <c r="A50" s="82">
-        <v>49</v>
-      </c>
-      <c r="B50" s="82"/>
-      <c r="C50" s="82"/>
-      <c r="D50" s="82"/>
-      <c r="E50" s="85"/>
-    </row>
-    <row r="51" spans="1:5">
-      <c r="A51" s="82">
-        <v>50</v>
-      </c>
-      <c r="B51" s="82"/>
-      <c r="C51" s="82"/>
-      <c r="D51" s="82"/>
-      <c r="E51" s="85"/>
-    </row>
-  </sheetData>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C51" xr:uid="{549247D2-82F2-46B7-8061-B53C448567CC}">
-      <formula1>"English,Knowledge Gaps,Emotion,Techniques"</formula1>
-    </dataValidation>
-  </dataValidations>
-  <hyperlinks>
-    <hyperlink ref="F1" location="'Domain-Planning'!A1" display="Domain" xr:uid="{EE68F612-4404-44A1-8A07-B7B39E9FDD42}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98E3A676-4755-49BB-A0B9-3FC0BA4B80B3}">
   <sheetPr codeName="Sheet12"/>
   <dimension ref="A1:K7"/>
@@ -37233,120 +37288,120 @@
       <c r="A1" s="9" t="s">
         <v>126</v>
       </c>
-      <c r="B1" s="100" t="s">
+      <c r="B1" s="102" t="s">
         <v>152</v>
       </c>
-      <c r="C1" s="101"/>
-      <c r="D1" s="101"/>
-      <c r="E1" s="101"/>
-      <c r="F1" s="101"/>
-      <c r="G1" s="101"/>
-      <c r="H1" s="101"/>
-      <c r="I1" s="101"/>
-      <c r="J1" s="101"/>
-      <c r="K1" s="102"/>
+      <c r="C1" s="103"/>
+      <c r="D1" s="103"/>
+      <c r="E1" s="103"/>
+      <c r="F1" s="103"/>
+      <c r="G1" s="103"/>
+      <c r="H1" s="103"/>
+      <c r="I1" s="103"/>
+      <c r="J1" s="103"/>
+      <c r="K1" s="104"/>
     </row>
     <row r="2" spans="1:11" ht="45" customHeight="1" thickBot="1">
       <c r="A2" s="10" t="s">
         <v>128</v>
       </c>
-      <c r="B2" s="100" t="s">
+      <c r="B2" s="102" t="s">
         <v>153</v>
       </c>
-      <c r="C2" s="101"/>
-      <c r="D2" s="101"/>
-      <c r="E2" s="101"/>
-      <c r="F2" s="101"/>
-      <c r="G2" s="101"/>
-      <c r="H2" s="101"/>
-      <c r="I2" s="101"/>
-      <c r="J2" s="101"/>
-      <c r="K2" s="102"/>
+      <c r="C2" s="103"/>
+      <c r="D2" s="103"/>
+      <c r="E2" s="103"/>
+      <c r="F2" s="103"/>
+      <c r="G2" s="103"/>
+      <c r="H2" s="103"/>
+      <c r="I2" s="103"/>
+      <c r="J2" s="103"/>
+      <c r="K2" s="104"/>
     </row>
     <row r="3" spans="1:11" ht="45" customHeight="1" thickBot="1">
       <c r="A3" s="10" t="s">
         <v>130</v>
       </c>
-      <c r="B3" s="100" t="s">
+      <c r="B3" s="102" t="s">
         <v>154</v>
       </c>
-      <c r="C3" s="101"/>
-      <c r="D3" s="101"/>
-      <c r="E3" s="101"/>
-      <c r="F3" s="101"/>
-      <c r="G3" s="101"/>
-      <c r="H3" s="101"/>
-      <c r="I3" s="101"/>
-      <c r="J3" s="101"/>
-      <c r="K3" s="102"/>
+      <c r="C3" s="103"/>
+      <c r="D3" s="103"/>
+      <c r="E3" s="103"/>
+      <c r="F3" s="103"/>
+      <c r="G3" s="103"/>
+      <c r="H3" s="103"/>
+      <c r="I3" s="103"/>
+      <c r="J3" s="103"/>
+      <c r="K3" s="104"/>
     </row>
     <row r="4" spans="1:11" ht="45" customHeight="1" thickBot="1">
       <c r="A4" s="10" t="s">
         <v>132</v>
       </c>
-      <c r="B4" s="100" t="s">
+      <c r="B4" s="102" t="s">
         <v>158</v>
       </c>
-      <c r="C4" s="101"/>
-      <c r="D4" s="101"/>
-      <c r="E4" s="101"/>
-      <c r="F4" s="101"/>
-      <c r="G4" s="101"/>
-      <c r="H4" s="101"/>
-      <c r="I4" s="101"/>
-      <c r="J4" s="101"/>
-      <c r="K4" s="102"/>
+      <c r="C4" s="103"/>
+      <c r="D4" s="103"/>
+      <c r="E4" s="103"/>
+      <c r="F4" s="103"/>
+      <c r="G4" s="103"/>
+      <c r="H4" s="103"/>
+      <c r="I4" s="103"/>
+      <c r="J4" s="103"/>
+      <c r="K4" s="104"/>
     </row>
     <row r="5" spans="1:11" ht="45" customHeight="1" thickBot="1">
       <c r="A5" s="10" t="s">
         <v>134</v>
       </c>
-      <c r="B5" s="100" t="s">
+      <c r="B5" s="102" t="s">
         <v>155</v>
       </c>
-      <c r="C5" s="101"/>
-      <c r="D5" s="101"/>
-      <c r="E5" s="101"/>
-      <c r="F5" s="101"/>
-      <c r="G5" s="101"/>
-      <c r="H5" s="101"/>
-      <c r="I5" s="101"/>
-      <c r="J5" s="101"/>
-      <c r="K5" s="102"/>
+      <c r="C5" s="103"/>
+      <c r="D5" s="103"/>
+      <c r="E5" s="103"/>
+      <c r="F5" s="103"/>
+      <c r="G5" s="103"/>
+      <c r="H5" s="103"/>
+      <c r="I5" s="103"/>
+      <c r="J5" s="103"/>
+      <c r="K5" s="104"/>
     </row>
     <row r="6" spans="1:11" ht="45" customHeight="1" thickBot="1">
       <c r="A6" s="10" t="s">
         <v>136</v>
       </c>
-      <c r="B6" s="100" t="s">
+      <c r="B6" s="102" t="s">
         <v>156</v>
       </c>
-      <c r="C6" s="101"/>
-      <c r="D6" s="101"/>
-      <c r="E6" s="101"/>
-      <c r="F6" s="101"/>
-      <c r="G6" s="101"/>
-      <c r="H6" s="101"/>
-      <c r="I6" s="101"/>
-      <c r="J6" s="101"/>
-      <c r="K6" s="102"/>
+      <c r="C6" s="103"/>
+      <c r="D6" s="103"/>
+      <c r="E6" s="103"/>
+      <c r="F6" s="103"/>
+      <c r="G6" s="103"/>
+      <c r="H6" s="103"/>
+      <c r="I6" s="103"/>
+      <c r="J6" s="103"/>
+      <c r="K6" s="104"/>
     </row>
     <row r="7" spans="1:11" ht="30" customHeight="1" thickBot="1">
       <c r="A7" s="10" t="s">
         <v>138</v>
       </c>
-      <c r="B7" s="100" t="s">
+      <c r="B7" s="102" t="s">
         <v>157</v>
       </c>
-      <c r="C7" s="101"/>
-      <c r="D7" s="101"/>
-      <c r="E7" s="101"/>
-      <c r="F7" s="101"/>
-      <c r="G7" s="101"/>
-      <c r="H7" s="101"/>
-      <c r="I7" s="101"/>
-      <c r="J7" s="101"/>
-      <c r="K7" s="102"/>
+      <c r="C7" s="103"/>
+      <c r="D7" s="103"/>
+      <c r="E7" s="103"/>
+      <c r="F7" s="103"/>
+      <c r="G7" s="103"/>
+      <c r="H7" s="103"/>
+      <c r="I7" s="103"/>
+      <c r="J7" s="103"/>
+      <c r="K7" s="104"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -37363,7 +37418,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B4D9506-FE81-4C50-86CB-42DFDE5F4697}">
   <sheetPr codeName="Sheet13"/>
   <dimension ref="A1:K7"/>
@@ -37378,120 +37433,120 @@
       <c r="A1" s="9" t="s">
         <v>126</v>
       </c>
-      <c r="B1" s="100" t="s">
+      <c r="B1" s="102" t="s">
         <v>159</v>
       </c>
-      <c r="C1" s="101"/>
-      <c r="D1" s="101"/>
-      <c r="E1" s="101"/>
-      <c r="F1" s="101"/>
-      <c r="G1" s="101"/>
-      <c r="H1" s="101"/>
-      <c r="I1" s="101"/>
-      <c r="J1" s="101"/>
-      <c r="K1" s="102"/>
+      <c r="C1" s="103"/>
+      <c r="D1" s="103"/>
+      <c r="E1" s="103"/>
+      <c r="F1" s="103"/>
+      <c r="G1" s="103"/>
+      <c r="H1" s="103"/>
+      <c r="I1" s="103"/>
+      <c r="J1" s="103"/>
+      <c r="K1" s="104"/>
     </row>
     <row r="2" spans="1:11" ht="45" customHeight="1" thickBot="1">
       <c r="A2" s="10" t="s">
         <v>128</v>
       </c>
-      <c r="B2" s="100" t="s">
+      <c r="B2" s="102" t="s">
         <v>160</v>
       </c>
-      <c r="C2" s="101"/>
-      <c r="D2" s="101"/>
-      <c r="E2" s="101"/>
-      <c r="F2" s="101"/>
-      <c r="G2" s="101"/>
-      <c r="H2" s="101"/>
-      <c r="I2" s="101"/>
-      <c r="J2" s="101"/>
-      <c r="K2" s="102"/>
+      <c r="C2" s="103"/>
+      <c r="D2" s="103"/>
+      <c r="E2" s="103"/>
+      <c r="F2" s="103"/>
+      <c r="G2" s="103"/>
+      <c r="H2" s="103"/>
+      <c r="I2" s="103"/>
+      <c r="J2" s="103"/>
+      <c r="K2" s="104"/>
     </row>
     <row r="3" spans="1:11" ht="45" customHeight="1" thickBot="1">
       <c r="A3" s="10" t="s">
         <v>130</v>
       </c>
-      <c r="B3" s="100" t="s">
+      <c r="B3" s="102" t="s">
         <v>161</v>
       </c>
-      <c r="C3" s="101"/>
-      <c r="D3" s="101"/>
-      <c r="E3" s="101"/>
-      <c r="F3" s="101"/>
-      <c r="G3" s="101"/>
-      <c r="H3" s="101"/>
-      <c r="I3" s="101"/>
-      <c r="J3" s="101"/>
-      <c r="K3" s="102"/>
+      <c r="C3" s="103"/>
+      <c r="D3" s="103"/>
+      <c r="E3" s="103"/>
+      <c r="F3" s="103"/>
+      <c r="G3" s="103"/>
+      <c r="H3" s="103"/>
+      <c r="I3" s="103"/>
+      <c r="J3" s="103"/>
+      <c r="K3" s="104"/>
     </row>
     <row r="4" spans="1:11" ht="45" customHeight="1" thickBot="1">
       <c r="A4" s="10" t="s">
         <v>132</v>
       </c>
-      <c r="B4" s="100" t="s">
+      <c r="B4" s="102" t="s">
         <v>162</v>
       </c>
-      <c r="C4" s="101"/>
-      <c r="D4" s="101"/>
-      <c r="E4" s="101"/>
-      <c r="F4" s="101"/>
-      <c r="G4" s="101"/>
-      <c r="H4" s="101"/>
-      <c r="I4" s="101"/>
-      <c r="J4" s="101"/>
-      <c r="K4" s="102"/>
+      <c r="C4" s="103"/>
+      <c r="D4" s="103"/>
+      <c r="E4" s="103"/>
+      <c r="F4" s="103"/>
+      <c r="G4" s="103"/>
+      <c r="H4" s="103"/>
+      <c r="I4" s="103"/>
+      <c r="J4" s="103"/>
+      <c r="K4" s="104"/>
     </row>
     <row r="5" spans="1:11" ht="45" customHeight="1" thickBot="1">
       <c r="A5" s="10" t="s">
         <v>134</v>
       </c>
-      <c r="B5" s="100" t="s">
+      <c r="B5" s="102" t="s">
         <v>163</v>
       </c>
-      <c r="C5" s="101"/>
-      <c r="D5" s="101"/>
-      <c r="E5" s="101"/>
-      <c r="F5" s="101"/>
-      <c r="G5" s="101"/>
-      <c r="H5" s="101"/>
-      <c r="I5" s="101"/>
-      <c r="J5" s="101"/>
-      <c r="K5" s="102"/>
+      <c r="C5" s="103"/>
+      <c r="D5" s="103"/>
+      <c r="E5" s="103"/>
+      <c r="F5" s="103"/>
+      <c r="G5" s="103"/>
+      <c r="H5" s="103"/>
+      <c r="I5" s="103"/>
+      <c r="J5" s="103"/>
+      <c r="K5" s="104"/>
     </row>
     <row r="6" spans="1:11" ht="45" customHeight="1" thickBot="1">
       <c r="A6" s="10" t="s">
         <v>136</v>
       </c>
-      <c r="B6" s="100" t="s">
+      <c r="B6" s="102" t="s">
         <v>164</v>
       </c>
-      <c r="C6" s="101"/>
-      <c r="D6" s="101"/>
-      <c r="E6" s="101"/>
-      <c r="F6" s="101"/>
-      <c r="G6" s="101"/>
-      <c r="H6" s="101"/>
-      <c r="I6" s="101"/>
-      <c r="J6" s="101"/>
-      <c r="K6" s="102"/>
+      <c r="C6" s="103"/>
+      <c r="D6" s="103"/>
+      <c r="E6" s="103"/>
+      <c r="F6" s="103"/>
+      <c r="G6" s="103"/>
+      <c r="H6" s="103"/>
+      <c r="I6" s="103"/>
+      <c r="J6" s="103"/>
+      <c r="K6" s="104"/>
     </row>
     <row r="7" spans="1:11" ht="30" customHeight="1" thickBot="1">
       <c r="A7" s="10" t="s">
         <v>138</v>
       </c>
-      <c r="B7" s="100" t="s">
+      <c r="B7" s="102" t="s">
         <v>165</v>
       </c>
-      <c r="C7" s="101"/>
-      <c r="D7" s="101"/>
-      <c r="E7" s="101"/>
-      <c r="F7" s="101"/>
-      <c r="G7" s="101"/>
-      <c r="H7" s="101"/>
-      <c r="I7" s="101"/>
-      <c r="J7" s="101"/>
-      <c r="K7" s="102"/>
+      <c r="C7" s="103"/>
+      <c r="D7" s="103"/>
+      <c r="E7" s="103"/>
+      <c r="F7" s="103"/>
+      <c r="G7" s="103"/>
+      <c r="H7" s="103"/>
+      <c r="I7" s="103"/>
+      <c r="J7" s="103"/>
+      <c r="K7" s="104"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -37508,7 +37563,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DFC2900-1516-4D11-BB5E-CB91221B0668}">
   <sheetPr codeName="Sheet14"/>
   <dimension ref="A1:K8"/>
@@ -37523,135 +37578,135 @@
       <c r="A1" s="9" t="s">
         <v>126</v>
       </c>
-      <c r="B1" s="100" t="s">
+      <c r="B1" s="102" t="s">
         <v>224</v>
       </c>
-      <c r="C1" s="101"/>
-      <c r="D1" s="101"/>
-      <c r="E1" s="101"/>
-      <c r="F1" s="101"/>
-      <c r="G1" s="101"/>
-      <c r="H1" s="101"/>
-      <c r="I1" s="101"/>
-      <c r="J1" s="101"/>
-      <c r="K1" s="102"/>
+      <c r="C1" s="103"/>
+      <c r="D1" s="103"/>
+      <c r="E1" s="103"/>
+      <c r="F1" s="103"/>
+      <c r="G1" s="103"/>
+      <c r="H1" s="103"/>
+      <c r="I1" s="103"/>
+      <c r="J1" s="103"/>
+      <c r="K1" s="104"/>
     </row>
     <row r="2" spans="1:11" ht="45" customHeight="1" thickBot="1">
       <c r="A2" s="10" t="s">
         <v>128</v>
       </c>
-      <c r="B2" s="100" t="s">
+      <c r="B2" s="102" t="s">
         <v>225</v>
       </c>
-      <c r="C2" s="101"/>
-      <c r="D2" s="101"/>
-      <c r="E2" s="101"/>
-      <c r="F2" s="101"/>
-      <c r="G2" s="101"/>
-      <c r="H2" s="101"/>
-      <c r="I2" s="101"/>
-      <c r="J2" s="101"/>
-      <c r="K2" s="102"/>
+      <c r="C2" s="103"/>
+      <c r="D2" s="103"/>
+      <c r="E2" s="103"/>
+      <c r="F2" s="103"/>
+      <c r="G2" s="103"/>
+      <c r="H2" s="103"/>
+      <c r="I2" s="103"/>
+      <c r="J2" s="103"/>
+      <c r="K2" s="104"/>
     </row>
     <row r="3" spans="1:11" ht="45" customHeight="1" thickBot="1">
       <c r="A3" s="10" t="s">
         <v>130</v>
       </c>
-      <c r="B3" s="100" t="s">
+      <c r="B3" s="102" t="s">
         <v>226</v>
       </c>
-      <c r="C3" s="101"/>
-      <c r="D3" s="101"/>
-      <c r="E3" s="101"/>
-      <c r="F3" s="101"/>
-      <c r="G3" s="101"/>
-      <c r="H3" s="101"/>
-      <c r="I3" s="101"/>
-      <c r="J3" s="101"/>
-      <c r="K3" s="102"/>
+      <c r="C3" s="103"/>
+      <c r="D3" s="103"/>
+      <c r="E3" s="103"/>
+      <c r="F3" s="103"/>
+      <c r="G3" s="103"/>
+      <c r="H3" s="103"/>
+      <c r="I3" s="103"/>
+      <c r="J3" s="103"/>
+      <c r="K3" s="104"/>
     </row>
     <row r="4" spans="1:11" ht="45" customHeight="1" thickBot="1">
       <c r="A4" s="10" t="s">
         <v>132</v>
       </c>
-      <c r="B4" s="100" t="s">
+      <c r="B4" s="102" t="s">
         <v>227</v>
       </c>
-      <c r="C4" s="101"/>
-      <c r="D4" s="101"/>
-      <c r="E4" s="101"/>
-      <c r="F4" s="101"/>
-      <c r="G4" s="101"/>
-      <c r="H4" s="101"/>
-      <c r="I4" s="101"/>
-      <c r="J4" s="101"/>
-      <c r="K4" s="102"/>
+      <c r="C4" s="103"/>
+      <c r="D4" s="103"/>
+      <c r="E4" s="103"/>
+      <c r="F4" s="103"/>
+      <c r="G4" s="103"/>
+      <c r="H4" s="103"/>
+      <c r="I4" s="103"/>
+      <c r="J4" s="103"/>
+      <c r="K4" s="104"/>
     </row>
     <row r="5" spans="1:11" ht="45" customHeight="1" thickBot="1">
       <c r="A5" s="10" t="s">
         <v>134</v>
       </c>
-      <c r="B5" s="100" t="s">
+      <c r="B5" s="102" t="s">
         <v>228</v>
       </c>
-      <c r="C5" s="101"/>
-      <c r="D5" s="101"/>
-      <c r="E5" s="101"/>
-      <c r="F5" s="101"/>
-      <c r="G5" s="101"/>
-      <c r="H5" s="101"/>
-      <c r="I5" s="101"/>
-      <c r="J5" s="101"/>
-      <c r="K5" s="102"/>
+      <c r="C5" s="103"/>
+      <c r="D5" s="103"/>
+      <c r="E5" s="103"/>
+      <c r="F5" s="103"/>
+      <c r="G5" s="103"/>
+      <c r="H5" s="103"/>
+      <c r="I5" s="103"/>
+      <c r="J5" s="103"/>
+      <c r="K5" s="104"/>
     </row>
     <row r="6" spans="1:11" ht="45" customHeight="1" thickBot="1">
       <c r="A6" s="10" t="s">
         <v>136</v>
       </c>
-      <c r="B6" s="100" t="s">
+      <c r="B6" s="102" t="s">
         <v>229</v>
       </c>
-      <c r="C6" s="101"/>
-      <c r="D6" s="101"/>
-      <c r="E6" s="101"/>
-      <c r="F6" s="101"/>
-      <c r="G6" s="101"/>
-      <c r="H6" s="101"/>
-      <c r="I6" s="101"/>
-      <c r="J6" s="101"/>
-      <c r="K6" s="102"/>
+      <c r="C6" s="103"/>
+      <c r="D6" s="103"/>
+      <c r="E6" s="103"/>
+      <c r="F6" s="103"/>
+      <c r="G6" s="103"/>
+      <c r="H6" s="103"/>
+      <c r="I6" s="103"/>
+      <c r="J6" s="103"/>
+      <c r="K6" s="104"/>
     </row>
     <row r="7" spans="1:11" ht="30" customHeight="1" thickBot="1">
       <c r="A7" s="10" t="s">
         <v>138</v>
       </c>
-      <c r="B7" s="100" t="s">
+      <c r="B7" s="102" t="s">
         <v>230</v>
       </c>
-      <c r="C7" s="101"/>
-      <c r="D7" s="101"/>
-      <c r="E7" s="101"/>
-      <c r="F7" s="101"/>
-      <c r="G7" s="101"/>
-      <c r="H7" s="101"/>
-      <c r="I7" s="101"/>
-      <c r="J7" s="101"/>
-      <c r="K7" s="102"/>
+      <c r="C7" s="103"/>
+      <c r="D7" s="103"/>
+      <c r="E7" s="103"/>
+      <c r="F7" s="103"/>
+      <c r="G7" s="103"/>
+      <c r="H7" s="103"/>
+      <c r="I7" s="103"/>
+      <c r="J7" s="103"/>
+      <c r="K7" s="104"/>
     </row>
     <row r="8" spans="1:11" ht="150.75" customHeight="1" thickBot="1">
       <c r="A8" s="10"/>
-      <c r="B8" s="103" t="s">
+      <c r="B8" s="105" t="s">
         <v>231</v>
       </c>
-      <c r="C8" s="104"/>
-      <c r="D8" s="104"/>
-      <c r="E8" s="104"/>
-      <c r="F8" s="104"/>
-      <c r="G8" s="104"/>
-      <c r="H8" s="104"/>
-      <c r="I8" s="104"/>
-      <c r="J8" s="104"/>
-      <c r="K8" s="105"/>
+      <c r="C8" s="106"/>
+      <c r="D8" s="106"/>
+      <c r="E8" s="106"/>
+      <c r="F8" s="106"/>
+      <c r="G8" s="106"/>
+      <c r="H8" s="106"/>
+      <c r="I8" s="106"/>
+      <c r="J8" s="106"/>
+      <c r="K8" s="107"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -37668,7 +37723,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8370EABC-5FB0-46E3-AC0D-18A12C9132DD}">
   <sheetPr codeName="Sheet15"/>
   <dimension ref="A1:E26"/>
@@ -37955,7 +38010,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B150C828-5E38-4F9B-89F5-DE7664E9E60A}">
   <sheetPr codeName="Sheet16"/>
   <dimension ref="A1"/>
@@ -37970,7 +38025,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F20858FF-860F-4DDB-90C1-5CC740EF8BB8}">
   <sheetPr codeName="Sheet17"/>
   <dimension ref="A1"/>
@@ -37985,7 +38040,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13E5ACBF-E712-4A9D-9910-ED74A62FE5AE}">
   <sheetPr codeName="Sheet18"/>
   <dimension ref="A1"/>
@@ -37998,7 +38053,158 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F25227D-57C1-4CE8-91AC-A7B1D986105A}">
+  <dimension ref="A1:E11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="77"/>
+    <col min="2" max="2" width="21.42578125" style="77" customWidth="1"/>
+    <col min="3" max="3" width="15.85546875" style="77" customWidth="1"/>
+    <col min="4" max="4" width="14.42578125" style="77" customWidth="1"/>
+    <col min="5" max="5" width="45.85546875" style="77" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="77"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="26.25">
+      <c r="A1" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="26" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="27">
+        <v>1</v>
+      </c>
+      <c r="B2" s="27"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="27">
+        <v>2</v>
+      </c>
+      <c r="B3" s="27"/>
+      <c r="C3" s="27"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="27" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="27">
+        <v>3</v>
+      </c>
+      <c r="B4" s="27"/>
+      <c r="C4" s="27"/>
+      <c r="D4" s="27"/>
+      <c r="E4" s="27"/>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="27">
+        <v>4</v>
+      </c>
+      <c r="B5" s="27"/>
+      <c r="C5" s="27"/>
+      <c r="D5" s="27"/>
+      <c r="E5" s="27"/>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="27">
+        <v>5</v>
+      </c>
+      <c r="B6" s="27"/>
+      <c r="C6" s="27"/>
+      <c r="D6" s="27"/>
+      <c r="E6" s="4"/>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="27">
+        <v>6</v>
+      </c>
+      <c r="B7" s="27"/>
+      <c r="C7" s="27"/>
+      <c r="D7" s="27"/>
+      <c r="E7" s="27"/>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="27">
+        <v>7</v>
+      </c>
+      <c r="B8" s="4"/>
+      <c r="C8" s="27"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="27">
+        <v>8</v>
+      </c>
+      <c r="B9" s="27"/>
+      <c r="C9" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" s="27"/>
+      <c r="E9" s="27" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="27">
+        <v>9</v>
+      </c>
+      <c r="B10" s="27"/>
+      <c r="C10" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10" s="27"/>
+      <c r="E10" s="27" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="27">
+        <v>10</v>
+      </c>
+      <c r="B11" s="27"/>
+      <c r="C11" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="D11" s="27"/>
+      <c r="E11" s="27" t="s">
+        <v>573</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C11" xr:uid="{C25676CB-0E13-4DAC-A339-307289FD36DA}">
+      <formula1>"English,Knowledge Gaps,Emotion,Techniques"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C417280C-3257-4FCE-BFBC-576DD1B4382F}">
   <sheetPr codeName="Sheet19"/>
   <dimension ref="A1"/>
@@ -38019,7 +38225,789 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE7AA35E-BA94-465D-947F-048E2F692024}">
+  <dimension ref="A1:F11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="77"/>
+    <col min="2" max="2" width="21.42578125" style="77" customWidth="1"/>
+    <col min="3" max="3" width="15.85546875" style="77" customWidth="1"/>
+    <col min="4" max="4" width="14.42578125" style="77" customWidth="1"/>
+    <col min="5" max="5" width="45.85546875" style="77" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="77"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="26.25">
+      <c r="A1" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="26" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="27">
+        <v>1</v>
+      </c>
+      <c r="B2" s="27"/>
+      <c r="C2" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="27">
+        <v>2</v>
+      </c>
+      <c r="B3" s="27"/>
+      <c r="C3" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="27"/>
+      <c r="E3" s="27" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="27">
+        <v>3</v>
+      </c>
+      <c r="B4" s="27"/>
+      <c r="C4" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="27"/>
+      <c r="E4" s="27" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="27">
+        <v>4</v>
+      </c>
+      <c r="B5" s="27"/>
+      <c r="C5" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="27"/>
+      <c r="E5" s="27" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="120">
+      <c r="A6" s="27">
+        <v>5</v>
+      </c>
+      <c r="B6" s="27"/>
+      <c r="C6" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" s="27"/>
+      <c r="E6" s="4" t="s">
+        <v>563</v>
+      </c>
+      <c r="F6" s="77" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="27">
+        <v>6</v>
+      </c>
+      <c r="B7" s="27"/>
+      <c r="C7" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" s="27"/>
+      <c r="E7" s="27" t="s">
+        <v>566</v>
+      </c>
+      <c r="F7" s="77" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="120">
+      <c r="A8" s="27">
+        <v>7</v>
+      </c>
+      <c r="B8" s="4"/>
+      <c r="C8" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="27">
+        <v>8</v>
+      </c>
+      <c r="B9" s="27"/>
+      <c r="C9" s="27"/>
+      <c r="D9" s="27"/>
+      <c r="E9" s="27"/>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="27">
+        <v>9</v>
+      </c>
+      <c r="B10" s="27"/>
+      <c r="C10" s="27"/>
+      <c r="D10" s="27"/>
+      <c r="E10" s="27"/>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="27">
+        <v>10</v>
+      </c>
+      <c r="B11" s="27"/>
+      <c r="C11" s="27"/>
+      <c r="D11" s="27"/>
+      <c r="E11" s="27" t="s">
+        <v>568</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C11" xr:uid="{990F738F-95B8-418E-A433-42A014F7A5A1}">
+      <formula1>"English,Knowledge Gaps,Emotion,Techniques"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A78EF31-A47F-4412-A3CA-C438D7816DE2}">
+  <dimension ref="A1:G51"/>
+  <sheetViews>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="77"/>
+    <col min="2" max="2" width="33.140625" style="77" customWidth="1"/>
+    <col min="3" max="3" width="28.140625" style="77" customWidth="1"/>
+    <col min="4" max="4" width="46.28515625" style="77" customWidth="1"/>
+    <col min="5" max="5" width="43.85546875" style="77" customWidth="1"/>
+    <col min="6" max="6" width="79" style="77" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="77"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="25.5">
+      <c r="A1" s="78" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="78" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="78" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="79" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="82" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="83" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="81">
+        <v>1</v>
+      </c>
+      <c r="B2" s="81"/>
+      <c r="C2" s="81" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="81"/>
+      <c r="E2" s="84"/>
+      <c r="F2" s="77" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="45">
+      <c r="A3" s="81">
+        <v>2</v>
+      </c>
+      <c r="B3" s="81"/>
+      <c r="C3" s="81" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="81"/>
+      <c r="E3" s="84" t="s">
+        <v>525</v>
+      </c>
+      <c r="F3" s="77" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="81">
+        <v>3</v>
+      </c>
+      <c r="B4" s="81"/>
+      <c r="C4" s="81"/>
+      <c r="D4" s="81" t="s">
+        <v>526</v>
+      </c>
+      <c r="E4" s="84"/>
+      <c r="F4" s="77" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="81">
+        <v>4</v>
+      </c>
+      <c r="B5" s="81"/>
+      <c r="C5" s="81"/>
+      <c r="D5" s="81"/>
+      <c r="E5" s="84"/>
+      <c r="F5" s="77" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="81">
+        <v>5</v>
+      </c>
+      <c r="B6" s="81"/>
+      <c r="C6" s="81"/>
+      <c r="D6" s="81"/>
+      <c r="E6" s="84" t="s">
+        <v>529</v>
+      </c>
+      <c r="F6" s="77" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="81">
+        <v>6</v>
+      </c>
+      <c r="B7" s="81"/>
+      <c r="C7" s="81"/>
+      <c r="D7" s="81"/>
+      <c r="E7" s="84"/>
+      <c r="F7" s="77" t="s">
+        <v>530</v>
+      </c>
+      <c r="G7" s="87"/>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="81">
+        <v>7</v>
+      </c>
+      <c r="B8" s="81"/>
+      <c r="C8" s="81"/>
+      <c r="D8" s="81"/>
+      <c r="E8" s="84"/>
+      <c r="F8" s="93" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="81">
+        <v>8</v>
+      </c>
+      <c r="B9" s="81"/>
+      <c r="C9" s="81"/>
+      <c r="D9" s="81"/>
+      <c r="E9" s="84"/>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="81">
+        <v>9</v>
+      </c>
+      <c r="B10" s="81"/>
+      <c r="C10" s="81" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10" s="81" t="s">
+        <v>533</v>
+      </c>
+      <c r="E10" s="84"/>
+      <c r="F10" s="93" t="s">
+        <v>532</v>
+      </c>
+      <c r="G10" s="87"/>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="81">
+        <v>10</v>
+      </c>
+      <c r="B11" s="81"/>
+      <c r="C11" s="81"/>
+      <c r="D11" s="81"/>
+      <c r="E11" s="84"/>
+      <c r="F11" s="93" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="81">
+        <v>11</v>
+      </c>
+      <c r="B12" s="81"/>
+      <c r="C12" s="81" t="s">
+        <v>4</v>
+      </c>
+      <c r="D12" s="81" t="s">
+        <v>535</v>
+      </c>
+      <c r="E12" s="84" t="s">
+        <v>536</v>
+      </c>
+      <c r="F12" s="87" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="81">
+        <v>12</v>
+      </c>
+      <c r="B13" s="81"/>
+      <c r="C13" s="81" t="s">
+        <v>4</v>
+      </c>
+      <c r="D13" s="81"/>
+      <c r="E13" s="84"/>
+      <c r="F13" s="93" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="81">
+        <v>13</v>
+      </c>
+      <c r="B14" s="81"/>
+      <c r="C14" s="81" t="s">
+        <v>4</v>
+      </c>
+      <c r="D14" s="80" t="s">
+        <v>539</v>
+      </c>
+      <c r="E14" s="84"/>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="81">
+        <v>14</v>
+      </c>
+      <c r="B15" s="81"/>
+      <c r="C15" s="81" t="s">
+        <v>4</v>
+      </c>
+      <c r="D15" s="81"/>
+      <c r="E15" s="84"/>
+      <c r="F15" s="93" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="81">
+        <v>15</v>
+      </c>
+      <c r="B16" s="81"/>
+      <c r="C16" s="81" t="s">
+        <v>4</v>
+      </c>
+      <c r="D16" s="81"/>
+      <c r="E16" s="84"/>
+      <c r="F16" s="93" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="81">
+        <v>16</v>
+      </c>
+      <c r="B17" s="81"/>
+      <c r="C17" s="81" t="s">
+        <v>4</v>
+      </c>
+      <c r="D17" s="81"/>
+      <c r="E17" s="84" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="81">
+        <v>17</v>
+      </c>
+      <c r="B18" s="81"/>
+      <c r="C18" s="81" t="s">
+        <v>4</v>
+      </c>
+      <c r="D18" s="81"/>
+      <c r="E18" s="84" t="s">
+        <v>544</v>
+      </c>
+      <c r="F18" s="77" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="81">
+        <v>18</v>
+      </c>
+      <c r="B19" s="81"/>
+      <c r="C19" s="81"/>
+      <c r="D19" s="81"/>
+      <c r="E19" s="84"/>
+      <c r="F19" s="94" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="81">
+        <v>19</v>
+      </c>
+      <c r="B20" s="81"/>
+      <c r="C20" s="81"/>
+      <c r="D20" s="81"/>
+      <c r="E20" s="84"/>
+      <c r="F20" s="77" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="81">
+        <v>20</v>
+      </c>
+      <c r="B21" s="81"/>
+      <c r="C21" s="81" t="s">
+        <v>4</v>
+      </c>
+      <c r="D21" s="81" t="s">
+        <v>547</v>
+      </c>
+      <c r="E21" s="84"/>
+      <c r="F21" s="77" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="81">
+        <v>21</v>
+      </c>
+      <c r="B22" s="81"/>
+      <c r="C22" s="81" t="s">
+        <v>4</v>
+      </c>
+      <c r="D22" s="81"/>
+      <c r="E22" s="84"/>
+      <c r="F22" s="77" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="30">
+      <c r="A23" s="81">
+        <v>22</v>
+      </c>
+      <c r="B23" s="81"/>
+      <c r="C23" s="81"/>
+      <c r="D23" s="81"/>
+      <c r="E23" s="84" t="s">
+        <v>550</v>
+      </c>
+      <c r="F23" s="77" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="81">
+        <v>23</v>
+      </c>
+      <c r="B24" s="81"/>
+      <c r="C24" s="81"/>
+      <c r="D24" s="81"/>
+      <c r="E24" s="84"/>
+      <c r="F24" s="77" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="81">
+        <v>24</v>
+      </c>
+      <c r="B25" s="81"/>
+      <c r="C25" s="81"/>
+      <c r="D25" s="81"/>
+      <c r="E25" s="84"/>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="81">
+        <v>25</v>
+      </c>
+      <c r="B26" s="81"/>
+      <c r="C26" s="81"/>
+      <c r="D26" s="81"/>
+      <c r="E26" s="84"/>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="81">
+        <v>26</v>
+      </c>
+      <c r="B27" s="81"/>
+      <c r="C27" s="81"/>
+      <c r="D27" s="81"/>
+      <c r="E27" s="84"/>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="81">
+        <v>27</v>
+      </c>
+      <c r="B28" s="81"/>
+      <c r="C28" s="81"/>
+      <c r="D28" s="81"/>
+      <c r="E28" s="84"/>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" s="81">
+        <v>28</v>
+      </c>
+      <c r="B29" s="81"/>
+      <c r="C29" s="81"/>
+      <c r="D29" s="81"/>
+      <c r="E29" s="84"/>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" s="81">
+        <v>29</v>
+      </c>
+      <c r="B30" s="81"/>
+      <c r="C30" s="81"/>
+      <c r="D30" s="81"/>
+      <c r="E30" s="84"/>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" s="81">
+        <v>30</v>
+      </c>
+      <c r="B31" s="81"/>
+      <c r="C31" s="81"/>
+      <c r="D31" s="81"/>
+      <c r="E31" s="84"/>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" s="81">
+        <v>31</v>
+      </c>
+      <c r="B32" s="81"/>
+      <c r="C32" s="81"/>
+      <c r="D32" s="81"/>
+      <c r="E32" s="84"/>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" s="81">
+        <v>32</v>
+      </c>
+      <c r="B33" s="81"/>
+      <c r="C33" s="81"/>
+      <c r="D33" s="81"/>
+      <c r="E33" s="84"/>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" s="81">
+        <v>33</v>
+      </c>
+      <c r="B34" s="81"/>
+      <c r="C34" s="81"/>
+      <c r="D34" s="81"/>
+      <c r="E34" s="84"/>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" s="81">
+        <v>34</v>
+      </c>
+      <c r="B35" s="81"/>
+      <c r="C35" s="81"/>
+      <c r="D35" s="81"/>
+      <c r="E35" s="84"/>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" s="81">
+        <v>35</v>
+      </c>
+      <c r="B36" s="81"/>
+      <c r="C36" s="81"/>
+      <c r="D36" s="81"/>
+      <c r="E36" s="84"/>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" s="81">
+        <v>36</v>
+      </c>
+      <c r="B37" s="81"/>
+      <c r="C37" s="81"/>
+      <c r="D37" s="81"/>
+      <c r="E37" s="84"/>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" s="81">
+        <v>37</v>
+      </c>
+      <c r="B38" s="81"/>
+      <c r="C38" s="81"/>
+      <c r="D38" s="81"/>
+      <c r="E38" s="84"/>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" s="81">
+        <v>38</v>
+      </c>
+      <c r="B39" s="81"/>
+      <c r="C39" s="81"/>
+      <c r="D39" s="81"/>
+      <c r="E39" s="84"/>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" s="81">
+        <v>39</v>
+      </c>
+      <c r="B40" s="81"/>
+      <c r="C40" s="81"/>
+      <c r="D40" s="81"/>
+      <c r="E40" s="84"/>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" s="81">
+        <v>40</v>
+      </c>
+      <c r="B41" s="81"/>
+      <c r="C41" s="81"/>
+      <c r="D41" s="81"/>
+      <c r="E41" s="84"/>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" s="81">
+        <v>41</v>
+      </c>
+      <c r="B42" s="81"/>
+      <c r="C42" s="81"/>
+      <c r="D42" s="81"/>
+      <c r="E42" s="84"/>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" s="81">
+        <v>42</v>
+      </c>
+      <c r="B43" s="81"/>
+      <c r="C43" s="81"/>
+      <c r="D43" s="81"/>
+      <c r="E43" s="84"/>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44" s="81">
+        <v>43</v>
+      </c>
+      <c r="B44" s="81"/>
+      <c r="C44" s="81"/>
+      <c r="D44" s="81"/>
+      <c r="E44" s="84"/>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45" s="81">
+        <v>44</v>
+      </c>
+      <c r="B45" s="81"/>
+      <c r="C45" s="81"/>
+      <c r="D45" s="81"/>
+      <c r="E45" s="84"/>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46" s="81">
+        <v>45</v>
+      </c>
+      <c r="B46" s="81"/>
+      <c r="C46" s="81"/>
+      <c r="D46" s="81"/>
+      <c r="E46" s="84"/>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47" s="81">
+        <v>46</v>
+      </c>
+      <c r="B47" s="81"/>
+      <c r="C47" s="81"/>
+      <c r="D47" s="81"/>
+      <c r="E47" s="84"/>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48" s="81">
+        <v>47</v>
+      </c>
+      <c r="B48" s="81"/>
+      <c r="C48" s="81"/>
+      <c r="D48" s="81"/>
+      <c r="E48" s="84"/>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49" s="81">
+        <v>48</v>
+      </c>
+      <c r="B49" s="81"/>
+      <c r="C49" s="81"/>
+      <c r="D49" s="81"/>
+      <c r="E49" s="84"/>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50" s="81">
+        <v>49</v>
+      </c>
+      <c r="B50" s="81"/>
+      <c r="C50" s="81"/>
+      <c r="D50" s="81"/>
+      <c r="E50" s="84"/>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51" s="81">
+        <v>50</v>
+      </c>
+      <c r="B51" s="81"/>
+      <c r="C51" s="81"/>
+      <c r="D51" s="81"/>
+      <c r="E51" s="84"/>
+    </row>
+  </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C51" xr:uid="{549247D2-82F2-46B7-8061-B53C448567CC}">
+      <formula1>"English,Knowledge Gaps,Emotion,Techniques"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="F1" location="'Domain-Planning'!A1" display="Domain" xr:uid="{EE68F612-4404-44A1-8A07-B7B39E9FDD42}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50057963-75E5-4253-A7F5-E58A81C4C7B8}">
   <dimension ref="A1:G51"/>
   <sheetViews>
@@ -38029,580 +39017,580 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="78"/>
-    <col min="2" max="2" width="33.140625" style="78" customWidth="1"/>
-    <col min="3" max="3" width="28.140625" style="78" customWidth="1"/>
-    <col min="4" max="4" width="46.28515625" style="78" customWidth="1"/>
-    <col min="5" max="5" width="43.85546875" style="78" customWidth="1"/>
-    <col min="6" max="6" width="79" style="78" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="78"/>
+    <col min="1" max="1" width="9.140625" style="77"/>
+    <col min="2" max="2" width="33.140625" style="77" customWidth="1"/>
+    <col min="3" max="3" width="28.140625" style="77" customWidth="1"/>
+    <col min="4" max="4" width="46.28515625" style="77" customWidth="1"/>
+    <col min="5" max="5" width="43.85546875" style="77" customWidth="1"/>
+    <col min="6" max="6" width="79" style="77" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="77"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="25.5">
-      <c r="A1" s="79" t="s">
+      <c r="A1" s="78" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="79" t="s">
+      <c r="B1" s="78" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="79" t="s">
+      <c r="C1" s="78" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="80" t="s">
+      <c r="D1" s="79" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="83" t="s">
+      <c r="E1" s="82" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="84" t="s">
+      <c r="F1" s="83" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="225">
-      <c r="A2" s="82">
+      <c r="A2" s="81">
         <v>1</v>
       </c>
-      <c r="B2" s="82"/>
-      <c r="C2" s="82" t="s">
+      <c r="B2" s="81"/>
+      <c r="C2" s="81" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="82"/>
-      <c r="E2" s="85" t="s">
+      <c r="D2" s="81"/>
+      <c r="E2" s="84" t="s">
         <v>501</v>
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="82">
+      <c r="A3" s="81">
         <v>2</v>
       </c>
-      <c r="B3" s="82"/>
-      <c r="C3" s="82"/>
-      <c r="D3" s="82"/>
-      <c r="E3" s="85"/>
+      <c r="B3" s="81"/>
+      <c r="C3" s="81"/>
+      <c r="D3" s="81"/>
+      <c r="E3" s="84"/>
     </row>
     <row r="4" spans="1:7" ht="30">
-      <c r="A4" s="82">
+      <c r="A4" s="81">
         <v>3</v>
       </c>
-      <c r="B4" s="82"/>
-      <c r="C4" s="82" t="s">
+      <c r="B4" s="81"/>
+      <c r="C4" s="81" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="82"/>
-      <c r="E4" s="85" t="s">
+      <c r="D4" s="81"/>
+      <c r="E4" s="84" t="s">
         <v>502</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="82">
+      <c r="A5" s="81">
         <v>4</v>
       </c>
-      <c r="B5" s="82"/>
-      <c r="C5" s="82"/>
-      <c r="D5" s="82"/>
-      <c r="E5" s="85"/>
+      <c r="B5" s="81"/>
+      <c r="C5" s="81"/>
+      <c r="D5" s="81"/>
+      <c r="E5" s="84"/>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="82">
+      <c r="A6" s="81">
         <v>5</v>
       </c>
-      <c r="B6" s="82"/>
-      <c r="C6" s="82" t="s">
+      <c r="B6" s="81"/>
+      <c r="C6" s="81" t="s">
         <v>23</v>
       </c>
-      <c r="D6" s="82"/>
-      <c r="E6" s="85"/>
+      <c r="D6" s="81"/>
+      <c r="E6" s="84"/>
     </row>
     <row r="7" spans="1:7" ht="30">
-      <c r="A7" s="82">
+      <c r="A7" s="81">
         <v>6</v>
       </c>
-      <c r="B7" s="82"/>
-      <c r="C7" s="82"/>
-      <c r="D7" s="82"/>
-      <c r="E7" s="85" t="s">
+      <c r="B7" s="81"/>
+      <c r="C7" s="81"/>
+      <c r="D7" s="81"/>
+      <c r="E7" s="84" t="s">
         <v>503</v>
       </c>
-      <c r="G7" s="88"/>
+      <c r="G7" s="87"/>
     </row>
     <row r="8" spans="1:7" ht="30">
-      <c r="A8" s="82">
+      <c r="A8" s="81">
         <v>7</v>
       </c>
-      <c r="B8" s="82"/>
-      <c r="C8" s="82"/>
-      <c r="D8" s="82"/>
-      <c r="E8" s="85" t="s">
+      <c r="B8" s="81"/>
+      <c r="C8" s="81"/>
+      <c r="D8" s="81"/>
+      <c r="E8" s="84" t="s">
         <v>504</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="30">
-      <c r="A9" s="82">
+      <c r="A9" s="81">
         <v>8</v>
       </c>
-      <c r="B9" s="82"/>
-      <c r="C9" s="82" t="s">
+      <c r="B9" s="81"/>
+      <c r="C9" s="81" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="82" t="s">
+      <c r="D9" s="81" t="s">
         <v>506</v>
       </c>
-      <c r="E9" s="85" t="s">
+      <c r="E9" s="84" t="s">
         <v>505</v>
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="82">
+      <c r="A10" s="81">
         <v>9</v>
       </c>
-      <c r="B10" s="82"/>
-      <c r="C10" s="82"/>
-      <c r="D10" s="82"/>
-      <c r="E10" s="85" t="s">
+      <c r="B10" s="81"/>
+      <c r="C10" s="81"/>
+      <c r="D10" s="81"/>
+      <c r="E10" s="84" t="s">
         <v>507</v>
       </c>
-      <c r="G10" s="88"/>
+      <c r="G10" s="87"/>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="82">
+      <c r="A11" s="81">
         <v>10</v>
       </c>
-      <c r="B11" s="82"/>
-      <c r="C11" s="82"/>
-      <c r="D11" s="82"/>
-      <c r="E11" s="85"/>
+      <c r="B11" s="81"/>
+      <c r="C11" s="81"/>
+      <c r="D11" s="81"/>
+      <c r="E11" s="84"/>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="82">
+      <c r="A12" s="81">
         <v>11</v>
       </c>
-      <c r="B12" s="82"/>
-      <c r="C12" s="82"/>
-      <c r="D12" s="82"/>
-      <c r="E12" s="85"/>
+      <c r="B12" s="81"/>
+      <c r="C12" s="81"/>
+      <c r="D12" s="81"/>
+      <c r="E12" s="84"/>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="82">
+      <c r="A13" s="81">
         <v>12</v>
       </c>
-      <c r="B13" s="82"/>
-      <c r="C13" s="82"/>
-      <c r="D13" s="82"/>
-      <c r="E13" s="85"/>
+      <c r="B13" s="81"/>
+      <c r="C13" s="81"/>
+      <c r="D13" s="81"/>
+      <c r="E13" s="84"/>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="82">
+      <c r="A14" s="81">
         <v>13</v>
       </c>
-      <c r="B14" s="82"/>
-      <c r="C14" s="82"/>
-      <c r="D14" s="81"/>
-      <c r="E14" s="85"/>
+      <c r="B14" s="81"/>
+      <c r="C14" s="81"/>
+      <c r="D14" s="80"/>
+      <c r="E14" s="84"/>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="82">
+      <c r="A15" s="81">
         <v>14</v>
       </c>
-      <c r="B15" s="82"/>
-      <c r="C15" s="82"/>
-      <c r="D15" s="82"/>
-      <c r="E15" s="85"/>
+      <c r="B15" s="81"/>
+      <c r="C15" s="81"/>
+      <c r="D15" s="81"/>
+      <c r="E15" s="84"/>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="82">
+      <c r="A16" s="81">
         <v>15</v>
       </c>
-      <c r="B16" s="82"/>
-      <c r="C16" s="82"/>
-      <c r="D16" s="82"/>
-      <c r="E16" s="85"/>
+      <c r="B16" s="81"/>
+      <c r="C16" s="81"/>
+      <c r="D16" s="81"/>
+      <c r="E16" s="84"/>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17" s="82">
+      <c r="A17" s="81">
         <v>16</v>
       </c>
-      <c r="B17" s="82"/>
-      <c r="C17" s="82"/>
-      <c r="D17" s="82"/>
-      <c r="E17" s="85"/>
+      <c r="B17" s="81"/>
+      <c r="C17" s="81"/>
+      <c r="D17" s="81"/>
+      <c r="E17" s="84"/>
     </row>
     <row r="18" spans="1:5">
-      <c r="A18" s="82">
+      <c r="A18" s="81">
         <v>17</v>
       </c>
-      <c r="B18" s="82"/>
-      <c r="C18" s="82"/>
-      <c r="D18" s="82"/>
-      <c r="E18" s="85"/>
+      <c r="B18" s="81"/>
+      <c r="C18" s="81"/>
+      <c r="D18" s="81"/>
+      <c r="E18" s="84"/>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19" s="82">
+      <c r="A19" s="81">
         <v>18</v>
       </c>
-      <c r="B19" s="82"/>
-      <c r="C19" s="82"/>
-      <c r="D19" s="82"/>
-      <c r="E19" s="85"/>
+      <c r="B19" s="81"/>
+      <c r="C19" s="81"/>
+      <c r="D19" s="81"/>
+      <c r="E19" s="84"/>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" s="82">
+      <c r="A20" s="81">
         <v>19</v>
       </c>
-      <c r="B20" s="82"/>
-      <c r="C20" s="82" t="s">
+      <c r="B20" s="81"/>
+      <c r="C20" s="81" t="s">
         <v>4</v>
       </c>
-      <c r="D20" s="82"/>
-      <c r="E20" s="85" t="s">
+      <c r="D20" s="81"/>
+      <c r="E20" s="84" t="s">
         <v>508</v>
       </c>
     </row>
     <row r="21" spans="1:5">
-      <c r="A21" s="82">
+      <c r="A21" s="81">
         <v>20</v>
       </c>
-      <c r="B21" s="82"/>
-      <c r="C21" s="82" t="s">
+      <c r="B21" s="81"/>
+      <c r="C21" s="81" t="s">
         <v>4</v>
       </c>
-      <c r="D21" s="82"/>
-      <c r="E21" s="85" t="s">
+      <c r="D21" s="81"/>
+      <c r="E21" s="84" t="s">
         <v>509</v>
       </c>
     </row>
     <row r="22" spans="1:5">
-      <c r="A22" s="82">
+      <c r="A22" s="81">
         <v>21</v>
       </c>
-      <c r="B22" s="82"/>
-      <c r="C22" s="82" t="s">
+      <c r="B22" s="81"/>
+      <c r="C22" s="81" t="s">
         <v>4</v>
       </c>
-      <c r="D22" s="82"/>
-      <c r="E22" s="85" t="s">
+      <c r="D22" s="81"/>
+      <c r="E22" s="84" t="s">
         <v>510</v>
       </c>
     </row>
     <row r="23" spans="1:5">
-      <c r="A23" s="82">
+      <c r="A23" s="81">
         <v>22</v>
       </c>
-      <c r="B23" s="82"/>
-      <c r="C23" s="82"/>
-      <c r="D23" s="82"/>
-      <c r="E23" s="85"/>
+      <c r="B23" s="81"/>
+      <c r="C23" s="81"/>
+      <c r="D23" s="81"/>
+      <c r="E23" s="84"/>
     </row>
     <row r="24" spans="1:5">
-      <c r="A24" s="82">
+      <c r="A24" s="81">
         <v>23</v>
       </c>
-      <c r="B24" s="82"/>
-      <c r="C24" s="82"/>
-      <c r="D24" s="82"/>
-      <c r="E24" s="85"/>
+      <c r="B24" s="81"/>
+      <c r="C24" s="81"/>
+      <c r="D24" s="81"/>
+      <c r="E24" s="84"/>
     </row>
     <row r="25" spans="1:5">
-      <c r="A25" s="82">
+      <c r="A25" s="81">
         <v>24</v>
       </c>
-      <c r="B25" s="82"/>
-      <c r="C25" s="82"/>
-      <c r="D25" s="82"/>
-      <c r="E25" s="85"/>
+      <c r="B25" s="81"/>
+      <c r="C25" s="81"/>
+      <c r="D25" s="81"/>
+      <c r="E25" s="84"/>
     </row>
     <row r="26" spans="1:5">
-      <c r="A26" s="82">
+      <c r="A26" s="81">
         <v>25</v>
       </c>
-      <c r="B26" s="82"/>
-      <c r="C26" s="82" t="s">
+      <c r="B26" s="81"/>
+      <c r="C26" s="81" t="s">
         <v>4</v>
       </c>
-      <c r="D26" s="82" t="s">
+      <c r="D26" s="81" t="s">
         <v>511</v>
       </c>
-      <c r="E26" s="85"/>
+      <c r="E26" s="84"/>
     </row>
     <row r="27" spans="1:5">
-      <c r="A27" s="82">
+      <c r="A27" s="81">
         <v>26</v>
       </c>
-      <c r="B27" s="82"/>
-      <c r="C27" s="82"/>
-      <c r="D27" s="82"/>
-      <c r="E27" s="85"/>
+      <c r="B27" s="81"/>
+      <c r="C27" s="81"/>
+      <c r="D27" s="81"/>
+      <c r="E27" s="84"/>
     </row>
     <row r="28" spans="1:5" ht="75">
-      <c r="A28" s="82">
+      <c r="A28" s="81">
         <v>27</v>
       </c>
-      <c r="B28" s="82"/>
-      <c r="C28" s="82" t="s">
+      <c r="B28" s="81"/>
+      <c r="C28" s="81" t="s">
         <v>4</v>
       </c>
-      <c r="D28" s="82" t="s">
+      <c r="D28" s="81" t="s">
         <v>513</v>
       </c>
-      <c r="E28" s="85" t="s">
+      <c r="E28" s="84" t="s">
         <v>512</v>
       </c>
     </row>
     <row r="29" spans="1:5">
-      <c r="A29" s="82">
+      <c r="A29" s="81">
         <v>28</v>
       </c>
-      <c r="B29" s="82"/>
-      <c r="C29" s="82"/>
-      <c r="D29" s="82"/>
-      <c r="E29" s="85"/>
+      <c r="B29" s="81"/>
+      <c r="C29" s="81"/>
+      <c r="D29" s="81"/>
+      <c r="E29" s="84"/>
     </row>
     <row r="30" spans="1:5" ht="30">
-      <c r="A30" s="82">
+      <c r="A30" s="81">
         <v>29</v>
       </c>
-      <c r="B30" s="82"/>
-      <c r="C30" s="82" t="s">
+      <c r="B30" s="81"/>
+      <c r="C30" s="81" t="s">
         <v>4</v>
       </c>
-      <c r="D30" s="82"/>
-      <c r="E30" s="85" t="s">
+      <c r="D30" s="81"/>
+      <c r="E30" s="84" t="s">
         <v>514</v>
       </c>
     </row>
     <row r="31" spans="1:5">
-      <c r="A31" s="82">
+      <c r="A31" s="81">
         <v>30</v>
       </c>
-      <c r="B31" s="82"/>
-      <c r="C31" s="82" t="s">
+      <c r="B31" s="81"/>
+      <c r="C31" s="81" t="s">
         <v>4</v>
       </c>
-      <c r="D31" s="82" t="s">
+      <c r="D31" s="81" t="s">
         <v>515</v>
       </c>
-      <c r="E31" s="85" t="s">
+      <c r="E31" s="84" t="s">
         <v>516</v>
       </c>
     </row>
     <row r="32" spans="1:5">
-      <c r="A32" s="82">
+      <c r="A32" s="81">
         <v>31</v>
       </c>
-      <c r="B32" s="82"/>
-      <c r="C32" s="82" t="s">
+      <c r="B32" s="81"/>
+      <c r="C32" s="81" t="s">
         <v>4</v>
       </c>
-      <c r="D32" s="82"/>
-      <c r="E32" s="85"/>
+      <c r="D32" s="81"/>
+      <c r="E32" s="84"/>
     </row>
     <row r="33" spans="1:5">
-      <c r="A33" s="82">
+      <c r="A33" s="81">
         <v>32</v>
       </c>
-      <c r="B33" s="82"/>
-      <c r="C33" s="82" t="s">
+      <c r="B33" s="81"/>
+      <c r="C33" s="81" t="s">
         <v>4</v>
       </c>
-      <c r="D33" s="82" t="s">
+      <c r="D33" s="81" t="s">
         <v>517</v>
       </c>
-      <c r="E33" s="85" t="s">
+      <c r="E33" s="84" t="s">
         <v>518</v>
       </c>
     </row>
     <row r="34" spans="1:5">
-      <c r="A34" s="82">
+      <c r="A34" s="81">
         <v>33</v>
       </c>
-      <c r="B34" s="82"/>
-      <c r="C34" s="82"/>
-      <c r="D34" s="82"/>
-      <c r="E34" s="85"/>
+      <c r="B34" s="81"/>
+      <c r="C34" s="81"/>
+      <c r="D34" s="81"/>
+      <c r="E34" s="84"/>
     </row>
     <row r="35" spans="1:5">
-      <c r="A35" s="82">
+      <c r="A35" s="81">
         <v>34</v>
       </c>
-      <c r="B35" s="82"/>
-      <c r="C35" s="82"/>
-      <c r="D35" s="82"/>
-      <c r="E35" s="85"/>
+      <c r="B35" s="81"/>
+      <c r="C35" s="81"/>
+      <c r="D35" s="81"/>
+      <c r="E35" s="84"/>
     </row>
     <row r="36" spans="1:5">
-      <c r="A36" s="82">
+      <c r="A36" s="81">
         <v>35</v>
       </c>
-      <c r="B36" s="82"/>
-      <c r="C36" s="82"/>
-      <c r="D36" s="82"/>
-      <c r="E36" s="85"/>
+      <c r="B36" s="81"/>
+      <c r="C36" s="81"/>
+      <c r="D36" s="81"/>
+      <c r="E36" s="84"/>
     </row>
     <row r="37" spans="1:5">
-      <c r="A37" s="82">
+      <c r="A37" s="81">
         <v>36</v>
       </c>
-      <c r="B37" s="82"/>
-      <c r="C37" s="82" t="s">
+      <c r="B37" s="81"/>
+      <c r="C37" s="81" t="s">
         <v>4</v>
       </c>
-      <c r="D37" s="82"/>
-      <c r="E37" s="85" t="s">
+      <c r="D37" s="81"/>
+      <c r="E37" s="84" t="s">
         <v>519</v>
       </c>
     </row>
     <row r="38" spans="1:5">
-      <c r="A38" s="82">
+      <c r="A38" s="81">
         <v>37</v>
       </c>
-      <c r="B38" s="82"/>
-      <c r="C38" s="82" t="s">
+      <c r="B38" s="81"/>
+      <c r="C38" s="81" t="s">
         <v>4</v>
       </c>
-      <c r="D38" s="82"/>
-      <c r="E38" s="85" t="s">
+      <c r="D38" s="81"/>
+      <c r="E38" s="84" t="s">
         <v>520</v>
       </c>
     </row>
     <row r="39" spans="1:5">
-      <c r="A39" s="82">
+      <c r="A39" s="81">
         <v>38</v>
       </c>
-      <c r="B39" s="82"/>
-      <c r="C39" s="82"/>
-      <c r="D39" s="82"/>
-      <c r="E39" s="85"/>
+      <c r="B39" s="81"/>
+      <c r="C39" s="81"/>
+      <c r="D39" s="81"/>
+      <c r="E39" s="84"/>
     </row>
     <row r="40" spans="1:5">
-      <c r="A40" s="82">
+      <c r="A40" s="81">
         <v>39</v>
       </c>
-      <c r="B40" s="82"/>
-      <c r="C40" s="82"/>
-      <c r="D40" s="82"/>
-      <c r="E40" s="85"/>
+      <c r="B40" s="81"/>
+      <c r="C40" s="81"/>
+      <c r="D40" s="81"/>
+      <c r="E40" s="84"/>
     </row>
     <row r="41" spans="1:5">
-      <c r="A41" s="82">
+      <c r="A41" s="81">
         <v>40</v>
       </c>
-      <c r="B41" s="82"/>
-      <c r="C41" s="82"/>
-      <c r="D41" s="82"/>
-      <c r="E41" s="85"/>
+      <c r="B41" s="81"/>
+      <c r="C41" s="81"/>
+      <c r="D41" s="81"/>
+      <c r="E41" s="84"/>
     </row>
     <row r="42" spans="1:5">
-      <c r="A42" s="82">
+      <c r="A42" s="81">
         <v>41</v>
       </c>
-      <c r="B42" s="82"/>
-      <c r="C42" s="82"/>
-      <c r="D42" s="82" t="s">
+      <c r="B42" s="81"/>
+      <c r="C42" s="81"/>
+      <c r="D42" s="81" t="s">
         <v>521</v>
       </c>
-      <c r="E42" s="85"/>
+      <c r="E42" s="84"/>
     </row>
     <row r="43" spans="1:5">
-      <c r="A43" s="82">
+      <c r="A43" s="81">
         <v>42</v>
       </c>
-      <c r="B43" s="82"/>
-      <c r="C43" s="82"/>
-      <c r="D43" s="82"/>
-      <c r="E43" s="85"/>
+      <c r="B43" s="81"/>
+      <c r="C43" s="81"/>
+      <c r="D43" s="81"/>
+      <c r="E43" s="84"/>
     </row>
     <row r="44" spans="1:5">
-      <c r="A44" s="82">
+      <c r="A44" s="81">
         <v>43</v>
       </c>
-      <c r="B44" s="82"/>
-      <c r="C44" s="82"/>
-      <c r="D44" s="82"/>
-      <c r="E44" s="85"/>
+      <c r="B44" s="81"/>
+      <c r="C44" s="81"/>
+      <c r="D44" s="81"/>
+      <c r="E44" s="84"/>
     </row>
     <row r="45" spans="1:5" ht="30">
-      <c r="A45" s="82">
+      <c r="A45" s="81">
         <v>44</v>
       </c>
-      <c r="B45" s="82"/>
-      <c r="C45" s="82" t="s">
+      <c r="B45" s="81"/>
+      <c r="C45" s="81" t="s">
         <v>4</v>
       </c>
-      <c r="D45" s="82" t="s">
+      <c r="D45" s="81" t="s">
         <v>522</v>
       </c>
-      <c r="E45" s="85" t="s">
+      <c r="E45" s="84" t="s">
         <v>466</v>
       </c>
     </row>
     <row r="46" spans="1:5" ht="30">
-      <c r="A46" s="82">
+      <c r="A46" s="81">
         <v>45</v>
       </c>
-      <c r="B46" s="82"/>
-      <c r="C46" s="82" t="s">
+      <c r="B46" s="81"/>
+      <c r="C46" s="81" t="s">
         <v>4</v>
       </c>
-      <c r="D46" s="82"/>
-      <c r="E46" s="85" t="s">
+      <c r="D46" s="81"/>
+      <c r="E46" s="84" t="s">
         <v>465</v>
       </c>
     </row>
     <row r="47" spans="1:5" ht="105">
-      <c r="A47" s="82">
+      <c r="A47" s="81">
         <v>46</v>
       </c>
-      <c r="B47" s="82"/>
-      <c r="C47" s="82" t="s">
+      <c r="B47" s="81"/>
+      <c r="C47" s="81" t="s">
         <v>4</v>
       </c>
-      <c r="D47" s="82" t="s">
+      <c r="D47" s="81" t="s">
         <v>463</v>
       </c>
-      <c r="E47" s="85" t="s">
+      <c r="E47" s="84" t="s">
         <v>464</v>
       </c>
     </row>
     <row r="48" spans="1:5">
-      <c r="A48" s="82">
+      <c r="A48" s="81">
         <v>47</v>
       </c>
-      <c r="B48" s="82"/>
-      <c r="C48" s="82"/>
-      <c r="D48" s="82"/>
-      <c r="E48" s="85" t="s">
+      <c r="B48" s="81"/>
+      <c r="C48" s="81"/>
+      <c r="D48" s="81"/>
+      <c r="E48" s="84" t="s">
         <v>462</v>
       </c>
     </row>
     <row r="49" spans="1:5">
-      <c r="A49" s="82">
+      <c r="A49" s="81">
         <v>48</v>
       </c>
-      <c r="B49" s="82"/>
-      <c r="C49" s="82"/>
-      <c r="D49" s="82"/>
-      <c r="E49" s="85"/>
+      <c r="B49" s="81"/>
+      <c r="C49" s="81"/>
+      <c r="D49" s="81"/>
+      <c r="E49" s="84"/>
     </row>
     <row r="50" spans="1:5" ht="30">
-      <c r="A50" s="82">
+      <c r="A50" s="81">
         <v>49</v>
       </c>
-      <c r="B50" s="82"/>
-      <c r="C50" s="82" t="s">
+      <c r="B50" s="81"/>
+      <c r="C50" s="81" t="s">
         <v>4</v>
       </c>
-      <c r="D50" s="82"/>
-      <c r="E50" s="85" t="s">
+      <c r="D50" s="81"/>
+      <c r="E50" s="84" t="s">
         <v>461</v>
       </c>
     </row>
     <row r="51" spans="1:5" ht="75">
-      <c r="A51" s="82">
+      <c r="A51" s="81">
         <v>50</v>
       </c>
-      <c r="B51" s="82"/>
-      <c r="C51" s="82"/>
-      <c r="D51" s="82"/>
-      <c r="E51" s="85" t="s">
+      <c r="B51" s="81"/>
+      <c r="C51" s="81"/>
+      <c r="D51" s="81"/>
+      <c r="E51" s="84" t="s">
         <v>460</v>
       </c>
     </row>
@@ -38619,7 +39607,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FCB690D-227C-45AA-9C93-A22E8FEE0210}">
   <dimension ref="A1:G51"/>
   <sheetViews>
@@ -38629,583 +39617,583 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="78"/>
-    <col min="2" max="2" width="33.140625" style="78" customWidth="1"/>
-    <col min="3" max="3" width="28.140625" style="78" customWidth="1"/>
-    <col min="4" max="4" width="46.28515625" style="78" customWidth="1"/>
-    <col min="5" max="5" width="43.85546875" style="78" customWidth="1"/>
-    <col min="6" max="6" width="79" style="78" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="78"/>
+    <col min="1" max="1" width="9.140625" style="77"/>
+    <col min="2" max="2" width="33.140625" style="77" customWidth="1"/>
+    <col min="3" max="3" width="28.140625" style="77" customWidth="1"/>
+    <col min="4" max="4" width="46.28515625" style="77" customWidth="1"/>
+    <col min="5" max="5" width="43.85546875" style="77" customWidth="1"/>
+    <col min="6" max="6" width="79" style="77" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="77"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="25.5">
-      <c r="A1" s="79" t="s">
+      <c r="A1" s="78" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="79" t="s">
+      <c r="B1" s="78" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="79" t="s">
+      <c r="C1" s="78" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="80" t="s">
+      <c r="D1" s="79" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="83" t="s">
+      <c r="E1" s="82" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="84" t="s">
+      <c r="F1" s="83" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="30">
-      <c r="A2" s="82">
+      <c r="A2" s="81">
         <v>1</v>
       </c>
-      <c r="B2" s="82"/>
-      <c r="C2" s="82" t="s">
+      <c r="B2" s="81"/>
+      <c r="C2" s="81" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="82"/>
-      <c r="E2" s="85" t="s">
+      <c r="D2" s="81"/>
+      <c r="E2" s="84" t="s">
         <v>447</v>
       </c>
-      <c r="F2" s="86"/>
+      <c r="F2" s="85"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="82">
+      <c r="A3" s="81">
         <v>2</v>
       </c>
-      <c r="B3" s="82"/>
-      <c r="C3" s="82"/>
-      <c r="D3" s="82"/>
-      <c r="E3" s="85"/>
-      <c r="F3" s="86"/>
+      <c r="B3" s="81"/>
+      <c r="C3" s="81"/>
+      <c r="D3" s="81"/>
+      <c r="E3" s="84"/>
+      <c r="F3" s="85"/>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="82">
+      <c r="A4" s="81">
         <v>3</v>
       </c>
-      <c r="B4" s="82"/>
-      <c r="C4" s="82"/>
-      <c r="D4" s="82"/>
-      <c r="E4" s="85"/>
-      <c r="F4" s="86"/>
+      <c r="B4" s="81"/>
+      <c r="C4" s="81"/>
+      <c r="D4" s="81"/>
+      <c r="E4" s="84"/>
+      <c r="F4" s="85"/>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="82">
+      <c r="A5" s="81">
         <v>4</v>
       </c>
-      <c r="B5" s="82"/>
-      <c r="C5" s="82"/>
-      <c r="D5" s="82"/>
-      <c r="E5" s="85"/>
-      <c r="F5" s="86"/>
+      <c r="B5" s="81"/>
+      <c r="C5" s="81"/>
+      <c r="D5" s="81"/>
+      <c r="E5" s="84"/>
+      <c r="F5" s="85"/>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="82">
+      <c r="A6" s="81">
         <v>5</v>
       </c>
-      <c r="B6" s="82"/>
-      <c r="C6" s="82"/>
-      <c r="D6" s="82"/>
-      <c r="E6" s="85"/>
-      <c r="F6" s="86"/>
+      <c r="B6" s="81"/>
+      <c r="C6" s="81"/>
+      <c r="D6" s="81"/>
+      <c r="E6" s="84"/>
+      <c r="F6" s="85"/>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="82">
+      <c r="A7" s="81">
         <v>6</v>
       </c>
-      <c r="B7" s="82"/>
-      <c r="C7" s="82"/>
-      <c r="D7" s="82"/>
-      <c r="E7" s="85"/>
-      <c r="F7" s="86"/>
-      <c r="G7" s="88"/>
+      <c r="B7" s="81"/>
+      <c r="C7" s="81"/>
+      <c r="D7" s="81"/>
+      <c r="E7" s="84"/>
+      <c r="F7" s="85"/>
+      <c r="G7" s="87"/>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="82">
+      <c r="A8" s="81">
         <v>7</v>
       </c>
-      <c r="B8" s="82"/>
-      <c r="C8" s="82"/>
-      <c r="D8" s="82"/>
-      <c r="E8" s="85"/>
-      <c r="F8" s="86"/>
+      <c r="B8" s="81"/>
+      <c r="C8" s="81"/>
+      <c r="D8" s="81"/>
+      <c r="E8" s="84"/>
+      <c r="F8" s="85"/>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="82">
+      <c r="A9" s="81">
         <v>8</v>
       </c>
-      <c r="B9" s="82"/>
-      <c r="C9" s="82"/>
-      <c r="D9" s="82"/>
-      <c r="E9" s="85"/>
-      <c r="F9" s="86"/>
+      <c r="B9" s="81"/>
+      <c r="C9" s="81"/>
+      <c r="D9" s="81"/>
+      <c r="E9" s="84"/>
+      <c r="F9" s="85"/>
     </row>
     <row r="10" spans="1:7" ht="30">
-      <c r="A10" s="82">
+      <c r="A10" s="81">
         <v>9</v>
       </c>
-      <c r="B10" s="82"/>
-      <c r="C10" s="82" t="s">
+      <c r="B10" s="81"/>
+      <c r="C10" s="81" t="s">
         <v>60</v>
       </c>
-      <c r="D10" s="82" t="s">
+      <c r="D10" s="81" t="s">
         <v>448</v>
       </c>
-      <c r="E10" s="85" t="s">
+      <c r="E10" s="84" t="s">
         <v>449</v>
       </c>
-      <c r="F10" s="86"/>
-      <c r="G10" s="88" t="s">
+      <c r="F10" s="85"/>
+      <c r="G10" s="87" t="s">
         <v>450</v>
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="82">
+      <c r="A11" s="81">
         <v>10</v>
       </c>
-      <c r="B11" s="82"/>
-      <c r="C11" s="82"/>
-      <c r="D11" s="82"/>
-      <c r="E11" s="85"/>
-      <c r="F11" s="86"/>
+      <c r="B11" s="81"/>
+      <c r="C11" s="81"/>
+      <c r="D11" s="81"/>
+      <c r="E11" s="84"/>
+      <c r="F11" s="85"/>
     </row>
     <row r="12" spans="1:7" ht="75">
-      <c r="A12" s="82">
+      <c r="A12" s="81">
         <v>11</v>
       </c>
-      <c r="B12" s="82"/>
-      <c r="C12" s="82" t="s">
+      <c r="B12" s="81"/>
+      <c r="C12" s="81" t="s">
         <v>4</v>
       </c>
-      <c r="D12" s="82" t="s">
+      <c r="D12" s="81" t="s">
         <v>451</v>
       </c>
-      <c r="E12" s="85" t="s">
+      <c r="E12" s="84" t="s">
         <v>452</v>
       </c>
-      <c r="F12" s="86"/>
+      <c r="F12" s="85"/>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="82">
+      <c r="A13" s="81">
         <v>12</v>
       </c>
-      <c r="B13" s="82"/>
-      <c r="C13" s="82"/>
-      <c r="D13" s="82"/>
-      <c r="E13" s="85"/>
-      <c r="F13" s="86"/>
+      <c r="B13" s="81"/>
+      <c r="C13" s="81"/>
+      <c r="D13" s="81"/>
+      <c r="E13" s="84"/>
+      <c r="F13" s="85"/>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="82">
+      <c r="A14" s="81">
         <v>13</v>
       </c>
-      <c r="B14" s="82"/>
-      <c r="C14" s="82"/>
-      <c r="D14" s="81"/>
-      <c r="E14" s="85"/>
-      <c r="F14" s="86"/>
+      <c r="B14" s="81"/>
+      <c r="C14" s="81"/>
+      <c r="D14" s="80"/>
+      <c r="E14" s="84"/>
+      <c r="F14" s="85"/>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="82">
+      <c r="A15" s="81">
         <v>14</v>
       </c>
-      <c r="B15" s="82"/>
-      <c r="C15" s="82"/>
-      <c r="D15" s="82"/>
-      <c r="E15" s="85"/>
-      <c r="F15" s="86"/>
+      <c r="B15" s="81"/>
+      <c r="C15" s="81"/>
+      <c r="D15" s="81"/>
+      <c r="E15" s="84"/>
+      <c r="F15" s="85"/>
     </row>
     <row r="16" spans="1:7" ht="60">
-      <c r="A16" s="82">
+      <c r="A16" s="81">
         <v>15</v>
       </c>
-      <c r="B16" s="82"/>
-      <c r="C16" s="82" t="s">
+      <c r="B16" s="81"/>
+      <c r="C16" s="81" t="s">
         <v>4</v>
       </c>
-      <c r="D16" s="82"/>
-      <c r="E16" s="85" t="s">
+      <c r="D16" s="81"/>
+      <c r="E16" s="84" t="s">
         <v>453</v>
       </c>
-      <c r="F16" s="86"/>
-      <c r="G16" s="78" t="s">
+      <c r="F16" s="85"/>
+      <c r="G16" s="77" t="s">
         <v>454</v>
       </c>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="82">
+      <c r="A17" s="81">
         <v>16</v>
       </c>
-      <c r="B17" s="82"/>
-      <c r="C17" s="82"/>
-      <c r="D17" s="82"/>
-      <c r="E17" s="85"/>
-      <c r="F17" s="86"/>
+      <c r="B17" s="81"/>
+      <c r="C17" s="81"/>
+      <c r="D17" s="81"/>
+      <c r="E17" s="84"/>
+      <c r="F17" s="85"/>
     </row>
     <row r="18" spans="1:6">
-      <c r="A18" s="82">
+      <c r="A18" s="81">
         <v>17</v>
       </c>
-      <c r="B18" s="82"/>
-      <c r="C18" s="82"/>
-      <c r="D18" s="82"/>
-      <c r="E18" s="85"/>
-      <c r="F18" s="86"/>
+      <c r="B18" s="81"/>
+      <c r="C18" s="81"/>
+      <c r="D18" s="81"/>
+      <c r="E18" s="84"/>
+      <c r="F18" s="85"/>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="82">
+      <c r="A19" s="81">
         <v>18</v>
       </c>
-      <c r="B19" s="82"/>
-      <c r="C19" s="82"/>
-      <c r="D19" s="82"/>
-      <c r="E19" s="85"/>
-      <c r="F19" s="86"/>
+      <c r="B19" s="81"/>
+      <c r="C19" s="81"/>
+      <c r="D19" s="81"/>
+      <c r="E19" s="84"/>
+      <c r="F19" s="85"/>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="82">
+      <c r="A20" s="81">
         <v>19</v>
       </c>
-      <c r="B20" s="82"/>
-      <c r="C20" s="82"/>
-      <c r="D20" s="82"/>
-      <c r="E20" s="85"/>
-      <c r="F20" s="86"/>
+      <c r="B20" s="81"/>
+      <c r="C20" s="81"/>
+      <c r="D20" s="81"/>
+      <c r="E20" s="84"/>
+      <c r="F20" s="85"/>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="82">
+      <c r="A21" s="81">
         <v>20</v>
       </c>
-      <c r="B21" s="82"/>
-      <c r="C21" s="82"/>
-      <c r="D21" s="82"/>
-      <c r="E21" s="85"/>
-      <c r="F21" s="86"/>
+      <c r="B21" s="81"/>
+      <c r="C21" s="81"/>
+      <c r="D21" s="81"/>
+      <c r="E21" s="84"/>
+      <c r="F21" s="85"/>
     </row>
     <row r="22" spans="1:6">
-      <c r="A22" s="82">
+      <c r="A22" s="81">
         <v>21</v>
       </c>
-      <c r="B22" s="82"/>
-      <c r="C22" s="82" t="s">
+      <c r="B22" s="81"/>
+      <c r="C22" s="81" t="s">
         <v>4</v>
       </c>
-      <c r="D22" s="82"/>
-      <c r="E22" s="85" t="s">
+      <c r="D22" s="81"/>
+      <c r="E22" s="84" t="s">
         <v>455</v>
       </c>
-      <c r="F22" s="86"/>
+      <c r="F22" s="85"/>
     </row>
     <row r="23" spans="1:6">
-      <c r="A23" s="82">
+      <c r="A23" s="81">
         <v>22</v>
       </c>
-      <c r="B23" s="82"/>
-      <c r="C23" s="82"/>
-      <c r="D23" s="82"/>
-      <c r="E23" s="85"/>
-      <c r="F23" s="86"/>
+      <c r="B23" s="81"/>
+      <c r="C23" s="81"/>
+      <c r="D23" s="81"/>
+      <c r="E23" s="84"/>
+      <c r="F23" s="85"/>
     </row>
     <row r="24" spans="1:6" ht="45">
-      <c r="A24" s="82">
+      <c r="A24" s="81">
         <v>23</v>
       </c>
-      <c r="B24" s="82"/>
-      <c r="C24" s="82" t="s">
+      <c r="B24" s="81"/>
+      <c r="C24" s="81" t="s">
         <v>4</v>
       </c>
-      <c r="D24" s="82"/>
-      <c r="E24" s="85" t="s">
+      <c r="D24" s="81"/>
+      <c r="E24" s="84" t="s">
         <v>456</v>
       </c>
-      <c r="F24" s="86"/>
+      <c r="F24" s="85"/>
     </row>
     <row r="25" spans="1:6">
-      <c r="A25" s="82">
+      <c r="A25" s="81">
         <v>24</v>
       </c>
-      <c r="B25" s="82"/>
-      <c r="C25" s="82"/>
-      <c r="D25" s="82"/>
-      <c r="E25" s="85"/>
-      <c r="F25" s="86"/>
+      <c r="B25" s="81"/>
+      <c r="C25" s="81"/>
+      <c r="D25" s="81"/>
+      <c r="E25" s="84"/>
+      <c r="F25" s="85"/>
     </row>
     <row r="26" spans="1:6">
-      <c r="A26" s="82">
+      <c r="A26" s="81">
         <v>25</v>
       </c>
-      <c r="B26" s="82"/>
-      <c r="C26" s="82"/>
-      <c r="D26" s="82"/>
-      <c r="E26" s="85"/>
-      <c r="F26" s="86"/>
+      <c r="B26" s="81"/>
+      <c r="C26" s="81"/>
+      <c r="D26" s="81"/>
+      <c r="E26" s="84"/>
+      <c r="F26" s="85"/>
     </row>
     <row r="27" spans="1:6">
-      <c r="A27" s="82">
+      <c r="A27" s="81">
         <v>26</v>
       </c>
-      <c r="B27" s="82"/>
-      <c r="C27" s="82"/>
-      <c r="D27" s="82"/>
-      <c r="E27" s="85"/>
-      <c r="F27" s="86"/>
+      <c r="B27" s="81"/>
+      <c r="C27" s="81"/>
+      <c r="D27" s="81"/>
+      <c r="E27" s="84"/>
+      <c r="F27" s="85"/>
     </row>
     <row r="28" spans="1:6">
-      <c r="A28" s="82">
+      <c r="A28" s="81">
         <v>27</v>
       </c>
-      <c r="B28" s="82"/>
-      <c r="C28" s="82" t="s">
+      <c r="B28" s="81"/>
+      <c r="C28" s="81" t="s">
         <v>4</v>
       </c>
-      <c r="D28" s="82"/>
-      <c r="E28" s="85"/>
-      <c r="F28" s="86"/>
+      <c r="D28" s="81"/>
+      <c r="E28" s="84"/>
+      <c r="F28" s="85"/>
     </row>
     <row r="29" spans="1:6">
-      <c r="A29" s="82">
+      <c r="A29" s="81">
         <v>28</v>
       </c>
-      <c r="B29" s="82"/>
-      <c r="C29" s="82"/>
-      <c r="D29" s="82"/>
-      <c r="E29" s="85"/>
-      <c r="F29" s="86"/>
+      <c r="B29" s="81"/>
+      <c r="C29" s="81"/>
+      <c r="D29" s="81"/>
+      <c r="E29" s="84"/>
+      <c r="F29" s="85"/>
     </row>
     <row r="30" spans="1:6">
-      <c r="A30" s="82">
+      <c r="A30" s="81">
         <v>29</v>
       </c>
-      <c r="B30" s="82"/>
-      <c r="C30" s="82"/>
-      <c r="D30" s="82"/>
-      <c r="E30" s="85"/>
-      <c r="F30" s="86"/>
+      <c r="B30" s="81"/>
+      <c r="C30" s="81"/>
+      <c r="D30" s="81"/>
+      <c r="E30" s="84"/>
+      <c r="F30" s="85"/>
     </row>
     <row r="31" spans="1:6">
-      <c r="A31" s="82">
+      <c r="A31" s="81">
         <v>30</v>
       </c>
-      <c r="B31" s="82"/>
-      <c r="C31" s="82"/>
-      <c r="D31" s="82"/>
-      <c r="E31" s="85"/>
-      <c r="F31" s="86"/>
+      <c r="B31" s="81"/>
+      <c r="C31" s="81"/>
+      <c r="D31" s="81"/>
+      <c r="E31" s="84"/>
+      <c r="F31" s="85"/>
     </row>
     <row r="32" spans="1:6">
-      <c r="A32" s="82">
+      <c r="A32" s="81">
         <v>31</v>
       </c>
-      <c r="B32" s="82"/>
-      <c r="C32" s="82"/>
-      <c r="D32" s="82"/>
-      <c r="E32" s="85"/>
-      <c r="F32" s="86"/>
+      <c r="B32" s="81"/>
+      <c r="C32" s="81"/>
+      <c r="D32" s="81"/>
+      <c r="E32" s="84"/>
+      <c r="F32" s="85"/>
     </row>
     <row r="33" spans="1:6" ht="105">
-      <c r="A33" s="82">
+      <c r="A33" s="81">
         <v>32</v>
       </c>
-      <c r="B33" s="82"/>
-      <c r="C33" s="82" t="s">
+      <c r="B33" s="81"/>
+      <c r="C33" s="81" t="s">
         <v>4</v>
       </c>
-      <c r="D33" s="82"/>
-      <c r="E33" s="85" t="s">
+      <c r="D33" s="81"/>
+      <c r="E33" s="84" t="s">
         <v>459</v>
       </c>
-      <c r="F33" s="86"/>
+      <c r="F33" s="85"/>
     </row>
     <row r="34" spans="1:6">
-      <c r="A34" s="82">
+      <c r="A34" s="81">
         <v>33</v>
       </c>
-      <c r="B34" s="82"/>
-      <c r="C34" s="82"/>
-      <c r="D34" s="82"/>
-      <c r="E34" s="85"/>
-      <c r="F34" s="86"/>
+      <c r="B34" s="81"/>
+      <c r="C34" s="81"/>
+      <c r="D34" s="81"/>
+      <c r="E34" s="84"/>
+      <c r="F34" s="85"/>
     </row>
     <row r="35" spans="1:6">
-      <c r="A35" s="82">
+      <c r="A35" s="81">
         <v>34</v>
       </c>
-      <c r="B35" s="82"/>
-      <c r="C35" s="82"/>
-      <c r="D35" s="82"/>
-      <c r="E35" s="85"/>
-      <c r="F35" s="86"/>
+      <c r="B35" s="81"/>
+      <c r="C35" s="81"/>
+      <c r="D35" s="81"/>
+      <c r="E35" s="84"/>
+      <c r="F35" s="85"/>
     </row>
     <row r="36" spans="1:6">
-      <c r="A36" s="82">
+      <c r="A36" s="81">
         <v>35</v>
       </c>
-      <c r="B36" s="82"/>
-      <c r="C36" s="82"/>
-      <c r="D36" s="82"/>
-      <c r="E36" s="85"/>
-      <c r="F36" s="86"/>
+      <c r="B36" s="81"/>
+      <c r="C36" s="81"/>
+      <c r="D36" s="81"/>
+      <c r="E36" s="84"/>
+      <c r="F36" s="85"/>
     </row>
     <row r="37" spans="1:6">
-      <c r="A37" s="82">
+      <c r="A37" s="81">
         <v>36</v>
       </c>
-      <c r="B37" s="82"/>
-      <c r="C37" s="82"/>
-      <c r="D37" s="82"/>
-      <c r="E37" s="85"/>
-      <c r="F37" s="86"/>
+      <c r="B37" s="81"/>
+      <c r="C37" s="81"/>
+      <c r="D37" s="81"/>
+      <c r="E37" s="84"/>
+      <c r="F37" s="85"/>
     </row>
     <row r="38" spans="1:6" ht="45">
-      <c r="A38" s="82">
+      <c r="A38" s="81">
         <v>37</v>
       </c>
-      <c r="B38" s="82"/>
-      <c r="C38" s="82" t="s">
+      <c r="B38" s="81"/>
+      <c r="C38" s="81" t="s">
         <v>4</v>
       </c>
-      <c r="D38" s="82"/>
-      <c r="E38" s="85" t="s">
+      <c r="D38" s="81"/>
+      <c r="E38" s="84" t="s">
         <v>458</v>
       </c>
-      <c r="F38" s="86"/>
+      <c r="F38" s="85"/>
     </row>
     <row r="39" spans="1:6">
-      <c r="A39" s="82">
+      <c r="A39" s="81">
         <v>38</v>
       </c>
-      <c r="B39" s="82"/>
-      <c r="C39" s="82"/>
-      <c r="D39" s="82"/>
-      <c r="E39" s="85"/>
-      <c r="F39" s="86"/>
+      <c r="B39" s="81"/>
+      <c r="C39" s="81"/>
+      <c r="D39" s="81"/>
+      <c r="E39" s="84"/>
+      <c r="F39" s="85"/>
     </row>
     <row r="40" spans="1:6">
-      <c r="A40" s="82">
+      <c r="A40" s="81">
         <v>39</v>
       </c>
-      <c r="B40" s="82"/>
-      <c r="C40" s="82"/>
-      <c r="D40" s="82"/>
-      <c r="E40" s="85"/>
-      <c r="F40" s="86"/>
+      <c r="B40" s="81"/>
+      <c r="C40" s="81"/>
+      <c r="D40" s="81"/>
+      <c r="E40" s="84"/>
+      <c r="F40" s="85"/>
     </row>
     <row r="41" spans="1:6">
-      <c r="A41" s="82">
+      <c r="A41" s="81">
         <v>40</v>
       </c>
-      <c r="B41" s="82"/>
-      <c r="C41" s="82"/>
-      <c r="D41" s="82"/>
-      <c r="E41" s="85"/>
-      <c r="F41" s="86"/>
+      <c r="B41" s="81"/>
+      <c r="C41" s="81"/>
+      <c r="D41" s="81"/>
+      <c r="E41" s="84"/>
+      <c r="F41" s="85"/>
     </row>
     <row r="42" spans="1:6">
-      <c r="A42" s="82">
+      <c r="A42" s="81">
         <v>41</v>
       </c>
-      <c r="B42" s="82"/>
-      <c r="C42" s="82"/>
-      <c r="D42" s="82"/>
-      <c r="E42" s="85"/>
-      <c r="F42" s="86"/>
+      <c r="B42" s="81"/>
+      <c r="C42" s="81"/>
+      <c r="D42" s="81"/>
+      <c r="E42" s="84"/>
+      <c r="F42" s="85"/>
     </row>
     <row r="43" spans="1:6">
-      <c r="A43" s="82">
+      <c r="A43" s="81">
         <v>42</v>
       </c>
-      <c r="B43" s="82"/>
-      <c r="C43" s="82"/>
-      <c r="D43" s="82"/>
-      <c r="E43" s="85"/>
-      <c r="F43" s="86"/>
+      <c r="B43" s="81"/>
+      <c r="C43" s="81"/>
+      <c r="D43" s="81"/>
+      <c r="E43" s="84"/>
+      <c r="F43" s="85"/>
     </row>
     <row r="44" spans="1:6">
-      <c r="A44" s="82">
+      <c r="A44" s="81">
         <v>43</v>
       </c>
-      <c r="B44" s="82"/>
-      <c r="C44" s="82"/>
-      <c r="D44" s="82"/>
-      <c r="E44" s="85"/>
-      <c r="F44" s="86"/>
+      <c r="B44" s="81"/>
+      <c r="C44" s="81"/>
+      <c r="D44" s="81"/>
+      <c r="E44" s="84"/>
+      <c r="F44" s="85"/>
     </row>
     <row r="45" spans="1:6">
-      <c r="A45" s="82">
+      <c r="A45" s="81">
         <v>44</v>
       </c>
-      <c r="B45" s="82"/>
-      <c r="C45" s="82"/>
-      <c r="D45" s="82"/>
-      <c r="E45" s="85"/>
-      <c r="F45" s="86"/>
+      <c r="B45" s="81"/>
+      <c r="C45" s="81"/>
+      <c r="D45" s="81"/>
+      <c r="E45" s="84"/>
+      <c r="F45" s="85"/>
     </row>
     <row r="46" spans="1:6">
-      <c r="A46" s="82">
+      <c r="A46" s="81">
         <v>45</v>
       </c>
-      <c r="B46" s="82"/>
-      <c r="C46" s="82"/>
-      <c r="D46" s="82"/>
-      <c r="E46" s="85"/>
-      <c r="F46" s="86"/>
+      <c r="B46" s="81"/>
+      <c r="C46" s="81"/>
+      <c r="D46" s="81"/>
+      <c r="E46" s="84"/>
+      <c r="F46" s="85"/>
     </row>
     <row r="47" spans="1:6">
-      <c r="A47" s="82">
+      <c r="A47" s="81">
         <v>46</v>
       </c>
-      <c r="B47" s="82"/>
-      <c r="C47" s="82"/>
-      <c r="D47" s="82"/>
-      <c r="E47" s="85"/>
-      <c r="F47" s="86"/>
+      <c r="B47" s="81"/>
+      <c r="C47" s="81"/>
+      <c r="D47" s="81"/>
+      <c r="E47" s="84"/>
+      <c r="F47" s="85"/>
     </row>
     <row r="48" spans="1:6">
-      <c r="A48" s="82">
+      <c r="A48" s="81">
         <v>47</v>
       </c>
-      <c r="B48" s="82"/>
-      <c r="C48" s="82"/>
-      <c r="D48" s="82"/>
-      <c r="E48" s="85"/>
-      <c r="F48" s="86"/>
+      <c r="B48" s="81"/>
+      <c r="C48" s="81"/>
+      <c r="D48" s="81"/>
+      <c r="E48" s="84"/>
+      <c r="F48" s="85"/>
     </row>
     <row r="49" spans="1:6">
-      <c r="A49" s="82">
+      <c r="A49" s="81">
         <v>48</v>
       </c>
-      <c r="B49" s="82"/>
-      <c r="C49" s="82"/>
-      <c r="D49" s="82"/>
-      <c r="E49" s="85"/>
-      <c r="F49" s="86"/>
+      <c r="B49" s="81"/>
+      <c r="C49" s="81"/>
+      <c r="D49" s="81"/>
+      <c r="E49" s="84"/>
+      <c r="F49" s="85"/>
     </row>
     <row r="50" spans="1:6" ht="60">
-      <c r="A50" s="82">
+      <c r="A50" s="81">
         <v>49</v>
       </c>
-      <c r="B50" s="82"/>
-      <c r="C50" s="82" t="s">
+      <c r="B50" s="81"/>
+      <c r="C50" s="81" t="s">
         <v>4</v>
       </c>
-      <c r="D50" s="82"/>
-      <c r="E50" s="85" t="s">
+      <c r="D50" s="81"/>
+      <c r="E50" s="84" t="s">
         <v>457</v>
       </c>
-      <c r="F50" s="86"/>
+      <c r="F50" s="85"/>
     </row>
     <row r="51" spans="1:6">
-      <c r="A51" s="82">
+      <c r="A51" s="81">
         <v>50</v>
       </c>
-      <c r="B51" s="82"/>
-      <c r="C51" s="82"/>
-      <c r="D51" s="82"/>
-      <c r="E51" s="85"/>
-      <c r="F51" s="86"/>
+      <c r="B51" s="81"/>
+      <c r="C51" s="81"/>
+      <c r="D51" s="81"/>
+      <c r="E51" s="84"/>
+      <c r="F51" s="85"/>
     </row>
   </sheetData>
   <dataValidations count="2">
@@ -39223,7 +40211,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{453BF44A-91AF-4F6D-AE5E-E58F57961686}">
   <dimension ref="A1:G51"/>
   <sheetViews>
@@ -39327,7 +40315,7 @@
         <v>429</v>
       </c>
       <c r="F7" s="28"/>
-      <c r="G7" s="74" t="s">
+      <c r="G7" s="73" t="s">
         <v>430</v>
       </c>
     </row>
@@ -39435,10 +40423,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="8"/>
-      <c r="C15" s="82" t="s">
+      <c r="C15" s="81" t="s">
         <v>4</v>
       </c>
-      <c r="D15" s="82" t="s">
+      <c r="D15" s="81" t="s">
         <v>441</v>
       </c>
       <c r="E15" s="15"/>
@@ -39840,7 +40828,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F8FD89E-6595-4ED6-8407-B1A3D616014F}">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:H52"/>
@@ -40219,444 +41207,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C34A5403-C026-4AEF-975E-5986F7A3547D}">
-  <dimension ref="A1:E11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="9.140625" style="78"/>
-    <col min="2" max="2" width="21.42578125" style="78" customWidth="1"/>
-    <col min="3" max="3" width="15.85546875" style="78" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="78" customWidth="1"/>
-    <col min="5" max="5" width="29.5703125" style="78" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="78"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" ht="26.25">
-      <c r="A1" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="25" t="s">
-        <v>11</v>
-      </c>
-      <c r="C1" s="25" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="26" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="26" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="27">
-        <v>1</v>
-      </c>
-      <c r="B2" s="27"/>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="27">
-        <v>2</v>
-      </c>
-      <c r="B3" s="27"/>
-      <c r="C3" s="27"/>
-      <c r="D3" s="27"/>
-      <c r="E3" s="27" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="27">
-        <v>3</v>
-      </c>
-      <c r="B4" s="27"/>
-      <c r="C4" s="27" t="s">
-        <v>4</v>
-      </c>
-      <c r="D4" s="27"/>
-      <c r="E4" s="27" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="27">
-        <v>4</v>
-      </c>
-      <c r="B5" s="27"/>
-      <c r="C5" s="27"/>
-      <c r="D5" s="27"/>
-      <c r="E5" s="27"/>
-    </row>
-    <row r="6" spans="1:5" ht="75">
-      <c r="A6" s="27">
-        <v>5</v>
-      </c>
-      <c r="B6" s="27"/>
-      <c r="C6" s="27" t="s">
-        <v>4</v>
-      </c>
-      <c r="D6" s="27"/>
-      <c r="E6" s="4" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="27">
-        <v>6</v>
-      </c>
-      <c r="B7" s="27"/>
-      <c r="C7" s="27"/>
-      <c r="D7" s="27"/>
-      <c r="E7" s="27"/>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="27">
-        <v>7</v>
-      </c>
-      <c r="B8" s="4"/>
-      <c r="C8" s="27"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="27">
-        <v>8</v>
-      </c>
-      <c r="B9" s="27"/>
-      <c r="C9" s="27"/>
-      <c r="D9" s="27"/>
-      <c r="E9" s="27"/>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="27">
-        <v>9</v>
-      </c>
-      <c r="B10" s="27"/>
-      <c r="C10" s="27"/>
-      <c r="D10" s="27"/>
-      <c r="E10" s="27"/>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="27">
-        <v>10</v>
-      </c>
-      <c r="B11" s="27"/>
-      <c r="C11" s="27"/>
-      <c r="D11" s="27"/>
-      <c r="E11" s="27"/>
-    </row>
-  </sheetData>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C11" xr:uid="{760B9D35-255F-4AB0-B014-6EF0D737344F}">
-      <formula1>"English,Knowledge Gaps,Emotion,Techniques"</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9696DCF4-14CB-44B7-90D8-B8204394C5DB}">
-  <dimension ref="A1:E11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="9.140625" style="78"/>
-    <col min="2" max="2" width="21.42578125" style="78" customWidth="1"/>
-    <col min="3" max="3" width="15.85546875" style="78" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="78" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" style="78" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="78"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" ht="26.25">
-      <c r="A1" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="25" t="s">
-        <v>11</v>
-      </c>
-      <c r="C1" s="25" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="26" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="26" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="27">
-        <v>1</v>
-      </c>
-      <c r="B2" s="27"/>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="27">
-        <v>2</v>
-      </c>
-      <c r="B3" s="27"/>
-      <c r="C3" s="27"/>
-      <c r="D3" s="27"/>
-      <c r="E3" s="27"/>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="27">
-        <v>3</v>
-      </c>
-      <c r="B4" s="27"/>
-      <c r="C4" s="27"/>
-      <c r="D4" s="27"/>
-      <c r="E4" s="27"/>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="27">
-        <v>4</v>
-      </c>
-      <c r="B5" s="27"/>
-      <c r="C5" s="27"/>
-      <c r="D5" s="27"/>
-      <c r="E5" s="27"/>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="27">
-        <v>5</v>
-      </c>
-      <c r="B6" s="27"/>
-      <c r="C6" s="27"/>
-      <c r="D6" s="27"/>
-      <c r="E6" s="4"/>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="27">
-        <v>6</v>
-      </c>
-      <c r="B7" s="27"/>
-      <c r="C7" s="27"/>
-      <c r="D7" s="27"/>
-      <c r="E7" s="27"/>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="27">
-        <v>7</v>
-      </c>
-      <c r="B8" s="4"/>
-      <c r="C8" s="27"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="27">
-        <v>8</v>
-      </c>
-      <c r="B9" s="27"/>
-      <c r="C9" s="27"/>
-      <c r="D9" s="27"/>
-      <c r="E9" s="27"/>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="27">
-        <v>9</v>
-      </c>
-      <c r="B10" s="27"/>
-      <c r="C10" s="27" t="s">
-        <v>4</v>
-      </c>
-      <c r="D10" s="27" t="s">
-        <v>553</v>
-      </c>
-      <c r="E10" s="27"/>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="27">
-        <v>10</v>
-      </c>
-      <c r="B11" s="27"/>
-      <c r="C11" s="27"/>
-      <c r="D11" s="27"/>
-      <c r="E11" s="27"/>
-    </row>
-  </sheetData>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C11" xr:uid="{56231C2C-0780-4AB3-9912-4A6766B69C4F}">
-      <formula1>"English,Knowledge Gaps,Emotion,Techniques"</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3370A11-AD88-47EC-B564-C7B459D1B3C6}">
-  <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:E11"/>
-  <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="2" max="2" width="21.42578125" customWidth="1"/>
-    <col min="3" max="3" width="15.85546875" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" ht="26.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="3">
-        <v>1</v>
-      </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="3">
-        <v>2</v>
-      </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="3">
-        <v>3</v>
-      </c>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="3">
-        <v>4</v>
-      </c>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-    </row>
-    <row r="6" spans="1:5" ht="135">
-      <c r="A6" s="3">
-        <v>5</v>
-      </c>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="3">
-        <v>6</v>
-      </c>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-    </row>
-    <row r="8" spans="1:5" ht="195">
-      <c r="A8" s="3">
-        <v>7</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="3">
-        <v>8</v>
-      </c>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="3">
-        <v>9</v>
-      </c>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="3">
-        <v>10</v>
-      </c>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-    </row>
-  </sheetData>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C11" xr:uid="{DAABEB65-4F8D-4730-83A8-534833752215}">
-      <formula1>"English,Knowledge Gaps,Emotion,Techniques"</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/10_Management/Exam_PMP_TangToc_07032019 - TrungLV.xlsx
+++ b/10_Management/Exam_PMP_TangToc_07032019 - TrungLV.xlsx
@@ -8,41 +8,42 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Working\EBill\10_Management\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A13D8211-5CFE-420E-ACEB-C1302D885BDC}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B8E71A1-5004-410F-ACB4-D3D27DFC9CAC}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="12000" windowHeight="6405" activeTab="1" xr2:uid="{957D22A2-4D54-4148-9DDE-7A2AF7FA87D7}"/>
   </bookViews>
   <sheets>
     <sheet name="study plan" sheetId="22" r:id="rId1"/>
-    <sheet name="Closing 4" sheetId="32" r:id="rId2"/>
-    <sheet name="quality" sheetId="31" r:id="rId3"/>
-    <sheet name="Resource" sheetId="30" r:id="rId4"/>
-    <sheet name="Mock Exam 10" sheetId="27" r:id="rId5"/>
-    <sheet name="Mock Exam 1" sheetId="25" r:id="rId6"/>
-    <sheet name="Planning 4" sheetId="24" r:id="rId7"/>
-    <sheet name="monitoring 3" sheetId="23" r:id="rId8"/>
-    <sheet name="Stakeholder" sheetId="1" r:id="rId9"/>
-    <sheet name="Communication" sheetId="29" r:id="rId10"/>
-    <sheet name="Risk" sheetId="28" r:id="rId11"/>
-    <sheet name="Procurement" sheetId="2" r:id="rId12"/>
-    <sheet name="Closing 1" sheetId="20" r:id="rId13"/>
-    <sheet name="Initiating 1" sheetId="7" r:id="rId14"/>
-    <sheet name="scope" sheetId="10" r:id="rId15"/>
-    <sheet name="Planning5" sheetId="3" r:id="rId16"/>
-    <sheet name="Planning1" sheetId="11" r:id="rId17"/>
-    <sheet name="Planning3" sheetId="16" r:id="rId18"/>
-    <sheet name="Executing1" sheetId="15" r:id="rId19"/>
-    <sheet name="Executing 2" sheetId="17" r:id="rId20"/>
-    <sheet name="Domain-Initiating" sheetId="18" r:id="rId21"/>
-    <sheet name="Domain-Planning" sheetId="12" r:id="rId22"/>
-    <sheet name="Domain-Executing" sheetId="13" r:id="rId23"/>
-    <sheet name="Domain-Monitoring &amp; Controlling" sheetId="14" r:id="rId24"/>
-    <sheet name="Domain-Closing" sheetId="19" r:id="rId25"/>
-    <sheet name="Executing" sheetId="4" r:id="rId26"/>
-    <sheet name="Monitoring" sheetId="5" r:id="rId27"/>
-    <sheet name="Closing" sheetId="6" r:id="rId28"/>
-    <sheet name="Mock" sheetId="8" r:id="rId29"/>
-    <sheet name="Full Test" sheetId="9" r:id="rId30"/>
+    <sheet name="Mock Exam 3" sheetId="33" r:id="rId2"/>
+    <sheet name="Closing 4" sheetId="32" r:id="rId3"/>
+    <sheet name="quality" sheetId="31" r:id="rId4"/>
+    <sheet name="Resource" sheetId="30" r:id="rId5"/>
+    <sheet name="Mock Exam 10" sheetId="27" r:id="rId6"/>
+    <sheet name="Mock Exam 1" sheetId="25" r:id="rId7"/>
+    <sheet name="Planning 4" sheetId="24" r:id="rId8"/>
+    <sheet name="monitoring 3" sheetId="23" r:id="rId9"/>
+    <sheet name="Stakeholder" sheetId="1" r:id="rId10"/>
+    <sheet name="Communication" sheetId="29" r:id="rId11"/>
+    <sheet name="Risk" sheetId="28" r:id="rId12"/>
+    <sheet name="Procurement" sheetId="2" r:id="rId13"/>
+    <sheet name="Closing 1" sheetId="20" r:id="rId14"/>
+    <sheet name="Initiating 1" sheetId="7" r:id="rId15"/>
+    <sheet name="scope" sheetId="10" r:id="rId16"/>
+    <sheet name="Planning5" sheetId="3" r:id="rId17"/>
+    <sheet name="Planning1" sheetId="11" r:id="rId18"/>
+    <sheet name="Planning3" sheetId="16" r:id="rId19"/>
+    <sheet name="Executing1" sheetId="15" r:id="rId20"/>
+    <sheet name="Executing 2" sheetId="17" r:id="rId21"/>
+    <sheet name="Domain-Initiating" sheetId="18" r:id="rId22"/>
+    <sheet name="Domain-Planning" sheetId="12" r:id="rId23"/>
+    <sheet name="Domain-Executing" sheetId="13" r:id="rId24"/>
+    <sheet name="Domain-Monitoring &amp; Controlling" sheetId="14" r:id="rId25"/>
+    <sheet name="Domain-Closing" sheetId="19" r:id="rId26"/>
+    <sheet name="Executing" sheetId="4" r:id="rId27"/>
+    <sheet name="Monitoring" sheetId="5" r:id="rId28"/>
+    <sheet name="Closing" sheetId="6" r:id="rId29"/>
+    <sheet name="Mock" sheetId="8" r:id="rId30"/>
+    <sheet name="Full Test" sheetId="9" r:id="rId31"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -83,7 +84,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1084" uniqueCount="576">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1126" uniqueCount="599">
   <si>
     <t>No</t>
   </si>
@@ -1937,12 +1938,83 @@
   <si>
     <t>process procurement management</t>
   </si>
+  <si>
+    <t>Lưu ý: output của procurement là proposal, contract, change order còn formal acceptance thì procurement sẽ là leading cái đó, base on cái đó để đưa ra plan cho mình</t>
+  </si>
+  <si>
+    <t>Note: Administrative closure là hành động xảy ra khi kết thúc project phase hoặc dự án. Output của nó là update project file và lesson learn</t>
+  </si>
+  <si>
+    <t>Note: chỉ có duy nhất là formal acceptance có thể đảm bảo project work đã really complete</t>
+  </si>
+  <si>
+    <t>Note: completion of the product is complete at the end of the project</t>
+  </si>
+  <si>
+    <t>Đề không nói gì mặc định là buyer, và việc nonepayment là lý do dẫn đến termination contract</t>
+  </si>
+  <si>
+    <t>Lưu ý: các hafh động như coordinating operations and maintenance activities là các hoạt động diễn ra sau khi close dự án.nó k phải là 1 phần của dự án</t>
+  </si>
+  <si>
+    <t>Lưu ý: regression analysis -&gt; phân tích hồi quy là tool của close project or phase process</t>
+  </si>
+  <si>
+    <t>validate scope trong process control scope</t>
+  </si>
+  <si>
+    <t>project charter được tạo lúc initiating, project management plan, risk management plan nằm trong process planning, chỉ có project archives là nằm trong close project or phase process</t>
+  </si>
+  <si>
+    <t>chưa làm</t>
+  </si>
+  <si>
+    <t>Đang ở đây</t>
+  </si>
+  <si>
+    <t>Note</t>
+  </si>
+  <si>
+    <t>Nhớ SIPOC: supplier, inputs, process, output, customer. Follow chart biểu diễn</t>
+  </si>
+  <si>
+    <t>plan quality management process</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Note: non-event risk: rủi ro không sự kiện có 2 loại: variability risk:  Uncertainty exists about some key characteristics of a planned event or activity or decision
+loại ambiguity risk: Uncertainty exists about what might happen in the future </t>
+  </si>
+  <si>
+    <t>Giới thiệu về risk</t>
+  </si>
+  <si>
+    <t>Cần nhớ: Grade of a product thì related đến technical characteristics of the product</t>
+  </si>
+  <si>
+    <t xml:space="preserve">đọc lại grade page 274 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">quản lý stakeholder engagement tăng khả năng thành công dự án đảm bảo stakeholder hiểu project goal, objective, benefits, risks </t>
+  </si>
+  <si>
+    <t>sequence activity</t>
+  </si>
+  <si>
+    <t>Note: Theory of constraint by Goldratt a system's throughout is limited by at least one constraint TOC - lý thuyết các điểm hạn chế</t>
+  </si>
+  <si>
+    <t>Cần đọc hiểu tiếng anh</t>
+  </si>
+  <si>
+    <t>Việc estimate bottom-up chỉ được sử dụng khi có đầy đủ chi tiết 
+Budgetary Estimating: dự toán ngân sách range: -10% -&gt; +25%</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="16">
+  <fonts count="17">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2044,8 +2116,15 @@
       <name val="Verdana"/>
       <family val="2"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2092,6 +2171,18 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor rgb="FFCCCCCC"/>
       </patternFill>
     </fill>
   </fills>
@@ -2315,7 +2406,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="113">
+  <cellXfs count="116">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2578,14 +2669,38 @@
     <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="14" fontId="13" fillId="8" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="8" fillId="8" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="20" fontId="8" fillId="9" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="13" fillId="6" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="14" fontId="13" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="14" fontId="13" fillId="6" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -2603,21 +2718,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="14" fontId="13" fillId="8" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="8" fillId="8" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2938,16 +3038,18 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:Z1003"/>
+  <dimension ref="A1:Z1328"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
+    <sheetView topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="19.7109375" style="57" customWidth="1"/>
-    <col min="2" max="16384" width="14.42578125" style="57"/>
+    <col min="2" max="5" width="14.42578125" style="57"/>
+    <col min="6" max="6" width="14.42578125" style="60"/>
+    <col min="7" max="16384" width="14.42578125" style="57"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="15.75" customHeight="1">
@@ -2966,7 +3068,9 @@
       <c r="E1" s="60" t="s">
         <v>394</v>
       </c>
-      <c r="F1" s="55"/>
+      <c r="F1" s="60" t="s">
+        <v>587</v>
+      </c>
       <c r="G1" s="96" t="s">
         <v>467</v>
       </c>
@@ -3004,7 +3108,6 @@
         <v>2.0833333333333332E-2</v>
       </c>
       <c r="E2" s="63"/>
-      <c r="F2" s="55"/>
       <c r="G2" s="96" t="s">
         <v>468</v>
       </c>
@@ -3042,7 +3145,6 @@
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="E3" s="63"/>
-      <c r="F3" s="55"/>
       <c r="G3" s="96" t="s">
         <v>469</v>
       </c>
@@ -3080,7 +3182,6 @@
         <v>2.0833333333333332E-2</v>
       </c>
       <c r="E4" s="63"/>
-      <c r="F4" s="55"/>
       <c r="G4" s="96" t="s">
         <v>470</v>
       </c>
@@ -3118,7 +3219,6 @@
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="E5" s="63"/>
-      <c r="F5" s="55"/>
       <c r="G5" s="96" t="s">
         <v>471</v>
       </c>
@@ -3157,7 +3257,6 @@
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="E6" s="63"/>
-      <c r="F6" s="55"/>
       <c r="G6" s="96" t="s">
         <v>472</v>
       </c>
@@ -3196,7 +3295,6 @@
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="E7" s="63"/>
-      <c r="F7" s="55"/>
       <c r="G7" s="56" t="s">
         <v>473</v>
       </c>
@@ -3233,7 +3331,6 @@
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="E8" s="63"/>
-      <c r="F8" s="55"/>
       <c r="G8" s="56" t="s">
         <v>474</v>
       </c>
@@ -3273,7 +3370,6 @@
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="E9" s="63"/>
-      <c r="F9" s="55"/>
       <c r="G9" s="56" t="s">
         <v>475</v>
       </c>
@@ -3316,7 +3412,6 @@
       <c r="E10" s="63" t="s">
         <v>395</v>
       </c>
-      <c r="F10" s="55"/>
       <c r="G10" s="56" t="s">
         <v>476</v>
       </c>
@@ -3358,7 +3453,6 @@
       <c r="E11" s="63" t="s">
         <v>395</v>
       </c>
-      <c r="F11" s="55"/>
       <c r="G11" s="56" t="s">
         <v>477</v>
       </c>
@@ -3400,7 +3494,6 @@
       <c r="E12" s="63" t="s">
         <v>395</v>
       </c>
-      <c r="F12" s="55"/>
       <c r="G12" s="56" t="s">
         <v>389</v>
       </c>
@@ -3425,7 +3518,7 @@
       <c r="Z12" s="56"/>
     </row>
     <row r="13" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A13" s="86" t="s">
+      <c r="A13" s="98" t="s">
         <v>396</v>
       </c>
       <c r="B13" s="88">
@@ -3441,7 +3534,6 @@
       <c r="E13" s="76" t="s">
         <v>395</v>
       </c>
-      <c r="F13" s="55"/>
       <c r="G13" s="56" t="s">
         <v>381</v>
       </c>
@@ -3484,7 +3576,6 @@
       <c r="E14" s="92" t="s">
         <v>395</v>
       </c>
-      <c r="F14" s="55"/>
       <c r="G14" s="56" t="s">
         <v>478</v>
       </c>
@@ -3512,11 +3603,11 @@
       <c r="A15" s="86" t="s">
         <v>372</v>
       </c>
-      <c r="B15" s="100">
+      <c r="B15" s="106">
         <f>B14+1</f>
         <v>43456</v>
       </c>
-      <c r="C15" s="100" t="str">
+      <c r="C15" s="106" t="str">
         <f t="shared" si="1"/>
         <v>Thứ 7</v>
       </c>
@@ -3526,7 +3617,6 @@
       <c r="E15" s="76" t="s">
         <v>395</v>
       </c>
-      <c r="F15" s="55"/>
       <c r="G15" s="56" t="s">
         <v>373</v>
       </c>
@@ -3554,15 +3644,14 @@
       <c r="A16" s="86" t="s">
         <v>360</v>
       </c>
-      <c r="B16" s="101"/>
-      <c r="C16" s="101"/>
+      <c r="B16" s="107"/>
+      <c r="C16" s="107"/>
       <c r="D16" s="75">
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="E16" s="76" t="s">
         <v>395</v>
       </c>
-      <c r="F16" s="55"/>
       <c r="G16" s="56" t="s">
         <v>372</v>
       </c>
@@ -3592,15 +3681,14 @@
       <c r="A17" s="86" t="s">
         <v>361</v>
       </c>
-      <c r="B17" s="101"/>
-      <c r="C17" s="101"/>
+      <c r="B17" s="107"/>
+      <c r="C17" s="107"/>
       <c r="D17" s="75">
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="E17" s="76" t="s">
         <v>395</v>
       </c>
-      <c r="F17" s="55"/>
       <c r="G17" s="56" t="s">
         <v>479</v>
       </c>
@@ -3625,7 +3713,7 @@
       <c r="Z17" s="56"/>
     </row>
     <row r="18" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A18" s="86" t="s">
+      <c r="A18" s="98" t="s">
         <v>398</v>
       </c>
       <c r="B18" s="74">
@@ -3642,7 +3730,6 @@
       <c r="E18" s="76" t="s">
         <v>395</v>
       </c>
-      <c r="F18" s="55"/>
       <c r="G18" s="56" t="s">
         <v>480</v>
       </c>
@@ -3667,7 +3754,7 @@
       <c r="Z18" s="56"/>
     </row>
     <row r="19" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A19" s="86" t="s">
+      <c r="A19" s="98" t="s">
         <v>399</v>
       </c>
       <c r="B19" s="74">
@@ -3684,7 +3771,6 @@
       <c r="E19" s="76" t="s">
         <v>395</v>
       </c>
-      <c r="F19" s="55"/>
       <c r="G19" s="56" t="s">
         <v>481</v>
       </c>
@@ -3709,14 +3795,14 @@
       <c r="Z19" s="56"/>
     </row>
     <row r="20" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A20" s="86" t="s">
+      <c r="A20" s="98" t="s">
         <v>373</v>
       </c>
-      <c r="B20" s="100">
+      <c r="B20" s="106">
         <f>B19+1</f>
         <v>43458</v>
       </c>
-      <c r="C20" s="100" t="str">
+      <c r="C20" s="106" t="str">
         <f t="shared" si="2"/>
         <v>Thứ 2</v>
       </c>
@@ -3724,7 +3810,6 @@
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="E20" s="76"/>
-      <c r="F20" s="55"/>
       <c r="G20" s="56" t="s">
         <v>482</v>
       </c>
@@ -3749,16 +3834,15 @@
       <c r="Z20" s="56"/>
     </row>
     <row r="21" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A21" s="86" t="s">
+      <c r="A21" s="98" t="s">
         <v>362</v>
       </c>
-      <c r="B21" s="101"/>
-      <c r="C21" s="101"/>
+      <c r="B21" s="107"/>
+      <c r="C21" s="107"/>
       <c r="D21" s="75">
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="E21" s="76"/>
-      <c r="F21" s="55"/>
       <c r="G21" s="56" t="s">
         <v>483</v>
       </c>
@@ -3782,17 +3866,16 @@
       <c r="Y21" s="56"/>
       <c r="Z21" s="56"/>
     </row>
-    <row r="22" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A22" s="86" t="s">
+    <row r="22" spans="1:26" ht="15" customHeight="1">
+      <c r="A22" s="98" t="s">
         <v>363</v>
       </c>
-      <c r="B22" s="101"/>
-      <c r="C22" s="101"/>
+      <c r="B22" s="107"/>
+      <c r="C22" s="107"/>
       <c r="D22" s="75">
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="E22" s="76"/>
-      <c r="F22" s="55"/>
       <c r="G22" s="56" t="s">
         <v>484</v>
       </c>
@@ -3819,22 +3902,22 @@
       <c r="Z22" s="56"/>
     </row>
     <row r="23" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A23" s="86" t="s">
+      <c r="A23" s="98" t="s">
         <v>400</v>
       </c>
-      <c r="B23" s="95">
+      <c r="B23" s="99">
         <f>B20 + 1</f>
         <v>43459</v>
       </c>
-      <c r="C23" s="95" t="str">
+      <c r="C23" s="99" t="str">
         <f t="shared" ref="C23:C25" si="3">IF(WEEKDAY(B23,1)=1,"Chủ nhật","Thứ "&amp;WEEKDAY(B23,1))</f>
         <v>Thứ 3</v>
       </c>
-      <c r="D23" s="75">
+      <c r="D23" s="100">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="E23" s="76"/>
-      <c r="F23" s="55"/>
+      <c r="E23" s="101"/>
+      <c r="F23" s="105"/>
       <c r="G23" s="56" t="s">
         <v>485</v>
       </c>
@@ -3874,7 +3957,9 @@
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="E24" s="76"/>
-      <c r="F24" s="55"/>
+      <c r="F24" s="60" t="s">
+        <v>585</v>
+      </c>
       <c r="G24" s="56" t="s">
         <v>486</v>
       </c>
@@ -3902,19 +3987,23 @@
       <c r="A25" s="86" t="s">
         <v>374</v>
       </c>
-      <c r="B25" s="100">
+      <c r="B25" s="106">
         <f>B24+1</f>
         <v>43460</v>
       </c>
-      <c r="C25" s="100" t="str">
+      <c r="C25" s="106" t="str">
         <f t="shared" si="3"/>
         <v>Thứ 4</v>
       </c>
       <c r="D25" s="75">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="E25" s="76"/>
-      <c r="F25" s="55"/>
+      <c r="E25" s="76" t="s">
+        <v>395</v>
+      </c>
+      <c r="F25" s="105" t="s">
+        <v>586</v>
+      </c>
       <c r="G25" s="56" t="s">
         <v>487</v>
       </c>
@@ -3942,13 +4031,15 @@
       <c r="A26" s="86" t="s">
         <v>364</v>
       </c>
-      <c r="B26" s="101"/>
-      <c r="C26" s="101"/>
+      <c r="B26" s="107"/>
+      <c r="C26" s="107"/>
       <c r="D26" s="75">
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="E26" s="76"/>
-      <c r="F26" s="55"/>
+      <c r="F26" s="60" t="s">
+        <v>585</v>
+      </c>
       <c r="G26" s="56" t="s">
         <v>488</v>
       </c>
@@ -3973,16 +4064,17 @@
       <c r="Z26" s="56"/>
     </row>
     <row r="27" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A27" s="112" t="s">
+      <c r="A27" s="102" t="s">
         <v>365</v>
       </c>
-      <c r="B27" s="101"/>
-      <c r="C27" s="101"/>
-      <c r="D27" s="75">
+      <c r="B27" s="107"/>
+      <c r="C27" s="107"/>
+      <c r="D27" s="103">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="E27" s="76"/>
-      <c r="F27" s="55"/>
+      <c r="E27" s="104" t="s">
+        <v>395</v>
+      </c>
       <c r="G27" s="56" t="s">
         <v>489</v>
       </c>
@@ -4022,7 +4114,6 @@
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="E28" s="71"/>
-      <c r="F28" s="55"/>
       <c r="G28" s="56" t="s">
         <v>490</v>
       </c>
@@ -4062,7 +4153,6 @@
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="E29" s="71"/>
-      <c r="F29" s="55"/>
       <c r="G29" s="56" t="s">
         <v>491</v>
       </c>
@@ -4086,23 +4176,22 @@
       <c r="Y29" s="56"/>
       <c r="Z29" s="56"/>
     </row>
-    <row r="30" spans="1:26" ht="14.25">
-      <c r="A30" s="108" t="s">
+    <row r="30" spans="1:26" ht="15">
+      <c r="A30" s="98" t="s">
         <v>375</v>
       </c>
-      <c r="B30" s="109">
+      <c r="B30" s="99">
         <f>B28 + 1</f>
         <v>43462</v>
       </c>
-      <c r="C30" s="109" t="str">
+      <c r="C30" s="99" t="str">
         <f t="shared" ref="C30" si="5">IF(WEEKDAY(B30,1)=1,"Chủ nhật","Thứ "&amp;WEEKDAY(B30,1))</f>
         <v>Thứ 6</v>
       </c>
-      <c r="D30" s="110">
+      <c r="D30" s="100">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="E30" s="111"/>
-      <c r="F30" s="55"/>
+      <c r="E30" s="101"/>
       <c r="G30" s="56" t="s">
         <v>492</v>
       </c>
@@ -4126,23 +4215,22 @@
       <c r="Y30" s="56"/>
       <c r="Z30" s="56"/>
     </row>
-    <row r="31" spans="1:26" ht="14.25">
-      <c r="A31" s="108" t="s">
+    <row r="31" spans="1:26" ht="15">
+      <c r="A31" s="98" t="s">
         <v>366</v>
       </c>
-      <c r="B31" s="109">
+      <c r="B31" s="99">
         <f>B29 + 1</f>
         <v>43462</v>
       </c>
-      <c r="C31" s="109" t="str">
+      <c r="C31" s="99" t="str">
         <f>IF(WEEKDAY(B31,1)=1,"Chủ nhật","Thứ "&amp;WEEKDAY(B31,1))</f>
         <v>Thứ 6</v>
       </c>
-      <c r="D31" s="110">
+      <c r="D31" s="100">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="E31" s="111"/>
-      <c r="F31" s="55"/>
+      <c r="E31" s="101"/>
       <c r="G31" s="56" t="s">
         <v>493</v>
       </c>
@@ -4166,15 +4254,15 @@
       <c r="Y31" s="56"/>
       <c r="Z31" s="56"/>
     </row>
-    <row r="32" spans="1:26" ht="14.25">
+    <row r="32" spans="1:26" ht="15">
       <c r="A32" s="72" t="s">
         <v>367</v>
       </c>
-      <c r="B32" s="98">
+      <c r="B32" s="108">
         <f>B31+1</f>
         <v>43463</v>
       </c>
-      <c r="C32" s="98" t="str">
+      <c r="C32" s="108" t="str">
         <f t="shared" si="4"/>
         <v>Thứ 7</v>
       </c>
@@ -4182,7 +4270,6 @@
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="E32" s="71"/>
-      <c r="F32" s="55"/>
       <c r="G32" s="56" t="s">
         <v>494</v>
       </c>
@@ -4206,17 +4293,16 @@
       <c r="Y32" s="56"/>
       <c r="Z32" s="56"/>
     </row>
-    <row r="33" spans="1:26" ht="14.25">
+    <row r="33" spans="1:26" ht="15">
       <c r="A33" s="72" t="s">
         <v>404</v>
       </c>
-      <c r="B33" s="99"/>
-      <c r="C33" s="99"/>
+      <c r="B33" s="109"/>
+      <c r="C33" s="109"/>
       <c r="D33" s="69">
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="E33" s="71"/>
-      <c r="F33" s="55"/>
       <c r="G33" s="56" t="s">
         <v>495</v>
       </c>
@@ -4240,17 +4326,16 @@
       <c r="Y33" s="56"/>
       <c r="Z33" s="56"/>
     </row>
-    <row r="34" spans="1:26" ht="14.25">
+    <row r="34" spans="1:26" ht="15">
       <c r="A34" s="72" t="s">
         <v>405</v>
       </c>
-      <c r="B34" s="99"/>
-      <c r="C34" s="99"/>
+      <c r="B34" s="109"/>
+      <c r="C34" s="109"/>
       <c r="D34" s="69">
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="E34" s="71"/>
-      <c r="F34" s="55"/>
       <c r="G34" s="56" t="s">
         <v>496</v>
       </c>
@@ -4276,7 +4361,7 @@
       <c r="Y34" s="56"/>
       <c r="Z34" s="56"/>
     </row>
-    <row r="35" spans="1:26" ht="14.25">
+    <row r="35" spans="1:26" ht="15">
       <c r="A35" s="72" t="s">
         <v>376</v>
       </c>
@@ -4292,7 +4377,6 @@
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="E35" s="71"/>
-      <c r="F35" s="55"/>
       <c r="G35" s="56" t="s">
         <v>497</v>
       </c>
@@ -4316,7 +4400,7 @@
       <c r="Y35" s="56"/>
       <c r="Z35" s="56"/>
     </row>
-    <row r="36" spans="1:26" ht="14.25">
+    <row r="36" spans="1:26" ht="15">
       <c r="A36" s="72" t="s">
         <v>368</v>
       </c>
@@ -4332,7 +4416,6 @@
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="E36" s="71"/>
-      <c r="F36" s="55"/>
       <c r="G36" s="56" t="s">
         <v>498</v>
       </c>
@@ -4356,15 +4439,15 @@
       <c r="Y36" s="56"/>
       <c r="Z36" s="56"/>
     </row>
-    <row r="37" spans="1:26" ht="14.25">
+    <row r="37" spans="1:26" ht="15">
       <c r="A37" s="72" t="s">
         <v>369</v>
       </c>
-      <c r="B37" s="98">
+      <c r="B37" s="108">
         <f>B36+1</f>
         <v>43465</v>
       </c>
-      <c r="C37" s="98" t="str">
+      <c r="C37" s="108" t="str">
         <f t="shared" si="6"/>
         <v>Thứ 2</v>
       </c>
@@ -4372,7 +4455,6 @@
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="E37" s="71"/>
-      <c r="F37" s="55"/>
       <c r="G37" s="56" t="s">
         <v>499</v>
       </c>
@@ -4398,17 +4480,16 @@
       <c r="Y37" s="56"/>
       <c r="Z37" s="56"/>
     </row>
-    <row r="38" spans="1:26" ht="14.25">
+    <row r="38" spans="1:26" ht="15">
       <c r="A38" s="72" t="s">
         <v>406</v>
       </c>
-      <c r="B38" s="99"/>
-      <c r="C38" s="99"/>
+      <c r="B38" s="109"/>
+      <c r="C38" s="109"/>
       <c r="D38" s="69">
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="E38" s="71"/>
-      <c r="F38" s="55"/>
       <c r="I38" s="56"/>
       <c r="J38" s="56"/>
       <c r="K38" s="56"/>
@@ -4428,17 +4509,16 @@
       <c r="Y38" s="56"/>
       <c r="Z38" s="56"/>
     </row>
-    <row r="39" spans="1:26" ht="14.25">
+    <row r="39" spans="1:26" ht="15">
       <c r="A39" s="72" t="s">
         <v>407</v>
       </c>
-      <c r="B39" s="99"/>
-      <c r="C39" s="99"/>
+      <c r="B39" s="109"/>
+      <c r="C39" s="109"/>
       <c r="D39" s="69">
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="E39" s="71"/>
-      <c r="F39" s="55"/>
       <c r="I39" s="56"/>
       <c r="J39" s="56"/>
       <c r="K39" s="56"/>
@@ -4458,7 +4538,7 @@
       <c r="Y39" s="56"/>
       <c r="Z39" s="56"/>
     </row>
-    <row r="40" spans="1:26" ht="14.25">
+    <row r="40" spans="1:26" ht="15">
       <c r="A40" s="72" t="s">
         <v>377</v>
       </c>
@@ -4474,7 +4554,6 @@
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="E40" s="71"/>
-      <c r="F40" s="55"/>
       <c r="I40" s="56"/>
       <c r="J40" s="56"/>
       <c r="K40" s="56"/>
@@ -4494,7 +4573,7 @@
       <c r="Y40" s="56"/>
       <c r="Z40" s="56"/>
     </row>
-    <row r="41" spans="1:26" ht="14.25">
+    <row r="41" spans="1:26" ht="15">
       <c r="A41" s="72" t="s">
         <v>370</v>
       </c>
@@ -4510,7 +4589,6 @@
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="E41" s="71"/>
-      <c r="F41" s="55"/>
       <c r="I41" s="56"/>
       <c r="J41" s="56"/>
       <c r="K41" s="56"/>
@@ -4530,15 +4608,15 @@
       <c r="Y41" s="56"/>
       <c r="Z41" s="56"/>
     </row>
-    <row r="42" spans="1:26" ht="14.25">
+    <row r="42" spans="1:26" ht="15">
       <c r="A42" s="72" t="s">
         <v>371</v>
       </c>
-      <c r="B42" s="98">
+      <c r="B42" s="108">
         <f>B36+3</f>
         <v>43467</v>
       </c>
-      <c r="C42" s="98" t="str">
+      <c r="C42" s="108" t="str">
         <f t="shared" si="7"/>
         <v>Thứ 4</v>
       </c>
@@ -4546,7 +4624,6 @@
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="E42" s="71"/>
-      <c r="F42" s="55"/>
       <c r="I42" s="56"/>
       <c r="J42" s="56"/>
       <c r="K42" s="56"/>
@@ -4566,17 +4643,16 @@
       <c r="Y42" s="56"/>
       <c r="Z42" s="56"/>
     </row>
-    <row r="43" spans="1:26" ht="14.25">
+    <row r="43" spans="1:26" ht="15">
       <c r="A43" s="72" t="s">
         <v>408</v>
       </c>
-      <c r="B43" s="99"/>
-      <c r="C43" s="99"/>
+      <c r="B43" s="109"/>
+      <c r="C43" s="109"/>
       <c r="D43" s="69">
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="E43" s="71"/>
-      <c r="F43" s="55"/>
       <c r="I43" s="56"/>
       <c r="J43" s="56"/>
       <c r="K43" s="56"/>
@@ -4596,17 +4672,16 @@
       <c r="Y43" s="56"/>
       <c r="Z43" s="56"/>
     </row>
-    <row r="44" spans="1:26" ht="14.25">
+    <row r="44" spans="1:26" ht="15">
       <c r="A44" s="72" t="s">
         <v>409</v>
       </c>
-      <c r="B44" s="99"/>
-      <c r="C44" s="99"/>
+      <c r="B44" s="109"/>
+      <c r="C44" s="109"/>
       <c r="D44" s="69">
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="E44" s="71"/>
-      <c r="F44" s="55"/>
       <c r="G44" s="56"/>
       <c r="H44" s="56"/>
       <c r="I44" s="56"/>
@@ -4628,7 +4703,7 @@
       <c r="Y44" s="56"/>
       <c r="Z44" s="56"/>
     </row>
-    <row r="45" spans="1:26" ht="14.25">
+    <row r="45" spans="1:26" ht="15">
       <c r="A45" s="72" t="s">
         <v>378</v>
       </c>
@@ -4644,7 +4719,6 @@
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="E45" s="71"/>
-      <c r="F45" s="55"/>
       <c r="G45" s="56"/>
       <c r="H45" s="56"/>
       <c r="I45" s="56"/>
@@ -4666,7 +4740,7 @@
       <c r="Y45" s="56"/>
       <c r="Z45" s="56"/>
     </row>
-    <row r="46" spans="1:26" ht="14.25">
+    <row r="46" spans="1:26" ht="15">
       <c r="A46" s="72" t="s">
         <v>379</v>
       </c>
@@ -4682,7 +4756,6 @@
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="E46" s="71"/>
-      <c r="F46" s="55"/>
       <c r="G46" s="56"/>
       <c r="H46" s="56"/>
       <c r="I46" s="56"/>
@@ -4704,7 +4777,7 @@
       <c r="Y46" s="56"/>
       <c r="Z46" s="56"/>
     </row>
-    <row r="47" spans="1:26" ht="14.25">
+    <row r="47" spans="1:26" ht="15">
       <c r="A47" s="72" t="s">
         <v>380</v>
       </c>
@@ -4720,7 +4793,6 @@
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="E47" s="71"/>
-      <c r="F47" s="55"/>
       <c r="G47" s="56"/>
       <c r="H47" s="56"/>
       <c r="I47" s="56"/>
@@ -4742,7 +4814,7 @@
       <c r="Y47" s="56"/>
       <c r="Z47" s="56"/>
     </row>
-    <row r="48" spans="1:26" ht="14.25">
+    <row r="48" spans="1:26" ht="15">
       <c r="A48" s="72" t="s">
         <v>410</v>
       </c>
@@ -4758,7 +4830,6 @@
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="E48" s="71"/>
-      <c r="F48" s="55"/>
       <c r="G48" s="56"/>
       <c r="H48" s="56"/>
       <c r="I48" s="56"/>
@@ -4780,7 +4851,7 @@
       <c r="Y48" s="56"/>
       <c r="Z48" s="56"/>
     </row>
-    <row r="49" spans="1:26" ht="14.25">
+    <row r="49" spans="1:26" ht="15">
       <c r="A49" s="72" t="s">
         <v>411</v>
       </c>
@@ -4796,7 +4867,6 @@
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="E49" s="71"/>
-      <c r="F49" s="55"/>
       <c r="G49" s="56"/>
       <c r="H49" s="56"/>
       <c r="I49" s="56"/>
@@ -4818,7 +4888,7 @@
       <c r="Y49" s="56"/>
       <c r="Z49" s="56"/>
     </row>
-    <row r="50" spans="1:26" ht="14.25">
+    <row r="50" spans="1:26" ht="15">
       <c r="A50" s="89" t="s">
         <v>381</v>
       </c>
@@ -4836,7 +4906,6 @@
       <c r="E50" s="92" t="s">
         <v>395</v>
       </c>
-      <c r="F50" s="55"/>
       <c r="G50" s="56"/>
       <c r="H50" s="56"/>
       <c r="I50" s="56"/>
@@ -4858,7 +4927,7 @@
       <c r="Y50" s="56"/>
       <c r="Z50" s="56"/>
     </row>
-    <row r="51" spans="1:26" ht="14.25">
+    <row r="51" spans="1:26" ht="15">
       <c r="A51" s="72" t="s">
         <v>382</v>
       </c>
@@ -4874,7 +4943,6 @@
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="E51" s="71"/>
-      <c r="F51" s="55"/>
       <c r="G51" s="56"/>
       <c r="H51" s="56"/>
       <c r="I51" s="56"/>
@@ -4896,7 +4964,7 @@
       <c r="Y51" s="56"/>
       <c r="Z51" s="56"/>
     </row>
-    <row r="52" spans="1:26" ht="14.25">
+    <row r="52" spans="1:26" ht="15">
       <c r="A52" s="72" t="s">
         <v>383</v>
       </c>
@@ -4912,7 +4980,6 @@
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="E52" s="71"/>
-      <c r="F52" s="55"/>
       <c r="G52" s="56"/>
       <c r="H52" s="56"/>
       <c r="I52" s="56"/>
@@ -4934,7 +5001,7 @@
       <c r="Y52" s="56"/>
       <c r="Z52" s="56"/>
     </row>
-    <row r="53" spans="1:26" ht="14.25">
+    <row r="53" spans="1:26" ht="15">
       <c r="A53" s="72" t="s">
         <v>412</v>
       </c>
@@ -4950,7 +5017,6 @@
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="E53" s="71"/>
-      <c r="F53" s="55"/>
       <c r="G53" s="56"/>
       <c r="H53" s="56"/>
       <c r="I53" s="56"/>
@@ -4972,7 +5038,7 @@
       <c r="Y53" s="56"/>
       <c r="Z53" s="56"/>
     </row>
-    <row r="54" spans="1:26" ht="14.25">
+    <row r="54" spans="1:26" ht="15">
       <c r="A54" s="72" t="s">
         <v>413</v>
       </c>
@@ -4988,7 +5054,6 @@
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="E54" s="71"/>
-      <c r="F54" s="55"/>
       <c r="G54" s="56"/>
       <c r="H54" s="56"/>
       <c r="I54" s="56"/>
@@ -5010,7 +5075,7 @@
       <c r="Y54" s="56"/>
       <c r="Z54" s="56"/>
     </row>
-    <row r="55" spans="1:26" ht="14.25">
+    <row r="55" spans="1:26" ht="15">
       <c r="A55" s="72" t="s">
         <v>384</v>
       </c>
@@ -5026,7 +5091,6 @@
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="E55" s="71"/>
-      <c r="F55" s="55"/>
       <c r="G55" s="56"/>
       <c r="H55" s="56"/>
       <c r="I55" s="56"/>
@@ -5048,7 +5112,7 @@
       <c r="Y55" s="56"/>
       <c r="Z55" s="56"/>
     </row>
-    <row r="56" spans="1:26" ht="14.25">
+    <row r="56" spans="1:26" ht="15">
       <c r="A56" s="72" t="s">
         <v>385</v>
       </c>
@@ -5064,7 +5128,6 @@
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="E56" s="71"/>
-      <c r="F56" s="55"/>
       <c r="G56" s="56"/>
       <c r="H56" s="56"/>
       <c r="I56" s="56"/>
@@ -5086,7 +5149,7 @@
       <c r="Y56" s="56"/>
       <c r="Z56" s="56"/>
     </row>
-    <row r="57" spans="1:26" ht="14.25">
+    <row r="57" spans="1:26" ht="15">
       <c r="A57" s="72" t="s">
         <v>386</v>
       </c>
@@ -5102,7 +5165,6 @@
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="E57" s="71"/>
-      <c r="F57" s="56"/>
       <c r="G57" s="56"/>
       <c r="H57" s="56"/>
       <c r="I57" s="56"/>
@@ -5124,7 +5186,7 @@
       <c r="Y57" s="56"/>
       <c r="Z57" s="56"/>
     </row>
-    <row r="58" spans="1:26" ht="14.25">
+    <row r="58" spans="1:26" ht="15">
       <c r="A58" s="72" t="s">
         <v>414</v>
       </c>
@@ -5140,7 +5202,6 @@
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="E58" s="71"/>
-      <c r="F58" s="56"/>
       <c r="G58" s="56"/>
       <c r="H58" s="56"/>
       <c r="I58" s="56"/>
@@ -5162,7 +5223,7 @@
       <c r="Y58" s="56"/>
       <c r="Z58" s="56"/>
     </row>
-    <row r="59" spans="1:26" ht="14.25">
+    <row r="59" spans="1:26" ht="15">
       <c r="A59" s="72" t="s">
         <v>415</v>
       </c>
@@ -5178,7 +5239,6 @@
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="E59" s="71"/>
-      <c r="F59" s="56"/>
       <c r="G59" s="56"/>
       <c r="H59" s="56"/>
       <c r="I59" s="56"/>
@@ -5200,7 +5260,7 @@
       <c r="Y59" s="56"/>
       <c r="Z59" s="56"/>
     </row>
-    <row r="60" spans="1:26" ht="14.25">
+    <row r="60" spans="1:26" ht="15">
       <c r="A60" s="72" t="s">
         <v>387</v>
       </c>
@@ -5216,7 +5276,6 @@
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="E60" s="71"/>
-      <c r="F60" s="56"/>
       <c r="G60" s="56"/>
       <c r="H60" s="56"/>
       <c r="I60" s="56"/>
@@ -5238,7 +5297,7 @@
       <c r="Y60" s="56"/>
       <c r="Z60" s="56"/>
     </row>
-    <row r="61" spans="1:26" ht="14.25">
+    <row r="61" spans="1:26" ht="15">
       <c r="A61" s="72" t="s">
         <v>388</v>
       </c>
@@ -5254,7 +5313,6 @@
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="E61" s="71"/>
-      <c r="F61" s="56"/>
       <c r="G61" s="56"/>
       <c r="H61" s="56"/>
       <c r="I61" s="56"/>
@@ -5276,7 +5334,7 @@
       <c r="Y61" s="56"/>
       <c r="Z61" s="56"/>
     </row>
-    <row r="62" spans="1:26" ht="14.25">
+    <row r="62" spans="1:26" ht="15">
       <c r="A62" s="72" t="s">
         <v>389</v>
       </c>
@@ -5292,7 +5350,6 @@
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="E62" s="71"/>
-      <c r="F62" s="56"/>
       <c r="G62" s="56"/>
       <c r="H62" s="56"/>
       <c r="I62" s="56"/>
@@ -5314,7 +5371,7 @@
       <c r="Y62" s="56"/>
       <c r="Z62" s="56"/>
     </row>
-    <row r="63" spans="1:26" ht="14.25">
+    <row r="63" spans="1:26" ht="15">
       <c r="A63" s="72" t="s">
         <v>390</v>
       </c>
@@ -5330,7 +5387,6 @@
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="E63" s="71"/>
-      <c r="F63" s="56"/>
       <c r="G63" s="56"/>
       <c r="H63" s="56"/>
       <c r="I63" s="55"/>
@@ -5352,7 +5408,7 @@
       <c r="Y63" s="56"/>
       <c r="Z63" s="56"/>
     </row>
-    <row r="64" spans="1:26" ht="14.25">
+    <row r="64" spans="1:26" ht="15">
       <c r="A64" s="72" t="s">
         <v>391</v>
       </c>
@@ -5368,7 +5424,6 @@
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="E64" s="71"/>
-      <c r="F64" s="56"/>
       <c r="G64" s="56"/>
       <c r="H64" s="56"/>
       <c r="I64" s="55"/>
@@ -5390,7 +5445,7 @@
       <c r="Y64" s="56"/>
       <c r="Z64" s="56"/>
     </row>
-    <row r="65" spans="1:26" ht="14.25">
+    <row r="65" spans="1:26" ht="15">
       <c r="A65" s="72" t="s">
         <v>392</v>
       </c>
@@ -5406,7 +5461,6 @@
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="E65" s="71"/>
-      <c r="F65" s="56"/>
       <c r="G65" s="56"/>
       <c r="H65" s="56"/>
       <c r="I65" s="55"/>
@@ -5428,7 +5482,7 @@
       <c r="Y65" s="56"/>
       <c r="Z65" s="56"/>
     </row>
-    <row r="66" spans="1:26" ht="14.25">
+    <row r="66" spans="1:26" ht="15">
       <c r="A66" s="72" t="s">
         <v>393</v>
       </c>
@@ -5444,7 +5498,6 @@
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="E66" s="71"/>
-      <c r="F66" s="56"/>
       <c r="G66" s="56"/>
       <c r="H66" s="56"/>
       <c r="I66" s="55"/>
@@ -31702,20 +31755,995 @@
       <c r="Y1003" s="56"/>
       <c r="Z1003" s="56"/>
     </row>
+    <row r="1004" spans="1:26" ht="15.75" customHeight="1">
+      <c r="F1004" s="56"/>
+    </row>
+    <row r="1005" spans="1:26" ht="15.75" customHeight="1">
+      <c r="F1005" s="56"/>
+    </row>
+    <row r="1006" spans="1:26" ht="15.75" customHeight="1">
+      <c r="F1006" s="56"/>
+    </row>
+    <row r="1007" spans="1:26" ht="15.75" customHeight="1">
+      <c r="F1007" s="56"/>
+    </row>
+    <row r="1008" spans="1:26" ht="15.75" customHeight="1">
+      <c r="F1008" s="56"/>
+    </row>
+    <row r="1009" spans="6:6" ht="15.75" customHeight="1">
+      <c r="F1009" s="56"/>
+    </row>
+    <row r="1010" spans="6:6" ht="15.75" customHeight="1">
+      <c r="F1010" s="56"/>
+    </row>
+    <row r="1011" spans="6:6" ht="15.75" customHeight="1">
+      <c r="F1011" s="56"/>
+    </row>
+    <row r="1012" spans="6:6" ht="15.75" customHeight="1">
+      <c r="F1012" s="56"/>
+    </row>
+    <row r="1013" spans="6:6" ht="15.75" customHeight="1">
+      <c r="F1013" s="56"/>
+    </row>
+    <row r="1014" spans="6:6" ht="15.75" customHeight="1">
+      <c r="F1014" s="56"/>
+    </row>
+    <row r="1015" spans="6:6" ht="15.75" customHeight="1">
+      <c r="F1015" s="56"/>
+    </row>
+    <row r="1016" spans="6:6" ht="15.75" customHeight="1">
+      <c r="F1016" s="56"/>
+    </row>
+    <row r="1017" spans="6:6" ht="15.75" customHeight="1">
+      <c r="F1017" s="56"/>
+    </row>
+    <row r="1018" spans="6:6" ht="15.75" customHeight="1">
+      <c r="F1018" s="56"/>
+    </row>
+    <row r="1019" spans="6:6" ht="15.75" customHeight="1">
+      <c r="F1019" s="56"/>
+    </row>
+    <row r="1020" spans="6:6" ht="15.75" customHeight="1">
+      <c r="F1020" s="56"/>
+    </row>
+    <row r="1021" spans="6:6" ht="15.75" customHeight="1">
+      <c r="F1021" s="56"/>
+    </row>
+    <row r="1022" spans="6:6" ht="15.75" customHeight="1">
+      <c r="F1022" s="56"/>
+    </row>
+    <row r="1023" spans="6:6" ht="15.75" customHeight="1">
+      <c r="F1023" s="56"/>
+    </row>
+    <row r="1024" spans="6:6" ht="15.75" customHeight="1">
+      <c r="F1024" s="56"/>
+    </row>
+    <row r="1025" spans="6:6" ht="15.75" customHeight="1">
+      <c r="F1025" s="56"/>
+    </row>
+    <row r="1026" spans="6:6" ht="15.75" customHeight="1">
+      <c r="F1026" s="56"/>
+    </row>
+    <row r="1027" spans="6:6" ht="15.75" customHeight="1">
+      <c r="F1027" s="56"/>
+    </row>
+    <row r="1028" spans="6:6" ht="15.75" customHeight="1">
+      <c r="F1028" s="56"/>
+    </row>
+    <row r="1029" spans="6:6" ht="15.75" customHeight="1">
+      <c r="F1029" s="56"/>
+    </row>
+    <row r="1030" spans="6:6" ht="15.75" customHeight="1">
+      <c r="F1030" s="56"/>
+    </row>
+    <row r="1031" spans="6:6" ht="15.75" customHeight="1">
+      <c r="F1031" s="56"/>
+    </row>
+    <row r="1032" spans="6:6" ht="15.75" customHeight="1">
+      <c r="F1032" s="56"/>
+    </row>
+    <row r="1033" spans="6:6" ht="15.75" customHeight="1">
+      <c r="F1033" s="56"/>
+    </row>
+    <row r="1034" spans="6:6" ht="15.75" customHeight="1">
+      <c r="F1034" s="56"/>
+    </row>
+    <row r="1035" spans="6:6" ht="15.75" customHeight="1">
+      <c r="F1035" s="56"/>
+    </row>
+    <row r="1036" spans="6:6" ht="15.75" customHeight="1">
+      <c r="F1036" s="56"/>
+    </row>
+    <row r="1037" spans="6:6" ht="15.75" customHeight="1">
+      <c r="F1037" s="56"/>
+    </row>
+    <row r="1038" spans="6:6" ht="15.75" customHeight="1">
+      <c r="F1038" s="56"/>
+    </row>
+    <row r="1039" spans="6:6" ht="15.75" customHeight="1">
+      <c r="F1039" s="56"/>
+    </row>
+    <row r="1040" spans="6:6" ht="15.75" customHeight="1">
+      <c r="F1040" s="56"/>
+    </row>
+    <row r="1041" spans="6:6" ht="15.75" customHeight="1">
+      <c r="F1041" s="56"/>
+    </row>
+    <row r="1042" spans="6:6" ht="15.75" customHeight="1">
+      <c r="F1042" s="56"/>
+    </row>
+    <row r="1043" spans="6:6" ht="15.75" customHeight="1">
+      <c r="F1043" s="56"/>
+    </row>
+    <row r="1044" spans="6:6" ht="15.75" customHeight="1">
+      <c r="F1044" s="56"/>
+    </row>
+    <row r="1045" spans="6:6" ht="15.75" customHeight="1">
+      <c r="F1045" s="56"/>
+    </row>
+    <row r="1046" spans="6:6" ht="15.75" customHeight="1">
+      <c r="F1046" s="56"/>
+    </row>
+    <row r="1047" spans="6:6" ht="15.75" customHeight="1">
+      <c r="F1047" s="56"/>
+    </row>
+    <row r="1048" spans="6:6" ht="15.75" customHeight="1">
+      <c r="F1048" s="56"/>
+    </row>
+    <row r="1049" spans="6:6" ht="15.75" customHeight="1">
+      <c r="F1049" s="56"/>
+    </row>
+    <row r="1050" spans="6:6" ht="15.75" customHeight="1">
+      <c r="F1050" s="56"/>
+    </row>
+    <row r="1051" spans="6:6" ht="15.75" customHeight="1">
+      <c r="F1051" s="56"/>
+    </row>
+    <row r="1052" spans="6:6" ht="15.75" customHeight="1">
+      <c r="F1052" s="56"/>
+    </row>
+    <row r="1053" spans="6:6" ht="15.75" customHeight="1">
+      <c r="F1053" s="56"/>
+    </row>
+    <row r="1054" spans="6:6" ht="15.75" customHeight="1">
+      <c r="F1054" s="56"/>
+    </row>
+    <row r="1055" spans="6:6" ht="15.75" customHeight="1">
+      <c r="F1055" s="56"/>
+    </row>
+    <row r="1056" spans="6:6" ht="15.75" customHeight="1">
+      <c r="F1056" s="56"/>
+    </row>
+    <row r="1057" spans="6:6" ht="15.75" customHeight="1">
+      <c r="F1057" s="56"/>
+    </row>
+    <row r="1058" spans="6:6" ht="15.75" customHeight="1">
+      <c r="F1058" s="56"/>
+    </row>
+    <row r="1059" spans="6:6" ht="15.75" customHeight="1">
+      <c r="F1059" s="56"/>
+    </row>
+    <row r="1060" spans="6:6" ht="15.75" customHeight="1">
+      <c r="F1060" s="56"/>
+    </row>
+    <row r="1061" spans="6:6" ht="15.75" customHeight="1">
+      <c r="F1061" s="56"/>
+    </row>
+    <row r="1062" spans="6:6" ht="15.75" customHeight="1">
+      <c r="F1062" s="56"/>
+    </row>
+    <row r="1063" spans="6:6" ht="15.75" customHeight="1">
+      <c r="F1063" s="56"/>
+    </row>
+    <row r="1064" spans="6:6" ht="15.75" customHeight="1">
+      <c r="F1064" s="56"/>
+    </row>
+    <row r="1065" spans="6:6" ht="15.75" customHeight="1">
+      <c r="F1065" s="56"/>
+    </row>
+    <row r="1066" spans="6:6" ht="15.75" customHeight="1">
+      <c r="F1066" s="56"/>
+    </row>
+    <row r="1067" spans="6:6" ht="15.75" customHeight="1">
+      <c r="F1067" s="56"/>
+    </row>
+    <row r="1068" spans="6:6" ht="15.75" customHeight="1">
+      <c r="F1068" s="56"/>
+    </row>
+    <row r="1069" spans="6:6" ht="15.75" customHeight="1">
+      <c r="F1069" s="56"/>
+    </row>
+    <row r="1070" spans="6:6" ht="15.75" customHeight="1">
+      <c r="F1070" s="56"/>
+    </row>
+    <row r="1071" spans="6:6" ht="15.75" customHeight="1">
+      <c r="F1071" s="56"/>
+    </row>
+    <row r="1072" spans="6:6" ht="15.75" customHeight="1">
+      <c r="F1072" s="56"/>
+    </row>
+    <row r="1073" spans="6:6" ht="15.75" customHeight="1">
+      <c r="F1073" s="56"/>
+    </row>
+    <row r="1074" spans="6:6" ht="15.75" customHeight="1">
+      <c r="F1074" s="56"/>
+    </row>
+    <row r="1075" spans="6:6" ht="15.75" customHeight="1">
+      <c r="F1075" s="56"/>
+    </row>
+    <row r="1076" spans="6:6" ht="15.75" customHeight="1">
+      <c r="F1076" s="56"/>
+    </row>
+    <row r="1077" spans="6:6" ht="15.75" customHeight="1">
+      <c r="F1077" s="56"/>
+    </row>
+    <row r="1078" spans="6:6" ht="15.75" customHeight="1">
+      <c r="F1078" s="56"/>
+    </row>
+    <row r="1079" spans="6:6" ht="15.75" customHeight="1">
+      <c r="F1079" s="56"/>
+    </row>
+    <row r="1080" spans="6:6" ht="15.75" customHeight="1">
+      <c r="F1080" s="56"/>
+    </row>
+    <row r="1081" spans="6:6" ht="15.75" customHeight="1">
+      <c r="F1081" s="56"/>
+    </row>
+    <row r="1082" spans="6:6" ht="15.75" customHeight="1">
+      <c r="F1082" s="56"/>
+    </row>
+    <row r="1083" spans="6:6" ht="15.75" customHeight="1">
+      <c r="F1083" s="56"/>
+    </row>
+    <row r="1084" spans="6:6" ht="15.75" customHeight="1">
+      <c r="F1084" s="56"/>
+    </row>
+    <row r="1085" spans="6:6" ht="15.75" customHeight="1">
+      <c r="F1085" s="56"/>
+    </row>
+    <row r="1086" spans="6:6" ht="15.75" customHeight="1">
+      <c r="F1086" s="56"/>
+    </row>
+    <row r="1087" spans="6:6" ht="15.75" customHeight="1">
+      <c r="F1087" s="56"/>
+    </row>
+    <row r="1088" spans="6:6" ht="15.75" customHeight="1">
+      <c r="F1088" s="56"/>
+    </row>
+    <row r="1089" spans="6:6" ht="15.75" customHeight="1">
+      <c r="F1089" s="56"/>
+    </row>
+    <row r="1090" spans="6:6" ht="15.75" customHeight="1">
+      <c r="F1090" s="56"/>
+    </row>
+    <row r="1091" spans="6:6" ht="15.75" customHeight="1">
+      <c r="F1091" s="56"/>
+    </row>
+    <row r="1092" spans="6:6" ht="15.75" customHeight="1">
+      <c r="F1092" s="56"/>
+    </row>
+    <row r="1093" spans="6:6" ht="15.75" customHeight="1">
+      <c r="F1093" s="56"/>
+    </row>
+    <row r="1094" spans="6:6" ht="15.75" customHeight="1">
+      <c r="F1094" s="56"/>
+    </row>
+    <row r="1095" spans="6:6" ht="15.75" customHeight="1">
+      <c r="F1095" s="56"/>
+    </row>
+    <row r="1096" spans="6:6" ht="15.75" customHeight="1">
+      <c r="F1096" s="56"/>
+    </row>
+    <row r="1097" spans="6:6" ht="15.75" customHeight="1">
+      <c r="F1097" s="56"/>
+    </row>
+    <row r="1098" spans="6:6" ht="15.75" customHeight="1">
+      <c r="F1098" s="56"/>
+    </row>
+    <row r="1099" spans="6:6" ht="15.75" customHeight="1">
+      <c r="F1099" s="56"/>
+    </row>
+    <row r="1100" spans="6:6" ht="15.75" customHeight="1">
+      <c r="F1100" s="56"/>
+    </row>
+    <row r="1101" spans="6:6" ht="15.75" customHeight="1">
+      <c r="F1101" s="56"/>
+    </row>
+    <row r="1102" spans="6:6" ht="15.75" customHeight="1">
+      <c r="F1102" s="56"/>
+    </row>
+    <row r="1103" spans="6:6" ht="15.75" customHeight="1">
+      <c r="F1103" s="56"/>
+    </row>
+    <row r="1104" spans="6:6" ht="15.75" customHeight="1">
+      <c r="F1104" s="56"/>
+    </row>
+    <row r="1105" spans="6:6" ht="15.75" customHeight="1">
+      <c r="F1105" s="56"/>
+    </row>
+    <row r="1106" spans="6:6" ht="15.75" customHeight="1">
+      <c r="F1106" s="56"/>
+    </row>
+    <row r="1107" spans="6:6" ht="15.75" customHeight="1">
+      <c r="F1107" s="56"/>
+    </row>
+    <row r="1108" spans="6:6" ht="15.75" customHeight="1">
+      <c r="F1108" s="56"/>
+    </row>
+    <row r="1109" spans="6:6" ht="15.75" customHeight="1">
+      <c r="F1109" s="56"/>
+    </row>
+    <row r="1110" spans="6:6" ht="15.75" customHeight="1">
+      <c r="F1110" s="56"/>
+    </row>
+    <row r="1111" spans="6:6" ht="15.75" customHeight="1">
+      <c r="F1111" s="56"/>
+    </row>
+    <row r="1112" spans="6:6" ht="15.75" customHeight="1">
+      <c r="F1112" s="56"/>
+    </row>
+    <row r="1113" spans="6:6" ht="15.75" customHeight="1">
+      <c r="F1113" s="56"/>
+    </row>
+    <row r="1114" spans="6:6" ht="15.75" customHeight="1">
+      <c r="F1114" s="56"/>
+    </row>
+    <row r="1115" spans="6:6" ht="15.75" customHeight="1">
+      <c r="F1115" s="56"/>
+    </row>
+    <row r="1116" spans="6:6" ht="15.75" customHeight="1">
+      <c r="F1116" s="56"/>
+    </row>
+    <row r="1117" spans="6:6" ht="15.75" customHeight="1">
+      <c r="F1117" s="56"/>
+    </row>
+    <row r="1118" spans="6:6" ht="15.75" customHeight="1">
+      <c r="F1118" s="56"/>
+    </row>
+    <row r="1119" spans="6:6" ht="15.75" customHeight="1">
+      <c r="F1119" s="56"/>
+    </row>
+    <row r="1120" spans="6:6" ht="15.75" customHeight="1">
+      <c r="F1120" s="56"/>
+    </row>
+    <row r="1121" spans="6:6" ht="15.75" customHeight="1">
+      <c r="F1121" s="56"/>
+    </row>
+    <row r="1122" spans="6:6" ht="15.75" customHeight="1">
+      <c r="F1122" s="56"/>
+    </row>
+    <row r="1123" spans="6:6" ht="15.75" customHeight="1">
+      <c r="F1123" s="56"/>
+    </row>
+    <row r="1124" spans="6:6" ht="15.75" customHeight="1">
+      <c r="F1124" s="56"/>
+    </row>
+    <row r="1125" spans="6:6" ht="15.75" customHeight="1">
+      <c r="F1125" s="56"/>
+    </row>
+    <row r="1126" spans="6:6" ht="15.75" customHeight="1">
+      <c r="F1126" s="56"/>
+    </row>
+    <row r="1127" spans="6:6" ht="15.75" customHeight="1">
+      <c r="F1127" s="56"/>
+    </row>
+    <row r="1128" spans="6:6" ht="15.75" customHeight="1">
+      <c r="F1128" s="56"/>
+    </row>
+    <row r="1129" spans="6:6" ht="15.75" customHeight="1">
+      <c r="F1129" s="56"/>
+    </row>
+    <row r="1130" spans="6:6" ht="15.75" customHeight="1">
+      <c r="F1130" s="56"/>
+    </row>
+    <row r="1131" spans="6:6" ht="15.75" customHeight="1">
+      <c r="F1131" s="56"/>
+    </row>
+    <row r="1132" spans="6:6" ht="15.75" customHeight="1">
+      <c r="F1132" s="56"/>
+    </row>
+    <row r="1133" spans="6:6" ht="15.75" customHeight="1">
+      <c r="F1133" s="56"/>
+    </row>
+    <row r="1134" spans="6:6" ht="15.75" customHeight="1">
+      <c r="F1134" s="56"/>
+    </row>
+    <row r="1135" spans="6:6" ht="15.75" customHeight="1">
+      <c r="F1135" s="56"/>
+    </row>
+    <row r="1136" spans="6:6" ht="15.75" customHeight="1">
+      <c r="F1136" s="56"/>
+    </row>
+    <row r="1137" spans="6:6" ht="15.75" customHeight="1">
+      <c r="F1137" s="56"/>
+    </row>
+    <row r="1138" spans="6:6" ht="15.75" customHeight="1">
+      <c r="F1138" s="56"/>
+    </row>
+    <row r="1139" spans="6:6" ht="15.75" customHeight="1">
+      <c r="F1139" s="56"/>
+    </row>
+    <row r="1140" spans="6:6" ht="15.75" customHeight="1">
+      <c r="F1140" s="56"/>
+    </row>
+    <row r="1141" spans="6:6" ht="15.75" customHeight="1">
+      <c r="F1141" s="56"/>
+    </row>
+    <row r="1142" spans="6:6" ht="15.75" customHeight="1">
+      <c r="F1142" s="56"/>
+    </row>
+    <row r="1143" spans="6:6" ht="15.75" customHeight="1">
+      <c r="F1143" s="56"/>
+    </row>
+    <row r="1144" spans="6:6" ht="15.75" customHeight="1">
+      <c r="F1144" s="56"/>
+    </row>
+    <row r="1145" spans="6:6" ht="15.75" customHeight="1">
+      <c r="F1145" s="56"/>
+    </row>
+    <row r="1146" spans="6:6" ht="15.75" customHeight="1">
+      <c r="F1146" s="56"/>
+    </row>
+    <row r="1147" spans="6:6" ht="15.75" customHeight="1">
+      <c r="F1147" s="56"/>
+    </row>
+    <row r="1148" spans="6:6" ht="15.75" customHeight="1">
+      <c r="F1148" s="56"/>
+    </row>
+    <row r="1149" spans="6:6" ht="15.75" customHeight="1">
+      <c r="F1149" s="56"/>
+    </row>
+    <row r="1150" spans="6:6" ht="15.75" customHeight="1">
+      <c r="F1150" s="56"/>
+    </row>
+    <row r="1151" spans="6:6" ht="15.75" customHeight="1">
+      <c r="F1151" s="56"/>
+    </row>
+    <row r="1152" spans="6:6" ht="15.75" customHeight="1">
+      <c r="F1152" s="56"/>
+    </row>
+    <row r="1153" spans="6:6" ht="15.75" customHeight="1">
+      <c r="F1153" s="56"/>
+    </row>
+    <row r="1154" spans="6:6" ht="15.75" customHeight="1">
+      <c r="F1154" s="56"/>
+    </row>
+    <row r="1155" spans="6:6" ht="15.75" customHeight="1">
+      <c r="F1155" s="56"/>
+    </row>
+    <row r="1156" spans="6:6" ht="15.75" customHeight="1">
+      <c r="F1156" s="56"/>
+    </row>
+    <row r="1157" spans="6:6" ht="15.75" customHeight="1">
+      <c r="F1157" s="56"/>
+    </row>
+    <row r="1158" spans="6:6" ht="15.75" customHeight="1">
+      <c r="F1158" s="56"/>
+    </row>
+    <row r="1159" spans="6:6" ht="15.75" customHeight="1">
+      <c r="F1159" s="56"/>
+    </row>
+    <row r="1160" spans="6:6" ht="15.75" customHeight="1">
+      <c r="F1160" s="56"/>
+    </row>
+    <row r="1161" spans="6:6" ht="15.75" customHeight="1">
+      <c r="F1161" s="56"/>
+    </row>
+    <row r="1162" spans="6:6" ht="15.75" customHeight="1">
+      <c r="F1162" s="56"/>
+    </row>
+    <row r="1163" spans="6:6" ht="15.75" customHeight="1">
+      <c r="F1163" s="56"/>
+    </row>
+    <row r="1164" spans="6:6" ht="15.75" customHeight="1">
+      <c r="F1164" s="56"/>
+    </row>
+    <row r="1165" spans="6:6" ht="15.75" customHeight="1">
+      <c r="F1165" s="56"/>
+    </row>
+    <row r="1166" spans="6:6" ht="15.75" customHeight="1">
+      <c r="F1166" s="56"/>
+    </row>
+    <row r="1167" spans="6:6" ht="15.75" customHeight="1">
+      <c r="F1167" s="56"/>
+    </row>
+    <row r="1168" spans="6:6" ht="15.75" customHeight="1">
+      <c r="F1168" s="56"/>
+    </row>
+    <row r="1169" spans="6:6" ht="15.75" customHeight="1">
+      <c r="F1169" s="56"/>
+    </row>
+    <row r="1170" spans="6:6" ht="15.75" customHeight="1">
+      <c r="F1170" s="56"/>
+    </row>
+    <row r="1171" spans="6:6" ht="15.75" customHeight="1">
+      <c r="F1171" s="56"/>
+    </row>
+    <row r="1172" spans="6:6" ht="15.75" customHeight="1">
+      <c r="F1172" s="56"/>
+    </row>
+    <row r="1173" spans="6:6" ht="15.75" customHeight="1">
+      <c r="F1173" s="56"/>
+    </row>
+    <row r="1174" spans="6:6" ht="15.75" customHeight="1">
+      <c r="F1174" s="56"/>
+    </row>
+    <row r="1175" spans="6:6" ht="15.75" customHeight="1">
+      <c r="F1175" s="56"/>
+    </row>
+    <row r="1176" spans="6:6" ht="15.75" customHeight="1">
+      <c r="F1176" s="56"/>
+    </row>
+    <row r="1177" spans="6:6" ht="15.75" customHeight="1">
+      <c r="F1177" s="56"/>
+    </row>
+    <row r="1178" spans="6:6" ht="15.75" customHeight="1">
+      <c r="F1178" s="56"/>
+    </row>
+    <row r="1179" spans="6:6" ht="15.75" customHeight="1">
+      <c r="F1179" s="56"/>
+    </row>
+    <row r="1180" spans="6:6" ht="15.75" customHeight="1">
+      <c r="F1180" s="56"/>
+    </row>
+    <row r="1181" spans="6:6" ht="15.75" customHeight="1">
+      <c r="F1181" s="56"/>
+    </row>
+    <row r="1182" spans="6:6" ht="15.75" customHeight="1">
+      <c r="F1182" s="56"/>
+    </row>
+    <row r="1183" spans="6:6" ht="15.75" customHeight="1">
+      <c r="F1183" s="56"/>
+    </row>
+    <row r="1184" spans="6:6" ht="15.75" customHeight="1">
+      <c r="F1184" s="56"/>
+    </row>
+    <row r="1185" spans="6:6" ht="15.75" customHeight="1">
+      <c r="F1185" s="56"/>
+    </row>
+    <row r="1186" spans="6:6" ht="15.75" customHeight="1">
+      <c r="F1186" s="56"/>
+    </row>
+    <row r="1187" spans="6:6" ht="15.75" customHeight="1">
+      <c r="F1187" s="56"/>
+    </row>
+    <row r="1188" spans="6:6" ht="15.75" customHeight="1">
+      <c r="F1188" s="56"/>
+    </row>
+    <row r="1189" spans="6:6" ht="15.75" customHeight="1">
+      <c r="F1189" s="56"/>
+    </row>
+    <row r="1190" spans="6:6" ht="15.75" customHeight="1">
+      <c r="F1190" s="56"/>
+    </row>
+    <row r="1191" spans="6:6" ht="15.75" customHeight="1">
+      <c r="F1191" s="56"/>
+    </row>
+    <row r="1192" spans="6:6" ht="15.75" customHeight="1">
+      <c r="F1192" s="56"/>
+    </row>
+    <row r="1193" spans="6:6" ht="15.75" customHeight="1">
+      <c r="F1193" s="56"/>
+    </row>
+    <row r="1194" spans="6:6" ht="15.75" customHeight="1">
+      <c r="F1194" s="56"/>
+    </row>
+    <row r="1195" spans="6:6" ht="15.75" customHeight="1">
+      <c r="F1195" s="56"/>
+    </row>
+    <row r="1196" spans="6:6" ht="15.75" customHeight="1">
+      <c r="F1196" s="56"/>
+    </row>
+    <row r="1197" spans="6:6" ht="15.75" customHeight="1">
+      <c r="F1197" s="56"/>
+    </row>
+    <row r="1198" spans="6:6" ht="15.75" customHeight="1">
+      <c r="F1198" s="56"/>
+    </row>
+    <row r="1199" spans="6:6" ht="15.75" customHeight="1">
+      <c r="F1199" s="56"/>
+    </row>
+    <row r="1200" spans="6:6" ht="15.75" customHeight="1">
+      <c r="F1200" s="56"/>
+    </row>
+    <row r="1201" spans="6:6" ht="15.75" customHeight="1">
+      <c r="F1201" s="56"/>
+    </row>
+    <row r="1202" spans="6:6" ht="15.75" customHeight="1">
+      <c r="F1202" s="56"/>
+    </row>
+    <row r="1203" spans="6:6" ht="15.75" customHeight="1">
+      <c r="F1203" s="56"/>
+    </row>
+    <row r="1204" spans="6:6" ht="15.75" customHeight="1">
+      <c r="F1204" s="56"/>
+    </row>
+    <row r="1205" spans="6:6" ht="15.75" customHeight="1">
+      <c r="F1205" s="56"/>
+    </row>
+    <row r="1206" spans="6:6" ht="15.75" customHeight="1">
+      <c r="F1206" s="56"/>
+    </row>
+    <row r="1207" spans="6:6" ht="15.75" customHeight="1">
+      <c r="F1207" s="56"/>
+    </row>
+    <row r="1208" spans="6:6" ht="15.75" customHeight="1">
+      <c r="F1208" s="56"/>
+    </row>
+    <row r="1209" spans="6:6" ht="15.75" customHeight="1">
+      <c r="F1209" s="56"/>
+    </row>
+    <row r="1210" spans="6:6" ht="15.75" customHeight="1">
+      <c r="F1210" s="56"/>
+    </row>
+    <row r="1211" spans="6:6" ht="15.75" customHeight="1">
+      <c r="F1211" s="56"/>
+    </row>
+    <row r="1212" spans="6:6" ht="15.75" customHeight="1">
+      <c r="F1212" s="56"/>
+    </row>
+    <row r="1213" spans="6:6" ht="15.75" customHeight="1">
+      <c r="F1213" s="56"/>
+    </row>
+    <row r="1214" spans="6:6" ht="15.75" customHeight="1">
+      <c r="F1214" s="56"/>
+    </row>
+    <row r="1215" spans="6:6" ht="15.75" customHeight="1">
+      <c r="F1215" s="56"/>
+    </row>
+    <row r="1216" spans="6:6" ht="15.75" customHeight="1">
+      <c r="F1216" s="56"/>
+    </row>
+    <row r="1217" spans="6:6" ht="15.75" customHeight="1">
+      <c r="F1217" s="56"/>
+    </row>
+    <row r="1218" spans="6:6" ht="15.75" customHeight="1">
+      <c r="F1218" s="56"/>
+    </row>
+    <row r="1219" spans="6:6" ht="15.75" customHeight="1">
+      <c r="F1219" s="56"/>
+    </row>
+    <row r="1220" spans="6:6" ht="15.75" customHeight="1">
+      <c r="F1220" s="56"/>
+    </row>
+    <row r="1221" spans="6:6" ht="15.75" customHeight="1">
+      <c r="F1221" s="56"/>
+    </row>
+    <row r="1222" spans="6:6" ht="15.75" customHeight="1">
+      <c r="F1222" s="56"/>
+    </row>
+    <row r="1223" spans="6:6" ht="15.75" customHeight="1">
+      <c r="F1223" s="56"/>
+    </row>
+    <row r="1224" spans="6:6" ht="15.75" customHeight="1">
+      <c r="F1224" s="56"/>
+    </row>
+    <row r="1225" spans="6:6" ht="15.75" customHeight="1">
+      <c r="F1225" s="56"/>
+    </row>
+    <row r="1226" spans="6:6" ht="15.75" customHeight="1">
+      <c r="F1226" s="56"/>
+    </row>
+    <row r="1227" spans="6:6" ht="15.75" customHeight="1">
+      <c r="F1227" s="56"/>
+    </row>
+    <row r="1228" spans="6:6" ht="15.75" customHeight="1">
+      <c r="F1228" s="56"/>
+    </row>
+    <row r="1229" spans="6:6" ht="15.75" customHeight="1">
+      <c r="F1229" s="56"/>
+    </row>
+    <row r="1230" spans="6:6" ht="15.75" customHeight="1">
+      <c r="F1230" s="56"/>
+    </row>
+    <row r="1231" spans="6:6" ht="15.75" customHeight="1">
+      <c r="F1231" s="56"/>
+    </row>
+    <row r="1232" spans="6:6" ht="15.75" customHeight="1">
+      <c r="F1232" s="56"/>
+    </row>
+    <row r="1233" spans="6:6" ht="15.75" customHeight="1">
+      <c r="F1233" s="56"/>
+    </row>
+    <row r="1234" spans="6:6" ht="15.75" customHeight="1">
+      <c r="F1234" s="56"/>
+    </row>
+    <row r="1235" spans="6:6" ht="15.75" customHeight="1">
+      <c r="F1235" s="56"/>
+    </row>
+    <row r="1236" spans="6:6" ht="15.75" customHeight="1">
+      <c r="F1236" s="56"/>
+    </row>
+    <row r="1237" spans="6:6" ht="15.75" customHeight="1">
+      <c r="F1237" s="56"/>
+    </row>
+    <row r="1238" spans="6:6" ht="15.75" customHeight="1">
+      <c r="F1238" s="56"/>
+    </row>
+    <row r="1239" spans="6:6" ht="15.75" customHeight="1">
+      <c r="F1239" s="56"/>
+    </row>
+    <row r="1240" spans="6:6" ht="15.75" customHeight="1">
+      <c r="F1240" s="56"/>
+    </row>
+    <row r="1241" spans="6:6" ht="15.75" customHeight="1">
+      <c r="F1241" s="56"/>
+    </row>
+    <row r="1242" spans="6:6" ht="15.75" customHeight="1">
+      <c r="F1242" s="56"/>
+    </row>
+    <row r="1243" spans="6:6" ht="15.75" customHeight="1">
+      <c r="F1243" s="56"/>
+    </row>
+    <row r="1244" spans="6:6" ht="15.75" customHeight="1">
+      <c r="F1244" s="56"/>
+    </row>
+    <row r="1245" spans="6:6" ht="15.75" customHeight="1">
+      <c r="F1245" s="56"/>
+    </row>
+    <row r="1246" spans="6:6" ht="15.75" customHeight="1">
+      <c r="F1246" s="56"/>
+    </row>
+    <row r="1247" spans="6:6" ht="15.75" customHeight="1">
+      <c r="F1247" s="56"/>
+    </row>
+    <row r="1248" spans="6:6" ht="15.75" customHeight="1">
+      <c r="F1248" s="56"/>
+    </row>
+    <row r="1249" spans="6:6" ht="15.75" customHeight="1">
+      <c r="F1249" s="56"/>
+    </row>
+    <row r="1250" spans="6:6" ht="15.75" customHeight="1">
+      <c r="F1250" s="56"/>
+    </row>
+    <row r="1251" spans="6:6" ht="15.75" customHeight="1">
+      <c r="F1251" s="56"/>
+    </row>
+    <row r="1252" spans="6:6" ht="15.75" customHeight="1">
+      <c r="F1252" s="56"/>
+    </row>
+    <row r="1253" spans="6:6" ht="15.75" customHeight="1">
+      <c r="F1253" s="56"/>
+    </row>
+    <row r="1254" spans="6:6" ht="15.75" customHeight="1">
+      <c r="F1254" s="56"/>
+    </row>
+    <row r="1255" spans="6:6" ht="15.75" customHeight="1">
+      <c r="F1255" s="56"/>
+    </row>
+    <row r="1256" spans="6:6" ht="15.75" customHeight="1">
+      <c r="F1256" s="56"/>
+    </row>
+    <row r="1257" spans="6:6" ht="15.75" customHeight="1">
+      <c r="F1257" s="56"/>
+    </row>
+    <row r="1258" spans="6:6" ht="15.75" customHeight="1">
+      <c r="F1258" s="56"/>
+    </row>
+    <row r="1259" spans="6:6" ht="15.75" customHeight="1">
+      <c r="F1259" s="56"/>
+    </row>
+    <row r="1260" spans="6:6" ht="15.75" customHeight="1">
+      <c r="F1260" s="56"/>
+    </row>
+    <row r="1261" spans="6:6" ht="15.75" customHeight="1">
+      <c r="F1261" s="56"/>
+    </row>
+    <row r="1262" spans="6:6" ht="15.75" customHeight="1">
+      <c r="F1262" s="56"/>
+    </row>
+    <row r="1263" spans="6:6" ht="15.75" customHeight="1">
+      <c r="F1263" s="56"/>
+    </row>
+    <row r="1264" spans="6:6" ht="15.75" customHeight="1">
+      <c r="F1264" s="56"/>
+    </row>
+    <row r="1265" spans="6:6" ht="15.75" customHeight="1">
+      <c r="F1265" s="56"/>
+    </row>
+    <row r="1266" spans="6:6" ht="15.75" customHeight="1">
+      <c r="F1266" s="56"/>
+    </row>
+    <row r="1267" spans="6:6" ht="15.75" customHeight="1">
+      <c r="F1267" s="56"/>
+    </row>
+    <row r="1268" spans="6:6" ht="15.75" customHeight="1">
+      <c r="F1268" s="56"/>
+    </row>
+    <row r="1269" spans="6:6" ht="15.75" customHeight="1">
+      <c r="F1269" s="56"/>
+    </row>
+    <row r="1270" spans="6:6" ht="15.75" customHeight="1">
+      <c r="F1270" s="56"/>
+    </row>
+    <row r="1271" spans="6:6" ht="15.75" customHeight="1">
+      <c r="F1271" s="56"/>
+    </row>
+    <row r="1272" spans="6:6" ht="15.75" customHeight="1">
+      <c r="F1272" s="56"/>
+    </row>
+    <row r="1273" spans="6:6" ht="15.75" customHeight="1">
+      <c r="F1273" s="56"/>
+    </row>
+    <row r="1274" spans="6:6" ht="15.75" customHeight="1">
+      <c r="F1274" s="56"/>
+    </row>
+    <row r="1275" spans="6:6" ht="15.75" customHeight="1">
+      <c r="F1275" s="56"/>
+    </row>
+    <row r="1276" spans="6:6" ht="15.75" customHeight="1">
+      <c r="F1276" s="56"/>
+    </row>
+    <row r="1277" spans="6:6" ht="15.75" customHeight="1">
+      <c r="F1277" s="56"/>
+    </row>
+    <row r="1278" spans="6:6" ht="15.75" customHeight="1">
+      <c r="F1278" s="56"/>
+    </row>
+    <row r="1279" spans="6:6" ht="15.75" customHeight="1">
+      <c r="F1279" s="56"/>
+    </row>
+    <row r="1280" spans="6:6" ht="15.75" customHeight="1">
+      <c r="F1280" s="56"/>
+    </row>
+    <row r="1281" spans="6:6" ht="15.75" customHeight="1">
+      <c r="F1281" s="56"/>
+    </row>
+    <row r="1282" spans="6:6" ht="15.75" customHeight="1">
+      <c r="F1282" s="56"/>
+    </row>
+    <row r="1283" spans="6:6" ht="15.75" customHeight="1">
+      <c r="F1283" s="56"/>
+    </row>
+    <row r="1284" spans="6:6" ht="15.75" customHeight="1">
+      <c r="F1284" s="56"/>
+    </row>
+    <row r="1285" spans="6:6" ht="15.75" customHeight="1">
+      <c r="F1285" s="56"/>
+    </row>
+    <row r="1286" spans="6:6" ht="15.75" customHeight="1">
+      <c r="F1286" s="56"/>
+    </row>
+    <row r="1287" spans="6:6" ht="15.75" customHeight="1">
+      <c r="F1287" s="56"/>
+    </row>
+    <row r="1288" spans="6:6" ht="15.75" customHeight="1">
+      <c r="F1288" s="56"/>
+    </row>
+    <row r="1289" spans="6:6" ht="15.75" customHeight="1">
+      <c r="F1289" s="56"/>
+    </row>
+    <row r="1290" spans="6:6" ht="15.75" customHeight="1">
+      <c r="F1290" s="56"/>
+    </row>
+    <row r="1291" spans="6:6" ht="15.75" customHeight="1">
+      <c r="F1291" s="56"/>
+    </row>
+    <row r="1292" spans="6:6" ht="15.75" customHeight="1">
+      <c r="F1292" s="56"/>
+    </row>
+    <row r="1293" spans="6:6" ht="15.75" customHeight="1">
+      <c r="F1293" s="56"/>
+    </row>
+    <row r="1294" spans="6:6" ht="15.75" customHeight="1">
+      <c r="F1294" s="56"/>
+    </row>
+    <row r="1295" spans="6:6" ht="15.75" customHeight="1">
+      <c r="F1295" s="56"/>
+    </row>
+    <row r="1296" spans="6:6" ht="15.75" customHeight="1">
+      <c r="F1296" s="56"/>
+    </row>
+    <row r="1297" spans="6:6" ht="15.75" customHeight="1">
+      <c r="F1297" s="56"/>
+    </row>
+    <row r="1298" spans="6:6" ht="15.75" customHeight="1">
+      <c r="F1298" s="56"/>
+    </row>
+    <row r="1299" spans="6:6" ht="15.75" customHeight="1">
+      <c r="F1299" s="56"/>
+    </row>
+    <row r="1300" spans="6:6" ht="15.75" customHeight="1">
+      <c r="F1300" s="56"/>
+    </row>
+    <row r="1301" spans="6:6" ht="15.75" customHeight="1">
+      <c r="F1301" s="56"/>
+    </row>
+    <row r="1302" spans="6:6" ht="15.75" customHeight="1">
+      <c r="F1302" s="56"/>
+    </row>
+    <row r="1303" spans="6:6" ht="15.75" customHeight="1">
+      <c r="F1303" s="56"/>
+    </row>
+    <row r="1304" spans="6:6" ht="15.75" customHeight="1">
+      <c r="F1304" s="56"/>
+    </row>
+    <row r="1305" spans="6:6" ht="15.75" customHeight="1">
+      <c r="F1305" s="56"/>
+    </row>
+    <row r="1306" spans="6:6" ht="15.75" customHeight="1">
+      <c r="F1306" s="56"/>
+    </row>
+    <row r="1307" spans="6:6" ht="15.75" customHeight="1">
+      <c r="F1307" s="56"/>
+    </row>
+    <row r="1308" spans="6:6" ht="15.75" customHeight="1">
+      <c r="F1308" s="56"/>
+    </row>
+    <row r="1309" spans="6:6" ht="15.75" customHeight="1">
+      <c r="F1309" s="56"/>
+    </row>
+    <row r="1310" spans="6:6" ht="15.75" customHeight="1">
+      <c r="F1310" s="56"/>
+    </row>
+    <row r="1311" spans="6:6" ht="15.75" customHeight="1">
+      <c r="F1311" s="56"/>
+    </row>
+    <row r="1312" spans="6:6" ht="15.75" customHeight="1">
+      <c r="F1312" s="56"/>
+    </row>
+    <row r="1313" spans="6:6" ht="15.75" customHeight="1">
+      <c r="F1313" s="56"/>
+    </row>
+    <row r="1314" spans="6:6" ht="15.75" customHeight="1">
+      <c r="F1314" s="56"/>
+    </row>
+    <row r="1315" spans="6:6" ht="15.75" customHeight="1">
+      <c r="F1315" s="56"/>
+    </row>
+    <row r="1316" spans="6:6" ht="15.75" customHeight="1">
+      <c r="F1316" s="56"/>
+    </row>
+    <row r="1317" spans="6:6" ht="15.75" customHeight="1">
+      <c r="F1317" s="56"/>
+    </row>
+    <row r="1318" spans="6:6" ht="15.75" customHeight="1">
+      <c r="F1318" s="56"/>
+    </row>
+    <row r="1319" spans="6:6" ht="15.75" customHeight="1">
+      <c r="F1319" s="56"/>
+    </row>
+    <row r="1320" spans="6:6" ht="15.75" customHeight="1">
+      <c r="F1320" s="56"/>
+    </row>
+    <row r="1321" spans="6:6" ht="15.75" customHeight="1">
+      <c r="F1321" s="56"/>
+    </row>
+    <row r="1322" spans="6:6" ht="15.75" customHeight="1">
+      <c r="F1322" s="56"/>
+    </row>
+    <row r="1323" spans="6:6" ht="15.75" customHeight="1">
+      <c r="F1323" s="56"/>
+    </row>
+    <row r="1324" spans="6:6" ht="15.75" customHeight="1">
+      <c r="F1324" s="56"/>
+    </row>
+    <row r="1325" spans="6:6" ht="15.75" customHeight="1">
+      <c r="F1325" s="56"/>
+    </row>
+    <row r="1326" spans="6:6" ht="15.75" customHeight="1">
+      <c r="F1326" s="56"/>
+    </row>
+    <row r="1327" spans="6:6" ht="15.75" customHeight="1">
+      <c r="F1327" s="56"/>
+    </row>
+    <row r="1328" spans="6:6" ht="15.75" customHeight="1">
+      <c r="F1328" s="56"/>
+    </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="B42:B44"/>
+    <mergeCell ref="C42:C44"/>
+    <mergeCell ref="B32:B34"/>
+    <mergeCell ref="C32:C34"/>
+    <mergeCell ref="B37:B39"/>
+    <mergeCell ref="C37:C39"/>
     <mergeCell ref="B20:B22"/>
     <mergeCell ref="C20:C22"/>
     <mergeCell ref="B25:B27"/>
     <mergeCell ref="C25:C27"/>
     <mergeCell ref="B15:B17"/>
     <mergeCell ref="C15:C17"/>
-    <mergeCell ref="B42:B44"/>
-    <mergeCell ref="C42:C44"/>
-    <mergeCell ref="B32:B34"/>
-    <mergeCell ref="C32:C34"/>
-    <mergeCell ref="B37:B39"/>
-    <mergeCell ref="C37:C39"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E66" xr:uid="{D8B43D4D-3767-4D7F-B59B-D7BBE30CC025}">
@@ -31745,6 +32773,387 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F8FD89E-6595-4ED6-8407-B1A3D616014F}">
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="A1:H52"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="3" max="3" width="15.85546875" customWidth="1"/>
+    <col min="4" max="4" width="14.42578125" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" style="7"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="26.25">
+      <c r="A1" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="24" t="s">
+        <v>166</v>
+      </c>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="27">
+        <v>1</v>
+      </c>
+      <c r="B2" s="27"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="28" t="s">
+        <v>138</v>
+      </c>
+      <c r="G2" s="24" t="s">
+        <v>232</v>
+      </c>
+      <c r="H2" s="24"/>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="27">
+        <v>2</v>
+      </c>
+      <c r="B3" s="27"/>
+      <c r="C3" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="28" t="s">
+        <v>128</v>
+      </c>
+      <c r="G3" s="33" t="s">
+        <v>234</v>
+      </c>
+      <c r="H3" s="24"/>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="27">
+        <v>3</v>
+      </c>
+      <c r="B4" s="27"/>
+      <c r="C4" s="27"/>
+      <c r="D4" s="27"/>
+      <c r="E4" s="27"/>
+      <c r="F4" s="28"/>
+      <c r="G4" s="24"/>
+      <c r="H4" s="24"/>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="27">
+        <v>4</v>
+      </c>
+      <c r="B5" s="27"/>
+      <c r="C5" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" s="28"/>
+      <c r="G5" s="24"/>
+      <c r="H5" s="24"/>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="27">
+        <v>5</v>
+      </c>
+      <c r="B6" s="27"/>
+      <c r="C6" s="27"/>
+      <c r="D6" s="27"/>
+      <c r="E6" s="27"/>
+      <c r="F6" s="28"/>
+      <c r="G6" s="24"/>
+      <c r="H6" s="24"/>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="27">
+        <v>6</v>
+      </c>
+      <c r="B7" s="27"/>
+      <c r="C7" s="27"/>
+      <c r="D7" s="27"/>
+      <c r="E7" s="27" t="s">
+        <v>235</v>
+      </c>
+      <c r="F7" s="28"/>
+      <c r="G7" s="24"/>
+      <c r="H7" s="24"/>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="27">
+        <v>7</v>
+      </c>
+      <c r="B8" s="27"/>
+      <c r="C8" s="27"/>
+      <c r="D8" s="27"/>
+      <c r="E8" s="27" t="s">
+        <v>236</v>
+      </c>
+      <c r="F8" s="28" t="s">
+        <v>150</v>
+      </c>
+      <c r="G8" s="24" t="s">
+        <v>237</v>
+      </c>
+      <c r="H8" s="24" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="27">
+        <v>8</v>
+      </c>
+      <c r="B9" s="27"/>
+      <c r="C9" s="27"/>
+      <c r="D9" s="27"/>
+      <c r="E9" s="27"/>
+      <c r="F9" s="28" t="s">
+        <v>128</v>
+      </c>
+      <c r="G9" s="24" t="s">
+        <v>234</v>
+      </c>
+      <c r="H9" s="24" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="27">
+        <v>9</v>
+      </c>
+      <c r="B10" s="27"/>
+      <c r="C10" s="27"/>
+      <c r="D10" s="27"/>
+      <c r="E10" s="27"/>
+      <c r="F10" s="28" t="s">
+        <v>150</v>
+      </c>
+      <c r="G10" s="24" t="s">
+        <v>237</v>
+      </c>
+      <c r="H10" s="24" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="27">
+        <v>10</v>
+      </c>
+      <c r="B11" s="27"/>
+      <c r="C11" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="D11" s="27"/>
+      <c r="E11" s="27" t="s">
+        <v>40</v>
+      </c>
+      <c r="F11" s="28" t="s">
+        <v>138</v>
+      </c>
+      <c r="G11" s="33" t="s">
+        <v>241</v>
+      </c>
+      <c r="H11" s="33" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="24"/>
+      <c r="B12" s="24"/>
+      <c r="C12" s="24"/>
+      <c r="D12" s="24"/>
+      <c r="E12" s="24"/>
+      <c r="F12" s="24"/>
+      <c r="G12" s="24"/>
+      <c r="H12" s="24"/>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="24"/>
+      <c r="B13" s="24"/>
+      <c r="C13" s="24"/>
+      <c r="D13" s="24"/>
+      <c r="E13" s="24"/>
+      <c r="F13" s="24"/>
+      <c r="G13" s="24"/>
+      <c r="H13" s="24"/>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="24"/>
+      <c r="B14" s="24"/>
+      <c r="C14" s="24"/>
+      <c r="D14" s="24"/>
+      <c r="E14" s="24"/>
+      <c r="F14" s="24"/>
+      <c r="G14" s="24"/>
+      <c r="H14" s="24"/>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="24"/>
+      <c r="B15" s="24"/>
+      <c r="C15" s="24"/>
+      <c r="D15" s="24"/>
+      <c r="E15" s="24"/>
+      <c r="F15" s="24"/>
+      <c r="G15" s="24"/>
+      <c r="H15" s="24"/>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="24"/>
+      <c r="B16" s="24"/>
+      <c r="C16" s="24"/>
+      <c r="D16" s="24"/>
+      <c r="E16" s="24"/>
+      <c r="F16" s="24"/>
+      <c r="G16" s="24"/>
+      <c r="H16" s="24"/>
+    </row>
+    <row r="17" spans="6:6">
+      <c r="F17" s="24"/>
+    </row>
+    <row r="18" spans="6:6">
+      <c r="F18" s="24"/>
+    </row>
+    <row r="19" spans="6:6">
+      <c r="F19" s="24"/>
+    </row>
+    <row r="20" spans="6:6">
+      <c r="F20" s="24"/>
+    </row>
+    <row r="21" spans="6:6">
+      <c r="F21" s="24"/>
+    </row>
+    <row r="22" spans="6:6">
+      <c r="F22" s="24"/>
+    </row>
+    <row r="23" spans="6:6">
+      <c r="F23" s="24"/>
+    </row>
+    <row r="24" spans="6:6">
+      <c r="F24" s="24"/>
+    </row>
+    <row r="25" spans="6:6">
+      <c r="F25" s="24"/>
+    </row>
+    <row r="26" spans="6:6">
+      <c r="F26" s="24"/>
+    </row>
+    <row r="27" spans="6:6">
+      <c r="F27" s="24"/>
+    </row>
+    <row r="28" spans="6:6">
+      <c r="F28" s="24"/>
+    </row>
+    <row r="29" spans="6:6">
+      <c r="F29" s="24"/>
+    </row>
+    <row r="30" spans="6:6">
+      <c r="F30" s="24"/>
+    </row>
+    <row r="31" spans="6:6">
+      <c r="F31" s="24"/>
+    </row>
+    <row r="32" spans="6:6">
+      <c r="F32" s="24"/>
+    </row>
+    <row r="33" spans="6:6">
+      <c r="F33" s="24"/>
+    </row>
+    <row r="34" spans="6:6">
+      <c r="F34" s="24"/>
+    </row>
+    <row r="35" spans="6:6">
+      <c r="F35" s="24"/>
+    </row>
+    <row r="36" spans="6:6">
+      <c r="F36" s="24"/>
+    </row>
+    <row r="37" spans="6:6">
+      <c r="F37" s="24"/>
+    </row>
+    <row r="38" spans="6:6">
+      <c r="F38" s="24"/>
+    </row>
+    <row r="39" spans="6:6">
+      <c r="F39" s="24"/>
+    </row>
+    <row r="40" spans="6:6">
+      <c r="F40" s="24"/>
+    </row>
+    <row r="41" spans="6:6">
+      <c r="F41" s="24"/>
+    </row>
+    <row r="42" spans="6:6">
+      <c r="F42" s="24"/>
+    </row>
+    <row r="43" spans="6:6">
+      <c r="F43" s="24"/>
+    </row>
+    <row r="44" spans="6:6">
+      <c r="F44" s="24"/>
+    </row>
+    <row r="45" spans="6:6">
+      <c r="F45" s="24"/>
+    </row>
+    <row r="46" spans="6:6">
+      <c r="F46" s="24"/>
+    </row>
+    <row r="47" spans="6:6">
+      <c r="F47" s="24"/>
+    </row>
+    <row r="48" spans="6:6">
+      <c r="F48" s="24"/>
+    </row>
+    <row r="49" spans="6:6">
+      <c r="F49" s="24"/>
+    </row>
+    <row r="50" spans="6:6">
+      <c r="F50" s="24"/>
+    </row>
+    <row r="51" spans="6:6">
+      <c r="F51" s="24"/>
+    </row>
+    <row r="52" spans="6:6">
+      <c r="F52" s="24"/>
+    </row>
+  </sheetData>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C11" xr:uid="{3304A8B5-47A5-4F23-84E1-58AA52BB5878}">
+      <formula1>"English,Knowledge Gaps,Emotion,Techniques"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F51" xr:uid="{EAAF5048-CA98-4AB1-A381-A44FD7CC7721}">
+      <formula1>"Task1, Task 2, Task3, Task 4, Task 5, Task 6, Task 7"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C34A5403-C026-4AEF-975E-5986F7A3547D}">
   <dimension ref="A1:E11"/>
   <sheetViews>
@@ -31891,7 +33300,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9696DCF4-14CB-44B7-90D8-B8204394C5DB}">
   <dimension ref="A1:E11"/>
   <sheetViews>
@@ -32030,7 +33439,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3370A11-AD88-47EC-B564-C7B459D1B3C6}">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:E11"/>
@@ -32184,7 +33593,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B3E9025-2166-405B-928B-811F653123F3}">
   <sheetPr codeName="Sheet20"/>
   <dimension ref="A1:F26"/>
@@ -32525,7 +33934,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D67830A5-61CE-4324-A223-E0E1F9224A73}">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:G26"/>
@@ -32918,7 +34327,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14F5D74C-E5D9-45C3-98E4-07977C9F0161}">
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1"/>
@@ -32939,7 +34348,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C982353-CA8A-4388-8859-7413C89A9E50}">
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:E26"/>
@@ -33282,7 +34691,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB3E4B6E-32AB-4F9F-9656-4C5398F92691}">
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:L52"/>
@@ -34261,7 +35670,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAAC2793-45B1-4029-830E-35CE2386D9D1}">
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:J51"/>
@@ -35300,7 +36709,561 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B03EE777-7A71-4ABF-B428-9DD9FC79554D}">
+  <dimension ref="A1:G51"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="77"/>
+    <col min="2" max="2" width="33.140625" style="77" customWidth="1"/>
+    <col min="3" max="3" width="28.140625" style="77" customWidth="1"/>
+    <col min="4" max="4" width="46.28515625" style="77" customWidth="1"/>
+    <col min="5" max="5" width="43.85546875" style="77" customWidth="1"/>
+    <col min="6" max="6" width="79" style="77" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="77"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="25.5">
+      <c r="A1" s="78" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="78" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="78" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="79" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="82" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="83" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="30">
+      <c r="A2" s="81">
+        <v>1</v>
+      </c>
+      <c r="B2" s="81"/>
+      <c r="C2" s="81" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="81"/>
+      <c r="E2" s="84" t="s">
+        <v>588</v>
+      </c>
+      <c r="F2" s="77" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="90">
+      <c r="A3" s="81">
+        <v>2</v>
+      </c>
+      <c r="B3" s="81"/>
+      <c r="C3" s="81"/>
+      <c r="D3" s="81"/>
+      <c r="E3" s="84" t="s">
+        <v>590</v>
+      </c>
+      <c r="F3" s="77" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="30">
+      <c r="A4" s="81">
+        <v>3</v>
+      </c>
+      <c r="B4" s="81"/>
+      <c r="C4" s="81" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="81" t="s">
+        <v>592</v>
+      </c>
+      <c r="E4" s="84" t="s">
+        <v>593</v>
+      </c>
+      <c r="F4" s="87" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="81">
+        <v>4</v>
+      </c>
+      <c r="B5" s="81"/>
+      <c r="C5" s="81"/>
+      <c r="D5" s="81"/>
+      <c r="E5" s="84"/>
+    </row>
+    <row r="6" spans="1:7" ht="45">
+      <c r="A6" s="81">
+        <v>5</v>
+      </c>
+      <c r="B6" s="81"/>
+      <c r="C6" s="81" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" s="81"/>
+      <c r="E6" s="84" t="s">
+        <v>594</v>
+      </c>
+      <c r="F6" s="93" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="81">
+        <v>6</v>
+      </c>
+      <c r="B7" s="81"/>
+      <c r="C7" s="81"/>
+      <c r="D7" s="81"/>
+      <c r="E7" s="84"/>
+      <c r="F7" s="93" t="s">
+        <v>595</v>
+      </c>
+      <c r="G7" s="87"/>
+    </row>
+    <row r="8" spans="1:7" ht="45">
+      <c r="A8" s="81">
+        <v>7</v>
+      </c>
+      <c r="B8" s="81"/>
+      <c r="C8" s="81" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8" s="81"/>
+      <c r="E8" s="84" t="s">
+        <v>596</v>
+      </c>
+      <c r="F8" s="93"/>
+    </row>
+    <row r="9" spans="1:7" ht="60">
+      <c r="A9" s="81">
+        <v>8</v>
+      </c>
+      <c r="B9" s="81"/>
+      <c r="C9" s="81" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" s="81" t="s">
+        <v>597</v>
+      </c>
+      <c r="E9" s="84" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="81">
+        <v>9</v>
+      </c>
+      <c r="B10" s="81"/>
+      <c r="C10" s="81"/>
+      <c r="D10" s="81"/>
+      <c r="E10" s="84"/>
+      <c r="F10" s="93"/>
+      <c r="G10" s="87"/>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="81">
+        <v>10</v>
+      </c>
+      <c r="B11" s="81"/>
+      <c r="C11" s="81"/>
+      <c r="D11" s="81"/>
+      <c r="E11" s="84"/>
+      <c r="F11" s="93"/>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="81">
+        <v>11</v>
+      </c>
+      <c r="B12" s="81"/>
+      <c r="C12" s="81"/>
+      <c r="D12" s="81"/>
+      <c r="E12" s="84"/>
+      <c r="F12" s="87"/>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="81">
+        <v>12</v>
+      </c>
+      <c r="B13" s="81"/>
+      <c r="C13" s="81"/>
+      <c r="D13" s="81"/>
+      <c r="E13" s="84"/>
+      <c r="F13" s="93"/>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="81">
+        <v>13</v>
+      </c>
+      <c r="B14" s="81"/>
+      <c r="C14" s="81"/>
+      <c r="D14" s="80"/>
+      <c r="E14" s="84"/>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="81">
+        <v>14</v>
+      </c>
+      <c r="B15" s="81"/>
+      <c r="C15" s="81"/>
+      <c r="D15" s="81"/>
+      <c r="E15" s="84"/>
+      <c r="F15" s="93"/>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="81">
+        <v>15</v>
+      </c>
+      <c r="B16" s="81"/>
+      <c r="C16" s="81"/>
+      <c r="D16" s="81"/>
+      <c r="E16" s="84"/>
+      <c r="F16" s="93"/>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="81">
+        <v>16</v>
+      </c>
+      <c r="B17" s="81"/>
+      <c r="C17" s="81"/>
+      <c r="D17" s="81"/>
+      <c r="E17" s="84"/>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="81">
+        <v>17</v>
+      </c>
+      <c r="B18" s="81"/>
+      <c r="C18" s="81"/>
+      <c r="D18" s="81"/>
+      <c r="E18" s="84"/>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="81">
+        <v>18</v>
+      </c>
+      <c r="B19" s="81"/>
+      <c r="C19" s="81"/>
+      <c r="D19" s="81"/>
+      <c r="E19" s="84"/>
+      <c r="F19" s="94"/>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="81">
+        <v>19</v>
+      </c>
+      <c r="B20" s="81"/>
+      <c r="C20" s="81"/>
+      <c r="D20" s="81"/>
+      <c r="E20" s="84"/>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="81">
+        <v>20</v>
+      </c>
+      <c r="B21" s="81"/>
+      <c r="C21" s="81"/>
+      <c r="D21" s="81"/>
+      <c r="E21" s="84"/>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="81">
+        <v>21</v>
+      </c>
+      <c r="B22" s="81"/>
+      <c r="C22" s="81"/>
+      <c r="D22" s="81"/>
+      <c r="E22" s="84"/>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="81">
+        <v>22</v>
+      </c>
+      <c r="B23" s="81"/>
+      <c r="C23" s="81"/>
+      <c r="D23" s="81"/>
+      <c r="E23" s="84"/>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="81">
+        <v>23</v>
+      </c>
+      <c r="B24" s="81"/>
+      <c r="C24" s="81"/>
+      <c r="D24" s="81"/>
+      <c r="E24" s="84"/>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="81">
+        <v>24</v>
+      </c>
+      <c r="B25" s="81"/>
+      <c r="C25" s="81"/>
+      <c r="D25" s="81"/>
+      <c r="E25" s="84"/>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="81">
+        <v>25</v>
+      </c>
+      <c r="B26" s="81"/>
+      <c r="C26" s="81"/>
+      <c r="D26" s="81"/>
+      <c r="E26" s="84"/>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="81">
+        <v>26</v>
+      </c>
+      <c r="B27" s="81"/>
+      <c r="C27" s="81"/>
+      <c r="D27" s="81"/>
+      <c r="E27" s="84"/>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="81">
+        <v>27</v>
+      </c>
+      <c r="B28" s="81"/>
+      <c r="C28" s="81"/>
+      <c r="D28" s="81"/>
+      <c r="E28" s="84"/>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" s="81">
+        <v>28</v>
+      </c>
+      <c r="B29" s="81"/>
+      <c r="C29" s="81"/>
+      <c r="D29" s="81"/>
+      <c r="E29" s="84"/>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" s="81">
+        <v>29</v>
+      </c>
+      <c r="B30" s="81"/>
+      <c r="C30" s="81"/>
+      <c r="D30" s="81"/>
+      <c r="E30" s="84"/>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" s="81">
+        <v>30</v>
+      </c>
+      <c r="B31" s="81"/>
+      <c r="C31" s="81"/>
+      <c r="D31" s="81"/>
+      <c r="E31" s="84"/>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" s="81">
+        <v>31</v>
+      </c>
+      <c r="B32" s="81"/>
+      <c r="C32" s="81"/>
+      <c r="D32" s="81"/>
+      <c r="E32" s="84"/>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" s="81">
+        <v>32</v>
+      </c>
+      <c r="B33" s="81"/>
+      <c r="C33" s="81"/>
+      <c r="D33" s="81"/>
+      <c r="E33" s="84"/>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" s="81">
+        <v>33</v>
+      </c>
+      <c r="B34" s="81"/>
+      <c r="C34" s="81"/>
+      <c r="D34" s="81"/>
+      <c r="E34" s="84"/>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" s="81">
+        <v>34</v>
+      </c>
+      <c r="B35" s="81"/>
+      <c r="C35" s="81"/>
+      <c r="D35" s="81"/>
+      <c r="E35" s="84"/>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" s="81">
+        <v>35</v>
+      </c>
+      <c r="B36" s="81"/>
+      <c r="C36" s="81"/>
+      <c r="D36" s="81"/>
+      <c r="E36" s="84"/>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" s="81">
+        <v>36</v>
+      </c>
+      <c r="B37" s="81"/>
+      <c r="C37" s="81"/>
+      <c r="D37" s="81"/>
+      <c r="E37" s="84"/>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" s="81">
+        <v>37</v>
+      </c>
+      <c r="B38" s="81"/>
+      <c r="C38" s="81"/>
+      <c r="D38" s="81"/>
+      <c r="E38" s="84"/>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" s="81">
+        <v>38</v>
+      </c>
+      <c r="B39" s="81"/>
+      <c r="C39" s="81"/>
+      <c r="D39" s="81"/>
+      <c r="E39" s="84"/>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" s="81">
+        <v>39</v>
+      </c>
+      <c r="B40" s="81"/>
+      <c r="C40" s="81"/>
+      <c r="D40" s="81"/>
+      <c r="E40" s="84"/>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" s="81">
+        <v>40</v>
+      </c>
+      <c r="B41" s="81"/>
+      <c r="C41" s="81"/>
+      <c r="D41" s="81"/>
+      <c r="E41" s="84"/>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" s="81">
+        <v>41</v>
+      </c>
+      <c r="B42" s="81"/>
+      <c r="C42" s="81"/>
+      <c r="D42" s="81"/>
+      <c r="E42" s="84"/>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" s="81">
+        <v>42</v>
+      </c>
+      <c r="B43" s="81"/>
+      <c r="C43" s="81"/>
+      <c r="D43" s="81"/>
+      <c r="E43" s="84"/>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44" s="81">
+        <v>43</v>
+      </c>
+      <c r="B44" s="81"/>
+      <c r="C44" s="81"/>
+      <c r="D44" s="81"/>
+      <c r="E44" s="84"/>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45" s="81">
+        <v>44</v>
+      </c>
+      <c r="B45" s="81"/>
+      <c r="C45" s="81"/>
+      <c r="D45" s="81"/>
+      <c r="E45" s="84"/>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46" s="81">
+        <v>45</v>
+      </c>
+      <c r="B46" s="81"/>
+      <c r="C46" s="81"/>
+      <c r="D46" s="81"/>
+      <c r="E46" s="84"/>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47" s="81">
+        <v>46</v>
+      </c>
+      <c r="B47" s="81"/>
+      <c r="C47" s="81"/>
+      <c r="D47" s="81"/>
+      <c r="E47" s="84"/>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48" s="81">
+        <v>47</v>
+      </c>
+      <c r="B48" s="81"/>
+      <c r="C48" s="81"/>
+      <c r="D48" s="81"/>
+      <c r="E48" s="84"/>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49" s="81">
+        <v>48</v>
+      </c>
+      <c r="B49" s="81"/>
+      <c r="C49" s="81"/>
+      <c r="D49" s="81"/>
+      <c r="E49" s="84"/>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50" s="81">
+        <v>49</v>
+      </c>
+      <c r="B50" s="81"/>
+      <c r="C50" s="81"/>
+      <c r="D50" s="81"/>
+      <c r="E50" s="84"/>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51" s="81">
+        <v>50</v>
+      </c>
+      <c r="B51" s="81"/>
+      <c r="C51" s="81"/>
+      <c r="D51" s="81"/>
+      <c r="E51" s="84"/>
+    </row>
+  </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C51" xr:uid="{4FE8A252-954C-419D-A8FB-D3F34E393847}">
+      <formula1>"English,Knowledge Gaps,Emotion,Techniques"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="F1" location="'Domain-Planning'!A1" display="Domain" xr:uid="{C77349D5-2B19-498C-A49A-53558815CFE2}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0762741B-203C-43CC-95E6-55D0B96E24E3}">
   <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:F51"/>
@@ -36004,149 +37967,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DDFCA0E-15B1-4FCC-89C5-A148D6AA017A}">
-  <dimension ref="A1:F11"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="9.140625" style="77"/>
-    <col min="2" max="2" width="21.42578125" style="77" customWidth="1"/>
-    <col min="3" max="3" width="15.85546875" style="77" customWidth="1"/>
-    <col min="4" max="4" width="40.5703125" style="77" customWidth="1"/>
-    <col min="5" max="5" width="45.85546875" style="77" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="77"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" ht="26.25">
-      <c r="A1" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="25" t="s">
-        <v>11</v>
-      </c>
-      <c r="C1" s="25" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="26" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="26" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="27">
-        <v>1</v>
-      </c>
-      <c r="B2" s="27"/>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="27">
-        <v>2</v>
-      </c>
-      <c r="B3" s="27"/>
-      <c r="C3" s="27"/>
-      <c r="D3" s="27"/>
-      <c r="E3" s="27"/>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="27">
-        <v>3</v>
-      </c>
-      <c r="B4" s="27"/>
-      <c r="C4" s="27"/>
-      <c r="D4" s="27"/>
-      <c r="E4" s="27"/>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="27">
-        <v>4</v>
-      </c>
-      <c r="B5" s="27"/>
-      <c r="C5" s="27"/>
-      <c r="D5" s="27"/>
-      <c r="E5" s="27"/>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="27">
-        <v>5</v>
-      </c>
-      <c r="B6" s="27"/>
-      <c r="C6" s="27"/>
-      <c r="D6" s="27"/>
-      <c r="E6" s="4"/>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="27">
-        <v>6</v>
-      </c>
-      <c r="B7" s="27"/>
-      <c r="C7" s="27"/>
-      <c r="D7" s="27"/>
-      <c r="E7" s="27"/>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="27">
-        <v>7</v>
-      </c>
-      <c r="B8" s="4"/>
-      <c r="C8" s="27"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="27">
-        <v>8</v>
-      </c>
-      <c r="B9" s="27"/>
-      <c r="C9" s="27"/>
-      <c r="D9" s="27"/>
-      <c r="E9" s="27"/>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="27">
-        <v>9</v>
-      </c>
-      <c r="B10" s="27"/>
-      <c r="C10" s="27" t="s">
-        <v>4</v>
-      </c>
-      <c r="D10" s="27"/>
-      <c r="E10" s="27"/>
-      <c r="F10" s="77" t="s">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="27">
-        <v>10</v>
-      </c>
-      <c r="B11" s="27"/>
-      <c r="C11" s="27"/>
-      <c r="D11" s="27" t="s">
-        <v>574</v>
-      </c>
-      <c r="E11" s="27"/>
-    </row>
-  </sheetData>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C11" xr:uid="{A2E9C856-6522-46C2-A0F4-53E57988B2B8}">
-      <formula1>"English,Knowledge Gaps,Emotion,Techniques"</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66FFD739-AF93-4AA7-A2F1-3E80882A8922}">
   <sheetPr codeName="Sheet9"/>
   <dimension ref="A1:F51"/>
@@ -36845,7 +38666,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{475F131D-CBCC-4B8F-BDF4-B1E2E34C7098}">
   <sheetPr codeName="Sheet10"/>
   <dimension ref="A1:K9"/>
@@ -36860,152 +38681,152 @@
       <c r="A1" s="9" t="s">
         <v>126</v>
       </c>
-      <c r="B1" s="102" t="s">
+      <c r="B1" s="110" t="s">
         <v>215</v>
       </c>
-      <c r="C1" s="103"/>
-      <c r="D1" s="103"/>
-      <c r="E1" s="103"/>
-      <c r="F1" s="103"/>
-      <c r="G1" s="103"/>
-      <c r="H1" s="103"/>
-      <c r="I1" s="103"/>
-      <c r="J1" s="103"/>
-      <c r="K1" s="104"/>
+      <c r="C1" s="111"/>
+      <c r="D1" s="111"/>
+      <c r="E1" s="111"/>
+      <c r="F1" s="111"/>
+      <c r="G1" s="111"/>
+      <c r="H1" s="111"/>
+      <c r="I1" s="111"/>
+      <c r="J1" s="111"/>
+      <c r="K1" s="112"/>
     </row>
     <row r="2" spans="1:11" ht="45" customHeight="1" thickBot="1">
       <c r="A2" s="10" t="s">
         <v>128</v>
       </c>
-      <c r="B2" s="102" t="s">
+      <c r="B2" s="110" t="s">
         <v>216</v>
       </c>
-      <c r="C2" s="103"/>
-      <c r="D2" s="103"/>
-      <c r="E2" s="103"/>
-      <c r="F2" s="103"/>
-      <c r="G2" s="103"/>
-      <c r="H2" s="103"/>
-      <c r="I2" s="103"/>
-      <c r="J2" s="103"/>
-      <c r="K2" s="104"/>
+      <c r="C2" s="111"/>
+      <c r="D2" s="111"/>
+      <c r="E2" s="111"/>
+      <c r="F2" s="111"/>
+      <c r="G2" s="111"/>
+      <c r="H2" s="111"/>
+      <c r="I2" s="111"/>
+      <c r="J2" s="111"/>
+      <c r="K2" s="112"/>
     </row>
     <row r="3" spans="1:11" ht="45" customHeight="1" thickBot="1">
       <c r="A3" s="10" t="s">
         <v>130</v>
       </c>
-      <c r="B3" s="102" t="s">
+      <c r="B3" s="110" t="s">
         <v>217</v>
       </c>
-      <c r="C3" s="103"/>
-      <c r="D3" s="103"/>
-      <c r="E3" s="103"/>
-      <c r="F3" s="103"/>
-      <c r="G3" s="103"/>
-      <c r="H3" s="103"/>
-      <c r="I3" s="103"/>
-      <c r="J3" s="103"/>
-      <c r="K3" s="104"/>
+      <c r="C3" s="111"/>
+      <c r="D3" s="111"/>
+      <c r="E3" s="111"/>
+      <c r="F3" s="111"/>
+      <c r="G3" s="111"/>
+      <c r="H3" s="111"/>
+      <c r="I3" s="111"/>
+      <c r="J3" s="111"/>
+      <c r="K3" s="112"/>
     </row>
     <row r="4" spans="1:11" ht="45" customHeight="1" thickBot="1">
       <c r="A4" s="10" t="s">
         <v>132</v>
       </c>
-      <c r="B4" s="102" t="s">
+      <c r="B4" s="110" t="s">
         <v>218</v>
       </c>
-      <c r="C4" s="103"/>
-      <c r="D4" s="103"/>
-      <c r="E4" s="103"/>
-      <c r="F4" s="103"/>
-      <c r="G4" s="103"/>
-      <c r="H4" s="103"/>
-      <c r="I4" s="103"/>
-      <c r="J4" s="103"/>
-      <c r="K4" s="104"/>
+      <c r="C4" s="111"/>
+      <c r="D4" s="111"/>
+      <c r="E4" s="111"/>
+      <c r="F4" s="111"/>
+      <c r="G4" s="111"/>
+      <c r="H4" s="111"/>
+      <c r="I4" s="111"/>
+      <c r="J4" s="111"/>
+      <c r="K4" s="112"/>
     </row>
     <row r="5" spans="1:11" ht="45" customHeight="1" thickBot="1">
       <c r="A5" s="10" t="s">
         <v>134</v>
       </c>
-      <c r="B5" s="102" t="s">
+      <c r="B5" s="110" t="s">
         <v>219</v>
       </c>
-      <c r="C5" s="103"/>
-      <c r="D5" s="103"/>
-      <c r="E5" s="103"/>
-      <c r="F5" s="103"/>
-      <c r="G5" s="103"/>
-      <c r="H5" s="103"/>
-      <c r="I5" s="103"/>
-      <c r="J5" s="103"/>
-      <c r="K5" s="104"/>
+      <c r="C5" s="111"/>
+      <c r="D5" s="111"/>
+      <c r="E5" s="111"/>
+      <c r="F5" s="111"/>
+      <c r="G5" s="111"/>
+      <c r="H5" s="111"/>
+      <c r="I5" s="111"/>
+      <c r="J5" s="111"/>
+      <c r="K5" s="112"/>
     </row>
     <row r="6" spans="1:11" ht="45" customHeight="1" thickBot="1">
       <c r="A6" s="10" t="s">
         <v>136</v>
       </c>
-      <c r="B6" s="102" t="s">
+      <c r="B6" s="110" t="s">
         <v>220</v>
       </c>
-      <c r="C6" s="103"/>
-      <c r="D6" s="103"/>
-      <c r="E6" s="103"/>
-      <c r="F6" s="103"/>
-      <c r="G6" s="103"/>
-      <c r="H6" s="103"/>
-      <c r="I6" s="103"/>
-      <c r="J6" s="103"/>
-      <c r="K6" s="104"/>
+      <c r="C6" s="111"/>
+      <c r="D6" s="111"/>
+      <c r="E6" s="111"/>
+      <c r="F6" s="111"/>
+      <c r="G6" s="111"/>
+      <c r="H6" s="111"/>
+      <c r="I6" s="111"/>
+      <c r="J6" s="111"/>
+      <c r="K6" s="112"/>
     </row>
     <row r="7" spans="1:11" ht="30" customHeight="1" thickBot="1">
       <c r="A7" s="10" t="s">
         <v>138</v>
       </c>
-      <c r="B7" s="102" t="s">
+      <c r="B7" s="110" t="s">
         <v>221</v>
       </c>
-      <c r="C7" s="103"/>
-      <c r="D7" s="103"/>
-      <c r="E7" s="103"/>
-      <c r="F7" s="103"/>
-      <c r="G7" s="103"/>
-      <c r="H7" s="103"/>
-      <c r="I7" s="103"/>
-      <c r="J7" s="103"/>
-      <c r="K7" s="104"/>
+      <c r="C7" s="111"/>
+      <c r="D7" s="111"/>
+      <c r="E7" s="111"/>
+      <c r="F7" s="111"/>
+      <c r="G7" s="111"/>
+      <c r="H7" s="111"/>
+      <c r="I7" s="111"/>
+      <c r="J7" s="111"/>
+      <c r="K7" s="112"/>
     </row>
     <row r="8" spans="1:11" ht="45" customHeight="1" thickBot="1">
       <c r="A8" s="10" t="s">
         <v>140</v>
       </c>
-      <c r="B8" s="102" t="s">
+      <c r="B8" s="110" t="s">
         <v>222</v>
       </c>
-      <c r="C8" s="103"/>
-      <c r="D8" s="103"/>
-      <c r="E8" s="103"/>
-      <c r="F8" s="103"/>
-      <c r="G8" s="103"/>
-      <c r="H8" s="103"/>
-      <c r="I8" s="103"/>
-      <c r="J8" s="103"/>
-      <c r="K8" s="104"/>
+      <c r="C8" s="111"/>
+      <c r="D8" s="111"/>
+      <c r="E8" s="111"/>
+      <c r="F8" s="111"/>
+      <c r="G8" s="111"/>
+      <c r="H8" s="111"/>
+      <c r="I8" s="111"/>
+      <c r="J8" s="111"/>
+      <c r="K8" s="112"/>
     </row>
     <row r="9" spans="1:11" ht="99.75" customHeight="1" thickBot="1">
       <c r="A9" s="10"/>
-      <c r="B9" s="105" t="s">
+      <c r="B9" s="113" t="s">
         <v>223</v>
       </c>
-      <c r="C9" s="106"/>
-      <c r="D9" s="106"/>
-      <c r="E9" s="106"/>
-      <c r="F9" s="106"/>
-      <c r="G9" s="106"/>
-      <c r="H9" s="106"/>
-      <c r="I9" s="106"/>
-      <c r="J9" s="106"/>
-      <c r="K9" s="107"/>
+      <c r="C9" s="114"/>
+      <c r="D9" s="114"/>
+      <c r="E9" s="114"/>
+      <c r="F9" s="114"/>
+      <c r="G9" s="114"/>
+      <c r="H9" s="114"/>
+      <c r="I9" s="114"/>
+      <c r="J9" s="114"/>
+      <c r="K9" s="115"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -37023,14 +38844,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69E6B415-86AF-44A1-9A0F-E640C770D3EB}">
   <sheetPr codeName="Sheet11"/>
   <dimension ref="A1:K13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M9" sqref="A1:XFD1048576"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
@@ -37038,225 +38857,231 @@
       <c r="A1" s="9" t="s">
         <v>126</v>
       </c>
-      <c r="B1" s="102" t="s">
+      <c r="B1" s="110" t="s">
         <v>127</v>
       </c>
-      <c r="C1" s="103"/>
-      <c r="D1" s="103"/>
-      <c r="E1" s="103"/>
-      <c r="F1" s="103"/>
-      <c r="G1" s="103"/>
-      <c r="H1" s="103"/>
-      <c r="I1" s="103"/>
-      <c r="J1" s="103"/>
-      <c r="K1" s="104"/>
+      <c r="C1" s="111"/>
+      <c r="D1" s="111"/>
+      <c r="E1" s="111"/>
+      <c r="F1" s="111"/>
+      <c r="G1" s="111"/>
+      <c r="H1" s="111"/>
+      <c r="I1" s="111"/>
+      <c r="J1" s="111"/>
+      <c r="K1" s="112"/>
     </row>
     <row r="2" spans="1:11" ht="45" customHeight="1" thickBot="1">
       <c r="A2" s="10" t="s">
         <v>128</v>
       </c>
-      <c r="B2" s="102" t="s">
+      <c r="B2" s="110" t="s">
         <v>129</v>
       </c>
-      <c r="C2" s="103"/>
-      <c r="D2" s="103"/>
-      <c r="E2" s="103"/>
-      <c r="F2" s="103"/>
-      <c r="G2" s="103"/>
-      <c r="H2" s="103"/>
-      <c r="I2" s="103"/>
-      <c r="J2" s="103"/>
-      <c r="K2" s="104"/>
+      <c r="C2" s="111"/>
+      <c r="D2" s="111"/>
+      <c r="E2" s="111"/>
+      <c r="F2" s="111"/>
+      <c r="G2" s="111"/>
+      <c r="H2" s="111"/>
+      <c r="I2" s="111"/>
+      <c r="J2" s="111"/>
+      <c r="K2" s="112"/>
     </row>
     <row r="3" spans="1:11" ht="45" customHeight="1" thickBot="1">
       <c r="A3" s="10" t="s">
         <v>130</v>
       </c>
-      <c r="B3" s="102" t="s">
+      <c r="B3" s="110" t="s">
         <v>131</v>
       </c>
-      <c r="C3" s="103"/>
-      <c r="D3" s="103"/>
-      <c r="E3" s="103"/>
-      <c r="F3" s="103"/>
-      <c r="G3" s="103"/>
-      <c r="H3" s="103"/>
-      <c r="I3" s="103"/>
-      <c r="J3" s="103"/>
-      <c r="K3" s="104"/>
+      <c r="C3" s="111"/>
+      <c r="D3" s="111"/>
+      <c r="E3" s="111"/>
+      <c r="F3" s="111"/>
+      <c r="G3" s="111"/>
+      <c r="H3" s="111"/>
+      <c r="I3" s="111"/>
+      <c r="J3" s="111"/>
+      <c r="K3" s="112"/>
     </row>
     <row r="4" spans="1:11" ht="45" customHeight="1" thickBot="1">
       <c r="A4" s="10" t="s">
         <v>132</v>
       </c>
-      <c r="B4" s="102" t="s">
+      <c r="B4" s="110" t="s">
         <v>133</v>
       </c>
-      <c r="C4" s="103"/>
-      <c r="D4" s="103"/>
-      <c r="E4" s="103"/>
-      <c r="F4" s="103"/>
-      <c r="G4" s="103"/>
-      <c r="H4" s="103"/>
-      <c r="I4" s="103"/>
-      <c r="J4" s="103"/>
-      <c r="K4" s="104"/>
+      <c r="C4" s="111"/>
+      <c r="D4" s="111"/>
+      <c r="E4" s="111"/>
+      <c r="F4" s="111"/>
+      <c r="G4" s="111"/>
+      <c r="H4" s="111"/>
+      <c r="I4" s="111"/>
+      <c r="J4" s="111"/>
+      <c r="K4" s="112"/>
     </row>
     <row r="5" spans="1:11" ht="45" customHeight="1" thickBot="1">
       <c r="A5" s="10" t="s">
         <v>134</v>
       </c>
-      <c r="B5" s="102" t="s">
+      <c r="B5" s="110" t="s">
         <v>135</v>
       </c>
-      <c r="C5" s="103"/>
-      <c r="D5" s="103"/>
-      <c r="E5" s="103"/>
-      <c r="F5" s="103"/>
-      <c r="G5" s="103"/>
-      <c r="H5" s="103"/>
-      <c r="I5" s="103"/>
-      <c r="J5" s="103"/>
-      <c r="K5" s="104"/>
+      <c r="C5" s="111"/>
+      <c r="D5" s="111"/>
+      <c r="E5" s="111"/>
+      <c r="F5" s="111"/>
+      <c r="G5" s="111"/>
+      <c r="H5" s="111"/>
+      <c r="I5" s="111"/>
+      <c r="J5" s="111"/>
+      <c r="K5" s="112"/>
     </row>
     <row r="6" spans="1:11" ht="45" customHeight="1" thickBot="1">
       <c r="A6" s="10" t="s">
         <v>136</v>
       </c>
-      <c r="B6" s="102" t="s">
+      <c r="B6" s="110" t="s">
         <v>137</v>
       </c>
-      <c r="C6" s="103"/>
-      <c r="D6" s="103"/>
-      <c r="E6" s="103"/>
-      <c r="F6" s="103"/>
-      <c r="G6" s="103"/>
-      <c r="H6" s="103"/>
-      <c r="I6" s="103"/>
-      <c r="J6" s="103"/>
-      <c r="K6" s="104"/>
+      <c r="C6" s="111"/>
+      <c r="D6" s="111"/>
+      <c r="E6" s="111"/>
+      <c r="F6" s="111"/>
+      <c r="G6" s="111"/>
+      <c r="H6" s="111"/>
+      <c r="I6" s="111"/>
+      <c r="J6" s="111"/>
+      <c r="K6" s="112"/>
     </row>
     <row r="7" spans="1:11" ht="30" customHeight="1" thickBot="1">
       <c r="A7" s="10" t="s">
         <v>138</v>
       </c>
-      <c r="B7" s="102" t="s">
+      <c r="B7" s="110" t="s">
         <v>139</v>
       </c>
-      <c r="C7" s="103"/>
-      <c r="D7" s="103"/>
-      <c r="E7" s="103"/>
-      <c r="F7" s="103"/>
-      <c r="G7" s="103"/>
-      <c r="H7" s="103"/>
-      <c r="I7" s="103"/>
-      <c r="J7" s="103"/>
-      <c r="K7" s="104"/>
+      <c r="C7" s="111"/>
+      <c r="D7" s="111"/>
+      <c r="E7" s="111"/>
+      <c r="F7" s="111"/>
+      <c r="G7" s="111"/>
+      <c r="H7" s="111"/>
+      <c r="I7" s="111"/>
+      <c r="J7" s="111"/>
+      <c r="K7" s="112"/>
     </row>
     <row r="8" spans="1:11" ht="45" customHeight="1" thickBot="1">
       <c r="A8" s="10" t="s">
         <v>140</v>
       </c>
-      <c r="B8" s="102" t="s">
+      <c r="B8" s="110" t="s">
         <v>141</v>
       </c>
-      <c r="C8" s="103"/>
-      <c r="D8" s="103"/>
-      <c r="E8" s="103"/>
-      <c r="F8" s="103"/>
-      <c r="G8" s="103"/>
-      <c r="H8" s="103"/>
-      <c r="I8" s="103"/>
-      <c r="J8" s="103"/>
-      <c r="K8" s="104"/>
+      <c r="C8" s="111"/>
+      <c r="D8" s="111"/>
+      <c r="E8" s="111"/>
+      <c r="F8" s="111"/>
+      <c r="G8" s="111"/>
+      <c r="H8" s="111"/>
+      <c r="I8" s="111"/>
+      <c r="J8" s="111"/>
+      <c r="K8" s="112"/>
     </row>
     <row r="9" spans="1:11" ht="30" customHeight="1" thickBot="1">
       <c r="A9" s="10" t="s">
         <v>142</v>
       </c>
-      <c r="B9" s="102" t="s">
+      <c r="B9" s="110" t="s">
         <v>143</v>
       </c>
-      <c r="C9" s="103"/>
-      <c r="D9" s="103"/>
-      <c r="E9" s="103"/>
-      <c r="F9" s="103"/>
-      <c r="G9" s="103"/>
-      <c r="H9" s="103"/>
-      <c r="I9" s="103"/>
-      <c r="J9" s="103"/>
-      <c r="K9" s="104"/>
+      <c r="C9" s="111"/>
+      <c r="D9" s="111"/>
+      <c r="E9" s="111"/>
+      <c r="F9" s="111"/>
+      <c r="G9" s="111"/>
+      <c r="H9" s="111"/>
+      <c r="I9" s="111"/>
+      <c r="J9" s="111"/>
+      <c r="K9" s="112"/>
     </row>
     <row r="10" spans="1:11" ht="60" customHeight="1" thickBot="1">
       <c r="A10" s="10" t="s">
         <v>144</v>
       </c>
-      <c r="B10" s="102" t="s">
+      <c r="B10" s="110" t="s">
         <v>145</v>
       </c>
-      <c r="C10" s="103"/>
-      <c r="D10" s="103"/>
-      <c r="E10" s="103"/>
-      <c r="F10" s="103"/>
-      <c r="G10" s="103"/>
-      <c r="H10" s="103"/>
-      <c r="I10" s="103"/>
-      <c r="J10" s="103"/>
-      <c r="K10" s="104"/>
+      <c r="C10" s="111"/>
+      <c r="D10" s="111"/>
+      <c r="E10" s="111"/>
+      <c r="F10" s="111"/>
+      <c r="G10" s="111"/>
+      <c r="H10" s="111"/>
+      <c r="I10" s="111"/>
+      <c r="J10" s="111"/>
+      <c r="K10" s="112"/>
     </row>
     <row r="11" spans="1:11" ht="45" customHeight="1" thickBot="1">
       <c r="A11" s="10" t="s">
         <v>146</v>
       </c>
-      <c r="B11" s="102" t="s">
+      <c r="B11" s="110" t="s">
         <v>147</v>
       </c>
-      <c r="C11" s="103"/>
-      <c r="D11" s="103"/>
-      <c r="E11" s="103"/>
-      <c r="F11" s="103"/>
-      <c r="G11" s="103"/>
-      <c r="H11" s="103"/>
-      <c r="I11" s="103"/>
-      <c r="J11" s="103"/>
-      <c r="K11" s="104"/>
+      <c r="C11" s="111"/>
+      <c r="D11" s="111"/>
+      <c r="E11" s="111"/>
+      <c r="F11" s="111"/>
+      <c r="G11" s="111"/>
+      <c r="H11" s="111"/>
+      <c r="I11" s="111"/>
+      <c r="J11" s="111"/>
+      <c r="K11" s="112"/>
     </row>
     <row r="12" spans="1:11" ht="45" customHeight="1" thickBot="1">
       <c r="A12" s="10" t="s">
         <v>148</v>
       </c>
-      <c r="B12" s="102" t="s">
+      <c r="B12" s="110" t="s">
         <v>149</v>
       </c>
-      <c r="C12" s="103"/>
-      <c r="D12" s="103"/>
-      <c r="E12" s="103"/>
-      <c r="F12" s="103"/>
-      <c r="G12" s="103"/>
-      <c r="H12" s="103"/>
-      <c r="I12" s="103"/>
-      <c r="J12" s="103"/>
-      <c r="K12" s="104"/>
+      <c r="C12" s="111"/>
+      <c r="D12" s="111"/>
+      <c r="E12" s="111"/>
+      <c r="F12" s="111"/>
+      <c r="G12" s="111"/>
+      <c r="H12" s="111"/>
+      <c r="I12" s="111"/>
+      <c r="J12" s="111"/>
+      <c r="K12" s="112"/>
     </row>
     <row r="13" spans="1:11" ht="45" customHeight="1" thickBot="1">
       <c r="A13" s="10" t="s">
         <v>150</v>
       </c>
-      <c r="B13" s="102" t="s">
+      <c r="B13" s="110" t="s">
         <v>151</v>
       </c>
-      <c r="C13" s="103"/>
-      <c r="D13" s="103"/>
-      <c r="E13" s="103"/>
-      <c r="F13" s="103"/>
-      <c r="G13" s="103"/>
-      <c r="H13" s="103"/>
-      <c r="I13" s="103"/>
-      <c r="J13" s="103"/>
-      <c r="K13" s="104"/>
+      <c r="C13" s="111"/>
+      <c r="D13" s="111"/>
+      <c r="E13" s="111"/>
+      <c r="F13" s="111"/>
+      <c r="G13" s="111"/>
+      <c r="H13" s="111"/>
+      <c r="I13" s="111"/>
+      <c r="J13" s="111"/>
+      <c r="K13" s="112"/>
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="B6:K6"/>
+    <mergeCell ref="B1:K1"/>
+    <mergeCell ref="B2:K2"/>
+    <mergeCell ref="B3:K3"/>
+    <mergeCell ref="B4:K4"/>
+    <mergeCell ref="B5:K5"/>
     <mergeCell ref="B13:K13"/>
     <mergeCell ref="B7:K7"/>
     <mergeCell ref="B8:K8"/>
@@ -37264,18 +39089,12 @@
     <mergeCell ref="B10:K10"/>
     <mergeCell ref="B11:K11"/>
     <mergeCell ref="B12:K12"/>
-    <mergeCell ref="B6:K6"/>
-    <mergeCell ref="B1:K1"/>
-    <mergeCell ref="B2:K2"/>
-    <mergeCell ref="B3:K3"/>
-    <mergeCell ref="B4:K4"/>
-    <mergeCell ref="B5:K5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98E3A676-4755-49BB-A0B9-3FC0BA4B80B3}">
   <sheetPr codeName="Sheet12"/>
   <dimension ref="A1:K7"/>
@@ -37288,265 +39107,120 @@
       <c r="A1" s="9" t="s">
         <v>126</v>
       </c>
-      <c r="B1" s="102" t="s">
+      <c r="B1" s="110" t="s">
         <v>152</v>
       </c>
-      <c r="C1" s="103"/>
-      <c r="D1" s="103"/>
-      <c r="E1" s="103"/>
-      <c r="F1" s="103"/>
-      <c r="G1" s="103"/>
-      <c r="H1" s="103"/>
-      <c r="I1" s="103"/>
-      <c r="J1" s="103"/>
-      <c r="K1" s="104"/>
+      <c r="C1" s="111"/>
+      <c r="D1" s="111"/>
+      <c r="E1" s="111"/>
+      <c r="F1" s="111"/>
+      <c r="G1" s="111"/>
+      <c r="H1" s="111"/>
+      <c r="I1" s="111"/>
+      <c r="J1" s="111"/>
+      <c r="K1" s="112"/>
     </row>
     <row r="2" spans="1:11" ht="45" customHeight="1" thickBot="1">
       <c r="A2" s="10" t="s">
         <v>128</v>
       </c>
-      <c r="B2" s="102" t="s">
+      <c r="B2" s="110" t="s">
         <v>153</v>
       </c>
-      <c r="C2" s="103"/>
-      <c r="D2" s="103"/>
-      <c r="E2" s="103"/>
-      <c r="F2" s="103"/>
-      <c r="G2" s="103"/>
-      <c r="H2" s="103"/>
-      <c r="I2" s="103"/>
-      <c r="J2" s="103"/>
-      <c r="K2" s="104"/>
+      <c r="C2" s="111"/>
+      <c r="D2" s="111"/>
+      <c r="E2" s="111"/>
+      <c r="F2" s="111"/>
+      <c r="G2" s="111"/>
+      <c r="H2" s="111"/>
+      <c r="I2" s="111"/>
+      <c r="J2" s="111"/>
+      <c r="K2" s="112"/>
     </row>
     <row r="3" spans="1:11" ht="45" customHeight="1" thickBot="1">
       <c r="A3" s="10" t="s">
         <v>130</v>
       </c>
-      <c r="B3" s="102" t="s">
+      <c r="B3" s="110" t="s">
         <v>154</v>
       </c>
-      <c r="C3" s="103"/>
-      <c r="D3" s="103"/>
-      <c r="E3" s="103"/>
-      <c r="F3" s="103"/>
-      <c r="G3" s="103"/>
-      <c r="H3" s="103"/>
-      <c r="I3" s="103"/>
-      <c r="J3" s="103"/>
-      <c r="K3" s="104"/>
+      <c r="C3" s="111"/>
+      <c r="D3" s="111"/>
+      <c r="E3" s="111"/>
+      <c r="F3" s="111"/>
+      <c r="G3" s="111"/>
+      <c r="H3" s="111"/>
+      <c r="I3" s="111"/>
+      <c r="J3" s="111"/>
+      <c r="K3" s="112"/>
     </row>
     <row r="4" spans="1:11" ht="45" customHeight="1" thickBot="1">
       <c r="A4" s="10" t="s">
         <v>132</v>
       </c>
-      <c r="B4" s="102" t="s">
+      <c r="B4" s="110" t="s">
         <v>158</v>
       </c>
-      <c r="C4" s="103"/>
-      <c r="D4" s="103"/>
-      <c r="E4" s="103"/>
-      <c r="F4" s="103"/>
-      <c r="G4" s="103"/>
-      <c r="H4" s="103"/>
-      <c r="I4" s="103"/>
-      <c r="J4" s="103"/>
-      <c r="K4" s="104"/>
+      <c r="C4" s="111"/>
+      <c r="D4" s="111"/>
+      <c r="E4" s="111"/>
+      <c r="F4" s="111"/>
+      <c r="G4" s="111"/>
+      <c r="H4" s="111"/>
+      <c r="I4" s="111"/>
+      <c r="J4" s="111"/>
+      <c r="K4" s="112"/>
     </row>
     <row r="5" spans="1:11" ht="45" customHeight="1" thickBot="1">
       <c r="A5" s="10" t="s">
         <v>134</v>
       </c>
-      <c r="B5" s="102" t="s">
+      <c r="B5" s="110" t="s">
         <v>155</v>
       </c>
-      <c r="C5" s="103"/>
-      <c r="D5" s="103"/>
-      <c r="E5" s="103"/>
-      <c r="F5" s="103"/>
-      <c r="G5" s="103"/>
-      <c r="H5" s="103"/>
-      <c r="I5" s="103"/>
-      <c r="J5" s="103"/>
-      <c r="K5" s="104"/>
+      <c r="C5" s="111"/>
+      <c r="D5" s="111"/>
+      <c r="E5" s="111"/>
+      <c r="F5" s="111"/>
+      <c r="G5" s="111"/>
+      <c r="H5" s="111"/>
+      <c r="I5" s="111"/>
+      <c r="J5" s="111"/>
+      <c r="K5" s="112"/>
     </row>
     <row r="6" spans="1:11" ht="45" customHeight="1" thickBot="1">
       <c r="A6" s="10" t="s">
         <v>136</v>
       </c>
-      <c r="B6" s="102" t="s">
+      <c r="B6" s="110" t="s">
         <v>156</v>
       </c>
-      <c r="C6" s="103"/>
-      <c r="D6" s="103"/>
-      <c r="E6" s="103"/>
-      <c r="F6" s="103"/>
-      <c r="G6" s="103"/>
-      <c r="H6" s="103"/>
-      <c r="I6" s="103"/>
-      <c r="J6" s="103"/>
-      <c r="K6" s="104"/>
+      <c r="C6" s="111"/>
+      <c r="D6" s="111"/>
+      <c r="E6" s="111"/>
+      <c r="F6" s="111"/>
+      <c r="G6" s="111"/>
+      <c r="H6" s="111"/>
+      <c r="I6" s="111"/>
+      <c r="J6" s="111"/>
+      <c r="K6" s="112"/>
     </row>
     <row r="7" spans="1:11" ht="30" customHeight="1" thickBot="1">
       <c r="A7" s="10" t="s">
         <v>138</v>
       </c>
-      <c r="B7" s="102" t="s">
+      <c r="B7" s="110" t="s">
         <v>157</v>
       </c>
-      <c r="C7" s="103"/>
-      <c r="D7" s="103"/>
-      <c r="E7" s="103"/>
-      <c r="F7" s="103"/>
-      <c r="G7" s="103"/>
-      <c r="H7" s="103"/>
-      <c r="I7" s="103"/>
-      <c r="J7" s="103"/>
-      <c r="K7" s="104"/>
-    </row>
-  </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="B7:K7"/>
-    <mergeCell ref="B1:K1"/>
-    <mergeCell ref="B2:K2"/>
-    <mergeCell ref="B3:K3"/>
-    <mergeCell ref="B4:K4"/>
-    <mergeCell ref="B5:K5"/>
-    <mergeCell ref="B6:K6"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B4D9506-FE81-4C50-86CB-42DFDE5F4697}">
-  <sheetPr codeName="Sheet13"/>
-  <dimension ref="A1:K7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N12" sqref="A1:XFD1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:11" ht="45" customHeight="1" thickBot="1">
-      <c r="A1" s="9" t="s">
-        <v>126</v>
-      </c>
-      <c r="B1" s="102" t="s">
-        <v>159</v>
-      </c>
-      <c r="C1" s="103"/>
-      <c r="D1" s="103"/>
-      <c r="E1" s="103"/>
-      <c r="F1" s="103"/>
-      <c r="G1" s="103"/>
-      <c r="H1" s="103"/>
-      <c r="I1" s="103"/>
-      <c r="J1" s="103"/>
-      <c r="K1" s="104"/>
-    </row>
-    <row r="2" spans="1:11" ht="45" customHeight="1" thickBot="1">
-      <c r="A2" s="10" t="s">
-        <v>128</v>
-      </c>
-      <c r="B2" s="102" t="s">
-        <v>160</v>
-      </c>
-      <c r="C2" s="103"/>
-      <c r="D2" s="103"/>
-      <c r="E2" s="103"/>
-      <c r="F2" s="103"/>
-      <c r="G2" s="103"/>
-      <c r="H2" s="103"/>
-      <c r="I2" s="103"/>
-      <c r="J2" s="103"/>
-      <c r="K2" s="104"/>
-    </row>
-    <row r="3" spans="1:11" ht="45" customHeight="1" thickBot="1">
-      <c r="A3" s="10" t="s">
-        <v>130</v>
-      </c>
-      <c r="B3" s="102" t="s">
-        <v>161</v>
-      </c>
-      <c r="C3" s="103"/>
-      <c r="D3" s="103"/>
-      <c r="E3" s="103"/>
-      <c r="F3" s="103"/>
-      <c r="G3" s="103"/>
-      <c r="H3" s="103"/>
-      <c r="I3" s="103"/>
-      <c r="J3" s="103"/>
-      <c r="K3" s="104"/>
-    </row>
-    <row r="4" spans="1:11" ht="45" customHeight="1" thickBot="1">
-      <c r="A4" s="10" t="s">
-        <v>132</v>
-      </c>
-      <c r="B4" s="102" t="s">
-        <v>162</v>
-      </c>
-      <c r="C4" s="103"/>
-      <c r="D4" s="103"/>
-      <c r="E4" s="103"/>
-      <c r="F4" s="103"/>
-      <c r="G4" s="103"/>
-      <c r="H4" s="103"/>
-      <c r="I4" s="103"/>
-      <c r="J4" s="103"/>
-      <c r="K4" s="104"/>
-    </row>
-    <row r="5" spans="1:11" ht="45" customHeight="1" thickBot="1">
-      <c r="A5" s="10" t="s">
-        <v>134</v>
-      </c>
-      <c r="B5" s="102" t="s">
-        <v>163</v>
-      </c>
-      <c r="C5" s="103"/>
-      <c r="D5" s="103"/>
-      <c r="E5" s="103"/>
-      <c r="F5" s="103"/>
-      <c r="G5" s="103"/>
-      <c r="H5" s="103"/>
-      <c r="I5" s="103"/>
-      <c r="J5" s="103"/>
-      <c r="K5" s="104"/>
-    </row>
-    <row r="6" spans="1:11" ht="45" customHeight="1" thickBot="1">
-      <c r="A6" s="10" t="s">
-        <v>136</v>
-      </c>
-      <c r="B6" s="102" t="s">
-        <v>164</v>
-      </c>
-      <c r="C6" s="103"/>
-      <c r="D6" s="103"/>
-      <c r="E6" s="103"/>
-      <c r="F6" s="103"/>
-      <c r="G6" s="103"/>
-      <c r="H6" s="103"/>
-      <c r="I6" s="103"/>
-      <c r="J6" s="103"/>
-      <c r="K6" s="104"/>
-    </row>
-    <row r="7" spans="1:11" ht="30" customHeight="1" thickBot="1">
-      <c r="A7" s="10" t="s">
-        <v>138</v>
-      </c>
-      <c r="B7" s="102" t="s">
-        <v>165</v>
-      </c>
-      <c r="C7" s="103"/>
-      <c r="D7" s="103"/>
-      <c r="E7" s="103"/>
-      <c r="F7" s="103"/>
-      <c r="G7" s="103"/>
-      <c r="H7" s="103"/>
-      <c r="I7" s="103"/>
-      <c r="J7" s="103"/>
-      <c r="K7" s="104"/>
+      <c r="C7" s="111"/>
+      <c r="D7" s="111"/>
+      <c r="E7" s="111"/>
+      <c r="F7" s="111"/>
+      <c r="G7" s="111"/>
+      <c r="H7" s="111"/>
+      <c r="I7" s="111"/>
+      <c r="J7" s="111"/>
+      <c r="K7" s="112"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -37564,6 +39238,151 @@
 </file>
 
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B4D9506-FE81-4C50-86CB-42DFDE5F4697}">
+  <sheetPr codeName="Sheet13"/>
+  <dimension ref="A1:K7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N12" sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:11" ht="45" customHeight="1" thickBot="1">
+      <c r="A1" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="B1" s="110" t="s">
+        <v>159</v>
+      </c>
+      <c r="C1" s="111"/>
+      <c r="D1" s="111"/>
+      <c r="E1" s="111"/>
+      <c r="F1" s="111"/>
+      <c r="G1" s="111"/>
+      <c r="H1" s="111"/>
+      <c r="I1" s="111"/>
+      <c r="J1" s="111"/>
+      <c r="K1" s="112"/>
+    </row>
+    <row r="2" spans="1:11" ht="45" customHeight="1" thickBot="1">
+      <c r="A2" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="B2" s="110" t="s">
+        <v>160</v>
+      </c>
+      <c r="C2" s="111"/>
+      <c r="D2" s="111"/>
+      <c r="E2" s="111"/>
+      <c r="F2" s="111"/>
+      <c r="G2" s="111"/>
+      <c r="H2" s="111"/>
+      <c r="I2" s="111"/>
+      <c r="J2" s="111"/>
+      <c r="K2" s="112"/>
+    </row>
+    <row r="3" spans="1:11" ht="45" customHeight="1" thickBot="1">
+      <c r="A3" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="B3" s="110" t="s">
+        <v>161</v>
+      </c>
+      <c r="C3" s="111"/>
+      <c r="D3" s="111"/>
+      <c r="E3" s="111"/>
+      <c r="F3" s="111"/>
+      <c r="G3" s="111"/>
+      <c r="H3" s="111"/>
+      <c r="I3" s="111"/>
+      <c r="J3" s="111"/>
+      <c r="K3" s="112"/>
+    </row>
+    <row r="4" spans="1:11" ht="45" customHeight="1" thickBot="1">
+      <c r="A4" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="B4" s="110" t="s">
+        <v>162</v>
+      </c>
+      <c r="C4" s="111"/>
+      <c r="D4" s="111"/>
+      <c r="E4" s="111"/>
+      <c r="F4" s="111"/>
+      <c r="G4" s="111"/>
+      <c r="H4" s="111"/>
+      <c r="I4" s="111"/>
+      <c r="J4" s="111"/>
+      <c r="K4" s="112"/>
+    </row>
+    <row r="5" spans="1:11" ht="45" customHeight="1" thickBot="1">
+      <c r="A5" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="B5" s="110" t="s">
+        <v>163</v>
+      </c>
+      <c r="C5" s="111"/>
+      <c r="D5" s="111"/>
+      <c r="E5" s="111"/>
+      <c r="F5" s="111"/>
+      <c r="G5" s="111"/>
+      <c r="H5" s="111"/>
+      <c r="I5" s="111"/>
+      <c r="J5" s="111"/>
+      <c r="K5" s="112"/>
+    </row>
+    <row r="6" spans="1:11" ht="45" customHeight="1" thickBot="1">
+      <c r="A6" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="B6" s="110" t="s">
+        <v>164</v>
+      </c>
+      <c r="C6" s="111"/>
+      <c r="D6" s="111"/>
+      <c r="E6" s="111"/>
+      <c r="F6" s="111"/>
+      <c r="G6" s="111"/>
+      <c r="H6" s="111"/>
+      <c r="I6" s="111"/>
+      <c r="J6" s="111"/>
+      <c r="K6" s="112"/>
+    </row>
+    <row r="7" spans="1:11" ht="30" customHeight="1" thickBot="1">
+      <c r="A7" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="B7" s="110" t="s">
+        <v>165</v>
+      </c>
+      <c r="C7" s="111"/>
+      <c r="D7" s="111"/>
+      <c r="E7" s="111"/>
+      <c r="F7" s="111"/>
+      <c r="G7" s="111"/>
+      <c r="H7" s="111"/>
+      <c r="I7" s="111"/>
+      <c r="J7" s="111"/>
+      <c r="K7" s="112"/>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="B7:K7"/>
+    <mergeCell ref="B1:K1"/>
+    <mergeCell ref="B2:K2"/>
+    <mergeCell ref="B3:K3"/>
+    <mergeCell ref="B4:K4"/>
+    <mergeCell ref="B5:K5"/>
+    <mergeCell ref="B6:K6"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DFC2900-1516-4D11-BB5E-CB91221B0668}">
   <sheetPr codeName="Sheet14"/>
   <dimension ref="A1:K8"/>
@@ -37578,135 +39397,135 @@
       <c r="A1" s="9" t="s">
         <v>126</v>
       </c>
-      <c r="B1" s="102" t="s">
+      <c r="B1" s="110" t="s">
         <v>224</v>
       </c>
-      <c r="C1" s="103"/>
-      <c r="D1" s="103"/>
-      <c r="E1" s="103"/>
-      <c r="F1" s="103"/>
-      <c r="G1" s="103"/>
-      <c r="H1" s="103"/>
-      <c r="I1" s="103"/>
-      <c r="J1" s="103"/>
-      <c r="K1" s="104"/>
+      <c r="C1" s="111"/>
+      <c r="D1" s="111"/>
+      <c r="E1" s="111"/>
+      <c r="F1" s="111"/>
+      <c r="G1" s="111"/>
+      <c r="H1" s="111"/>
+      <c r="I1" s="111"/>
+      <c r="J1" s="111"/>
+      <c r="K1" s="112"/>
     </row>
     <row r="2" spans="1:11" ht="45" customHeight="1" thickBot="1">
       <c r="A2" s="10" t="s">
         <v>128</v>
       </c>
-      <c r="B2" s="102" t="s">
+      <c r="B2" s="110" t="s">
         <v>225</v>
       </c>
-      <c r="C2" s="103"/>
-      <c r="D2" s="103"/>
-      <c r="E2" s="103"/>
-      <c r="F2" s="103"/>
-      <c r="G2" s="103"/>
-      <c r="H2" s="103"/>
-      <c r="I2" s="103"/>
-      <c r="J2" s="103"/>
-      <c r="K2" s="104"/>
+      <c r="C2" s="111"/>
+      <c r="D2" s="111"/>
+      <c r="E2" s="111"/>
+      <c r="F2" s="111"/>
+      <c r="G2" s="111"/>
+      <c r="H2" s="111"/>
+      <c r="I2" s="111"/>
+      <c r="J2" s="111"/>
+      <c r="K2" s="112"/>
     </row>
     <row r="3" spans="1:11" ht="45" customHeight="1" thickBot="1">
       <c r="A3" s="10" t="s">
         <v>130</v>
       </c>
-      <c r="B3" s="102" t="s">
+      <c r="B3" s="110" t="s">
         <v>226</v>
       </c>
-      <c r="C3" s="103"/>
-      <c r="D3" s="103"/>
-      <c r="E3" s="103"/>
-      <c r="F3" s="103"/>
-      <c r="G3" s="103"/>
-      <c r="H3" s="103"/>
-      <c r="I3" s="103"/>
-      <c r="J3" s="103"/>
-      <c r="K3" s="104"/>
+      <c r="C3" s="111"/>
+      <c r="D3" s="111"/>
+      <c r="E3" s="111"/>
+      <c r="F3" s="111"/>
+      <c r="G3" s="111"/>
+      <c r="H3" s="111"/>
+      <c r="I3" s="111"/>
+      <c r="J3" s="111"/>
+      <c r="K3" s="112"/>
     </row>
     <row r="4" spans="1:11" ht="45" customHeight="1" thickBot="1">
       <c r="A4" s="10" t="s">
         <v>132</v>
       </c>
-      <c r="B4" s="102" t="s">
+      <c r="B4" s="110" t="s">
         <v>227</v>
       </c>
-      <c r="C4" s="103"/>
-      <c r="D4" s="103"/>
-      <c r="E4" s="103"/>
-      <c r="F4" s="103"/>
-      <c r="G4" s="103"/>
-      <c r="H4" s="103"/>
-      <c r="I4" s="103"/>
-      <c r="J4" s="103"/>
-      <c r="K4" s="104"/>
+      <c r="C4" s="111"/>
+      <c r="D4" s="111"/>
+      <c r="E4" s="111"/>
+      <c r="F4" s="111"/>
+      <c r="G4" s="111"/>
+      <c r="H4" s="111"/>
+      <c r="I4" s="111"/>
+      <c r="J4" s="111"/>
+      <c r="K4" s="112"/>
     </row>
     <row r="5" spans="1:11" ht="45" customHeight="1" thickBot="1">
       <c r="A5" s="10" t="s">
         <v>134</v>
       </c>
-      <c r="B5" s="102" t="s">
+      <c r="B5" s="110" t="s">
         <v>228</v>
       </c>
-      <c r="C5" s="103"/>
-      <c r="D5" s="103"/>
-      <c r="E5" s="103"/>
-      <c r="F5" s="103"/>
-      <c r="G5" s="103"/>
-      <c r="H5" s="103"/>
-      <c r="I5" s="103"/>
-      <c r="J5" s="103"/>
-      <c r="K5" s="104"/>
+      <c r="C5" s="111"/>
+      <c r="D5" s="111"/>
+      <c r="E5" s="111"/>
+      <c r="F5" s="111"/>
+      <c r="G5" s="111"/>
+      <c r="H5" s="111"/>
+      <c r="I5" s="111"/>
+      <c r="J5" s="111"/>
+      <c r="K5" s="112"/>
     </row>
     <row r="6" spans="1:11" ht="45" customHeight="1" thickBot="1">
       <c r="A6" s="10" t="s">
         <v>136</v>
       </c>
-      <c r="B6" s="102" t="s">
+      <c r="B6" s="110" t="s">
         <v>229</v>
       </c>
-      <c r="C6" s="103"/>
-      <c r="D6" s="103"/>
-      <c r="E6" s="103"/>
-      <c r="F6" s="103"/>
-      <c r="G6" s="103"/>
-      <c r="H6" s="103"/>
-      <c r="I6" s="103"/>
-      <c r="J6" s="103"/>
-      <c r="K6" s="104"/>
+      <c r="C6" s="111"/>
+      <c r="D6" s="111"/>
+      <c r="E6" s="111"/>
+      <c r="F6" s="111"/>
+      <c r="G6" s="111"/>
+      <c r="H6" s="111"/>
+      <c r="I6" s="111"/>
+      <c r="J6" s="111"/>
+      <c r="K6" s="112"/>
     </row>
     <row r="7" spans="1:11" ht="30" customHeight="1" thickBot="1">
       <c r="A7" s="10" t="s">
         <v>138</v>
       </c>
-      <c r="B7" s="102" t="s">
+      <c r="B7" s="110" t="s">
         <v>230</v>
       </c>
-      <c r="C7" s="103"/>
-      <c r="D7" s="103"/>
-      <c r="E7" s="103"/>
-      <c r="F7" s="103"/>
-      <c r="G7" s="103"/>
-      <c r="H7" s="103"/>
-      <c r="I7" s="103"/>
-      <c r="J7" s="103"/>
-      <c r="K7" s="104"/>
+      <c r="C7" s="111"/>
+      <c r="D7" s="111"/>
+      <c r="E7" s="111"/>
+      <c r="F7" s="111"/>
+      <c r="G7" s="111"/>
+      <c r="H7" s="111"/>
+      <c r="I7" s="111"/>
+      <c r="J7" s="111"/>
+      <c r="K7" s="112"/>
     </row>
     <row r="8" spans="1:11" ht="150.75" customHeight="1" thickBot="1">
       <c r="A8" s="10"/>
-      <c r="B8" s="105" t="s">
+      <c r="B8" s="113" t="s">
         <v>231</v>
       </c>
-      <c r="C8" s="106"/>
-      <c r="D8" s="106"/>
-      <c r="E8" s="106"/>
-      <c r="F8" s="106"/>
-      <c r="G8" s="106"/>
-      <c r="H8" s="106"/>
-      <c r="I8" s="106"/>
-      <c r="J8" s="106"/>
-      <c r="K8" s="107"/>
+      <c r="C8" s="114"/>
+      <c r="D8" s="114"/>
+      <c r="E8" s="114"/>
+      <c r="F8" s="114"/>
+      <c r="G8" s="114"/>
+      <c r="H8" s="114"/>
+      <c r="I8" s="114"/>
+      <c r="J8" s="114"/>
+      <c r="K8" s="115"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -37723,7 +39542,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8370EABC-5FB0-46E3-AC0D-18A12C9132DD}">
   <sheetPr codeName="Sheet15"/>
   <dimension ref="A1:E26"/>
@@ -38010,7 +39829,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B150C828-5E38-4F9B-89F5-DE7664E9E60A}">
   <sheetPr codeName="Sheet16"/>
   <dimension ref="A1"/>
@@ -38025,7 +39844,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F20858FF-860F-4DDB-90C1-5CC740EF8BB8}">
   <sheetPr codeName="Sheet17"/>
   <dimension ref="A1"/>
@@ -38040,7 +39859,173 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DDFCA0E-15B1-4FCC-89C5-A148D6AA017A}">
+  <dimension ref="A1:F11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="77"/>
+    <col min="2" max="2" width="21.42578125" style="77" customWidth="1"/>
+    <col min="3" max="3" width="15.85546875" style="77" customWidth="1"/>
+    <col min="4" max="4" width="40.5703125" style="77" customWidth="1"/>
+    <col min="5" max="5" width="45.85546875" style="77" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="77"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="26.25">
+      <c r="A1" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="26" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="27">
+        <v>1</v>
+      </c>
+      <c r="B2" s="27"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="27">
+        <v>2</v>
+      </c>
+      <c r="B3" s="27"/>
+      <c r="C3" s="27"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="27"/>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="27">
+        <v>3</v>
+      </c>
+      <c r="B4" s="27"/>
+      <c r="C4" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="27" t="s">
+        <v>583</v>
+      </c>
+      <c r="E4" s="27" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="27">
+        <v>4</v>
+      </c>
+      <c r="B5" s="27"/>
+      <c r="C5" s="27"/>
+      <c r="D5" s="27"/>
+      <c r="E5" s="27" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="45">
+      <c r="A6" s="27">
+        <v>5</v>
+      </c>
+      <c r="B6" s="27"/>
+      <c r="C6" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" s="27"/>
+      <c r="E6" s="4" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="27">
+        <v>6</v>
+      </c>
+      <c r="B7" s="27"/>
+      <c r="C7" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" s="27"/>
+      <c r="E7" s="27" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="30">
+      <c r="A8" s="27">
+        <v>7</v>
+      </c>
+      <c r="B8" s="4"/>
+      <c r="C8" s="27"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="27">
+        <v>8</v>
+      </c>
+      <c r="B9" s="27"/>
+      <c r="C9" s="27"/>
+      <c r="D9" s="27"/>
+      <c r="E9" s="27" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="27">
+        <v>9</v>
+      </c>
+      <c r="B10" s="27"/>
+      <c r="C10" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10" s="27"/>
+      <c r="E10" s="27" t="s">
+        <v>576</v>
+      </c>
+      <c r="F10" s="77" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="27">
+        <v>10</v>
+      </c>
+      <c r="B11" s="27"/>
+      <c r="C11" s="27"/>
+      <c r="D11" s="27" t="s">
+        <v>574</v>
+      </c>
+      <c r="E11" s="27"/>
+    </row>
+  </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C11" xr:uid="{A2E9C856-6522-46C2-A0F4-53E57988B2B8}">
+      <formula1>"English,Knowledge Gaps,Emotion,Techniques"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13E5ACBF-E712-4A9D-9910-ED74A62FE5AE}">
   <sheetPr codeName="Sheet18"/>
   <dimension ref="A1"/>
@@ -38053,7 +40038,28 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C417280C-3257-4FCE-BFBC-576DD1B4382F}">
+  <sheetPr codeName="Sheet19"/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F25227D-57C1-4CE8-91AC-A7B1D986105A}">
   <dimension ref="A1:E11"/>
   <sheetViews>
@@ -38204,28 +40210,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C417280C-3257-4FCE-BFBC-576DD1B4382F}">
-  <sheetPr codeName="Sheet19"/>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE7AA35E-BA94-465D-947F-048E2F692024}">
   <dimension ref="A1:F11"/>
   <sheetViews>
@@ -38312,7 +40297,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="120">
+    <row r="6" spans="1:6" ht="45">
       <c r="A6" s="27">
         <v>5</v>
       </c>
@@ -38396,7 +40381,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A78EF31-A47F-4412-A3CA-C438D7816DE2}">
   <dimension ref="A1:G51"/>
   <sheetViews>
@@ -39007,7 +40992,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50057963-75E5-4253-A7F5-E58A81C4C7B8}">
   <dimension ref="A1:G51"/>
   <sheetViews>
@@ -39607,7 +41592,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FCB690D-227C-45AA-9C93-A22E8FEE0210}">
   <dimension ref="A1:G51"/>
   <sheetViews>
@@ -40211,7 +42196,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{453BF44A-91AF-4F6D-AE5E-E58F57961686}">
   <dimension ref="A1:G51"/>
   <sheetViews>
@@ -40826,385 +42811,4 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F8FD89E-6595-4ED6-8407-B1A3D616014F}">
-  <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:H52"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="3" max="3" width="15.85546875" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" style="7"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" ht="26.25">
-      <c r="A1" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="25" t="s">
-        <v>11</v>
-      </c>
-      <c r="C1" s="25" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="26" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="26" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="24" t="s">
-        <v>166</v>
-      </c>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="27">
-        <v>1</v>
-      </c>
-      <c r="B2" s="27"/>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="28" t="s">
-        <v>138</v>
-      </c>
-      <c r="G2" s="24" t="s">
-        <v>232</v>
-      </c>
-      <c r="H2" s="24"/>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="27">
-        <v>2</v>
-      </c>
-      <c r="B3" s="27"/>
-      <c r="C3" s="27" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="E3" s="27" t="s">
-        <v>6</v>
-      </c>
-      <c r="F3" s="28" t="s">
-        <v>128</v>
-      </c>
-      <c r="G3" s="33" t="s">
-        <v>234</v>
-      </c>
-      <c r="H3" s="24"/>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="27">
-        <v>3</v>
-      </c>
-      <c r="B4" s="27"/>
-      <c r="C4" s="27"/>
-      <c r="D4" s="27"/>
-      <c r="E4" s="27"/>
-      <c r="F4" s="28"/>
-      <c r="G4" s="24"/>
-      <c r="H4" s="24"/>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="27">
-        <v>4</v>
-      </c>
-      <c r="B5" s="27"/>
-      <c r="C5" s="27" t="s">
-        <v>4</v>
-      </c>
-      <c r="D5" s="27" t="s">
-        <v>7</v>
-      </c>
-      <c r="E5" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="F5" s="28"/>
-      <c r="G5" s="24"/>
-      <c r="H5" s="24"/>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="27">
-        <v>5</v>
-      </c>
-      <c r="B6" s="27"/>
-      <c r="C6" s="27"/>
-      <c r="D6" s="27"/>
-      <c r="E6" s="27"/>
-      <c r="F6" s="28"/>
-      <c r="G6" s="24"/>
-      <c r="H6" s="24"/>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" s="27">
-        <v>6</v>
-      </c>
-      <c r="B7" s="27"/>
-      <c r="C7" s="27"/>
-      <c r="D7" s="27"/>
-      <c r="E7" s="27" t="s">
-        <v>235</v>
-      </c>
-      <c r="F7" s="28"/>
-      <c r="G7" s="24"/>
-      <c r="H7" s="24"/>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" s="27">
-        <v>7</v>
-      </c>
-      <c r="B8" s="27"/>
-      <c r="C8" s="27"/>
-      <c r="D8" s="27"/>
-      <c r="E8" s="27" t="s">
-        <v>236</v>
-      </c>
-      <c r="F8" s="28" t="s">
-        <v>150</v>
-      </c>
-      <c r="G8" s="24" t="s">
-        <v>237</v>
-      </c>
-      <c r="H8" s="24" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9" s="27">
-        <v>8</v>
-      </c>
-      <c r="B9" s="27"/>
-      <c r="C9" s="27"/>
-      <c r="D9" s="27"/>
-      <c r="E9" s="27"/>
-      <c r="F9" s="28" t="s">
-        <v>128</v>
-      </c>
-      <c r="G9" s="24" t="s">
-        <v>234</v>
-      </c>
-      <c r="H9" s="24" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" s="27">
-        <v>9</v>
-      </c>
-      <c r="B10" s="27"/>
-      <c r="C10" s="27"/>
-      <c r="D10" s="27"/>
-      <c r="E10" s="27"/>
-      <c r="F10" s="28" t="s">
-        <v>150</v>
-      </c>
-      <c r="G10" s="24" t="s">
-        <v>237</v>
-      </c>
-      <c r="H10" s="24" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" s="27">
-        <v>10</v>
-      </c>
-      <c r="B11" s="27"/>
-      <c r="C11" s="27" t="s">
-        <v>4</v>
-      </c>
-      <c r="D11" s="27"/>
-      <c r="E11" s="27" t="s">
-        <v>40</v>
-      </c>
-      <c r="F11" s="28" t="s">
-        <v>138</v>
-      </c>
-      <c r="G11" s="33" t="s">
-        <v>241</v>
-      </c>
-      <c r="H11" s="33" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="A12" s="24"/>
-      <c r="B12" s="24"/>
-      <c r="C12" s="24"/>
-      <c r="D12" s="24"/>
-      <c r="E12" s="24"/>
-      <c r="F12" s="24"/>
-      <c r="G12" s="24"/>
-      <c r="H12" s="24"/>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="A13" s="24"/>
-      <c r="B13" s="24"/>
-      <c r="C13" s="24"/>
-      <c r="D13" s="24"/>
-      <c r="E13" s="24"/>
-      <c r="F13" s="24"/>
-      <c r="G13" s="24"/>
-      <c r="H13" s="24"/>
-    </row>
-    <row r="14" spans="1:8">
-      <c r="A14" s="24"/>
-      <c r="B14" s="24"/>
-      <c r="C14" s="24"/>
-      <c r="D14" s="24"/>
-      <c r="E14" s="24"/>
-      <c r="F14" s="24"/>
-      <c r="G14" s="24"/>
-      <c r="H14" s="24"/>
-    </row>
-    <row r="15" spans="1:8">
-      <c r="A15" s="24"/>
-      <c r="B15" s="24"/>
-      <c r="C15" s="24"/>
-      <c r="D15" s="24"/>
-      <c r="E15" s="24"/>
-      <c r="F15" s="24"/>
-      <c r="G15" s="24"/>
-      <c r="H15" s="24"/>
-    </row>
-    <row r="16" spans="1:8">
-      <c r="A16" s="24"/>
-      <c r="B16" s="24"/>
-      <c r="C16" s="24"/>
-      <c r="D16" s="24"/>
-      <c r="E16" s="24"/>
-      <c r="F16" s="24"/>
-      <c r="G16" s="24"/>
-      <c r="H16" s="24"/>
-    </row>
-    <row r="17" spans="6:6">
-      <c r="F17" s="24"/>
-    </row>
-    <row r="18" spans="6:6">
-      <c r="F18" s="24"/>
-    </row>
-    <row r="19" spans="6:6">
-      <c r="F19" s="24"/>
-    </row>
-    <row r="20" spans="6:6">
-      <c r="F20" s="24"/>
-    </row>
-    <row r="21" spans="6:6">
-      <c r="F21" s="24"/>
-    </row>
-    <row r="22" spans="6:6">
-      <c r="F22" s="24"/>
-    </row>
-    <row r="23" spans="6:6">
-      <c r="F23" s="24"/>
-    </row>
-    <row r="24" spans="6:6">
-      <c r="F24" s="24"/>
-    </row>
-    <row r="25" spans="6:6">
-      <c r="F25" s="24"/>
-    </row>
-    <row r="26" spans="6:6">
-      <c r="F26" s="24"/>
-    </row>
-    <row r="27" spans="6:6">
-      <c r="F27" s="24"/>
-    </row>
-    <row r="28" spans="6:6">
-      <c r="F28" s="24"/>
-    </row>
-    <row r="29" spans="6:6">
-      <c r="F29" s="24"/>
-    </row>
-    <row r="30" spans="6:6">
-      <c r="F30" s="24"/>
-    </row>
-    <row r="31" spans="6:6">
-      <c r="F31" s="24"/>
-    </row>
-    <row r="32" spans="6:6">
-      <c r="F32" s="24"/>
-    </row>
-    <row r="33" spans="6:6">
-      <c r="F33" s="24"/>
-    </row>
-    <row r="34" spans="6:6">
-      <c r="F34" s="24"/>
-    </row>
-    <row r="35" spans="6:6">
-      <c r="F35" s="24"/>
-    </row>
-    <row r="36" spans="6:6">
-      <c r="F36" s="24"/>
-    </row>
-    <row r="37" spans="6:6">
-      <c r="F37" s="24"/>
-    </row>
-    <row r="38" spans="6:6">
-      <c r="F38" s="24"/>
-    </row>
-    <row r="39" spans="6:6">
-      <c r="F39" s="24"/>
-    </row>
-    <row r="40" spans="6:6">
-      <c r="F40" s="24"/>
-    </row>
-    <row r="41" spans="6:6">
-      <c r="F41" s="24"/>
-    </row>
-    <row r="42" spans="6:6">
-      <c r="F42" s="24"/>
-    </row>
-    <row r="43" spans="6:6">
-      <c r="F43" s="24"/>
-    </row>
-    <row r="44" spans="6:6">
-      <c r="F44" s="24"/>
-    </row>
-    <row r="45" spans="6:6">
-      <c r="F45" s="24"/>
-    </row>
-    <row r="46" spans="6:6">
-      <c r="F46" s="24"/>
-    </row>
-    <row r="47" spans="6:6">
-      <c r="F47" s="24"/>
-    </row>
-    <row r="48" spans="6:6">
-      <c r="F48" s="24"/>
-    </row>
-    <row r="49" spans="6:6">
-      <c r="F49" s="24"/>
-    </row>
-    <row r="50" spans="6:6">
-      <c r="F50" s="24"/>
-    </row>
-    <row r="51" spans="6:6">
-      <c r="F51" s="24"/>
-    </row>
-    <row r="52" spans="6:6">
-      <c r="F52" s="24"/>
-    </row>
-  </sheetData>
-  <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C11" xr:uid="{3304A8B5-47A5-4F23-84E1-58AA52BB5878}">
-      <formula1>"English,Knowledge Gaps,Emotion,Techniques"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F51" xr:uid="{EAAF5048-CA98-4AB1-A381-A44FD7CC7721}">
-      <formula1>"Task1, Task 2, Task3, Task 4, Task 5, Task 6, Task 7"</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>
--- a/10_Management/Exam_PMP_TangToc_07032019 - TrungLV.xlsx
+++ b/10_Management/Exam_PMP_TangToc_07032019 - TrungLV.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Working\EBill\10_Management\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B8E71A1-5004-410F-ACB4-D3D27DFC9CAC}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3526616B-4CEE-4F43-9706-71259EC34564}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12000" windowHeight="6405" activeTab="1" xr2:uid="{957D22A2-4D54-4148-9DDE-7A2AF7FA87D7}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12000" windowHeight="6405" xr2:uid="{957D22A2-4D54-4148-9DDE-7A2AF7FA87D7}"/>
   </bookViews>
   <sheets>
     <sheet name="study plan" sheetId="22" r:id="rId1"/>
@@ -2693,14 +2693,14 @@
     <xf numFmtId="0" fontId="10" fillId="10" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="13" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="14" fontId="13" fillId="6" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="6" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="14" fontId="13" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -3040,8 +3040,8 @@
   </sheetPr>
   <dimension ref="A1:Z1328"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="K19" sqref="K19"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -3522,11 +3522,11 @@
         <v>396</v>
       </c>
       <c r="B13" s="88">
-        <v>43455</v>
+        <v>43472</v>
       </c>
       <c r="C13" s="88" t="str">
         <f>IF(WEEKDAY(B13,1)=1,"Monday","Thứ "&amp;WEEKDAY(B13,1))</f>
-        <v>Thứ 6</v>
+        <v>Thứ 2</v>
       </c>
       <c r="D13" s="75">
         <v>4.1666666666666664E-2</v>
@@ -3603,11 +3603,10 @@
       <c r="A15" s="86" t="s">
         <v>372</v>
       </c>
-      <c r="B15" s="106">
-        <f>B14+1</f>
-        <v>43456</v>
-      </c>
-      <c r="C15" s="106" t="str">
+      <c r="B15" s="108">
+        <v>43470</v>
+      </c>
+      <c r="C15" s="108" t="str">
         <f t="shared" si="1"/>
         <v>Thứ 7</v>
       </c>
@@ -3644,8 +3643,8 @@
       <c r="A16" s="86" t="s">
         <v>360</v>
       </c>
-      <c r="B16" s="107"/>
-      <c r="C16" s="107"/>
+      <c r="B16" s="109"/>
+      <c r="C16" s="109"/>
       <c r="D16" s="75">
         <v>4.1666666666666664E-2</v>
       </c>
@@ -3681,8 +3680,8 @@
       <c r="A17" s="86" t="s">
         <v>361</v>
       </c>
-      <c r="B17" s="107"/>
-      <c r="C17" s="107"/>
+      <c r="B17" s="109"/>
+      <c r="C17" s="109"/>
       <c r="D17" s="75">
         <v>4.1666666666666664E-2</v>
       </c>
@@ -3717,12 +3716,11 @@
         <v>398</v>
       </c>
       <c r="B18" s="74">
-        <f>B13 + 2</f>
-        <v>43457</v>
+        <v>43472</v>
       </c>
       <c r="C18" s="74" t="str">
         <f t="shared" ref="C18:C20" si="2">IF(WEEKDAY(B18,1)=1,"Chủ nhật","Thứ "&amp;WEEKDAY(B18,1))</f>
-        <v>Chủ nhật</v>
+        <v>Thứ 2</v>
       </c>
       <c r="D18" s="75">
         <v>4.1666666666666664E-2</v>
@@ -3758,12 +3756,11 @@
         <v>399</v>
       </c>
       <c r="B19" s="74">
-        <f>B14 + 2</f>
-        <v>43457</v>
+        <v>43472</v>
       </c>
       <c r="C19" s="74" t="str">
         <f t="shared" si="2"/>
-        <v>Chủ nhật</v>
+        <v>Thứ 2</v>
       </c>
       <c r="D19" s="75">
         <v>4.1666666666666664E-2</v>
@@ -3798,13 +3795,13 @@
       <c r="A20" s="98" t="s">
         <v>373</v>
       </c>
-      <c r="B20" s="106">
+      <c r="B20" s="108">
         <f>B19+1</f>
-        <v>43458</v>
-      </c>
-      <c r="C20" s="106" t="str">
+        <v>43473</v>
+      </c>
+      <c r="C20" s="108" t="str">
         <f t="shared" si="2"/>
-        <v>Thứ 2</v>
+        <v>Thứ 3</v>
       </c>
       <c r="D20" s="75">
         <v>4.1666666666666664E-2</v>
@@ -3837,8 +3834,8 @@
       <c r="A21" s="98" t="s">
         <v>362</v>
       </c>
-      <c r="B21" s="107"/>
-      <c r="C21" s="107"/>
+      <c r="B21" s="109"/>
+      <c r="C21" s="109"/>
       <c r="D21" s="75">
         <v>4.1666666666666664E-2</v>
       </c>
@@ -3870,8 +3867,8 @@
       <c r="A22" s="98" t="s">
         <v>363</v>
       </c>
-      <c r="B22" s="107"/>
-      <c r="C22" s="107"/>
+      <c r="B22" s="109"/>
+      <c r="C22" s="109"/>
       <c r="D22" s="75">
         <v>4.1666666666666664E-2</v>
       </c>
@@ -3907,11 +3904,11 @@
       </c>
       <c r="B23" s="99">
         <f>B20 + 1</f>
-        <v>43459</v>
+        <v>43474</v>
       </c>
       <c r="C23" s="99" t="str">
         <f t="shared" ref="C23:C25" si="3">IF(WEEKDAY(B23,1)=1,"Chủ nhật","Thứ "&amp;WEEKDAY(B23,1))</f>
-        <v>Thứ 3</v>
+        <v>Thứ 4</v>
       </c>
       <c r="D23" s="100">
         <v>4.1666666666666664E-2</v>
@@ -3947,11 +3944,11 @@
       </c>
       <c r="B24" s="95">
         <f>B20 + 1</f>
-        <v>43459</v>
+        <v>43474</v>
       </c>
       <c r="C24" s="95" t="str">
         <f t="shared" si="3"/>
-        <v>Thứ 3</v>
+        <v>Thứ 4</v>
       </c>
       <c r="D24" s="75">
         <v>4.1666666666666664E-2</v>
@@ -3987,13 +3984,13 @@
       <c r="A25" s="86" t="s">
         <v>374</v>
       </c>
-      <c r="B25" s="106">
+      <c r="B25" s="108">
         <f>B24+1</f>
-        <v>43460</v>
-      </c>
-      <c r="C25" s="106" t="str">
+        <v>43475</v>
+      </c>
+      <c r="C25" s="108" t="str">
         <f t="shared" si="3"/>
-        <v>Thứ 4</v>
+        <v>Thứ 5</v>
       </c>
       <c r="D25" s="75">
         <v>4.1666666666666664E-2</v>
@@ -4031,8 +4028,8 @@
       <c r="A26" s="86" t="s">
         <v>364</v>
       </c>
-      <c r="B26" s="107"/>
-      <c r="C26" s="107"/>
+      <c r="B26" s="109"/>
+      <c r="C26" s="109"/>
       <c r="D26" s="75">
         <v>4.1666666666666664E-2</v>
       </c>
@@ -4067,8 +4064,8 @@
       <c r="A27" s="102" t="s">
         <v>365</v>
       </c>
-      <c r="B27" s="107"/>
-      <c r="C27" s="107"/>
+      <c r="B27" s="109"/>
+      <c r="C27" s="109"/>
       <c r="D27" s="103">
         <v>4.1666666666666664E-2</v>
       </c>
@@ -4104,11 +4101,11 @@
       </c>
       <c r="B28" s="68">
         <f>B25 + 1</f>
-        <v>43461</v>
+        <v>43476</v>
       </c>
       <c r="C28" s="68" t="str">
         <f t="shared" ref="C28:C32" si="4">IF(WEEKDAY(B28,1)=1,"Chủ nhật","Thứ "&amp;WEEKDAY(B28,1))</f>
-        <v>Thứ 5</v>
+        <v>Thứ 6</v>
       </c>
       <c r="D28" s="69">
         <v>4.1666666666666664E-2</v>
@@ -4143,11 +4140,11 @@
       </c>
       <c r="B29" s="68">
         <f>B25 + 1</f>
-        <v>43461</v>
+        <v>43476</v>
       </c>
       <c r="C29" s="68" t="str">
         <f>IF(WEEKDAY(B29,1)=1,"Chủ nhật","Thứ "&amp;WEEKDAY(B29,1))</f>
-        <v>Thứ 5</v>
+        <v>Thứ 6</v>
       </c>
       <c r="D29" s="69">
         <v>4.1666666666666664E-2</v>
@@ -4182,11 +4179,11 @@
       </c>
       <c r="B30" s="99">
         <f>B28 + 1</f>
-        <v>43462</v>
+        <v>43477</v>
       </c>
       <c r="C30" s="99" t="str">
         <f t="shared" ref="C30" si="5">IF(WEEKDAY(B30,1)=1,"Chủ nhật","Thứ "&amp;WEEKDAY(B30,1))</f>
-        <v>Thứ 6</v>
+        <v>Thứ 7</v>
       </c>
       <c r="D30" s="100">
         <v>4.1666666666666664E-2</v>
@@ -4221,11 +4218,11 @@
       </c>
       <c r="B31" s="99">
         <f>B29 + 1</f>
-        <v>43462</v>
+        <v>43477</v>
       </c>
       <c r="C31" s="99" t="str">
         <f>IF(WEEKDAY(B31,1)=1,"Chủ nhật","Thứ "&amp;WEEKDAY(B31,1))</f>
-        <v>Thứ 6</v>
+        <v>Thứ 7</v>
       </c>
       <c r="D31" s="100">
         <v>4.1666666666666664E-2</v>
@@ -4258,13 +4255,13 @@
       <c r="A32" s="72" t="s">
         <v>367</v>
       </c>
-      <c r="B32" s="108">
+      <c r="B32" s="106">
         <f>B31+1</f>
-        <v>43463</v>
-      </c>
-      <c r="C32" s="108" t="str">
+        <v>43478</v>
+      </c>
+      <c r="C32" s="106" t="str">
         <f t="shared" si="4"/>
-        <v>Thứ 7</v>
+        <v>Chủ nhật</v>
       </c>
       <c r="D32" s="69">
         <v>4.1666666666666664E-2</v>
@@ -4297,8 +4294,8 @@
       <c r="A33" s="72" t="s">
         <v>404</v>
       </c>
-      <c r="B33" s="109"/>
-      <c r="C33" s="109"/>
+      <c r="B33" s="107"/>
+      <c r="C33" s="107"/>
       <c r="D33" s="69">
         <v>4.1666666666666664E-2</v>
       </c>
@@ -4330,8 +4327,8 @@
       <c r="A34" s="72" t="s">
         <v>405</v>
       </c>
-      <c r="B34" s="109"/>
-      <c r="C34" s="109"/>
+      <c r="B34" s="107"/>
+      <c r="C34" s="107"/>
       <c r="D34" s="69">
         <v>4.1666666666666664E-2</v>
       </c>
@@ -4367,11 +4364,11 @@
       </c>
       <c r="B35" s="68">
         <f>B31+ 2</f>
-        <v>43464</v>
+        <v>43479</v>
       </c>
       <c r="C35" s="68" t="str">
         <f t="shared" ref="C35:C37" si="6">IF(WEEKDAY(B35,1)=1,"Chủ nhật","Thứ "&amp;WEEKDAY(B35,1))</f>
-        <v>Chủ nhật</v>
+        <v>Thứ 2</v>
       </c>
       <c r="D35" s="69">
         <v>4.1666666666666664E-2</v>
@@ -4406,11 +4403,11 @@
       </c>
       <c r="B36" s="70">
         <f>B31+ 2</f>
-        <v>43464</v>
+        <v>43479</v>
       </c>
       <c r="C36" s="68" t="str">
         <f t="shared" si="6"/>
-        <v>Chủ nhật</v>
+        <v>Thứ 2</v>
       </c>
       <c r="D36" s="69">
         <v>4.1666666666666664E-2</v>
@@ -4443,13 +4440,13 @@
       <c r="A37" s="72" t="s">
         <v>369</v>
       </c>
-      <c r="B37" s="108">
+      <c r="B37" s="106">
         <f>B36+1</f>
-        <v>43465</v>
-      </c>
-      <c r="C37" s="108" t="str">
+        <v>43480</v>
+      </c>
+      <c r="C37" s="106" t="str">
         <f t="shared" si="6"/>
-        <v>Thứ 2</v>
+        <v>Thứ 3</v>
       </c>
       <c r="D37" s="69">
         <v>4.1666666666666664E-2</v>
@@ -4484,8 +4481,8 @@
       <c r="A38" s="72" t="s">
         <v>406</v>
       </c>
-      <c r="B38" s="109"/>
-      <c r="C38" s="109"/>
+      <c r="B38" s="107"/>
+      <c r="C38" s="107"/>
       <c r="D38" s="69">
         <v>4.1666666666666664E-2</v>
       </c>
@@ -4513,8 +4510,8 @@
       <c r="A39" s="72" t="s">
         <v>407</v>
       </c>
-      <c r="B39" s="109"/>
-      <c r="C39" s="109"/>
+      <c r="B39" s="107"/>
+      <c r="C39" s="107"/>
       <c r="D39" s="69">
         <v>4.1666666666666664E-2</v>
       </c>
@@ -4544,11 +4541,11 @@
       </c>
       <c r="B40" s="68">
         <f>B36 + 2</f>
-        <v>43466</v>
+        <v>43481</v>
       </c>
       <c r="C40" s="68" t="str">
         <f t="shared" ref="C40:C42" si="7">IF(WEEKDAY(B40,1)=1,"Chủ nhật","Thứ "&amp;WEEKDAY(B40,1))</f>
-        <v>Thứ 3</v>
+        <v>Thứ 4</v>
       </c>
       <c r="D40" s="69">
         <v>4.1666666666666664E-2</v>
@@ -4579,11 +4576,11 @@
       </c>
       <c r="B41" s="68">
         <f>B36 + 2</f>
-        <v>43466</v>
+        <v>43481</v>
       </c>
       <c r="C41" s="68" t="str">
         <f t="shared" si="7"/>
-        <v>Thứ 3</v>
+        <v>Thứ 4</v>
       </c>
       <c r="D41" s="69">
         <v>4.1666666666666664E-2</v>
@@ -4612,13 +4609,13 @@
       <c r="A42" s="72" t="s">
         <v>371</v>
       </c>
-      <c r="B42" s="108">
+      <c r="B42" s="106">
         <f>B36+3</f>
-        <v>43467</v>
-      </c>
-      <c r="C42" s="108" t="str">
+        <v>43482</v>
+      </c>
+      <c r="C42" s="106" t="str">
         <f t="shared" si="7"/>
-        <v>Thứ 4</v>
+        <v>Thứ 5</v>
       </c>
       <c r="D42" s="69">
         <v>4.1666666666666664E-2</v>
@@ -4647,8 +4644,8 @@
       <c r="A43" s="72" t="s">
         <v>408</v>
       </c>
-      <c r="B43" s="109"/>
-      <c r="C43" s="109"/>
+      <c r="B43" s="107"/>
+      <c r="C43" s="107"/>
       <c r="D43" s="69">
         <v>4.1666666666666664E-2</v>
       </c>
@@ -4676,8 +4673,8 @@
       <c r="A44" s="72" t="s">
         <v>409</v>
       </c>
-      <c r="B44" s="109"/>
-      <c r="C44" s="109"/>
+      <c r="B44" s="107"/>
+      <c r="C44" s="107"/>
       <c r="D44" s="69">
         <v>4.1666666666666664E-2</v>
       </c>
@@ -4709,11 +4706,11 @@
       </c>
       <c r="B45" s="68">
         <f>B42 + 1</f>
-        <v>43468</v>
+        <v>43483</v>
       </c>
       <c r="C45" s="68" t="str">
         <f t="shared" ref="C45:C66" si="8">IF(WEEKDAY(B45,1)=1,"Chủ nhật","Thứ "&amp;WEEKDAY(B45,1))</f>
-        <v>Thứ 5</v>
+        <v>Thứ 6</v>
       </c>
       <c r="D45" s="69">
         <v>4.1666666666666664E-2</v>
@@ -4746,11 +4743,11 @@
       </c>
       <c r="B46" s="70">
         <f>B42 + 1</f>
-        <v>43468</v>
+        <v>43483</v>
       </c>
       <c r="C46" s="70" t="str">
         <f t="shared" si="8"/>
-        <v>Thứ 5</v>
+        <v>Thứ 6</v>
       </c>
       <c r="D46" s="69">
         <v>4.1666666666666664E-2</v>
@@ -4783,11 +4780,11 @@
       </c>
       <c r="B47" s="70">
         <f>B46 + 1</f>
-        <v>43469</v>
+        <v>43484</v>
       </c>
       <c r="C47" s="70" t="str">
         <f t="shared" si="8"/>
-        <v>Thứ 6</v>
+        <v>Thứ 7</v>
       </c>
       <c r="D47" s="69">
         <v>4.1666666666666664E-2</v>
@@ -4820,11 +4817,11 @@
       </c>
       <c r="B48" s="70">
         <f>B46 + 1</f>
-        <v>43469</v>
+        <v>43484</v>
       </c>
       <c r="C48" s="70" t="str">
         <f t="shared" si="8"/>
-        <v>Thứ 6</v>
+        <v>Thứ 7</v>
       </c>
       <c r="D48" s="69">
         <v>4.1666666666666664E-2</v>
@@ -4857,11 +4854,11 @@
       </c>
       <c r="B49" s="70">
         <f>B46 +2</f>
-        <v>43470</v>
+        <v>43485</v>
       </c>
       <c r="C49" s="70" t="str">
         <f t="shared" si="8"/>
-        <v>Thứ 7</v>
+        <v>Chủ nhật</v>
       </c>
       <c r="D49" s="69">
         <v>4.1666666666666664E-2</v>
@@ -4894,11 +4891,11 @@
       </c>
       <c r="B50" s="90">
         <f>B46 +2</f>
-        <v>43470</v>
+        <v>43485</v>
       </c>
       <c r="C50" s="90" t="str">
         <f t="shared" si="8"/>
-        <v>Thứ 7</v>
+        <v>Chủ nhật</v>
       </c>
       <c r="D50" s="91">
         <v>4.1666666666666664E-2</v>
@@ -4933,11 +4930,11 @@
       </c>
       <c r="B51" s="70">
         <f>B47 + 2</f>
-        <v>43471</v>
+        <v>43486</v>
       </c>
       <c r="C51" s="70" t="str">
         <f t="shared" si="8"/>
-        <v>Chủ nhật</v>
+        <v>Thứ 2</v>
       </c>
       <c r="D51" s="69">
         <v>4.1666666666666664E-2</v>
@@ -4970,11 +4967,11 @@
       </c>
       <c r="B52" s="70">
         <f>B47 + 2</f>
-        <v>43471</v>
+        <v>43486</v>
       </c>
       <c r="C52" s="70" t="str">
         <f t="shared" si="8"/>
-        <v>Chủ nhật</v>
+        <v>Thứ 2</v>
       </c>
       <c r="D52" s="69">
         <v>4.1666666666666664E-2</v>
@@ -5007,11 +5004,11 @@
       </c>
       <c r="B53" s="70">
         <f t="shared" ref="B53:B61" si="9">B49 + 2</f>
-        <v>43472</v>
+        <v>43487</v>
       </c>
       <c r="C53" s="70" t="str">
         <f t="shared" si="8"/>
-        <v>Thứ 2</v>
+        <v>Thứ 3</v>
       </c>
       <c r="D53" s="69">
         <v>4.1666666666666664E-2</v>
@@ -5044,11 +5041,11 @@
       </c>
       <c r="B54" s="70">
         <f t="shared" si="9"/>
-        <v>43472</v>
+        <v>43487</v>
       </c>
       <c r="C54" s="70" t="str">
         <f t="shared" si="8"/>
-        <v>Thứ 2</v>
+        <v>Thứ 3</v>
       </c>
       <c r="D54" s="69">
         <v>4.1666666666666664E-2</v>
@@ -5081,11 +5078,11 @@
       </c>
       <c r="B55" s="70">
         <f t="shared" si="9"/>
-        <v>43473</v>
+        <v>43488</v>
       </c>
       <c r="C55" s="70" t="str">
         <f t="shared" si="8"/>
-        <v>Thứ 3</v>
+        <v>Thứ 4</v>
       </c>
       <c r="D55" s="69">
         <v>4.1666666666666664E-2</v>
@@ -5118,11 +5115,11 @@
       </c>
       <c r="B56" s="70">
         <f t="shared" si="9"/>
-        <v>43473</v>
+        <v>43488</v>
       </c>
       <c r="C56" s="70" t="str">
         <f t="shared" si="8"/>
-        <v>Thứ 3</v>
+        <v>Thứ 4</v>
       </c>
       <c r="D56" s="69">
         <v>4.1666666666666664E-2</v>
@@ -5155,11 +5152,11 @@
       </c>
       <c r="B57" s="70">
         <f t="shared" si="9"/>
-        <v>43474</v>
+        <v>43489</v>
       </c>
       <c r="C57" s="70" t="str">
         <f t="shared" si="8"/>
-        <v>Thứ 4</v>
+        <v>Thứ 5</v>
       </c>
       <c r="D57" s="69">
         <v>4.1666666666666664E-2</v>
@@ -5192,11 +5189,11 @@
       </c>
       <c r="B58" s="70">
         <f t="shared" si="9"/>
-        <v>43474</v>
+        <v>43489</v>
       </c>
       <c r="C58" s="70" t="str">
         <f t="shared" si="8"/>
-        <v>Thứ 4</v>
+        <v>Thứ 5</v>
       </c>
       <c r="D58" s="69">
         <v>4.1666666666666664E-2</v>
@@ -5229,11 +5226,11 @@
       </c>
       <c r="B59" s="70">
         <f t="shared" si="9"/>
-        <v>43475</v>
+        <v>43490</v>
       </c>
       <c r="C59" s="70" t="str">
         <f t="shared" si="8"/>
-        <v>Thứ 5</v>
+        <v>Thứ 6</v>
       </c>
       <c r="D59" s="69">
         <v>4.1666666666666664E-2</v>
@@ -5266,11 +5263,11 @@
       </c>
       <c r="B60" s="70">
         <f t="shared" si="9"/>
-        <v>43475</v>
+        <v>43490</v>
       </c>
       <c r="C60" s="70" t="str">
         <f t="shared" si="8"/>
-        <v>Thứ 5</v>
+        <v>Thứ 6</v>
       </c>
       <c r="D60" s="69">
         <v>4.1666666666666664E-2</v>
@@ -5303,11 +5300,11 @@
       </c>
       <c r="B61" s="70">
         <f t="shared" si="9"/>
-        <v>43476</v>
+        <v>43491</v>
       </c>
       <c r="C61" s="70" t="str">
         <f t="shared" si="8"/>
-        <v>Thứ 6</v>
+        <v>Thứ 7</v>
       </c>
       <c r="D61" s="69">
         <v>4.1666666666666664E-2</v>
@@ -5340,11 +5337,11 @@
       </c>
       <c r="B62" s="70">
         <f>B58 + 3</f>
-        <v>43477</v>
+        <v>43492</v>
       </c>
       <c r="C62" s="70" t="str">
         <f t="shared" si="8"/>
-        <v>Thứ 7</v>
+        <v>Chủ nhật</v>
       </c>
       <c r="D62" s="69">
         <v>8.3333333333333329E-2</v>
@@ -5377,11 +5374,11 @@
       </c>
       <c r="B63" s="70">
         <f>B59 +3</f>
-        <v>43478</v>
+        <v>43493</v>
       </c>
       <c r="C63" s="70" t="str">
         <f t="shared" si="8"/>
-        <v>Chủ nhật</v>
+        <v>Thứ 2</v>
       </c>
       <c r="D63" s="69">
         <v>8.3333333333333329E-2</v>
@@ -5414,11 +5411,11 @@
       </c>
       <c r="B64" s="70">
         <f>B60 + 4</f>
-        <v>43479</v>
+        <v>43494</v>
       </c>
       <c r="C64" s="70" t="str">
         <f t="shared" si="8"/>
-        <v>Thứ 2</v>
+        <v>Thứ 3</v>
       </c>
       <c r="D64" s="69">
         <v>8.3333333333333329E-2</v>
@@ -5451,11 +5448,11 @@
       </c>
       <c r="B65" s="70">
         <f>B61 + 4</f>
-        <v>43480</v>
+        <v>43495</v>
       </c>
       <c r="C65" s="70" t="str">
         <f t="shared" si="8"/>
-        <v>Thứ 3</v>
+        <v>Thứ 4</v>
       </c>
       <c r="D65" s="69">
         <v>8.3333333333333329E-2</v>
@@ -5488,11 +5485,11 @@
       </c>
       <c r="B66" s="70">
         <f>B62 + 4</f>
-        <v>43481</v>
+        <v>43496</v>
       </c>
       <c r="C66" s="70" t="str">
         <f t="shared" si="8"/>
-        <v>Thứ 4</v>
+        <v>Thứ 5</v>
       </c>
       <c r="D66" s="69">
         <v>8.3333333333333329E-2</v>
@@ -32732,18 +32729,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="B20:B22"/>
+    <mergeCell ref="C20:C22"/>
+    <mergeCell ref="B25:B27"/>
+    <mergeCell ref="C25:C27"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="C15:C17"/>
     <mergeCell ref="B42:B44"/>
     <mergeCell ref="C42:C44"/>
     <mergeCell ref="B32:B34"/>
     <mergeCell ref="C32:C34"/>
     <mergeCell ref="B37:B39"/>
     <mergeCell ref="C37:C39"/>
-    <mergeCell ref="B20:B22"/>
-    <mergeCell ref="C20:C22"/>
-    <mergeCell ref="B25:B27"/>
-    <mergeCell ref="C25:C27"/>
-    <mergeCell ref="B15:B17"/>
-    <mergeCell ref="C15:C17"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E66" xr:uid="{D8B43D4D-3767-4D7F-B59B-D7BBE30CC025}">
@@ -36713,7 +36710,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B03EE777-7A71-4ABF-B428-9DD9FC79554D}">
   <dimension ref="A1:G51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
@@ -39076,12 +39073,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="B6:K6"/>
-    <mergeCell ref="B1:K1"/>
-    <mergeCell ref="B2:K2"/>
-    <mergeCell ref="B3:K3"/>
-    <mergeCell ref="B4:K4"/>
-    <mergeCell ref="B5:K5"/>
     <mergeCell ref="B13:K13"/>
     <mergeCell ref="B7:K7"/>
     <mergeCell ref="B8:K8"/>
@@ -39089,6 +39080,12 @@
     <mergeCell ref="B10:K10"/>
     <mergeCell ref="B11:K11"/>
     <mergeCell ref="B12:K12"/>
+    <mergeCell ref="B6:K6"/>
+    <mergeCell ref="B1:K1"/>
+    <mergeCell ref="B2:K2"/>
+    <mergeCell ref="B3:K3"/>
+    <mergeCell ref="B4:K4"/>
+    <mergeCell ref="B5:K5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/10_Management/Exam_PMP_TangToc_07032019 - TrungLV.xlsx
+++ b/10_Management/Exam_PMP_TangToc_07032019 - TrungLV.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Working\EBill\10_Management\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3526616B-4CEE-4F43-9706-71259EC34564}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD3EF837-71D6-4004-A3CD-D416183B0D25}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12000" windowHeight="6405" xr2:uid="{957D22A2-4D54-4148-9DDE-7A2AF7FA87D7}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12000" windowHeight="6405" firstSheet="2" activeTab="8" xr2:uid="{957D22A2-4D54-4148-9DDE-7A2AF7FA87D7}"/>
   </bookViews>
   <sheets>
     <sheet name="study plan" sheetId="22" r:id="rId1"/>
@@ -84,7 +84,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1126" uniqueCount="599">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1134" uniqueCount="604">
   <si>
     <t>No</t>
   </si>
@@ -1513,22 +1513,10 @@
     <t>note: output của create wbs process là wbs dictionary, update requirement document, scope baseline. Change request không nằm ở phần planning mà thuộc phần control (output control scope &amp; validate scope)</t>
   </si>
   <si>
-    <t>cần nhớ process</t>
-  </si>
-  <si>
-    <t>trước khi tiến hành xác định nguyên nhân cần phải review scope, vấnđề trước</t>
-  </si>
-  <si>
-    <t>Cần chọn đáp án bao quát nhất, cần phải follow change control process thì mới có các action khác</t>
-  </si>
-  <si>
     <t>control scope</t>
   </si>
   <si>
     <t>Cần phải đọc cẩn thận đề bài, rất dễ nhầm lẫn và sai vô lý. Chú ý nếu mà có sự thay đổi của các activity không nằm trên critical path thì không cần phải change schedule</t>
-  </si>
-  <si>
-    <t>Cần hiểu câu hỏi</t>
   </si>
   <si>
     <t>Đọc kỹ hướng dẫn đề</t>
@@ -2008,6 +1996,33 @@
   <si>
     <t>Việc estimate bottom-up chỉ được sử dụng khi có đầy đủ chi tiết 
 Budgetary Estimating: dự toán ngân sách range: -10% -&gt; +25%</t>
+  </si>
+  <si>
+    <t>monitor and control project work</t>
+  </si>
+  <si>
+    <t>nếu có CR, ảnh hưởng của việc CR cần phải thông báo ngay lập tức</t>
+  </si>
+  <si>
+    <t>control scope + validate scope</t>
+  </si>
+  <si>
+    <t>cần nhớ process. Trong lúc execute, bạn nhận ra là nhà thầu phụ đang làm không đầy đủ và công việc khác nhau. Là PM làm gì đầu tiên</t>
+  </si>
+  <si>
+    <t xml:space="preserve">trước khi tiến hành xác định nguyên nhân cần phải review scope, vấnđề trước. Cần phải đánh giá xem chúng khác so với scope statement như thế nào để có action tiếp theo. Để nắm dc khác về scope thế nào thì cần phải review lại scope với các stakeholders </t>
+  </si>
+  <si>
+    <t>Cần chọn đáp án bao quát nhất, cần phải follow change control process thì mới có các action khác như là evaluate, meet with the team and plan, discuss the change with customer</t>
+  </si>
+  <si>
+    <t>perform integrated change control</t>
+  </si>
+  <si>
+    <t>The first understanding -&gt; phải hiểu vấn đề yêu cầu trước đã</t>
+  </si>
+  <si>
+    <t>Nên follow theo contract change control system</t>
   </si>
 </sst>
 </file>
@@ -2406,7 +2421,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="116">
+  <cellXfs count="117">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2693,14 +2708,14 @@
     <xf numFmtId="0" fontId="10" fillId="10" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="13" fillId="6" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="14" fontId="13" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="14" fontId="13" fillId="6" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -2718,6 +2733,9 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -3040,8 +3058,8 @@
   </sheetPr>
   <dimension ref="A1:Z1328"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -3069,13 +3087,13 @@
         <v>394</v>
       </c>
       <c r="F1" s="60" t="s">
-        <v>587</v>
+        <v>583</v>
       </c>
       <c r="G1" s="96" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="H1" s="56" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="I1" s="56"/>
       <c r="J1" s="56"/>
@@ -3109,10 +3127,10 @@
       </c>
       <c r="E2" s="63"/>
       <c r="G2" s="96" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="H2" s="56" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="I2" s="56"/>
       <c r="J2" s="56"/>
@@ -3146,10 +3164,10 @@
       </c>
       <c r="E3" s="63"/>
       <c r="G3" s="96" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="H3" s="56" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="I3" s="56"/>
       <c r="J3" s="56"/>
@@ -3183,10 +3201,10 @@
       </c>
       <c r="E4" s="63"/>
       <c r="G4" s="96" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="H4" s="56" t="s">
-        <v>557</v>
+        <v>553</v>
       </c>
       <c r="I4" s="56"/>
       <c r="J4" s="56"/>
@@ -3220,10 +3238,10 @@
       </c>
       <c r="E5" s="63"/>
       <c r="G5" s="96" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="H5" s="56" t="s">
-        <v>557</v>
+        <v>553</v>
       </c>
       <c r="I5" s="56"/>
       <c r="J5" s="56"/>
@@ -3258,10 +3276,10 @@
       </c>
       <c r="E6" s="63"/>
       <c r="G6" s="96" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="H6" s="56" t="s">
-        <v>557</v>
+        <v>553</v>
       </c>
       <c r="I6" s="56"/>
       <c r="J6" s="56"/>
@@ -3296,7 +3314,7 @@
       </c>
       <c r="E7" s="63"/>
       <c r="G7" s="56" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="H7" s="56"/>
       <c r="I7" s="56"/>
@@ -3332,7 +3350,7 @@
       </c>
       <c r="E8" s="63"/>
       <c r="G8" s="56" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="H8" s="56"/>
       <c r="I8" s="56"/>
@@ -3371,7 +3389,7 @@
       </c>
       <c r="E9" s="63"/>
       <c r="G9" s="56" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="H9" s="56"/>
       <c r="I9" s="56"/>
@@ -3413,7 +3431,7 @@
         <v>395</v>
       </c>
       <c r="G10" s="56" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="H10" s="56"/>
       <c r="I10" s="56"/>
@@ -3454,7 +3472,7 @@
         <v>395</v>
       </c>
       <c r="G11" s="56" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="H11" s="56"/>
       <c r="I11" s="56"/>
@@ -3518,7 +3536,7 @@
       <c r="Z12" s="56"/>
     </row>
     <row r="13" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A13" s="98" t="s">
+      <c r="A13" s="116" t="s">
         <v>396</v>
       </c>
       <c r="B13" s="88">
@@ -3538,7 +3556,7 @@
         <v>381</v>
       </c>
       <c r="H13" s="56" t="s">
-        <v>557</v>
+        <v>553</v>
       </c>
       <c r="I13" s="56"/>
       <c r="J13" s="56"/>
@@ -3564,11 +3582,11 @@
         <v>397</v>
       </c>
       <c r="B14" s="90">
-        <v>43455</v>
+        <v>43472</v>
       </c>
       <c r="C14" s="90" t="str">
         <f t="shared" ref="C14:C15" si="1">IF(WEEKDAY(B14,1)=1,"Chủ nhật","Thứ "&amp;WEEKDAY(B14,1))</f>
-        <v>Thứ 6</v>
+        <v>Thứ 2</v>
       </c>
       <c r="D14" s="91">
         <v>4.1666666666666664E-2</v>
@@ -3577,7 +3595,7 @@
         <v>395</v>
       </c>
       <c r="G14" s="56" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="H14" s="56"/>
       <c r="I14" s="56"/>
@@ -3603,12 +3621,12 @@
       <c r="A15" s="86" t="s">
         <v>372</v>
       </c>
-      <c r="B15" s="108">
-        <v>43470</v>
-      </c>
-      <c r="C15" s="108" t="str">
+      <c r="B15" s="106">
+        <v>43472</v>
+      </c>
+      <c r="C15" s="106" t="str">
         <f t="shared" si="1"/>
-        <v>Thứ 7</v>
+        <v>Thứ 2</v>
       </c>
       <c r="D15" s="75">
         <v>4.1666666666666664E-2</v>
@@ -3643,8 +3661,8 @@
       <c r="A16" s="86" t="s">
         <v>360</v>
       </c>
-      <c r="B16" s="109"/>
-      <c r="C16" s="109"/>
+      <c r="B16" s="107"/>
+      <c r="C16" s="107"/>
       <c r="D16" s="75">
         <v>4.1666666666666664E-2</v>
       </c>
@@ -3655,7 +3673,7 @@
         <v>372</v>
       </c>
       <c r="H16" s="56" t="s">
-        <v>557</v>
+        <v>553</v>
       </c>
       <c r="I16" s="56"/>
       <c r="J16" s="56"/>
@@ -3680,8 +3698,8 @@
       <c r="A17" s="86" t="s">
         <v>361</v>
       </c>
-      <c r="B17" s="109"/>
-      <c r="C17" s="109"/>
+      <c r="B17" s="107"/>
+      <c r="C17" s="107"/>
       <c r="D17" s="75">
         <v>4.1666666666666664E-2</v>
       </c>
@@ -3689,7 +3707,7 @@
         <v>395</v>
       </c>
       <c r="G17" s="56" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="H17" s="56"/>
       <c r="I17" s="56"/>
@@ -3729,7 +3747,7 @@
         <v>395</v>
       </c>
       <c r="G18" s="56" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="H18" s="56"/>
       <c r="I18" s="56"/>
@@ -3769,7 +3787,7 @@
         <v>395</v>
       </c>
       <c r="G19" s="56" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="H19" s="56"/>
       <c r="I19" s="56"/>
@@ -3795,11 +3813,11 @@
       <c r="A20" s="98" t="s">
         <v>373</v>
       </c>
-      <c r="B20" s="108">
+      <c r="B20" s="106">
         <f>B19+1</f>
         <v>43473</v>
       </c>
-      <c r="C20" s="108" t="str">
+      <c r="C20" s="106" t="str">
         <f t="shared" si="2"/>
         <v>Thứ 3</v>
       </c>
@@ -3808,7 +3826,7 @@
       </c>
       <c r="E20" s="76"/>
       <c r="G20" s="56" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="H20" s="56"/>
       <c r="I20" s="56"/>
@@ -3834,14 +3852,14 @@
       <c r="A21" s="98" t="s">
         <v>362</v>
       </c>
-      <c r="B21" s="109"/>
-      <c r="C21" s="109"/>
+      <c r="B21" s="107"/>
+      <c r="C21" s="107"/>
       <c r="D21" s="75">
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="E21" s="76"/>
       <c r="G21" s="56" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="H21" s="56"/>
       <c r="I21" s="56"/>
@@ -3867,17 +3885,17 @@
       <c r="A22" s="98" t="s">
         <v>363</v>
       </c>
-      <c r="B22" s="109"/>
-      <c r="C22" s="109"/>
+      <c r="B22" s="107"/>
+      <c r="C22" s="107"/>
       <c r="D22" s="75">
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="E22" s="76"/>
       <c r="G22" s="56" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="H22" s="56" t="s">
-        <v>557</v>
+        <v>553</v>
       </c>
       <c r="I22" s="56"/>
       <c r="J22" s="56"/>
@@ -3916,7 +3934,7 @@
       <c r="E23" s="101"/>
       <c r="F23" s="105"/>
       <c r="G23" s="56" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="H23" s="56"/>
       <c r="I23" s="56"/>
@@ -3955,10 +3973,10 @@
       </c>
       <c r="E24" s="76"/>
       <c r="F24" s="60" t="s">
-        <v>585</v>
+        <v>581</v>
       </c>
       <c r="G24" s="56" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="H24" s="56"/>
       <c r="I24" s="56"/>
@@ -3984,11 +4002,11 @@
       <c r="A25" s="86" t="s">
         <v>374</v>
       </c>
-      <c r="B25" s="108">
+      <c r="B25" s="106">
         <f>B24+1</f>
         <v>43475</v>
       </c>
-      <c r="C25" s="108" t="str">
+      <c r="C25" s="106" t="str">
         <f t="shared" si="3"/>
         <v>Thứ 5</v>
       </c>
@@ -3999,10 +4017,10 @@
         <v>395</v>
       </c>
       <c r="F25" s="105" t="s">
-        <v>586</v>
+        <v>582</v>
       </c>
       <c r="G25" s="56" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="H25" s="56"/>
       <c r="I25" s="56"/>
@@ -4028,17 +4046,17 @@
       <c r="A26" s="86" t="s">
         <v>364</v>
       </c>
-      <c r="B26" s="109"/>
-      <c r="C26" s="109"/>
+      <c r="B26" s="107"/>
+      <c r="C26" s="107"/>
       <c r="D26" s="75">
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="E26" s="76"/>
       <c r="F26" s="60" t="s">
-        <v>585</v>
+        <v>581</v>
       </c>
       <c r="G26" s="56" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="H26" s="56"/>
       <c r="I26" s="56"/>
@@ -4064,8 +4082,8 @@
       <c r="A27" s="102" t="s">
         <v>365</v>
       </c>
-      <c r="B27" s="109"/>
-      <c r="C27" s="109"/>
+      <c r="B27" s="107"/>
+      <c r="C27" s="107"/>
       <c r="D27" s="103">
         <v>4.1666666666666664E-2</v>
       </c>
@@ -4073,7 +4091,7 @@
         <v>395</v>
       </c>
       <c r="G27" s="56" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="H27" s="56"/>
       <c r="I27" s="56"/>
@@ -4112,7 +4130,7 @@
       </c>
       <c r="E28" s="71"/>
       <c r="G28" s="56" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="H28" s="56"/>
       <c r="I28" s="56"/>
@@ -4151,7 +4169,7 @@
       </c>
       <c r="E29" s="71"/>
       <c r="G29" s="56" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="H29" s="56"/>
       <c r="I29" s="56"/>
@@ -4190,7 +4208,7 @@
       </c>
       <c r="E30" s="101"/>
       <c r="G30" s="56" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="H30" s="56"/>
       <c r="I30" s="56"/>
@@ -4229,7 +4247,7 @@
       </c>
       <c r="E31" s="101"/>
       <c r="G31" s="56" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="H31" s="56"/>
       <c r="I31" s="56"/>
@@ -4255,11 +4273,11 @@
       <c r="A32" s="72" t="s">
         <v>367</v>
       </c>
-      <c r="B32" s="106">
+      <c r="B32" s="108">
         <f>B31+1</f>
         <v>43478</v>
       </c>
-      <c r="C32" s="106" t="str">
+      <c r="C32" s="108" t="str">
         <f t="shared" si="4"/>
         <v>Chủ nhật</v>
       </c>
@@ -4268,7 +4286,7 @@
       </c>
       <c r="E32" s="71"/>
       <c r="G32" s="56" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="H32" s="56"/>
       <c r="I32" s="56"/>
@@ -4294,14 +4312,14 @@
       <c r="A33" s="72" t="s">
         <v>404</v>
       </c>
-      <c r="B33" s="107"/>
-      <c r="C33" s="107"/>
+      <c r="B33" s="109"/>
+      <c r="C33" s="109"/>
       <c r="D33" s="69">
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="E33" s="71"/>
       <c r="G33" s="56" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="H33" s="56"/>
       <c r="I33" s="56"/>
@@ -4327,17 +4345,17 @@
       <c r="A34" s="72" t="s">
         <v>405</v>
       </c>
-      <c r="B34" s="107"/>
-      <c r="C34" s="107"/>
+      <c r="B34" s="109"/>
+      <c r="C34" s="109"/>
       <c r="D34" s="69">
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="E34" s="71"/>
       <c r="G34" s="56" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="H34" s="56" t="s">
-        <v>557</v>
+        <v>553</v>
       </c>
       <c r="I34" s="56"/>
       <c r="J34" s="56"/>
@@ -4375,7 +4393,7 @@
       </c>
       <c r="E35" s="71"/>
       <c r="G35" s="56" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="H35" s="56"/>
       <c r="I35" s="56"/>
@@ -4414,7 +4432,7 @@
       </c>
       <c r="E36" s="71"/>
       <c r="G36" s="56" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="H36" s="56"/>
       <c r="I36" s="56"/>
@@ -4440,11 +4458,11 @@
       <c r="A37" s="72" t="s">
         <v>369</v>
       </c>
-      <c r="B37" s="106">
+      <c r="B37" s="108">
         <f>B36+1</f>
         <v>43480</v>
       </c>
-      <c r="C37" s="106" t="str">
+      <c r="C37" s="108" t="str">
         <f t="shared" si="6"/>
         <v>Thứ 3</v>
       </c>
@@ -4453,10 +4471,10 @@
       </c>
       <c r="E37" s="71"/>
       <c r="G37" s="56" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="H37" s="56" t="s">
-        <v>557</v>
+        <v>553</v>
       </c>
       <c r="I37" s="56"/>
       <c r="J37" s="56"/>
@@ -4481,8 +4499,8 @@
       <c r="A38" s="72" t="s">
         <v>406</v>
       </c>
-      <c r="B38" s="107"/>
-      <c r="C38" s="107"/>
+      <c r="B38" s="109"/>
+      <c r="C38" s="109"/>
       <c r="D38" s="69">
         <v>4.1666666666666664E-2</v>
       </c>
@@ -4510,8 +4528,8 @@
       <c r="A39" s="72" t="s">
         <v>407</v>
       </c>
-      <c r="B39" s="107"/>
-      <c r="C39" s="107"/>
+      <c r="B39" s="109"/>
+      <c r="C39" s="109"/>
       <c r="D39" s="69">
         <v>4.1666666666666664E-2</v>
       </c>
@@ -4609,11 +4627,11 @@
       <c r="A42" s="72" t="s">
         <v>371</v>
       </c>
-      <c r="B42" s="106">
+      <c r="B42" s="108">
         <f>B36+3</f>
         <v>43482</v>
       </c>
-      <c r="C42" s="106" t="str">
+      <c r="C42" s="108" t="str">
         <f t="shared" si="7"/>
         <v>Thứ 5</v>
       </c>
@@ -4644,8 +4662,8 @@
       <c r="A43" s="72" t="s">
         <v>408</v>
       </c>
-      <c r="B43" s="107"/>
-      <c r="C43" s="107"/>
+      <c r="B43" s="109"/>
+      <c r="C43" s="109"/>
       <c r="D43" s="69">
         <v>4.1666666666666664E-2</v>
       </c>
@@ -4673,8 +4691,8 @@
       <c r="A44" s="72" t="s">
         <v>409</v>
       </c>
-      <c r="B44" s="107"/>
-      <c r="C44" s="107"/>
+      <c r="B44" s="109"/>
+      <c r="C44" s="109"/>
       <c r="D44" s="69">
         <v>4.1666666666666664E-2</v>
       </c>
@@ -32729,18 +32747,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="B42:B44"/>
+    <mergeCell ref="C42:C44"/>
+    <mergeCell ref="B32:B34"/>
+    <mergeCell ref="C32:C34"/>
+    <mergeCell ref="B37:B39"/>
+    <mergeCell ref="C37:C39"/>
     <mergeCell ref="B20:B22"/>
     <mergeCell ref="C20:C22"/>
     <mergeCell ref="B25:B27"/>
     <mergeCell ref="C25:C27"/>
     <mergeCell ref="B15:B17"/>
     <mergeCell ref="C15:C17"/>
-    <mergeCell ref="B42:B44"/>
-    <mergeCell ref="C42:C44"/>
-    <mergeCell ref="B32:B34"/>
-    <mergeCell ref="C32:C34"/>
-    <mergeCell ref="B37:B39"/>
-    <mergeCell ref="C37:C39"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E66" xr:uid="{D8B43D4D-3767-4D7F-B59B-D7BBE30CC025}">
@@ -32762,6 +32780,7 @@
     <hyperlink ref="G5" location="Resource!A1" display="Resource" xr:uid="{7C1177CA-71E5-4A5F-A393-A901227ACEBE}"/>
     <hyperlink ref="G6" location="quality!A1" display="Quality" xr:uid="{1FF67158-07EF-48CF-8D69-701F2701965D}"/>
     <hyperlink ref="A27" location="'Closing 4'!A1" display="Closing 4 - 10" xr:uid="{67EA7C0F-83D6-44C7-BCCC-00B7DE7F9ED3}"/>
+    <hyperlink ref="A13" location="'monitoring 3'!A1" display="Monitoring 3 - 50" xr:uid="{D5C6BEDF-E844-4D1C-95FB-5613D5A6C40C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -33193,7 +33212,7 @@
       <c r="C2" s="27"/>
       <c r="D2" s="27"/>
       <c r="E2" s="27" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -33204,7 +33223,7 @@
       <c r="C3" s="27"/>
       <c r="D3" s="27"/>
       <c r="E3" s="27" t="s">
-        <v>556</v>
+        <v>552</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -33217,7 +33236,7 @@
       </c>
       <c r="D4" s="27"/>
       <c r="E4" s="27" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -33239,7 +33258,7 @@
       </c>
       <c r="D6" s="27"/>
       <c r="E6" s="4" t="s">
-        <v>558</v>
+        <v>554</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -33413,7 +33432,7 @@
         <v>4</v>
       </c>
       <c r="D10" s="27" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
       <c r="E10" s="27"/>
     </row>
@@ -33498,7 +33517,7 @@
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="3" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -36755,10 +36774,10 @@
       </c>
       <c r="D2" s="81"/>
       <c r="E2" s="84" t="s">
-        <v>588</v>
+        <v>584</v>
       </c>
       <c r="F2" s="77" t="s">
-        <v>589</v>
+        <v>585</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="90">
@@ -36769,10 +36788,10 @@
       <c r="C3" s="81"/>
       <c r="D3" s="81"/>
       <c r="E3" s="84" t="s">
-        <v>590</v>
+        <v>586</v>
       </c>
       <c r="F3" s="77" t="s">
-        <v>591</v>
+        <v>587</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="30">
@@ -36784,13 +36803,13 @@
         <v>4</v>
       </c>
       <c r="D4" s="81" t="s">
-        <v>592</v>
+        <v>588</v>
       </c>
       <c r="E4" s="84" t="s">
-        <v>593</v>
+        <v>589</v>
       </c>
       <c r="F4" s="87" t="s">
-        <v>589</v>
+        <v>585</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -36812,10 +36831,10 @@
       </c>
       <c r="D6" s="81"/>
       <c r="E6" s="84" t="s">
-        <v>594</v>
+        <v>590</v>
       </c>
       <c r="F6" s="93" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -36827,7 +36846,7 @@
       <c r="D7" s="81"/>
       <c r="E7" s="84"/>
       <c r="F7" s="93" t="s">
-        <v>595</v>
+        <v>591</v>
       </c>
       <c r="G7" s="87"/>
     </row>
@@ -36841,7 +36860,7 @@
       </c>
       <c r="D8" s="81"/>
       <c r="E8" s="84" t="s">
-        <v>596</v>
+        <v>592</v>
       </c>
       <c r="F8" s="93"/>
     </row>
@@ -36854,10 +36873,10 @@
         <v>4</v>
       </c>
       <c r="D9" s="81" t="s">
-        <v>597</v>
+        <v>593</v>
       </c>
       <c r="E9" s="84" t="s">
-        <v>598</v>
+        <v>594</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -39073,6 +39092,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="B6:K6"/>
+    <mergeCell ref="B1:K1"/>
+    <mergeCell ref="B2:K2"/>
+    <mergeCell ref="B3:K3"/>
+    <mergeCell ref="B4:K4"/>
+    <mergeCell ref="B5:K5"/>
     <mergeCell ref="B13:K13"/>
     <mergeCell ref="B7:K7"/>
     <mergeCell ref="B8:K8"/>
@@ -39080,12 +39105,6 @@
     <mergeCell ref="B10:K10"/>
     <mergeCell ref="B11:K11"/>
     <mergeCell ref="B12:K12"/>
-    <mergeCell ref="B6:K6"/>
-    <mergeCell ref="B1:K1"/>
-    <mergeCell ref="B2:K2"/>
-    <mergeCell ref="B3:K3"/>
-    <mergeCell ref="B4:K4"/>
-    <mergeCell ref="B5:K5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -39899,7 +39918,7 @@
       <c r="C2" s="27"/>
       <c r="D2" s="27"/>
       <c r="E2" s="27" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -39920,10 +39939,10 @@
         <v>4</v>
       </c>
       <c r="D4" s="27" t="s">
-        <v>583</v>
+        <v>579</v>
       </c>
       <c r="E4" s="27" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -39934,7 +39953,7 @@
       <c r="C5" s="27"/>
       <c r="D5" s="27"/>
       <c r="E5" s="27" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="45">
@@ -39947,7 +39966,7 @@
       </c>
       <c r="D6" s="27"/>
       <c r="E6" s="4" t="s">
-        <v>580</v>
+        <v>576</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -39960,7 +39979,7 @@
       </c>
       <c r="D7" s="27"/>
       <c r="E7" s="27" t="s">
-        <v>579</v>
+        <v>575</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="30">
@@ -39971,7 +39990,7 @@
       <c r="C8" s="27"/>
       <c r="D8" s="4"/>
       <c r="E8" s="4" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -39982,7 +40001,7 @@
       <c r="C9" s="27"/>
       <c r="D9" s="27"/>
       <c r="E9" s="27" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -39995,10 +40014,10 @@
       </c>
       <c r="D10" s="27"/>
       <c r="E10" s="27" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
       <c r="F10" s="77" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -40008,7 +40027,7 @@
       <c r="B11" s="27"/>
       <c r="C11" s="27"/>
       <c r="D11" s="27" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
       <c r="E11" s="27"/>
     </row>
@@ -40099,7 +40118,7 @@
       <c r="C2" s="27"/>
       <c r="D2" s="27"/>
       <c r="E2" s="27" t="s">
-        <v>569</v>
+        <v>565</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -40110,7 +40129,7 @@
       <c r="C3" s="27"/>
       <c r="D3" s="27"/>
       <c r="E3" s="27" t="s">
-        <v>570</v>
+        <v>566</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -40168,7 +40187,7 @@
       </c>
       <c r="D9" s="27"/>
       <c r="E9" s="27" t="s">
-        <v>571</v>
+        <v>567</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -40181,7 +40200,7 @@
       </c>
       <c r="D10" s="27"/>
       <c r="E10" s="27" t="s">
-        <v>572</v>
+        <v>568</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -40194,7 +40213,7 @@
       </c>
       <c r="D11" s="27"/>
       <c r="E11" s="27" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
     </row>
   </sheetData>
@@ -40252,7 +40271,7 @@
       </c>
       <c r="D2" s="27"/>
       <c r="E2" s="27" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -40265,7 +40284,7 @@
       </c>
       <c r="D3" s="27"/>
       <c r="E3" s="27" t="s">
-        <v>560</v>
+        <v>556</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -40278,7 +40297,7 @@
       </c>
       <c r="D4" s="27"/>
       <c r="E4" s="27" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -40291,7 +40310,7 @@
       </c>
       <c r="D5" s="27"/>
       <c r="E5" s="27" t="s">
-        <v>562</v>
+        <v>558</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="45">
@@ -40304,10 +40323,10 @@
       </c>
       <c r="D6" s="27"/>
       <c r="E6" s="4" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="F6" s="77" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -40320,10 +40339,10 @@
       </c>
       <c r="D7" s="27"/>
       <c r="E7" s="27" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
       <c r="F7" s="77" t="s">
-        <v>565</v>
+        <v>561</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="120">
@@ -40336,7 +40355,7 @@
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="4" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -40365,7 +40384,7 @@
       <c r="C11" s="27"/>
       <c r="D11" s="27"/>
       <c r="E11" s="27" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
     </row>
   </sheetData>
@@ -40428,7 +40447,7 @@
       <c r="D2" s="81"/>
       <c r="E2" s="84"/>
       <c r="F2" s="77" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="45">
@@ -40441,10 +40460,10 @@
       </c>
       <c r="D3" s="81"/>
       <c r="E3" s="84" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="F3" s="77" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -40454,11 +40473,11 @@
       <c r="B4" s="81"/>
       <c r="C4" s="81"/>
       <c r="D4" s="81" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="E4" s="84"/>
       <c r="F4" s="77" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -40470,7 +40489,7 @@
       <c r="D5" s="81"/>
       <c r="E5" s="84"/>
       <c r="F5" s="77" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -40481,10 +40500,10 @@
       <c r="C6" s="81"/>
       <c r="D6" s="81"/>
       <c r="E6" s="84" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="F6" s="77" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -40496,7 +40515,7 @@
       <c r="D7" s="81"/>
       <c r="E7" s="84"/>
       <c r="F7" s="77" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="G7" s="87"/>
     </row>
@@ -40509,7 +40528,7 @@
       <c r="D8" s="81"/>
       <c r="E8" s="84"/>
       <c r="F8" s="93" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -40530,11 +40549,11 @@
         <v>4</v>
       </c>
       <c r="D10" s="81" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="E10" s="84"/>
       <c r="F10" s="93" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="G10" s="87"/>
     </row>
@@ -40547,7 +40566,7 @@
       <c r="D11" s="81"/>
       <c r="E11" s="84"/>
       <c r="F11" s="93" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -40559,13 +40578,13 @@
         <v>4</v>
       </c>
       <c r="D12" s="81" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="E12" s="84" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="F12" s="87" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -40579,7 +40598,7 @@
       <c r="D13" s="81"/>
       <c r="E13" s="84"/>
       <c r="F13" s="93" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -40591,7 +40610,7 @@
         <v>4</v>
       </c>
       <c r="D14" s="80" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="E14" s="84"/>
     </row>
@@ -40606,7 +40625,7 @@
       <c r="D15" s="81"/>
       <c r="E15" s="84"/>
       <c r="F15" s="93" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -40620,7 +40639,7 @@
       <c r="D16" s="81"/>
       <c r="E16" s="84"/>
       <c r="F16" s="93" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -40633,7 +40652,7 @@
       </c>
       <c r="D17" s="81"/>
       <c r="E17" s="84" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -40646,10 +40665,10 @@
       </c>
       <c r="D18" s="81"/>
       <c r="E18" s="84" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="F18" s="77" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -40661,7 +40680,7 @@
       <c r="D19" s="81"/>
       <c r="E19" s="84"/>
       <c r="F19" s="94" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -40673,7 +40692,7 @@
       <c r="D20" s="81"/>
       <c r="E20" s="84"/>
       <c r="F20" s="77" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -40685,11 +40704,11 @@
         <v>4</v>
       </c>
       <c r="D21" s="81" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="E21" s="84"/>
       <c r="F21" s="77" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -40703,7 +40722,7 @@
       <c r="D22" s="81"/>
       <c r="E22" s="84"/>
       <c r="F22" s="77" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="30">
@@ -40714,10 +40733,10 @@
       <c r="C23" s="81"/>
       <c r="D23" s="81"/>
       <c r="E23" s="84" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
       <c r="F23" s="77" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -40729,7 +40748,7 @@
       <c r="D24" s="81"/>
       <c r="E24" s="84"/>
       <c r="F24" s="77" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -41038,7 +41057,7 @@
       </c>
       <c r="D2" s="81"/>
       <c r="E2" s="84" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -41060,7 +41079,7 @@
       </c>
       <c r="D4" s="81"/>
       <c r="E4" s="84" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -41091,7 +41110,7 @@
       <c r="C7" s="81"/>
       <c r="D7" s="81"/>
       <c r="E7" s="84" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="G7" s="87"/>
     </row>
@@ -41103,7 +41122,7 @@
       <c r="C8" s="81"/>
       <c r="D8" s="81"/>
       <c r="E8" s="84" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="30">
@@ -41115,10 +41134,10 @@
         <v>4</v>
       </c>
       <c r="D9" s="81" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="E9" s="84" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -41129,7 +41148,7 @@
       <c r="C10" s="81"/>
       <c r="D10" s="81"/>
       <c r="E10" s="84" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="G10" s="87"/>
     </row>
@@ -41224,7 +41243,7 @@
       </c>
       <c r="D20" s="81"/>
       <c r="E20" s="84" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -41237,7 +41256,7 @@
       </c>
       <c r="D21" s="81"/>
       <c r="E21" s="84" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -41250,7 +41269,7 @@
       </c>
       <c r="D22" s="81"/>
       <c r="E22" s="84" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -41289,7 +41308,7 @@
         <v>4</v>
       </c>
       <c r="D26" s="81" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="E26" s="84"/>
     </row>
@@ -41311,10 +41330,10 @@
         <v>4</v>
       </c>
       <c r="D28" s="81" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="E28" s="84" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -41336,7 +41355,7 @@
       </c>
       <c r="D30" s="81"/>
       <c r="E30" s="84" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -41348,10 +41367,10 @@
         <v>4</v>
       </c>
       <c r="D31" s="81" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="E31" s="84" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -41374,10 +41393,10 @@
         <v>4</v>
       </c>
       <c r="D33" s="81" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="E33" s="84" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -41417,7 +41436,7 @@
       </c>
       <c r="D37" s="81"/>
       <c r="E37" s="84" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -41430,7 +41449,7 @@
       </c>
       <c r="D38" s="81"/>
       <c r="E38" s="84" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -41467,7 +41486,7 @@
       <c r="B42" s="81"/>
       <c r="C42" s="81"/>
       <c r="D42" s="81" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="E42" s="84"/>
     </row>
@@ -41498,10 +41517,10 @@
         <v>4</v>
       </c>
       <c r="D45" s="81" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="E45" s="84" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
     </row>
     <row r="46" spans="1:5" ht="30">
@@ -41514,7 +41533,7 @@
       </c>
       <c r="D46" s="81"/>
       <c r="E46" s="84" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
     </row>
     <row r="47" spans="1:5" ht="105">
@@ -41526,10 +41545,10 @@
         <v>4</v>
       </c>
       <c r="D47" s="81" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="E47" s="84" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -41540,7 +41559,7 @@
       <c r="C48" s="81"/>
       <c r="D48" s="81"/>
       <c r="E48" s="84" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -41562,7 +41581,7 @@
       </c>
       <c r="D50" s="81"/>
       <c r="E50" s="84" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
     </row>
     <row r="51" spans="1:5" ht="75">
@@ -41573,7 +41592,7 @@
       <c r="C51" s="81"/>
       <c r="D51" s="81"/>
       <c r="E51" s="84" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
     </row>
   </sheetData>
@@ -41638,7 +41657,7 @@
       </c>
       <c r="D2" s="81"/>
       <c r="E2" s="84" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="F2" s="85"/>
     </row>
@@ -41722,14 +41741,14 @@
         <v>60</v>
       </c>
       <c r="D10" s="81" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="E10" s="84" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="F10" s="85"/>
       <c r="G10" s="87" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -41751,10 +41770,10 @@
         <v>4</v>
       </c>
       <c r="D12" s="81" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="E12" s="84" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="F12" s="85"/>
     </row>
@@ -41798,11 +41817,11 @@
       </c>
       <c r="D16" s="81"/>
       <c r="E16" s="84" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="F16" s="85"/>
       <c r="G16" s="77" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -41865,7 +41884,7 @@
       </c>
       <c r="D22" s="81"/>
       <c r="E22" s="84" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="F22" s="85"/>
     </row>
@@ -41889,7 +41908,7 @@
       </c>
       <c r="D24" s="81"/>
       <c r="E24" s="84" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="F24" s="85"/>
     </row>
@@ -41985,7 +42004,7 @@
       </c>
       <c r="D33" s="81"/>
       <c r="E33" s="84" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="F33" s="85"/>
     </row>
@@ -42039,7 +42058,7 @@
       </c>
       <c r="D38" s="81"/>
       <c r="E38" s="84" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="F38" s="85"/>
     </row>
@@ -42163,7 +42182,7 @@
       </c>
       <c r="D50" s="81"/>
       <c r="E50" s="84" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="F50" s="85"/>
     </row>
@@ -42195,10 +42214,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{453BF44A-91AF-4F6D-AE5E-E58F57961686}">
-  <dimension ref="A1:G51"/>
+  <dimension ref="A1:H51"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -42210,7 +42229,7 @@
     <col min="6" max="6" width="79" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="25.5">
+    <row r="1" spans="1:8" ht="25.5">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -42230,7 +42249,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="30">
+    <row r="2" spans="1:8" ht="30">
       <c r="A2" s="8">
         <v>1</v>
       </c>
@@ -42241,8 +42260,11 @@
         <v>427</v>
       </c>
       <c r="F2" s="28"/>
-    </row>
-    <row r="3" spans="1:7">
+      <c r="G2" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="8">
         <v>2</v>
       </c>
@@ -42251,8 +42273,11 @@
       <c r="D3" s="8"/>
       <c r="E3" s="15"/>
       <c r="F3" s="28"/>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="G3" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="8">
         <v>3</v>
       </c>
@@ -42262,7 +42287,7 @@
       <c r="E4" s="15"/>
       <c r="F4" s="28"/>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:8">
       <c r="A5" s="8">
         <v>4</v>
       </c>
@@ -42272,7 +42297,7 @@
       <c r="E5" s="15"/>
       <c r="F5" s="28"/>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:8">
       <c r="A6" s="8">
         <v>5</v>
       </c>
@@ -42282,7 +42307,7 @@
       <c r="E6" s="15"/>
       <c r="F6" s="28"/>
     </row>
-    <row r="7" spans="1:7" ht="75">
+    <row r="7" spans="1:8" ht="75">
       <c r="A7" s="8">
         <v>6</v>
       </c>
@@ -42301,7 +42326,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="45">
+    <row r="8" spans="1:8" ht="45">
       <c r="A8" s="8">
         <v>7</v>
       </c>
@@ -42317,7 +42342,7 @@
       </c>
       <c r="F8" s="28"/>
     </row>
-    <row r="9" spans="1:7" ht="30">
+    <row r="9" spans="1:8" ht="30">
       <c r="A9" s="8">
         <v>8</v>
       </c>
@@ -42325,13 +42350,15 @@
       <c r="C9" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="D9" s="8"/>
+      <c r="D9" s="8" t="s">
+        <v>596</v>
+      </c>
       <c r="E9" s="15" t="s">
         <v>433</v>
       </c>
       <c r="F9" s="28"/>
     </row>
-    <row r="10" spans="1:7" ht="75">
+    <row r="10" spans="1:8" ht="75">
       <c r="A10" s="8">
         <v>9</v>
       </c>
@@ -42346,8 +42373,11 @@
         <v>435</v>
       </c>
       <c r="F10" s="28"/>
-    </row>
-    <row r="11" spans="1:7" ht="30">
+      <c r="G10" s="87" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="90">
       <c r="A11" s="8">
         <v>10</v>
       </c>
@@ -42356,14 +42386,17 @@
         <v>4</v>
       </c>
       <c r="D11" s="8" t="s">
+        <v>598</v>
+      </c>
+      <c r="E11" s="15" t="s">
+        <v>599</v>
+      </c>
+      <c r="F11" s="28"/>
+      <c r="H11" s="87" t="s">
         <v>436</v>
       </c>
-      <c r="E11" s="15" t="s">
-        <v>437</v>
-      </c>
-      <c r="F11" s="28"/>
-    </row>
-    <row r="12" spans="1:7">
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="8">
         <v>11</v>
       </c>
@@ -42373,7 +42406,7 @@
       <c r="E12" s="15"/>
       <c r="F12" s="28"/>
     </row>
-    <row r="13" spans="1:7" ht="45">
+    <row r="13" spans="1:8" ht="60">
       <c r="A13" s="8">
         <v>12</v>
       </c>
@@ -42383,45 +42416,52 @@
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="15" t="s">
-        <v>438</v>
+        <v>600</v>
       </c>
       <c r="F13" s="28"/>
       <c r="G13" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="30">
       <c r="A14" s="8">
         <v>13</v>
       </c>
       <c r="B14" s="8"/>
-      <c r="C14" s="8"/>
+      <c r="C14" s="8" t="s">
+        <v>4</v>
+      </c>
       <c r="D14" s="7"/>
-      <c r="E14" s="15"/>
+      <c r="E14" s="15" t="s">
+        <v>602</v>
+      </c>
       <c r="F14" s="28"/>
-    </row>
-    <row r="15" spans="1:7">
+      <c r="G14" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="8">
         <v>14</v>
       </c>
       <c r="B15" s="8"/>
-      <c r="C15" s="81" t="s">
-        <v>4</v>
-      </c>
-      <c r="D15" s="81" t="s">
-        <v>441</v>
-      </c>
+      <c r="C15" s="81"/>
+      <c r="D15" s="81"/>
       <c r="E15" s="15"/>
       <c r="F15" s="28"/>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:8" ht="30">
       <c r="A16" s="8">
         <v>15</v>
       </c>
       <c r="B16" s="8"/>
-      <c r="C16" s="8"/>
+      <c r="C16" s="8" t="s">
+        <v>4</v>
+      </c>
       <c r="D16" s="8"/>
-      <c r="E16" s="15"/>
+      <c r="E16" s="15" t="s">
+        <v>603</v>
+      </c>
       <c r="F16" s="28"/>
     </row>
     <row r="17" spans="1:6">
@@ -42624,7 +42664,7 @@
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="15" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="F36" s="28"/>
     </row>
@@ -42658,7 +42698,7 @@
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="15" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="F39" s="28"/>
     </row>
@@ -42740,7 +42780,7 @@
       <c r="C47" s="8"/>
       <c r="D47" s="8"/>
       <c r="E47" s="15" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="F47" s="28"/>
     </row>
@@ -42751,7 +42791,7 @@
       <c r="B48" s="8"/>
       <c r="C48" s="8"/>
       <c r="D48" s="8" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="E48" s="15"/>
       <c r="F48" s="28"/>
@@ -42766,7 +42806,7 @@
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="15" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="F49" s="28"/>
     </row>
@@ -42790,7 +42830,7 @@
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="15" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="F51" s="28"/>
     </row>
